--- a/name/vnindex/20221209/VNINDEX_HOSE_5p_20221209.xlsx
+++ b/name/vnindex/20221209/VNINDEX_HOSE_5p_20221209.xlsx
@@ -397,7 +397,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:P53"/>
+  <dimension ref="A1:P122"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -504,7 +504,7 @@
     </row>
     <row r="3">
       <c r="A3">
-        <v>1670576700000</v>
+        <v>1670576880000</v>
       </c>
       <c r="B3">
         <v>2000</v>
@@ -531,7 +531,7 @@
         <v>20200000</v>
       </c>
       <c r="J3" t="str">
-        <v>2022-12-09T09:05:00.000Z</v>
+        <v>2022-12-09T09:08:00.000Z</v>
       </c>
       <c r="K3">
         <v>21210000</v>
@@ -554,7 +554,7 @@
     </row>
     <row r="4">
       <c r="A4">
-        <v>1670577000000</v>
+        <v>1670577120000</v>
       </c>
       <c r="B4">
         <v>0</v>
@@ -581,7 +581,7 @@
         <v>2020000</v>
       </c>
       <c r="J4" t="str">
-        <v>2022-12-09T09:10:00.000Z</v>
+        <v>2022-12-09T09:12:00.000Z</v>
       </c>
       <c r="K4">
         <v>23230000</v>
@@ -604,2457 +604,5907 @@
     </row>
     <row r="5">
       <c r="A5">
-        <v>1670577300000</v>
+        <v>1670577240000</v>
       </c>
       <c r="B5">
-        <v>10737100</v>
+        <v>4457300</v>
       </c>
       <c r="C5">
-        <v>11902000</v>
+        <v>5163900</v>
       </c>
       <c r="D5">
-        <v>18185900</v>
+        <v>18056400</v>
       </c>
       <c r="E5">
-        <v>142375299000</v>
+        <v>52240763000</v>
       </c>
       <c r="F5">
-        <v>189266629000</v>
+        <v>81990356000</v>
       </c>
       <c r="G5">
-        <v>270367023999.99997</v>
+        <v>267869223999.99997</v>
       </c>
       <c r="H5">
-        <v>40825000</v>
+        <v>27677600</v>
       </c>
       <c r="I5">
-        <v>602008952000</v>
+        <v>402100343000</v>
       </c>
       <c r="J5" t="str">
-        <v>2022-12-09T09:15:00.000Z</v>
+        <v>2022-12-09T09:14:00.000Z</v>
       </c>
       <c r="K5">
-        <v>602032182000</v>
+        <v>402123573000</v>
       </c>
       <c r="L5">
-        <v>40827300</v>
+        <v>27679900</v>
       </c>
       <c r="M5">
-        <v>1164900</v>
+        <v>706600</v>
       </c>
       <c r="N5">
-        <v>46891330000</v>
+        <v>29749593000</v>
       </c>
       <c r="O5">
-        <v>1163000</v>
+        <v>704700</v>
       </c>
       <c r="P5">
-        <v>46872140000</v>
+        <v>29730403000</v>
       </c>
     </row>
     <row r="6">
       <c r="A6">
-        <v>1670577600000</v>
+        <v>1670577360000</v>
       </c>
       <c r="B6">
-        <v>9690300</v>
+        <v>3453500</v>
       </c>
       <c r="C6">
-        <v>5200500</v>
+        <v>3949300</v>
       </c>
       <c r="D6">
-        <v>122600</v>
+        <v>74800</v>
       </c>
       <c r="E6">
-        <v>145266522000</v>
+        <v>45391564000</v>
       </c>
       <c r="F6">
-        <v>84015100000</v>
+        <v>60354986000</v>
       </c>
       <c r="G6">
-        <v>1685583000</v>
+        <v>1326145000</v>
       </c>
       <c r="H6">
-        <v>15013400</v>
+        <v>7477600</v>
       </c>
       <c r="I6">
-        <v>230967205000</v>
+        <v>107072695000</v>
       </c>
       <c r="J6" t="str">
-        <v>2022-12-09T09:20:00.000Z</v>
+        <v>2022-12-09T09:16:00.000Z</v>
       </c>
       <c r="K6">
-        <v>832999387000</v>
+        <v>509196268000</v>
       </c>
       <c r="L6">
-        <v>55840700</v>
+        <v>35157500</v>
       </c>
       <c r="M6">
-        <v>-4489800</v>
+        <v>495800</v>
       </c>
       <c r="N6">
-        <v>-61251422000</v>
+        <v>14963422000</v>
       </c>
       <c r="O6">
-        <v>-3326800</v>
+        <v>1200500</v>
       </c>
       <c r="P6">
-        <v>-14379282000</v>
+        <v>44693825000</v>
       </c>
     </row>
     <row r="7">
       <c r="A7">
-        <v>1670577900000</v>
+        <v>1670577480000</v>
       </c>
       <c r="B7">
-        <v>5856100</v>
+        <v>2826300</v>
       </c>
       <c r="C7">
-        <v>6717400</v>
+        <v>2788800</v>
       </c>
       <c r="D7">
-        <v>105500</v>
+        <v>54700</v>
       </c>
       <c r="E7">
-        <v>89512449000</v>
+        <v>44742972000</v>
       </c>
       <c r="F7">
-        <v>114756702000</v>
+        <v>46921287000</v>
       </c>
       <c r="G7">
-        <v>1542605000</v>
+        <v>1171655000</v>
       </c>
       <c r="H7">
-        <v>12679000</v>
+        <v>5669800</v>
       </c>
       <c r="I7">
-        <v>205811756000</v>
+        <v>92835914000</v>
       </c>
       <c r="J7" t="str">
-        <v>2022-12-09T09:25:00.000Z</v>
+        <v>2022-12-09T09:18:00.000Z</v>
       </c>
       <c r="K7">
-        <v>1038811143000</v>
+        <v>602032182000</v>
       </c>
       <c r="L7">
-        <v>68519700</v>
+        <v>40827300</v>
       </c>
       <c r="M7">
-        <v>861300</v>
+        <v>-37500</v>
       </c>
       <c r="N7">
-        <v>25244253000</v>
+        <v>2178315000</v>
       </c>
       <c r="O7">
-        <v>-2465500</v>
+        <v>1163000</v>
       </c>
       <c r="P7">
-        <v>10864971000</v>
+        <v>46872140000</v>
       </c>
     </row>
     <row r="8">
       <c r="A8">
-        <v>1670578200000</v>
+        <v>1670577600000</v>
       </c>
       <c r="B8">
-        <v>6798800</v>
+        <v>3628600</v>
       </c>
       <c r="C8">
-        <v>4456100</v>
+        <v>2360900</v>
       </c>
       <c r="D8">
-        <v>130700</v>
+        <v>30400</v>
       </c>
       <c r="E8">
-        <v>102617563000</v>
+        <v>54518774000</v>
       </c>
       <c r="F8">
-        <v>76377232000</v>
+        <v>38962089000</v>
       </c>
       <c r="G8">
-        <v>1583814000</v>
+        <v>426710000</v>
       </c>
       <c r="H8">
-        <v>11385600</v>
+        <v>6019900</v>
       </c>
       <c r="I8">
-        <v>180578609000</v>
+        <v>93907573000</v>
       </c>
       <c r="J8" t="str">
-        <v>2022-12-09T09:30:00.000Z</v>
+        <v>2022-12-09T09:20:00.000Z</v>
       </c>
       <c r="K8">
-        <v>1219389752000</v>
+        <v>695939755000</v>
       </c>
       <c r="L8">
-        <v>79905300</v>
+        <v>46847200</v>
       </c>
       <c r="M8">
-        <v>-2342700</v>
+        <v>-1267700</v>
       </c>
       <c r="N8">
-        <v>-26240331000</v>
+        <v>-15556685000</v>
       </c>
       <c r="O8">
-        <v>-4808200</v>
+        <v>-104700</v>
       </c>
       <c r="P8">
-        <v>-15375360000</v>
+        <v>31315455000</v>
       </c>
     </row>
     <row r="9">
       <c r="A9">
-        <v>1670578500000</v>
+        <v>1670577720000</v>
       </c>
       <c r="B9">
-        <v>3967600</v>
+        <v>4091700</v>
       </c>
       <c r="C9">
-        <v>7696300</v>
+        <v>2216600</v>
       </c>
       <c r="D9">
-        <v>55400</v>
+        <v>65300</v>
       </c>
       <c r="E9">
-        <v>62521537000</v>
+        <v>61334476000</v>
       </c>
       <c r="F9">
-        <v>128754917000</v>
+        <v>33764219000</v>
       </c>
       <c r="G9">
-        <v>1009832000</v>
+        <v>911616000</v>
       </c>
       <c r="H9">
-        <v>11719300</v>
+        <v>6373600</v>
       </c>
       <c r="I9">
-        <v>192286286000</v>
+        <v>96010311000</v>
       </c>
       <c r="J9" t="str">
-        <v>2022-12-09T09:35:00.000Z</v>
+        <v>2022-12-09T09:22:00.000Z</v>
       </c>
       <c r="K9">
-        <v>1411676038000</v>
+        <v>791950066000</v>
       </c>
       <c r="L9">
-        <v>91624600</v>
+        <v>53220800</v>
       </c>
       <c r="M9">
-        <v>3728700</v>
+        <v>-1875100</v>
       </c>
       <c r="N9">
-        <v>66233380000</v>
+        <v>-27570257000</v>
       </c>
       <c r="O9">
-        <v>-1079500</v>
+        <v>-1979800</v>
       </c>
       <c r="P9">
-        <v>50858020000</v>
+        <v>3745198000</v>
       </c>
     </row>
     <row r="10">
       <c r="A10">
-        <v>1670578800000</v>
+        <v>1670577840000</v>
       </c>
       <c r="B10">
-        <v>5098300</v>
+        <v>3425000</v>
       </c>
       <c r="C10">
-        <v>11412300</v>
+        <v>1738900</v>
       </c>
       <c r="D10">
-        <v>92200</v>
+        <v>38800</v>
       </c>
       <c r="E10">
-        <v>81770075000</v>
+        <v>50299712000</v>
       </c>
       <c r="F10">
-        <v>173563722000</v>
+        <v>31784063000</v>
       </c>
       <c r="G10">
-        <v>1256928000</v>
+        <v>498708000</v>
       </c>
       <c r="H10">
-        <v>16602800</v>
+        <v>5202700</v>
       </c>
       <c r="I10">
-        <v>256590725000</v>
+        <v>82582483000</v>
       </c>
       <c r="J10" t="str">
-        <v>2022-12-09T09:40:00.000Z</v>
+        <v>2022-12-09T09:24:00.000Z</v>
       </c>
       <c r="K10">
-        <v>1668266763000</v>
+        <v>874532549000</v>
       </c>
       <c r="L10">
-        <v>108227400</v>
+        <v>58423500</v>
       </c>
       <c r="M10">
-        <v>6314000</v>
+        <v>-1686100</v>
       </c>
       <c r="N10">
-        <v>91793647000</v>
+        <v>-18515649000</v>
       </c>
       <c r="O10">
-        <v>5234500</v>
+        <v>-3665900</v>
       </c>
       <c r="P10">
-        <v>142651667000</v>
+        <v>-14770451000</v>
       </c>
     </row>
     <row r="11">
       <c r="A11">
-        <v>1670579100000</v>
+        <v>1670577960000</v>
       </c>
       <c r="B11">
-        <v>5312000</v>
+        <v>2255400</v>
       </c>
       <c r="C11">
-        <v>9382700</v>
+        <v>3585400</v>
       </c>
       <c r="D11">
-        <v>109100</v>
+        <v>73600</v>
       </c>
       <c r="E11">
-        <v>70287570000</v>
+        <v>34380099000</v>
       </c>
       <c r="F11">
-        <v>148613538000</v>
+        <v>62902602000</v>
       </c>
       <c r="G11">
-        <v>1172044000</v>
+        <v>1199223000</v>
       </c>
       <c r="H11">
-        <v>14803800</v>
+        <v>5914400</v>
       </c>
       <c r="I11">
-        <v>220073152000</v>
+        <v>98481924000</v>
       </c>
       <c r="J11" t="str">
-        <v>2022-12-09T09:45:00.000Z</v>
+        <v>2022-12-09T09:26:00.000Z</v>
       </c>
       <c r="K11">
-        <v>1888339915000</v>
+        <v>973014473000</v>
       </c>
       <c r="L11">
-        <v>123031200</v>
+        <v>64337900</v>
       </c>
       <c r="M11">
-        <v>4070700</v>
+        <v>1330000</v>
       </c>
       <c r="N11">
-        <v>78325968000</v>
+        <v>28522503000</v>
       </c>
       <c r="O11">
-        <v>9305200</v>
+        <v>-2335900</v>
       </c>
       <c r="P11">
-        <v>220977635000</v>
+        <v>13752052000</v>
       </c>
     </row>
     <row r="12">
       <c r="A12">
-        <v>1670579400000</v>
+        <v>1670578080000</v>
       </c>
       <c r="B12">
-        <v>9985500</v>
+        <v>2145700</v>
       </c>
       <c r="C12">
-        <v>5982700</v>
+        <v>2016100</v>
       </c>
       <c r="D12">
-        <v>38600</v>
+        <v>20000</v>
       </c>
       <c r="E12">
-        <v>123517838000</v>
+        <v>34245910000</v>
       </c>
       <c r="F12">
-        <v>92171921000</v>
+        <v>31358829000</v>
       </c>
       <c r="G12">
-        <v>652792000</v>
+        <v>191931000</v>
       </c>
       <c r="H12">
-        <v>16006800</v>
+        <v>4181800</v>
       </c>
       <c r="I12">
-        <v>216342551000</v>
+        <v>65796670000</v>
       </c>
       <c r="J12" t="str">
-        <v>2022-12-09T09:50:00.000Z</v>
+        <v>2022-12-09T09:28:00.000Z</v>
       </c>
       <c r="K12">
-        <v>2104682466000</v>
+        <v>1038811143000</v>
       </c>
       <c r="L12">
-        <v>139038000</v>
+        <v>68519700</v>
       </c>
       <c r="M12">
-        <v>-4002800</v>
+        <v>-129600</v>
       </c>
       <c r="N12">
-        <v>-31345917000</v>
+        <v>-2887081000</v>
       </c>
       <c r="O12">
-        <v>5302400</v>
+        <v>-2465500</v>
       </c>
       <c r="P12">
-        <v>189631718000</v>
+        <v>10864971000</v>
       </c>
     </row>
     <row r="13">
       <c r="A13">
-        <v>1670579700000</v>
+        <v>1670578200000</v>
       </c>
       <c r="B13">
-        <v>6048500</v>
+        <v>2437700</v>
       </c>
       <c r="C13">
-        <v>3718400</v>
+        <v>1912000</v>
       </c>
       <c r="D13">
-        <v>18300</v>
+        <v>42200</v>
       </c>
       <c r="E13">
-        <v>97116306000</v>
+        <v>36671389000</v>
       </c>
       <c r="F13">
-        <v>64211897000</v>
+        <v>31141752000</v>
       </c>
       <c r="G13">
-        <v>164878000</v>
+        <v>368061000</v>
       </c>
       <c r="H13">
-        <v>9785200</v>
+        <v>4391900</v>
       </c>
       <c r="I13">
-        <v>161493081000</v>
+        <v>68181202000</v>
       </c>
       <c r="J13" t="str">
-        <v>2022-12-09T09:55:00.000Z</v>
+        <v>2022-12-09T09:30:00.000Z</v>
       </c>
       <c r="K13">
-        <v>2266175547000</v>
+        <v>1106992345000</v>
       </c>
       <c r="L13">
-        <v>148823200</v>
+        <v>72911600</v>
       </c>
       <c r="M13">
-        <v>-2330100</v>
+        <v>-525700</v>
       </c>
       <c r="N13">
-        <v>-32904409000</v>
+        <v>-5529637000</v>
       </c>
       <c r="O13">
-        <v>2972300</v>
+        <v>-2991200</v>
       </c>
       <c r="P13">
-        <v>156727309000</v>
+        <v>5335334000</v>
       </c>
     </row>
     <row r="14">
       <c r="A14">
-        <v>1670580000000</v>
+        <v>1670578320000</v>
       </c>
       <c r="B14">
-        <v>18294200</v>
+        <v>2850100</v>
       </c>
       <c r="C14">
-        <v>2586900</v>
+        <v>1696600</v>
       </c>
       <c r="D14">
-        <v>59100</v>
+        <v>62800</v>
       </c>
       <c r="E14">
-        <v>282096341000</v>
+        <v>43800978000</v>
       </c>
       <c r="F14">
-        <v>42270189000</v>
+        <v>30212845000</v>
       </c>
       <c r="G14">
-        <v>1068348000</v>
+        <v>991243000</v>
       </c>
       <c r="H14">
-        <v>20940200</v>
+        <v>4609500</v>
       </c>
       <c r="I14">
-        <v>325434878000</v>
+        <v>75005066000</v>
       </c>
       <c r="J14" t="str">
-        <v>2022-12-09T10:00:00.000Z</v>
+        <v>2022-12-09T09:32:00.000Z</v>
       </c>
       <c r="K14">
-        <v>2591610425000</v>
+        <v>1181997411000</v>
       </c>
       <c r="L14">
-        <v>169763400</v>
+        <v>77521100</v>
       </c>
       <c r="M14">
-        <v>-15707300</v>
+        <v>-1153500</v>
       </c>
       <c r="N14">
-        <v>-239826152000</v>
+        <v>-13588133000</v>
       </c>
       <c r="O14">
-        <v>-12735000</v>
+        <v>-4144700</v>
       </c>
       <c r="P14">
-        <v>-83098843000</v>
+        <v>-8252799000</v>
       </c>
     </row>
     <row r="15">
       <c r="A15">
-        <v>1670580300000</v>
+        <v>1670578440000</v>
       </c>
       <c r="B15">
-        <v>10395500</v>
+        <v>2577800</v>
       </c>
       <c r="C15">
-        <v>3511400</v>
+        <v>1815400</v>
       </c>
       <c r="D15">
-        <v>55900</v>
+        <v>32600</v>
       </c>
       <c r="E15">
-        <v>168496560000</v>
+        <v>37547627000</v>
       </c>
       <c r="F15">
-        <v>55489746000</v>
+        <v>31168556000</v>
       </c>
       <c r="G15">
-        <v>703467000</v>
+        <v>295724000</v>
       </c>
       <c r="H15">
-        <v>13962800</v>
+        <v>4425800</v>
       </c>
       <c r="I15">
-        <v>224689773000</v>
+        <v>69011907000</v>
       </c>
       <c r="J15" t="str">
-        <v>2022-12-09T10:05:00.000Z</v>
+        <v>2022-12-09T09:34:00.000Z</v>
       </c>
       <c r="K15">
-        <v>2816300198000</v>
+        <v>1251009318000</v>
       </c>
       <c r="L15">
-        <v>183726200</v>
+        <v>81946900</v>
       </c>
       <c r="M15">
-        <v>-6884100</v>
+        <v>-762400</v>
       </c>
       <c r="N15">
-        <v>-113006814000</v>
+        <v>-6379071000</v>
       </c>
       <c r="O15">
-        <v>-19619100</v>
+        <v>-4907100</v>
       </c>
       <c r="P15">
-        <v>-196105657000</v>
+        <v>-14631870000</v>
       </c>
     </row>
     <row r="16">
       <c r="A16">
-        <v>1670580600000</v>
+        <v>1670578560000</v>
       </c>
       <c r="B16">
-        <v>7594100</v>
+        <v>1476200</v>
       </c>
       <c r="C16">
-        <v>4085400</v>
+        <v>3317900</v>
       </c>
       <c r="D16">
-        <v>107600</v>
+        <v>7800</v>
       </c>
       <c r="E16">
-        <v>132182992000</v>
+        <v>23250649000</v>
       </c>
       <c r="F16">
-        <v>67738729000</v>
+        <v>58089825000</v>
       </c>
       <c r="G16">
-        <v>1814792000</v>
+        <v>224557000</v>
       </c>
       <c r="H16">
-        <v>11787100</v>
+        <v>4801900</v>
       </c>
       <c r="I16">
-        <v>201736513000</v>
+        <v>81565031000</v>
       </c>
       <c r="J16" t="str">
-        <v>2022-12-09T10:10:00.000Z</v>
+        <v>2022-12-09T09:36:00.000Z</v>
       </c>
       <c r="K16">
-        <v>3018036711000</v>
+        <v>1332574349000</v>
       </c>
       <c r="L16">
-        <v>195513300</v>
+        <v>86748800</v>
       </c>
       <c r="M16">
-        <v>-3508700</v>
+        <v>1841700</v>
       </c>
       <c r="N16">
-        <v>-64444263000</v>
+        <v>34839176000</v>
       </c>
       <c r="O16">
-        <v>-23127800</v>
+        <v>-3065400</v>
       </c>
       <c r="P16">
-        <v>-260549920000</v>
+        <v>20207306000</v>
       </c>
     </row>
     <row r="17">
       <c r="A17">
-        <v>1670580900000</v>
+        <v>1670578680000</v>
       </c>
       <c r="B17">
-        <v>2317900</v>
+        <v>1424600</v>
       </c>
       <c r="C17">
-        <v>6516100</v>
+        <v>3410500</v>
       </c>
       <c r="D17">
-        <v>41900</v>
+        <v>40700</v>
       </c>
       <c r="E17">
-        <v>38254705000</v>
+        <v>23868457000</v>
       </c>
       <c r="F17">
-        <v>102623533000</v>
+        <v>54519171000</v>
       </c>
       <c r="G17">
-        <v>800251000</v>
+        <v>714061000</v>
       </c>
       <c r="H17">
-        <v>8875900</v>
+        <v>4875800</v>
       </c>
       <c r="I17">
-        <v>141678489000</v>
+        <v>79101689000</v>
       </c>
       <c r="J17" t="str">
-        <v>2022-12-09T10:15:00.000Z</v>
+        <v>2022-12-09T09:38:00.000Z</v>
       </c>
       <c r="K17">
-        <v>3159715200000</v>
+        <v>1411676038000</v>
       </c>
       <c r="L17">
-        <v>204389200</v>
+        <v>91624600</v>
       </c>
       <c r="M17">
-        <v>4198200</v>
+        <v>1985900</v>
       </c>
       <c r="N17">
-        <v>64368828000</v>
+        <v>30650714000</v>
       </c>
       <c r="O17">
-        <v>-18929600</v>
+        <v>-1079500</v>
       </c>
       <c r="P17">
-        <v>-196181092000</v>
+        <v>50858020000</v>
       </c>
     </row>
     <row r="18">
       <c r="A18">
-        <v>1670581200000</v>
+        <v>1670578800000</v>
       </c>
       <c r="B18">
-        <v>4050500</v>
+        <v>2257500</v>
       </c>
       <c r="C18">
-        <v>2627300</v>
+        <v>3780900</v>
       </c>
       <c r="D18">
-        <v>37500</v>
+        <v>17800</v>
       </c>
       <c r="E18">
-        <v>70374456000</v>
+        <v>39589690000</v>
       </c>
       <c r="F18">
-        <v>43008817000</v>
+        <v>57777623000</v>
       </c>
       <c r="G18">
-        <v>541565000</v>
+        <v>293885000</v>
       </c>
       <c r="H18">
-        <v>6715300</v>
+        <v>6056200</v>
       </c>
       <c r="I18">
-        <v>113924838000</v>
+        <v>97661198000</v>
       </c>
       <c r="J18" t="str">
-        <v>2022-12-09T10:20:00.000Z</v>
+        <v>2022-12-09T09:40:00.000Z</v>
       </c>
       <c r="K18">
-        <v>3273640038000</v>
+        <v>1509337236000</v>
       </c>
       <c r="L18">
-        <v>211104500</v>
+        <v>97680800</v>
       </c>
       <c r="M18">
-        <v>-1423200</v>
+        <v>1523400</v>
       </c>
       <c r="N18">
-        <v>-27365639000</v>
+        <v>18187933000</v>
       </c>
       <c r="O18">
-        <v>-20352800</v>
+        <v>443900</v>
       </c>
       <c r="P18">
-        <v>-223546731000</v>
+        <v>69045953000</v>
       </c>
     </row>
     <row r="19">
       <c r="A19">
-        <v>1670581500000</v>
+        <v>1670578920000</v>
       </c>
       <c r="B19">
-        <v>7899100</v>
+        <v>2023200</v>
       </c>
       <c r="C19">
-        <v>1669400</v>
+        <v>5111900</v>
       </c>
       <c r="D19">
-        <v>45300</v>
+        <v>50100</v>
       </c>
       <c r="E19">
-        <v>142821536000</v>
+        <v>30759725000</v>
       </c>
       <c r="F19">
-        <v>30369970000</v>
+        <v>77978658000</v>
       </c>
       <c r="G19">
-        <v>1020328000</v>
+        <v>677005000</v>
       </c>
       <c r="H19">
-        <v>9613800</v>
+        <v>7185200</v>
       </c>
       <c r="I19">
-        <v>174211834000</v>
+        <v>109415388000</v>
       </c>
       <c r="J19" t="str">
-        <v>2022-12-09T10:25:00.000Z</v>
+        <v>2022-12-09T09:42:00.000Z</v>
       </c>
       <c r="K19">
-        <v>3447851872000</v>
+        <v>1618752624000</v>
       </c>
       <c r="L19">
-        <v>220718300</v>
+        <v>104866000</v>
       </c>
       <c r="M19">
-        <v>-6229700</v>
+        <v>3088700</v>
       </c>
       <c r="N19">
-        <v>-112451566000</v>
+        <v>47218933000</v>
       </c>
       <c r="O19">
-        <v>-26582500</v>
+        <v>3532600</v>
       </c>
       <c r="P19">
-        <v>-335998297000</v>
+        <v>116264886000</v>
       </c>
     </row>
     <row r="20">
       <c r="A20">
-        <v>1670581800000</v>
+        <v>1670579040000</v>
       </c>
       <c r="B20">
-        <v>6479200</v>
+        <v>1615700</v>
       </c>
       <c r="C20">
-        <v>3921900</v>
+        <v>5403300</v>
       </c>
       <c r="D20">
-        <v>116500</v>
+        <v>45500</v>
       </c>
       <c r="E20">
-        <v>114144128000</v>
+        <v>23275792000</v>
       </c>
       <c r="F20">
-        <v>69075290000</v>
+        <v>86476446000</v>
       </c>
       <c r="G20">
-        <v>1456756000</v>
+        <v>487695000</v>
       </c>
       <c r="H20">
-        <v>10517600</v>
+        <v>7064500</v>
       </c>
       <c r="I20">
-        <v>184676174000</v>
+        <v>110239933000</v>
       </c>
       <c r="J20" t="str">
-        <v>2022-12-09T10:30:00.000Z</v>
+        <v>2022-12-09T09:44:00.000Z</v>
       </c>
       <c r="K20">
-        <v>3632528046000</v>
+        <v>1728992557000</v>
       </c>
       <c r="L20">
-        <v>231235900</v>
+        <v>111930500</v>
       </c>
       <c r="M20">
-        <v>-2557300</v>
+        <v>3787600</v>
       </c>
       <c r="N20">
-        <v>-45068838000</v>
+        <v>63200654000</v>
       </c>
       <c r="O20">
-        <v>-29139800</v>
+        <v>7320200</v>
       </c>
       <c r="P20">
-        <v>-381067135000</v>
+        <v>179465540000</v>
       </c>
     </row>
     <row r="21">
       <c r="A21">
-        <v>1670582100000</v>
+        <v>1670579160000</v>
       </c>
       <c r="B21">
-        <v>6083100</v>
+        <v>1931500</v>
       </c>
       <c r="C21">
-        <v>3429700</v>
+        <v>3339800</v>
       </c>
       <c r="D21">
-        <v>43100</v>
+        <v>69100</v>
       </c>
       <c r="E21">
-        <v>117494744000</v>
+        <v>26079655000</v>
       </c>
       <c r="F21">
-        <v>56172821000</v>
+        <v>49905042000</v>
       </c>
       <c r="G21">
-        <v>683810000</v>
+        <v>729728000</v>
       </c>
       <c r="H21">
-        <v>9555900</v>
+        <v>5340400</v>
       </c>
       <c r="I21">
-        <v>174351375000</v>
+        <v>76714425000</v>
       </c>
       <c r="J21" t="str">
-        <v>2022-12-09T10:35:00.000Z</v>
+        <v>2022-12-09T09:46:00.000Z</v>
       </c>
       <c r="K21">
-        <v>3806879421000</v>
+        <v>1805706982000</v>
       </c>
       <c r="L21">
-        <v>240791800</v>
+        <v>117270900</v>
       </c>
       <c r="M21">
-        <v>-2653400</v>
+        <v>1408300</v>
       </c>
       <c r="N21">
-        <v>-61321923000</v>
+        <v>23825387000</v>
       </c>
       <c r="O21">
-        <v>-31793200</v>
+        <v>8728500</v>
       </c>
       <c r="P21">
-        <v>-442389058000</v>
+        <v>203290927000</v>
       </c>
     </row>
     <row r="22">
       <c r="A22">
-        <v>1670582400000</v>
+        <v>1670579280000</v>
       </c>
       <c r="B22">
-        <v>5059500</v>
+        <v>2582400</v>
       </c>
       <c r="C22">
-        <v>3531600</v>
+        <v>3159100</v>
       </c>
       <c r="D22">
-        <v>57200</v>
+        <v>18800</v>
       </c>
       <c r="E22">
-        <v>81810502000</v>
+        <v>32352783000</v>
       </c>
       <c r="F22">
-        <v>64109700000</v>
+        <v>50039491000</v>
       </c>
       <c r="G22">
-        <v>972786000</v>
+        <v>240659000</v>
       </c>
       <c r="H22">
-        <v>8648300</v>
+        <v>5760300</v>
       </c>
       <c r="I22">
-        <v>146892988000</v>
+        <v>82632933000</v>
       </c>
       <c r="J22" t="str">
-        <v>2022-12-09T10:40:00.000Z</v>
+        <v>2022-12-09T09:48:00.000Z</v>
       </c>
       <c r="K22">
-        <v>3953772409000</v>
+        <v>1888339915000</v>
       </c>
       <c r="L22">
-        <v>249440100</v>
+        <v>123031200</v>
       </c>
       <c r="M22">
-        <v>-1527900</v>
+        <v>576700</v>
       </c>
       <c r="N22">
-        <v>-17700802000</v>
+        <v>17686708000</v>
       </c>
       <c r="O22">
-        <v>-33321100</v>
+        <v>9305200</v>
       </c>
       <c r="P22">
-        <v>-460089860000</v>
+        <v>220977635000</v>
       </c>
     </row>
     <row r="23">
       <c r="A23">
-        <v>1670582700000</v>
+        <v>1670579400000</v>
       </c>
       <c r="B23">
-        <v>2954400</v>
+        <v>4315100</v>
       </c>
       <c r="C23">
-        <v>4115400</v>
+        <v>2542800</v>
       </c>
       <c r="D23">
-        <v>42800</v>
+        <v>19100</v>
       </c>
       <c r="E23">
-        <v>54153215000</v>
+        <v>58282782000</v>
       </c>
       <c r="F23">
-        <v>80354964000</v>
+        <v>41970429000</v>
       </c>
       <c r="G23">
-        <v>614794000</v>
+        <v>335527000</v>
       </c>
       <c r="H23">
-        <v>7112600</v>
+        <v>6877000</v>
       </c>
       <c r="I23">
-        <v>135122973000</v>
+        <v>100588738000</v>
       </c>
       <c r="J23" t="str">
-        <v>2022-12-09T10:45:00.000Z</v>
+        <v>2022-12-09T09:50:00.000Z</v>
       </c>
       <c r="K23">
-        <v>4088895382000</v>
+        <v>1988928653000</v>
       </c>
       <c r="L23">
-        <v>256552700</v>
+        <v>129908200</v>
       </c>
       <c r="M23">
-        <v>1161000</v>
+        <v>-1772300</v>
       </c>
       <c r="N23">
-        <v>26201749000</v>
+        <v>-16312353000</v>
       </c>
       <c r="O23">
-        <v>-32160100</v>
+        <v>7532900</v>
       </c>
       <c r="P23">
-        <v>-433888111000</v>
+        <v>204665282000</v>
       </c>
     </row>
     <row r="24">
       <c r="A24">
-        <v>1670583000000</v>
+        <v>1670579520000</v>
       </c>
       <c r="B24">
-        <v>2361600</v>
+        <v>4339100</v>
       </c>
       <c r="C24">
-        <v>9522800</v>
+        <v>2275600</v>
       </c>
       <c r="D24">
-        <v>20500</v>
+        <v>14700</v>
       </c>
       <c r="E24">
-        <v>44288014000</v>
+        <v>47629129000</v>
       </c>
       <c r="F24">
-        <v>172658702000</v>
+        <v>31519960000</v>
       </c>
       <c r="G24">
-        <v>434722000</v>
+        <v>242521000</v>
       </c>
       <c r="H24">
-        <v>11904900</v>
+        <v>6629400</v>
       </c>
       <c r="I24">
-        <v>217381438000</v>
+        <v>79391610000</v>
       </c>
       <c r="J24" t="str">
-        <v>2022-12-09T10:50:00.000Z</v>
+        <v>2022-12-09T09:52:00.000Z</v>
       </c>
       <c r="K24">
-        <v>4306276820000</v>
+        <v>2068320263000</v>
       </c>
       <c r="L24">
-        <v>268457600</v>
+        <v>136537600</v>
       </c>
       <c r="M24">
-        <v>7161200</v>
+        <v>-2063500</v>
       </c>
       <c r="N24">
-        <v>128370688000</v>
+        <v>-16109169000</v>
       </c>
       <c r="O24">
-        <v>-24998900</v>
+        <v>5469400</v>
       </c>
       <c r="P24">
-        <v>-305517423000</v>
+        <v>188556113000</v>
       </c>
     </row>
     <row r="25">
       <c r="A25">
-        <v>1670583300000</v>
+        <v>1670579640000</v>
       </c>
       <c r="B25">
-        <v>3833800</v>
+        <v>2238100</v>
       </c>
       <c r="C25">
-        <v>4571500</v>
+        <v>2196600</v>
       </c>
       <c r="D25">
-        <v>63400</v>
+        <v>12800</v>
       </c>
       <c r="E25">
-        <v>75610260000</v>
+        <v>31456591000</v>
       </c>
       <c r="F25">
-        <v>85610339000</v>
+        <v>34603836000</v>
       </c>
       <c r="G25">
-        <v>1317602000</v>
+        <v>121849000</v>
       </c>
       <c r="H25">
-        <v>8468700</v>
+        <v>4447500</v>
       </c>
       <c r="I25">
-        <v>162538201000</v>
+        <v>66182276000</v>
       </c>
       <c r="J25" t="str">
-        <v>2022-12-09T10:55:00.000Z</v>
+        <v>2022-12-09T09:54:00.000Z</v>
       </c>
       <c r="K25">
-        <v>4468815021000</v>
+        <v>2134502539000</v>
       </c>
       <c r="L25">
-        <v>276926300</v>
+        <v>140985100</v>
       </c>
       <c r="M25">
-        <v>737700</v>
+        <v>-41500</v>
       </c>
       <c r="N25">
-        <v>10000079000</v>
+        <v>3147245000</v>
       </c>
       <c r="O25">
-        <v>-24261200</v>
+        <v>5427900</v>
       </c>
       <c r="P25">
-        <v>-295517344000</v>
+        <v>191703358000</v>
       </c>
     </row>
     <row r="26">
       <c r="A26">
-        <v>1670583600000</v>
+        <v>1670579760000</v>
       </c>
       <c r="B26">
-        <v>5490900</v>
+        <v>2573300</v>
       </c>
       <c r="C26">
-        <v>3297100</v>
+        <v>1409800</v>
       </c>
       <c r="D26">
-        <v>88100</v>
+        <v>7100</v>
       </c>
       <c r="E26">
-        <v>106312328000</v>
+        <v>41232652000</v>
       </c>
       <c r="F26">
-        <v>57507360000</v>
+        <v>25345896000</v>
       </c>
       <c r="G26">
-        <v>1468392000</v>
+        <v>68727000</v>
       </c>
       <c r="H26">
-        <v>8876100</v>
+        <v>3990200</v>
       </c>
       <c r="I26">
-        <v>165288080000</v>
+        <v>66647275000</v>
       </c>
       <c r="J26" t="str">
-        <v>2022-12-09T11:00:00.000Z</v>
+        <v>2022-12-09T09:56:00.000Z</v>
       </c>
       <c r="K26">
-        <v>4634103101000</v>
+        <v>2201149814000</v>
       </c>
       <c r="L26">
-        <v>285802400</v>
+        <v>144975300</v>
       </c>
       <c r="M26">
-        <v>-2193800</v>
+        <v>-1163500</v>
       </c>
       <c r="N26">
-        <v>-48804968000</v>
+        <v>-15886756000</v>
       </c>
       <c r="O26">
-        <v>-26455000</v>
+        <v>4264400</v>
       </c>
       <c r="P26">
-        <v>-344322312000</v>
+        <v>175816602000</v>
       </c>
     </row>
     <row r="27">
       <c r="A27">
-        <v>1670583900000</v>
+        <v>1670579880000</v>
       </c>
       <c r="B27">
-        <v>2180400</v>
+        <v>2568400</v>
       </c>
       <c r="C27">
-        <v>5158800</v>
+        <v>1276300</v>
       </c>
       <c r="D27">
-        <v>46900</v>
+        <v>3200</v>
       </c>
       <c r="E27">
-        <v>37643746000</v>
+        <v>42032990000</v>
       </c>
       <c r="F27">
-        <v>81530035000</v>
+        <v>22943697000</v>
       </c>
       <c r="G27">
-        <v>529218000</v>
+        <v>49046000</v>
       </c>
       <c r="H27">
-        <v>7386100</v>
+        <v>3847900</v>
       </c>
       <c r="I27">
-        <v>119702999000</v>
+        <v>65025733000</v>
       </c>
       <c r="J27" t="str">
-        <v>2022-12-09T11:05:00.000Z</v>
+        <v>2022-12-09T09:58:00.000Z</v>
       </c>
       <c r="K27">
-        <v>4753806100000</v>
+        <v>2266175547000</v>
       </c>
       <c r="L27">
-        <v>293188500</v>
+        <v>148823200</v>
       </c>
       <c r="M27">
-        <v>2978400</v>
+        <v>-1292100</v>
       </c>
       <c r="N27">
-        <v>43886289000</v>
+        <v>-19089293000</v>
       </c>
       <c r="O27">
-        <v>-23476600</v>
+        <v>2972300</v>
       </c>
       <c r="P27">
-        <v>-300436023000</v>
+        <v>156727309000</v>
       </c>
     </row>
     <row r="28">
       <c r="A28">
-        <v>1670584200000</v>
+        <v>1670580000000</v>
       </c>
       <c r="B28">
-        <v>1984500</v>
+        <v>4396800</v>
       </c>
       <c r="C28">
-        <v>9320400</v>
+        <v>903300</v>
       </c>
       <c r="D28">
-        <v>213100</v>
+        <v>26200</v>
       </c>
       <c r="E28">
-        <v>33696559000</v>
+        <v>66033941000</v>
       </c>
       <c r="F28">
-        <v>148038880000</v>
+        <v>14131689000</v>
       </c>
       <c r="G28">
-        <v>2592190000</v>
+        <v>271359000</v>
       </c>
       <c r="H28">
-        <v>11518000</v>
+        <v>5326300</v>
       </c>
       <c r="I28">
-        <v>184327629000</v>
+        <v>80436989000</v>
       </c>
       <c r="J28" t="str">
-        <v>2022-12-09T11:10:00.000Z</v>
+        <v>2022-12-09T10:00:00.000Z</v>
       </c>
       <c r="K28">
-        <v>4938133729000</v>
+        <v>2346612536000</v>
       </c>
       <c r="L28">
-        <v>304706500</v>
+        <v>154149500</v>
       </c>
       <c r="M28">
-        <v>7335900</v>
+        <v>-3493500</v>
       </c>
       <c r="N28">
-        <v>114342321000</v>
+        <v>-51902252000</v>
       </c>
       <c r="O28">
-        <v>-16140700</v>
+        <v>-521200</v>
       </c>
       <c r="P28">
-        <v>-186093702000</v>
+        <v>104825057000</v>
       </c>
     </row>
     <row r="29">
       <c r="A29">
-        <v>1670584500000</v>
+        <v>1670580120000</v>
       </c>
       <c r="B29">
-        <v>3793500</v>
+        <v>10676700</v>
       </c>
       <c r="C29">
-        <v>8395700</v>
+        <v>1075700</v>
       </c>
       <c r="D29">
-        <v>210000</v>
+        <v>29800</v>
       </c>
       <c r="E29">
-        <v>68977924000</v>
+        <v>163780000000</v>
       </c>
       <c r="F29">
-        <v>132160289000</v>
+        <v>18385592000</v>
       </c>
       <c r="G29">
-        <v>2284022000</v>
+        <v>743249000</v>
       </c>
       <c r="H29">
-        <v>12399200</v>
+        <v>11782200</v>
       </c>
       <c r="I29">
-        <v>203422235000</v>
+        <v>182908841000</v>
       </c>
       <c r="J29" t="str">
-        <v>2022-12-09T11:15:00.000Z</v>
+        <v>2022-12-09T10:02:00.000Z</v>
       </c>
       <c r="K29">
-        <v>5141555964000</v>
+        <v>2529521377000</v>
       </c>
       <c r="L29">
-        <v>317105700</v>
+        <v>165931700</v>
       </c>
       <c r="M29">
-        <v>4602200</v>
+        <v>-9601000</v>
       </c>
       <c r="N29">
-        <v>63182365000</v>
+        <v>-145394408000</v>
       </c>
       <c r="O29">
-        <v>-11538500</v>
+        <v>-10122200</v>
       </c>
       <c r="P29">
-        <v>-122911337000</v>
+        <v>-40569351000</v>
       </c>
     </row>
     <row r="30">
       <c r="A30">
-        <v>1670584800000</v>
+        <v>1670580240000</v>
       </c>
       <c r="B30">
-        <v>3224500</v>
+        <v>6101700</v>
       </c>
       <c r="C30">
-        <v>6453800</v>
+        <v>1446500</v>
       </c>
       <c r="D30">
-        <v>48400</v>
+        <v>42800</v>
       </c>
       <c r="E30">
-        <v>53433784000</v>
+        <v>101986048000</v>
       </c>
       <c r="F30">
-        <v>111575800000</v>
+        <v>23348106000</v>
       </c>
       <c r="G30">
-        <v>866645000</v>
+        <v>505619000</v>
       </c>
       <c r="H30">
-        <v>9726700</v>
+        <v>7591000</v>
       </c>
       <c r="I30">
-        <v>165876229000</v>
+        <v>125839773000</v>
       </c>
       <c r="J30" t="str">
-        <v>2022-12-09T11:20:00.000Z</v>
+        <v>2022-12-09T10:04:00.000Z</v>
       </c>
       <c r="K30">
-        <v>5307432193000</v>
+        <v>2655361150000</v>
       </c>
       <c r="L30">
-        <v>326832400</v>
+        <v>173522700</v>
       </c>
       <c r="M30">
-        <v>3229300</v>
+        <v>-4655200</v>
       </c>
       <c r="N30">
-        <v>58142016000</v>
+        <v>-78637942000</v>
       </c>
       <c r="O30">
-        <v>-8309200</v>
+        <v>-14777400</v>
       </c>
       <c r="P30">
-        <v>-64769321000</v>
+        <v>-119207293000</v>
       </c>
     </row>
     <row r="31">
       <c r="A31">
-        <v>1670585100000</v>
+        <v>1670580360000</v>
       </c>
       <c r="B31">
-        <v>3436700</v>
+        <v>4031100</v>
       </c>
       <c r="C31">
-        <v>10768700</v>
+        <v>975700</v>
       </c>
       <c r="D31">
-        <v>176200</v>
+        <v>7700</v>
       </c>
       <c r="E31">
-        <v>62818855000</v>
+        <v>62872368000</v>
       </c>
       <c r="F31">
-        <v>182806561000</v>
+        <v>16013885000</v>
       </c>
       <c r="G31">
-        <v>3464764000</v>
+        <v>155916000</v>
       </c>
       <c r="H31">
-        <v>14381600</v>
+        <v>5014500</v>
       </c>
       <c r="I31">
-        <v>249090180000</v>
+        <v>79042169000</v>
       </c>
       <c r="J31" t="str">
-        <v>2022-12-09T11:25:00.000Z</v>
+        <v>2022-12-09T10:06:00.000Z</v>
       </c>
       <c r="K31">
-        <v>5556522373000</v>
+        <v>2734403319000</v>
       </c>
       <c r="L31">
-        <v>341214000</v>
+        <v>178537200</v>
       </c>
       <c r="M31">
-        <v>7332000</v>
+        <v>-3055400</v>
       </c>
       <c r="N31">
-        <v>119987706000</v>
+        <v>-46858483000</v>
       </c>
       <c r="O31">
-        <v>-977200</v>
+        <v>-17832800</v>
       </c>
       <c r="P31">
-        <v>55218385000</v>
+        <v>-166065776000</v>
       </c>
     </row>
     <row r="32">
       <c r="A32">
-        <v>1670585400000</v>
+        <v>1670580480000</v>
       </c>
       <c r="B32">
-        <v>7300</v>
+        <v>3483400</v>
       </c>
       <c r="C32">
-        <v>92700</v>
+        <v>1697100</v>
       </c>
       <c r="D32">
-        <v>0</v>
+        <v>8500</v>
       </c>
       <c r="E32">
-        <v>174508000</v>
+        <v>55920544000</v>
       </c>
       <c r="F32">
-        <v>1407865000</v>
+        <v>25880663000</v>
       </c>
       <c r="G32">
-        <v>0</v>
+        <v>95672000</v>
       </c>
       <c r="H32">
-        <v>100000</v>
+        <v>5189000</v>
       </c>
       <c r="I32">
-        <v>1582373000</v>
+        <v>81896879000</v>
       </c>
       <c r="J32" t="str">
-        <v>2022-12-09T11:30:00.000Z</v>
+        <v>2022-12-09T10:08:00.000Z</v>
       </c>
       <c r="K32">
-        <v>5558104746000</v>
+        <v>2816300198000</v>
       </c>
       <c r="L32">
-        <v>341314000</v>
+        <v>183726200</v>
       </c>
       <c r="M32">
-        <v>85400</v>
+        <v>-1786300</v>
       </c>
       <c r="N32">
-        <v>1233357000</v>
+        <v>-30039881000</v>
       </c>
       <c r="O32">
-        <v>-891800</v>
+        <v>-19619100</v>
       </c>
       <c r="P32">
-        <v>56451742000</v>
+        <v>-196105657000</v>
       </c>
     </row>
     <row r="33">
       <c r="A33">
-        <v>1670590800000</v>
+        <v>1670580600000</v>
       </c>
       <c r="B33">
-        <v>14039800</v>
+        <v>3804600</v>
       </c>
       <c r="C33">
-        <v>25240900</v>
+        <v>1672100</v>
       </c>
       <c r="D33">
-        <v>581500</v>
+        <v>29400</v>
       </c>
       <c r="E33">
-        <v>227660368000</v>
+        <v>66557709000</v>
       </c>
       <c r="F33">
-        <v>454746660000</v>
+        <v>26379303000</v>
       </c>
       <c r="G33">
-        <v>10132296000</v>
+        <v>532535000</v>
       </c>
       <c r="H33">
-        <v>39862200</v>
+        <v>5506100</v>
       </c>
       <c r="I33">
-        <v>692539324000</v>
+        <v>93469547000</v>
       </c>
       <c r="J33" t="str">
-        <v>2022-12-09T13:00:00.000Z</v>
+        <v>2022-12-09T10:10:00.000Z</v>
       </c>
       <c r="K33">
-        <v>6250644070000</v>
+        <v>2909769745000</v>
       </c>
       <c r="L33">
-        <v>381176200</v>
+        <v>189232300</v>
       </c>
       <c r="M33">
-        <v>11201100</v>
+        <v>-2132500</v>
       </c>
       <c r="N33">
-        <v>227086292000</v>
+        <v>-40178406000</v>
       </c>
       <c r="O33">
-        <v>10309300</v>
+        <v>-21751600</v>
       </c>
       <c r="P33">
-        <v>283538034000</v>
+        <v>-236284063000</v>
       </c>
     </row>
     <row r="34">
       <c r="A34">
-        <v>1670591100000</v>
+        <v>1670580720000</v>
       </c>
       <c r="B34">
-        <v>14706900</v>
+        <v>2868600</v>
       </c>
       <c r="C34">
-        <v>12708300</v>
+        <v>1323600</v>
       </c>
       <c r="D34">
-        <v>156400</v>
+        <v>22100</v>
       </c>
       <c r="E34">
-        <v>230686775000</v>
+        <v>49875975000</v>
       </c>
       <c r="F34">
-        <v>223879745000</v>
+        <v>22645695000</v>
       </c>
       <c r="G34">
-        <v>2231937000</v>
+        <v>245403000</v>
       </c>
       <c r="H34">
-        <v>27571600</v>
+        <v>4214300</v>
       </c>
       <c r="I34">
-        <v>456798457000</v>
+        <v>72767073000</v>
       </c>
       <c r="J34" t="str">
-        <v>2022-12-09T13:05:00.000Z</v>
+        <v>2022-12-09T10:12:00.000Z</v>
       </c>
       <c r="K34">
-        <v>6707442527000</v>
+        <v>2982536818000</v>
       </c>
       <c r="L34">
-        <v>408747800</v>
+        <v>193446600</v>
       </c>
       <c r="M34">
-        <v>-1998600</v>
+        <v>-1545000</v>
       </c>
       <c r="N34">
-        <v>-6807030000</v>
+        <v>-27230280000</v>
       </c>
       <c r="O34">
-        <v>8310700</v>
+        <v>-23296600</v>
       </c>
       <c r="P34">
-        <v>276731004000</v>
+        <v>-263514343000</v>
       </c>
     </row>
     <row r="35">
       <c r="A35">
-        <v>1670591400000</v>
+        <v>1670580840000</v>
       </c>
       <c r="B35">
-        <v>9751000</v>
+        <v>1464200</v>
       </c>
       <c r="C35">
-        <v>5244500</v>
+        <v>2826800</v>
       </c>
       <c r="D35">
-        <v>61000</v>
+        <v>57400</v>
       </c>
       <c r="E35">
-        <v>165157069000</v>
+        <v>23915510000</v>
       </c>
       <c r="F35">
-        <v>97781894000</v>
+        <v>45760612000</v>
       </c>
       <c r="G35">
-        <v>1128611000</v>
+        <v>1063969000</v>
       </c>
       <c r="H35">
-        <v>15056500</v>
+        <v>4348400</v>
       </c>
       <c r="I35">
-        <v>264067574000</v>
+        <v>70740091000</v>
       </c>
       <c r="J35" t="str">
-        <v>2022-12-09T13:10:00.000Z</v>
+        <v>2022-12-09T10:14:00.000Z</v>
       </c>
       <c r="K35">
-        <v>6971510101000</v>
+        <v>3053276909000</v>
       </c>
       <c r="L35">
-        <v>423804300</v>
+        <v>197795000</v>
       </c>
       <c r="M35">
-        <v>-4506500</v>
+        <v>1362600</v>
       </c>
       <c r="N35">
-        <v>-67375175000</v>
+        <v>21845102000</v>
       </c>
       <c r="O35">
-        <v>3804200</v>
+        <v>-21934000</v>
       </c>
       <c r="P35">
-        <v>209355829000</v>
+        <v>-241669241000</v>
       </c>
     </row>
     <row r="36">
       <c r="A36">
-        <v>1670591700000</v>
+        <v>1670580960000</v>
       </c>
       <c r="B36">
-        <v>7207100</v>
+        <v>990200</v>
       </c>
       <c r="C36">
-        <v>5485100</v>
+        <v>2699200</v>
       </c>
       <c r="D36">
-        <v>81800</v>
+        <v>14000</v>
       </c>
       <c r="E36">
-        <v>127348808000</v>
+        <v>16605675000</v>
       </c>
       <c r="F36">
-        <v>107383558000</v>
+        <v>41859768000</v>
       </c>
       <c r="G36">
-        <v>1384725000</v>
+        <v>164539000</v>
       </c>
       <c r="H36">
-        <v>12774000</v>
+        <v>3703400</v>
       </c>
       <c r="I36">
-        <v>236117091000</v>
+        <v>58629982000</v>
       </c>
       <c r="J36" t="str">
-        <v>2022-12-09T13:15:00.000Z</v>
+        <v>2022-12-09T10:16:00.000Z</v>
       </c>
       <c r="K36">
-        <v>7207627192000</v>
+        <v>3111906891000</v>
       </c>
       <c r="L36">
-        <v>436578300</v>
+        <v>201498400</v>
       </c>
       <c r="M36">
-        <v>-1722000</v>
+        <v>1709000</v>
       </c>
       <c r="N36">
-        <v>-19965250000</v>
+        <v>25254093000</v>
       </c>
       <c r="O36">
-        <v>2082200</v>
+        <v>-20225000</v>
       </c>
       <c r="P36">
-        <v>189390579000</v>
+        <v>-216415148000</v>
       </c>
     </row>
     <row r="37">
       <c r="A37">
-        <v>1670592000000</v>
+        <v>1670581080000</v>
       </c>
       <c r="B37">
-        <v>7208700</v>
+        <v>784400</v>
       </c>
       <c r="C37">
-        <v>3881300</v>
+        <v>2079800</v>
       </c>
       <c r="D37">
-        <v>152700</v>
+        <v>26600</v>
       </c>
       <c r="E37">
-        <v>129024790000</v>
+        <v>13482828000</v>
       </c>
       <c r="F37">
-        <v>76739145000</v>
+        <v>33716884000</v>
       </c>
       <c r="G37">
-        <v>1856358000</v>
+        <v>608597000</v>
       </c>
       <c r="H37">
-        <v>11242700</v>
+        <v>2890800</v>
       </c>
       <c r="I37">
-        <v>207620293000</v>
+        <v>47808309000</v>
       </c>
       <c r="J37" t="str">
-        <v>2022-12-09T13:20:00.000Z</v>
+        <v>2022-12-09T10:18:00.000Z</v>
       </c>
       <c r="K37">
-        <v>7415247485000</v>
+        <v>3159715200000</v>
       </c>
       <c r="L37">
-        <v>447821000</v>
+        <v>204389200</v>
       </c>
       <c r="M37">
-        <v>-3327400</v>
+        <v>1295400</v>
       </c>
       <c r="N37">
-        <v>-52285645000</v>
+        <v>20234056000</v>
       </c>
       <c r="O37">
-        <v>-1245200</v>
+        <v>-18929600</v>
       </c>
       <c r="P37">
-        <v>137104934000</v>
+        <v>-196181092000</v>
       </c>
     </row>
     <row r="38">
       <c r="A38">
-        <v>1670592300000</v>
+        <v>1670581200000</v>
       </c>
       <c r="B38">
-        <v>7965700</v>
+        <v>1292900</v>
       </c>
       <c r="C38">
-        <v>4046400</v>
+        <v>1365900</v>
       </c>
       <c r="D38">
-        <v>66200</v>
+        <v>18000</v>
       </c>
       <c r="E38">
-        <v>141256696000</v>
+        <v>24986995000</v>
       </c>
       <c r="F38">
-        <v>78242554000</v>
+        <v>21461517000</v>
       </c>
       <c r="G38">
-        <v>1142118000</v>
+        <v>187643000</v>
       </c>
       <c r="H38">
-        <v>12078300</v>
+        <v>2676800</v>
       </c>
       <c r="I38">
-        <v>220641368000</v>
+        <v>46636155000</v>
       </c>
       <c r="J38" t="str">
-        <v>2022-12-09T13:25:00.000Z</v>
+        <v>2022-12-09T10:20:00.000Z</v>
       </c>
       <c r="K38">
-        <v>7635888853000</v>
+        <v>3206351355000</v>
       </c>
       <c r="L38">
-        <v>459899300</v>
+        <v>207066000</v>
       </c>
       <c r="M38">
-        <v>-3919300</v>
+        <v>73000</v>
       </c>
       <c r="N38">
-        <v>-63014142000</v>
+        <v>-3525478000</v>
       </c>
       <c r="O38">
-        <v>-5164500</v>
+        <v>-18856600</v>
       </c>
       <c r="P38">
-        <v>74090792000</v>
+        <v>-199706570000</v>
       </c>
     </row>
     <row r="39">
       <c r="A39">
-        <v>1670592600000</v>
+        <v>1670581320000</v>
       </c>
       <c r="B39">
-        <v>3343000</v>
+        <v>2001100</v>
       </c>
       <c r="C39">
-        <v>11730400</v>
+        <v>882500</v>
       </c>
       <c r="D39">
-        <v>55100</v>
+        <v>9800</v>
       </c>
       <c r="E39">
-        <v>56811017000</v>
+        <v>31835648000</v>
       </c>
       <c r="F39">
-        <v>204270708000</v>
+        <v>15123621000</v>
       </c>
       <c r="G39">
-        <v>1034196000</v>
+        <v>187519000</v>
       </c>
       <c r="H39">
-        <v>15128500</v>
+        <v>2893400</v>
       </c>
       <c r="I39">
-        <v>262115921000</v>
+        <v>47146788000</v>
       </c>
       <c r="J39" t="str">
-        <v>2022-12-09T13:30:00.000Z</v>
+        <v>2022-12-09T10:22:00.000Z</v>
       </c>
       <c r="K39">
-        <v>7898004774000</v>
+        <v>3253498143000</v>
       </c>
       <c r="L39">
-        <v>475027800</v>
+        <v>209959400</v>
       </c>
       <c r="M39">
-        <v>8387400</v>
+        <v>-1118600</v>
       </c>
       <c r="N39">
-        <v>147459691000</v>
+        <v>-16712027000</v>
       </c>
       <c r="O39">
-        <v>3222900</v>
+        <v>-19975200</v>
       </c>
       <c r="P39">
-        <v>221550483000</v>
+        <v>-216418597000</v>
       </c>
     </row>
     <row r="40">
       <c r="A40">
-        <v>1670592900000</v>
+        <v>1670581440000</v>
       </c>
       <c r="B40">
-        <v>7620000</v>
+        <v>1933900</v>
       </c>
       <c r="C40">
-        <v>5105400</v>
+        <v>751400</v>
       </c>
       <c r="D40">
-        <v>66200</v>
+        <v>14400</v>
       </c>
       <c r="E40">
-        <v>145506319000</v>
+        <v>31714932000</v>
       </c>
       <c r="F40">
-        <v>74882616000</v>
+        <v>13254770000</v>
       </c>
       <c r="G40">
-        <v>1318841000</v>
+        <v>250970000</v>
       </c>
       <c r="H40">
-        <v>12791600</v>
+        <v>2699700</v>
       </c>
       <c r="I40">
-        <v>221707776000</v>
+        <v>45220672000</v>
       </c>
       <c r="J40" t="str">
-        <v>2022-12-09T13:35:00.000Z</v>
+        <v>2022-12-09T10:24:00.000Z</v>
       </c>
       <c r="K40">
-        <v>8119712550000</v>
+        <v>3298718815000</v>
       </c>
       <c r="L40">
-        <v>487819400</v>
+        <v>212659100</v>
       </c>
       <c r="M40">
-        <v>-2514600</v>
+        <v>-1182500</v>
       </c>
       <c r="N40">
-        <v>-70623703000</v>
+        <v>-18460162000</v>
       </c>
       <c r="O40">
-        <v>708300</v>
+        <v>-21157700</v>
       </c>
       <c r="P40">
-        <v>150926780000</v>
+        <v>-234878759000</v>
       </c>
     </row>
     <row r="41">
       <c r="A41">
-        <v>1670593200000</v>
+        <v>1670581560000</v>
       </c>
       <c r="B41">
-        <v>5748500</v>
+        <v>2722000</v>
       </c>
       <c r="C41">
-        <v>3576200</v>
+        <v>798200</v>
       </c>
       <c r="D41">
-        <v>57000</v>
+        <v>8600</v>
       </c>
       <c r="E41">
-        <v>94115344000</v>
+        <v>51692659000</v>
       </c>
       <c r="F41">
-        <v>63875854000</v>
+        <v>14935667000</v>
       </c>
       <c r="G41">
-        <v>949885000</v>
+        <v>121800000</v>
       </c>
       <c r="H41">
-        <v>9381700</v>
+        <v>3528800</v>
       </c>
       <c r="I41">
-        <v>158941083000</v>
+        <v>66750126000</v>
       </c>
       <c r="J41" t="str">
-        <v>2022-12-09T13:40:00.000Z</v>
+        <v>2022-12-09T10:26:00.000Z</v>
       </c>
       <c r="K41">
-        <v>8278653633000</v>
+        <v>3365468941000</v>
       </c>
       <c r="L41">
-        <v>497201100</v>
+        <v>216187900</v>
       </c>
       <c r="M41">
-        <v>-2172300</v>
+        <v>-1923800</v>
       </c>
       <c r="N41">
-        <v>-30239490000</v>
+        <v>-36756992000</v>
       </c>
       <c r="O41">
-        <v>-1464000</v>
+        <v>-23081500</v>
       </c>
       <c r="P41">
-        <v>120687290000</v>
+        <v>-271635751000</v>
       </c>
     </row>
     <row r="42">
       <c r="A42">
-        <v>1670593500000</v>
+        <v>1670581680000</v>
       </c>
       <c r="B42">
-        <v>4162200</v>
+        <v>3999700</v>
       </c>
       <c r="C42">
-        <v>9981200</v>
+        <v>498700</v>
       </c>
       <c r="D42">
-        <v>105900</v>
+        <v>32000</v>
       </c>
       <c r="E42">
-        <v>68718923000</v>
+        <v>72965758000</v>
       </c>
       <c r="F42">
-        <v>196885827000</v>
+        <v>8603212000</v>
       </c>
       <c r="G42">
-        <v>2883541000</v>
+        <v>813961000</v>
       </c>
       <c r="H42">
-        <v>14249300</v>
+        <v>4530400</v>
       </c>
       <c r="I42">
-        <v>268488291000</v>
+        <v>82382931000</v>
       </c>
       <c r="J42" t="str">
-        <v>2022-12-09T13:45:00.000Z</v>
+        <v>2022-12-09T10:28:00.000Z</v>
       </c>
       <c r="K42">
-        <v>8547141924000</v>
+        <v>3447851872000</v>
       </c>
       <c r="L42">
-        <v>511450400</v>
+        <v>220718300</v>
       </c>
       <c r="M42">
-        <v>5819000</v>
+        <v>-3501000</v>
       </c>
       <c r="N42">
-        <v>128166904000</v>
+        <v>-64362546000</v>
       </c>
       <c r="O42">
-        <v>4355000</v>
+        <v>-26582500</v>
       </c>
       <c r="P42">
-        <v>248854194000</v>
+        <v>-335998297000</v>
       </c>
     </row>
     <row r="43">
       <c r="A43">
-        <v>1670593800000</v>
+        <v>1670581800000</v>
       </c>
       <c r="B43">
-        <v>8426500</v>
+        <v>3512100</v>
       </c>
       <c r="C43">
-        <v>3865100</v>
+        <v>821100</v>
       </c>
       <c r="D43">
-        <v>94800</v>
+        <v>19600</v>
       </c>
       <c r="E43">
-        <v>145293770000</v>
+        <v>61518692000</v>
       </c>
       <c r="F43">
-        <v>70728589000</v>
+        <v>14122573000</v>
       </c>
       <c r="G43">
-        <v>1496344000</v>
+        <v>211924000</v>
       </c>
       <c r="H43">
-        <v>12386400</v>
+        <v>4352800</v>
       </c>
       <c r="I43">
-        <v>217518703000</v>
+        <v>75853189000</v>
       </c>
       <c r="J43" t="str">
-        <v>2022-12-09T13:50:00.000Z</v>
+        <v>2022-12-09T10:30:00.000Z</v>
       </c>
       <c r="K43">
-        <v>8764660627000</v>
+        <v>3523705061000</v>
       </c>
       <c r="L43">
-        <v>523836800</v>
+        <v>225071100</v>
       </c>
       <c r="M43">
-        <v>-4561400</v>
+        <v>-2691000</v>
       </c>
       <c r="N43">
-        <v>-74565181000</v>
+        <v>-47396119000</v>
       </c>
       <c r="O43">
-        <v>-206400</v>
+        <v>-29273500</v>
       </c>
       <c r="P43">
-        <v>174289013000</v>
+        <v>-383394416000</v>
       </c>
     </row>
     <row r="44">
       <c r="A44">
-        <v>1670594100000</v>
+        <v>1670581920000</v>
       </c>
       <c r="B44">
-        <v>8992900</v>
+        <v>2354100</v>
       </c>
       <c r="C44">
-        <v>3387900</v>
+        <v>1883300</v>
       </c>
       <c r="D44">
-        <v>131800</v>
+        <v>89700</v>
       </c>
       <c r="E44">
-        <v>152437486000</v>
+        <v>41163500000</v>
       </c>
       <c r="F44">
-        <v>64284635000</v>
+        <v>33766614000</v>
       </c>
       <c r="G44">
-        <v>1153887000</v>
+        <v>1144963000</v>
       </c>
       <c r="H44">
-        <v>12512600</v>
+        <v>4327100</v>
       </c>
       <c r="I44">
-        <v>217876008000</v>
+        <v>76075077000</v>
       </c>
       <c r="J44" t="str">
-        <v>2022-12-09T13:55:00.000Z</v>
+        <v>2022-12-09T10:32:00.000Z</v>
       </c>
       <c r="K44">
-        <v>8982536635000</v>
+        <v>3599780138000</v>
       </c>
       <c r="L44">
-        <v>536349400</v>
+        <v>229398200</v>
       </c>
       <c r="M44">
-        <v>-5605000</v>
+        <v>-470800</v>
       </c>
       <c r="N44">
-        <v>-88152851000</v>
+        <v>-7396886000</v>
       </c>
       <c r="O44">
-        <v>-5811400</v>
+        <v>-29744300</v>
       </c>
       <c r="P44">
-        <v>86136162000</v>
+        <v>-390791302000</v>
       </c>
     </row>
     <row r="45">
       <c r="A45">
-        <v>1670594400000</v>
+        <v>1670582040000</v>
       </c>
       <c r="B45">
-        <v>8676000</v>
+        <v>1288300</v>
       </c>
       <c r="C45">
-        <v>5085600</v>
+        <v>2208800</v>
       </c>
       <c r="D45">
-        <v>99300</v>
+        <v>21500</v>
       </c>
       <c r="E45">
-        <v>146430778000</v>
+        <v>23417826000</v>
       </c>
       <c r="F45">
-        <v>93427104000</v>
+        <v>36285817000</v>
       </c>
       <c r="G45">
-        <v>1295789000</v>
+        <v>323161000</v>
       </c>
       <c r="H45">
-        <v>13860900</v>
+        <v>3518600</v>
       </c>
       <c r="I45">
-        <v>241153671000</v>
+        <v>60026804000</v>
       </c>
       <c r="J45" t="str">
-        <v>2022-12-09T14:00:00.000Z</v>
+        <v>2022-12-09T10:34:00.000Z</v>
       </c>
       <c r="K45">
-        <v>9223690306000</v>
+        <v>3659806942000</v>
       </c>
       <c r="L45">
-        <v>550210300</v>
+        <v>232916800</v>
       </c>
       <c r="M45">
-        <v>-3590400</v>
+        <v>920500</v>
       </c>
       <c r="N45">
-        <v>-53003674000</v>
+        <v>12867991000</v>
       </c>
       <c r="O45">
-        <v>-9401800</v>
+        <v>-28823800</v>
       </c>
       <c r="P45">
-        <v>33132488000</v>
+        <v>-377923311000</v>
       </c>
     </row>
     <row r="46">
       <c r="A46">
-        <v>1670594700000</v>
+        <v>1670582160000</v>
       </c>
       <c r="B46">
-        <v>4884000</v>
+        <v>1470800</v>
       </c>
       <c r="C46">
-        <v>21197200</v>
+        <v>1513800</v>
       </c>
       <c r="D46">
-        <v>205700</v>
+        <v>12900</v>
       </c>
       <c r="E46">
-        <v>79858486000</v>
+        <v>32892971000</v>
       </c>
       <c r="F46">
-        <v>349262550000</v>
+        <v>24747643000</v>
       </c>
       <c r="G46">
-        <v>3097671000</v>
+        <v>178620000</v>
       </c>
       <c r="H46">
-        <v>26286900</v>
+        <v>2997500</v>
       </c>
       <c r="I46">
-        <v>432218707000</v>
+        <v>57819234000</v>
       </c>
       <c r="J46" t="str">
-        <v>2022-12-09T14:05:00.000Z</v>
+        <v>2022-12-09T10:36:00.000Z</v>
       </c>
       <c r="K46">
-        <v>9655909013000</v>
+        <v>3717626176000</v>
       </c>
       <c r="L46">
-        <v>576497200</v>
+        <v>235914300</v>
       </c>
       <c r="M46">
-        <v>16313200</v>
+        <v>43000</v>
       </c>
       <c r="N46">
-        <v>269404064000</v>
+        <v>-8145328000</v>
       </c>
       <c r="O46">
-        <v>6911400</v>
+        <v>-28780800</v>
       </c>
       <c r="P46">
-        <v>302536552000</v>
+        <v>-386068639000</v>
       </c>
     </row>
     <row r="47">
       <c r="A47">
-        <v>1670595000000</v>
+        <v>1670582280000</v>
       </c>
       <c r="B47">
-        <v>7641200</v>
+        <v>3937000</v>
       </c>
       <c r="C47">
-        <v>8775600</v>
+        <v>924600</v>
       </c>
       <c r="D47">
-        <v>192000</v>
+        <v>15900</v>
       </c>
       <c r="E47">
-        <v>130862388000</v>
+        <v>72645883000</v>
       </c>
       <c r="F47">
-        <v>142906681000</v>
+        <v>16325464000</v>
       </c>
       <c r="G47">
-        <v>2360517000</v>
+        <v>281898000</v>
       </c>
       <c r="H47">
-        <v>16608800</v>
+        <v>4877500</v>
       </c>
       <c r="I47">
-        <v>276129586000</v>
+        <v>89253245000</v>
       </c>
       <c r="J47" t="str">
-        <v>2022-12-09T14:10:00.000Z</v>
+        <v>2022-12-09T10:38:00.000Z</v>
       </c>
       <c r="K47">
-        <v>9932038599000</v>
+        <v>3806879421000</v>
       </c>
       <c r="L47">
-        <v>593106000</v>
+        <v>240791800</v>
       </c>
       <c r="M47">
-        <v>1134400</v>
+        <v>-3012400</v>
       </c>
       <c r="N47">
-        <v>12044293000</v>
+        <v>-56320419000</v>
       </c>
       <c r="O47">
-        <v>8045800</v>
+        <v>-31793200</v>
       </c>
       <c r="P47">
-        <v>314580845000</v>
+        <v>-442389058000</v>
       </c>
     </row>
     <row r="48">
       <c r="A48">
-        <v>1670595300000</v>
+        <v>1670582400000</v>
       </c>
       <c r="B48">
-        <v>10928200</v>
+        <v>3564700</v>
       </c>
       <c r="C48">
-        <v>3967700</v>
+        <v>1149100</v>
       </c>
       <c r="D48">
-        <v>131200</v>
+        <v>26700</v>
       </c>
       <c r="E48">
-        <v>184432096000</v>
+        <v>58082179000</v>
       </c>
       <c r="F48">
-        <v>70127582000</v>
+        <v>21321373000</v>
       </c>
       <c r="G48">
-        <v>2630979000</v>
+        <v>285577000</v>
       </c>
       <c r="H48">
-        <v>15027100</v>
+        <v>4740500</v>
       </c>
       <c r="I48">
-        <v>257190657000</v>
+        <v>79689129000</v>
       </c>
       <c r="J48" t="str">
-        <v>2022-12-09T14:15:00.000Z</v>
+        <v>2022-12-09T10:40:00.000Z</v>
       </c>
       <c r="K48">
-        <v>10189229256000</v>
+        <v>3886568550000</v>
       </c>
       <c r="L48">
-        <v>608133100</v>
+        <v>245532300</v>
       </c>
       <c r="M48">
-        <v>-6960500</v>
+        <v>-2415600</v>
       </c>
       <c r="N48">
-        <v>-114304514000</v>
+        <v>-36760806000</v>
       </c>
       <c r="O48">
-        <v>1085300</v>
+        <v>-34208800</v>
       </c>
       <c r="P48">
-        <v>200276331000</v>
+        <v>-479149864000</v>
       </c>
     </row>
     <row r="49">
       <c r="A49">
-        <v>1670595600000</v>
+        <v>1670582520000</v>
       </c>
       <c r="B49">
-        <v>5440200</v>
+        <v>1028400</v>
       </c>
       <c r="C49">
-        <v>12350600</v>
+        <v>1871100</v>
       </c>
       <c r="D49">
-        <v>150900</v>
+        <v>15700</v>
       </c>
       <c r="E49">
-        <v>98585177000</v>
+        <v>16769241000</v>
       </c>
       <c r="F49">
-        <v>242049757000</v>
+        <v>32873983000</v>
       </c>
       <c r="G49">
-        <v>2494258000</v>
+        <v>420856000</v>
       </c>
       <c r="H49">
-        <v>17941700</v>
+        <v>2915200</v>
       </c>
       <c r="I49">
-        <v>343129192000</v>
+        <v>50064080000</v>
       </c>
       <c r="J49" t="str">
-        <v>2022-12-09T14:20:00.000Z</v>
+        <v>2022-12-09T10:42:00.000Z</v>
       </c>
       <c r="K49">
-        <v>10532358448000</v>
+        <v>3936632630000</v>
       </c>
       <c r="L49">
-        <v>626074800</v>
+        <v>248447500</v>
       </c>
       <c r="M49">
-        <v>6910400</v>
+        <v>842700</v>
       </c>
       <c r="N49">
-        <v>143464580000</v>
+        <v>16104742000</v>
       </c>
       <c r="O49">
-        <v>7995700</v>
+        <v>-33366100</v>
       </c>
       <c r="P49">
-        <v>343740911000</v>
+        <v>-463045122000</v>
       </c>
     </row>
     <row r="50">
       <c r="A50">
-        <v>1670595900000</v>
+        <v>1670582640000</v>
       </c>
       <c r="B50">
-        <v>9959800</v>
+        <v>1100400</v>
       </c>
       <c r="C50">
-        <v>13618000</v>
+        <v>1105100</v>
       </c>
       <c r="D50">
-        <v>301600</v>
+        <v>34200</v>
       </c>
       <c r="E50">
-        <v>161106763000</v>
+        <v>18597485000</v>
       </c>
       <c r="F50">
-        <v>248328792000</v>
+        <v>20836203000</v>
       </c>
       <c r="G50">
-        <v>4643712000</v>
+        <v>561089000</v>
       </c>
       <c r="H50">
-        <v>23879400</v>
+        <v>2239700</v>
       </c>
       <c r="I50">
-        <v>414079267000</v>
+        <v>39994777000</v>
       </c>
       <c r="J50" t="str">
-        <v>2022-12-09T14:25:00.000Z</v>
+        <v>2022-12-09T10:44:00.000Z</v>
       </c>
       <c r="K50">
-        <v>10946437715000</v>
+        <v>3976627407000</v>
       </c>
       <c r="L50">
-        <v>649954200</v>
+        <v>250687200</v>
       </c>
       <c r="M50">
-        <v>3658200</v>
+        <v>4700</v>
       </c>
       <c r="N50">
-        <v>87222029000</v>
+        <v>2238718000</v>
       </c>
       <c r="O50">
-        <v>11653900</v>
+        <v>-33361400</v>
       </c>
       <c r="P50">
-        <v>430962940000</v>
+        <v>-460806404000</v>
       </c>
     </row>
     <row r="51">
       <c r="A51">
-        <v>1670596200000</v>
+        <v>1670582760000</v>
       </c>
       <c r="B51">
-        <v>13700</v>
+        <v>1636400</v>
       </c>
       <c r="C51">
-        <v>19700</v>
+        <v>1087500</v>
       </c>
       <c r="D51">
-        <v>0</v>
+        <v>15700</v>
       </c>
       <c r="E51">
-        <v>233415000</v>
+        <v>29567345000</v>
       </c>
       <c r="F51">
-        <v>523320000</v>
+        <v>21938573000</v>
       </c>
       <c r="G51">
-        <v>0</v>
+        <v>227409000</v>
       </c>
       <c r="H51">
-        <v>33400</v>
+        <v>2739600</v>
       </c>
       <c r="I51">
-        <v>756735000</v>
+        <v>51733327000</v>
       </c>
       <c r="J51" t="str">
-        <v>2022-12-09T14:30:00.000Z</v>
+        <v>2022-12-09T10:46:00.000Z</v>
       </c>
       <c r="K51">
-        <v>10947194450000</v>
+        <v>4028360734000</v>
       </c>
       <c r="L51">
-        <v>649987600</v>
+        <v>253426800</v>
       </c>
       <c r="M51">
-        <v>6000</v>
+        <v>-548900</v>
       </c>
       <c r="N51">
-        <v>289905000</v>
+        <v>-7628772000</v>
       </c>
       <c r="O51">
-        <v>11659900</v>
+        <v>-33910300</v>
       </c>
       <c r="P51">
-        <v>431252845000</v>
+        <v>-468435176000</v>
       </c>
     </row>
     <row r="52">
       <c r="A52">
-        <v>1670597100000</v>
+        <v>1670582880000</v>
       </c>
       <c r="B52">
-        <v>2825900</v>
+        <v>684000</v>
       </c>
       <c r="C52">
-        <v>3717600</v>
+        <v>2434200</v>
       </c>
       <c r="D52">
-        <v>36085100</v>
+        <v>7700</v>
       </c>
       <c r="E52">
-        <v>74670597000</v>
+        <v>12947467000</v>
       </c>
       <c r="F52">
-        <v>84080980000</v>
+        <v>47494532000</v>
       </c>
       <c r="G52">
-        <v>647446149000</v>
+        <v>92649000</v>
       </c>
       <c r="H52">
-        <v>42628600</v>
+        <v>3125900</v>
       </c>
       <c r="I52">
-        <v>806197726000</v>
+        <v>60534648000</v>
       </c>
       <c r="J52" t="str">
-        <v>2022-12-09T14:45:00.000Z</v>
+        <v>2022-12-09T10:48:00.000Z</v>
       </c>
       <c r="K52">
-        <v>11753392176000</v>
+        <v>4088895382000</v>
       </c>
       <c r="L52">
-        <v>692616200</v>
+        <v>256552700</v>
       </c>
       <c r="M52">
-        <v>891700</v>
+        <v>1750200</v>
       </c>
       <c r="N52">
-        <v>9410383000</v>
+        <v>34547065000</v>
       </c>
       <c r="O52">
-        <v>12551600</v>
+        <v>-32160100</v>
       </c>
       <c r="P52">
-        <v>440663228000</v>
+        <v>-433888111000</v>
       </c>
     </row>
     <row r="53">
       <c r="A53">
-        <v>1670597700000</v>
+        <v>1670583000000</v>
       </c>
       <c r="B53">
+        <v>1071000</v>
+      </c>
+      <c r="C53">
+        <v>3909100</v>
+      </c>
+      <c r="D53">
+        <v>6000</v>
+      </c>
+      <c r="E53">
+        <v>19775520000</v>
+      </c>
+      <c r="F53">
+        <v>75050815000</v>
+      </c>
+      <c r="G53">
+        <v>190830000</v>
+      </c>
+      <c r="H53">
+        <v>4986100</v>
+      </c>
+      <c r="I53">
+        <v>95017165000</v>
+      </c>
+      <c r="J53" t="str">
+        <v>2022-12-09T10:50:00.000Z</v>
+      </c>
+      <c r="K53">
+        <v>4183912547000</v>
+      </c>
+      <c r="L53">
+        <v>261538800</v>
+      </c>
+      <c r="M53">
+        <v>2838100</v>
+      </c>
+      <c r="N53">
+        <v>55275295000</v>
+      </c>
+      <c r="O53">
+        <v>-29322000</v>
+      </c>
+      <c r="P53">
+        <v>-378612816000</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54">
+        <v>1670583120000</v>
+      </c>
+      <c r="B54">
+        <v>806400</v>
+      </c>
+      <c r="C54">
+        <v>4257400</v>
+      </c>
+      <c r="D54">
+        <v>7500</v>
+      </c>
+      <c r="E54">
+        <v>14584105000</v>
+      </c>
+      <c r="F54">
+        <v>73254338000</v>
+      </c>
+      <c r="G54">
+        <v>147312000</v>
+      </c>
+      <c r="H54">
+        <v>5071300</v>
+      </c>
+      <c r="I54">
+        <v>87985755000</v>
+      </c>
+      <c r="J54" t="str">
+        <v>2022-12-09T10:52:00.000Z</v>
+      </c>
+      <c r="K54">
+        <v>4271898302000</v>
+      </c>
+      <c r="L54">
+        <v>266610100</v>
+      </c>
+      <c r="M54">
+        <v>3451000</v>
+      </c>
+      <c r="N54">
+        <v>58670233000</v>
+      </c>
+      <c r="O54">
+        <v>-25871000</v>
+      </c>
+      <c r="P54">
+        <v>-319942583000</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55">
+        <v>1670583240000</v>
+      </c>
+      <c r="B55">
+        <v>1625800</v>
+      </c>
+      <c r="C55">
+        <v>2356300</v>
+      </c>
+      <c r="D55">
+        <v>36400</v>
+      </c>
+      <c r="E55">
+        <v>34106030000</v>
+      </c>
+      <c r="F55">
+        <v>39469474000</v>
+      </c>
+      <c r="G55">
+        <v>854317000</v>
+      </c>
+      <c r="H55">
+        <v>4018500</v>
+      </c>
+      <c r="I55">
+        <v>74429821000</v>
+      </c>
+      <c r="J55" t="str">
+        <v>2022-12-09T10:54:00.000Z</v>
+      </c>
+      <c r="K55">
+        <v>4346328123000</v>
+      </c>
+      <c r="L55">
+        <v>270628600</v>
+      </c>
+      <c r="M55">
+        <v>730500</v>
+      </c>
+      <c r="N55">
+        <v>5363444000</v>
+      </c>
+      <c r="O55">
+        <v>-25140500</v>
+      </c>
+      <c r="P55">
+        <v>-314579139000</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56">
+        <v>1670583360000</v>
+      </c>
+      <c r="B56">
+        <v>1207000</v>
+      </c>
+      <c r="C56">
+        <v>2169400</v>
+      </c>
+      <c r="D56">
+        <v>8800</v>
+      </c>
+      <c r="E56">
+        <v>20525481000</v>
+      </c>
+      <c r="F56">
+        <v>43346300000</v>
+      </c>
+      <c r="G56">
+        <v>233195000</v>
+      </c>
+      <c r="H56">
+        <v>3385200</v>
+      </c>
+      <c r="I56">
+        <v>64104976000</v>
+      </c>
+      <c r="J56" t="str">
+        <v>2022-12-09T10:56:00.000Z</v>
+      </c>
+      <c r="K56">
+        <v>4410433099000</v>
+      </c>
+      <c r="L56">
+        <v>274013800</v>
+      </c>
+      <c r="M56">
+        <v>962400</v>
+      </c>
+      <c r="N56">
+        <v>22820819000</v>
+      </c>
+      <c r="O56">
+        <v>-24178100</v>
+      </c>
+      <c r="P56">
+        <v>-291758320000</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57">
+        <v>1670583480000</v>
+      </c>
+      <c r="B57">
+        <v>1485200</v>
+      </c>
+      <c r="C57">
+        <v>1402100</v>
+      </c>
+      <c r="D57">
+        <v>25200</v>
+      </c>
+      <c r="E57">
+        <v>30907138000</v>
+      </c>
+      <c r="F57">
+        <v>27148114000</v>
+      </c>
+      <c r="G57">
+        <v>326670000</v>
+      </c>
+      <c r="H57">
+        <v>2912500</v>
+      </c>
+      <c r="I57">
+        <v>58381922000</v>
+      </c>
+      <c r="J57" t="str">
+        <v>2022-12-09T10:58:00.000Z</v>
+      </c>
+      <c r="K57">
+        <v>4468815021000</v>
+      </c>
+      <c r="L57">
+        <v>276926300</v>
+      </c>
+      <c r="M57">
+        <v>-83100</v>
+      </c>
+      <c r="N57">
+        <v>-3759024000</v>
+      </c>
+      <c r="O57">
+        <v>-24261200</v>
+      </c>
+      <c r="P57">
+        <v>-295517344000</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58">
+        <v>1670583600000</v>
+      </c>
+      <c r="B58">
+        <v>3025000</v>
+      </c>
+      <c r="C58">
+        <v>1546700</v>
+      </c>
+      <c r="D58">
+        <v>23800</v>
+      </c>
+      <c r="E58">
+        <v>62911938000</v>
+      </c>
+      <c r="F58">
+        <v>26659679000</v>
+      </c>
+      <c r="G58">
+        <v>287713000</v>
+      </c>
+      <c r="H58">
+        <v>4595500</v>
+      </c>
+      <c r="I58">
+        <v>89859330000</v>
+      </c>
+      <c r="J58" t="str">
+        <v>2022-12-09T11:00:00.000Z</v>
+      </c>
+      <c r="K58">
+        <v>4558674351000</v>
+      </c>
+      <c r="L58">
+        <v>281521800</v>
+      </c>
+      <c r="M58">
+        <v>-1478300</v>
+      </c>
+      <c r="N58">
+        <v>-36252259000</v>
+      </c>
+      <c r="O58">
+        <v>-25739500</v>
+      </c>
+      <c r="P58">
+        <v>-331769603000</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59">
+        <v>1670583720000</v>
+      </c>
+      <c r="B59">
+        <v>1992200</v>
+      </c>
+      <c r="C59">
+        <v>1278100</v>
+      </c>
+      <c r="D59">
+        <v>51200</v>
+      </c>
+      <c r="E59">
+        <v>35143901000</v>
+      </c>
+      <c r="F59">
+        <v>22271003000</v>
+      </c>
+      <c r="G59">
+        <v>948570000</v>
+      </c>
+      <c r="H59">
+        <v>3321500</v>
+      </c>
+      <c r="I59">
+        <v>58363474000</v>
+      </c>
+      <c r="J59" t="str">
+        <v>2022-12-09T11:02:00.000Z</v>
+      </c>
+      <c r="K59">
+        <v>4617037825000</v>
+      </c>
+      <c r="L59">
+        <v>284843300</v>
+      </c>
+      <c r="M59">
+        <v>-714100</v>
+      </c>
+      <c r="N59">
+        <v>-12872898000</v>
+      </c>
+      <c r="O59">
+        <v>-26453600</v>
+      </c>
+      <c r="P59">
+        <v>-344642501000</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60">
+        <v>1670583840000</v>
+      </c>
+      <c r="B60">
+        <v>1056600</v>
+      </c>
+      <c r="C60">
+        <v>1502400</v>
+      </c>
+      <c r="D60">
+        <v>14700</v>
+      </c>
+      <c r="E60">
+        <v>17585616000</v>
+      </c>
+      <c r="F60">
+        <v>26600611000</v>
+      </c>
+      <c r="G60">
+        <v>246333000</v>
+      </c>
+      <c r="H60">
+        <v>2573700</v>
+      </c>
+      <c r="I60">
+        <v>44432560000</v>
+      </c>
+      <c r="J60" t="str">
+        <v>2022-12-09T11:04:00.000Z</v>
+      </c>
+      <c r="K60">
+        <v>4661470385000</v>
+      </c>
+      <c r="L60">
+        <v>287417000</v>
+      </c>
+      <c r="M60">
+        <v>445800</v>
+      </c>
+      <c r="N60">
+        <v>9014995000</v>
+      </c>
+      <c r="O60">
+        <v>-26007800</v>
+      </c>
+      <c r="P60">
+        <v>-335627506000</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61">
+        <v>1670583960000</v>
+      </c>
+      <c r="B61">
+        <v>770400</v>
+      </c>
+      <c r="C61">
+        <v>1772100</v>
+      </c>
+      <c r="D61">
+        <v>16400</v>
+      </c>
+      <c r="E61">
+        <v>12947016000</v>
+      </c>
+      <c r="F61">
+        <v>27321488000</v>
+      </c>
+      <c r="G61">
+        <v>143410000</v>
+      </c>
+      <c r="H61">
+        <v>2558900</v>
+      </c>
+      <c r="I61">
+        <v>40411914000</v>
+      </c>
+      <c r="J61" t="str">
+        <v>2022-12-09T11:06:00.000Z</v>
+      </c>
+      <c r="K61">
+        <v>4701882299000</v>
+      </c>
+      <c r="L61">
+        <v>289975900</v>
+      </c>
+      <c r="M61">
+        <v>1001700</v>
+      </c>
+      <c r="N61">
+        <v>14374472000</v>
+      </c>
+      <c r="O61">
+        <v>-25006100</v>
+      </c>
+      <c r="P61">
+        <v>-321253034000</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62">
+        <v>1670584080000</v>
+      </c>
+      <c r="B62">
+        <v>827100</v>
+      </c>
+      <c r="C62">
+        <v>2356600</v>
+      </c>
+      <c r="D62">
+        <v>28900</v>
+      </c>
+      <c r="E62">
+        <v>15367603000</v>
+      </c>
+      <c r="F62">
+        <v>36184614000</v>
+      </c>
+      <c r="G62">
+        <v>371584000</v>
+      </c>
+      <c r="H62">
+        <v>3212600</v>
+      </c>
+      <c r="I62">
+        <v>51923801000</v>
+      </c>
+      <c r="J62" t="str">
+        <v>2022-12-09T11:08:00.000Z</v>
+      </c>
+      <c r="K62">
+        <v>4753806100000</v>
+      </c>
+      <c r="L62">
+        <v>293188500</v>
+      </c>
+      <c r="M62">
+        <v>1529500</v>
+      </c>
+      <c r="N62">
+        <v>20817011000</v>
+      </c>
+      <c r="O62">
+        <v>-23476600</v>
+      </c>
+      <c r="P62">
+        <v>-300436023000</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63">
+        <v>1670584200000</v>
+      </c>
+      <c r="B63">
+        <v>768200</v>
+      </c>
+      <c r="C63">
+        <v>2331600</v>
+      </c>
+      <c r="D63">
+        <v>31500</v>
+      </c>
+      <c r="E63">
+        <v>11755202000</v>
+      </c>
+      <c r="F63">
+        <v>38796519000</v>
+      </c>
+      <c r="G63">
+        <v>457703000</v>
+      </c>
+      <c r="H63">
+        <v>3131300</v>
+      </c>
+      <c r="I63">
+        <v>51009424000</v>
+      </c>
+      <c r="J63" t="str">
+        <v>2022-12-09T11:10:00.000Z</v>
+      </c>
+      <c r="K63">
+        <v>4804815524000</v>
+      </c>
+      <c r="L63">
+        <v>296319800</v>
+      </c>
+      <c r="M63">
+        <v>1563400</v>
+      </c>
+      <c r="N63">
+        <v>27041317000</v>
+      </c>
+      <c r="O63">
+        <v>-21913200</v>
+      </c>
+      <c r="P63">
+        <v>-273394706000</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64">
+        <v>1670584320000</v>
+      </c>
+      <c r="B64">
+        <v>858200</v>
+      </c>
+      <c r="C64">
+        <v>4748500</v>
+      </c>
+      <c r="D64">
+        <v>18900</v>
+      </c>
+      <c r="E64">
+        <v>15667146000</v>
+      </c>
+      <c r="F64">
+        <v>75346066000</v>
+      </c>
+      <c r="G64">
+        <v>428807000</v>
+      </c>
+      <c r="H64">
+        <v>5625600</v>
+      </c>
+      <c r="I64">
+        <v>91442019000</v>
+      </c>
+      <c r="J64" t="str">
+        <v>2022-12-09T11:12:00.000Z</v>
+      </c>
+      <c r="K64">
+        <v>4896257543000</v>
+      </c>
+      <c r="L64">
+        <v>301945400</v>
+      </c>
+      <c r="M64">
+        <v>3890300</v>
+      </c>
+      <c r="N64">
+        <v>59678920000</v>
+      </c>
+      <c r="O64">
+        <v>-18022900</v>
+      </c>
+      <c r="P64">
+        <v>-213715786000</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65">
+        <v>1670584440000</v>
+      </c>
+      <c r="B65">
+        <v>865700</v>
+      </c>
+      <c r="C65">
+        <v>4982300</v>
+      </c>
+      <c r="D65">
+        <v>175700</v>
+      </c>
+      <c r="E65">
+        <v>15428725000</v>
+      </c>
+      <c r="F65">
+        <v>72301288000</v>
+      </c>
+      <c r="G65">
+        <v>1870637000</v>
+      </c>
+      <c r="H65">
+        <v>6023700</v>
+      </c>
+      <c r="I65">
+        <v>89600650000</v>
+      </c>
+      <c r="J65" t="str">
+        <v>2022-12-09T11:14:00.000Z</v>
+      </c>
+      <c r="K65">
+        <v>4985858193000</v>
+      </c>
+      <c r="L65">
+        <v>307969100</v>
+      </c>
+      <c r="M65">
+        <v>4116600</v>
+      </c>
+      <c r="N65">
+        <v>56872563000</v>
+      </c>
+      <c r="O65">
+        <v>-13906300</v>
+      </c>
+      <c r="P65">
+        <v>-156843223000</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66">
+        <v>1670584560000</v>
+      </c>
+      <c r="B66">
+        <v>1875800</v>
+      </c>
+      <c r="C66">
+        <v>3733500</v>
+      </c>
+      <c r="D66">
+        <v>119700</v>
+      </c>
+      <c r="E66">
+        <v>34770087000</v>
+      </c>
+      <c r="F66">
+        <v>59564611000</v>
+      </c>
+      <c r="G66">
+        <v>1376097000</v>
+      </c>
+      <c r="H66">
+        <v>5729000</v>
+      </c>
+      <c r="I66">
+        <v>95710795000</v>
+      </c>
+      <c r="J66" t="str">
+        <v>2022-12-09T11:16:00.000Z</v>
+      </c>
+      <c r="K66">
+        <v>5081568988000</v>
+      </c>
+      <c r="L66">
+        <v>313698100</v>
+      </c>
+      <c r="M66">
+        <v>1857700</v>
+      </c>
+      <c r="N66">
+        <v>24794524000</v>
+      </c>
+      <c r="O66">
+        <v>-12048600</v>
+      </c>
+      <c r="P66">
+        <v>-132048699000</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67">
+        <v>1670584680000</v>
+      </c>
+      <c r="B67">
+        <v>1410100</v>
+      </c>
+      <c r="C67">
+        <v>1920200</v>
+      </c>
+      <c r="D67">
+        <v>77300</v>
+      </c>
+      <c r="E67">
+        <v>25053323000</v>
+      </c>
+      <c r="F67">
+        <v>34190685000</v>
+      </c>
+      <c r="G67">
+        <v>742968000</v>
+      </c>
+      <c r="H67">
+        <v>3407600</v>
+      </c>
+      <c r="I67">
+        <v>59986976000</v>
+      </c>
+      <c r="J67" t="str">
+        <v>2022-12-09T11:18:00.000Z</v>
+      </c>
+      <c r="K67">
+        <v>5141555964000</v>
+      </c>
+      <c r="L67">
+        <v>317105700</v>
+      </c>
+      <c r="M67">
+        <v>510100</v>
+      </c>
+      <c r="N67">
+        <v>9137362000</v>
+      </c>
+      <c r="O67">
+        <v>-11538500</v>
+      </c>
+      <c r="P67">
+        <v>-122911337000</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68">
+        <v>1670584800000</v>
+      </c>
+      <c r="B68">
+        <v>1458900</v>
+      </c>
+      <c r="C68">
+        <v>2572200</v>
+      </c>
+      <c r="D68">
+        <v>27600</v>
+      </c>
+      <c r="E68">
+        <v>23353730000</v>
+      </c>
+      <c r="F68">
+        <v>43742201000</v>
+      </c>
+      <c r="G68">
+        <v>375481000</v>
+      </c>
+      <c r="H68">
+        <v>4058700</v>
+      </c>
+      <c r="I68">
+        <v>67471412000</v>
+      </c>
+      <c r="J68" t="str">
+        <v>2022-12-09T11:20:00.000Z</v>
+      </c>
+      <c r="K68">
+        <v>5209027376000</v>
+      </c>
+      <c r="L68">
+        <v>321164400</v>
+      </c>
+      <c r="M68">
+        <v>1113300</v>
+      </c>
+      <c r="N68">
+        <v>20388471000</v>
+      </c>
+      <c r="O68">
+        <v>-10425200</v>
+      </c>
+      <c r="P68">
+        <v>-102522866000</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69">
+        <v>1670584920000</v>
+      </c>
+      <c r="B69">
+        <v>701000</v>
+      </c>
+      <c r="C69">
+        <v>2634400</v>
+      </c>
+      <c r="D69">
+        <v>13700</v>
+      </c>
+      <c r="E69">
+        <v>11750282000</v>
+      </c>
+      <c r="F69">
+        <v>46218018000</v>
+      </c>
+      <c r="G69">
+        <v>278350000</v>
+      </c>
+      <c r="H69">
+        <v>3349100</v>
+      </c>
+      <c r="I69">
+        <v>58246650000</v>
+      </c>
+      <c r="J69" t="str">
+        <v>2022-12-09T11:22:00.000Z</v>
+      </c>
+      <c r="K69">
+        <v>5267274026000</v>
+      </c>
+      <c r="L69">
+        <v>324513500</v>
+      </c>
+      <c r="M69">
+        <v>1933400</v>
+      </c>
+      <c r="N69">
+        <v>34467736000</v>
+      </c>
+      <c r="O69">
+        <v>-8491800</v>
+      </c>
+      <c r="P69">
+        <v>-68055130000</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70">
+        <v>1670585040000</v>
+      </c>
+      <c r="B70">
+        <v>1663200</v>
+      </c>
+      <c r="C70">
+        <v>2369100</v>
+      </c>
+      <c r="D70">
+        <v>7500</v>
+      </c>
+      <c r="E70">
+        <v>29743870000</v>
+      </c>
+      <c r="F70">
+        <v>41254453000</v>
+      </c>
+      <c r="G70">
+        <v>224404000</v>
+      </c>
+      <c r="H70">
+        <v>4039800</v>
+      </c>
+      <c r="I70">
+        <v>71222727000</v>
+      </c>
+      <c r="J70" t="str">
+        <v>2022-12-09T11:24:00.000Z</v>
+      </c>
+      <c r="K70">
+        <v>5338496753000</v>
+      </c>
+      <c r="L70">
+        <v>328553300</v>
+      </c>
+      <c r="M70">
+        <v>705900</v>
+      </c>
+      <c r="N70">
+        <v>11510583000</v>
+      </c>
+      <c r="O70">
+        <v>-7785900</v>
+      </c>
+      <c r="P70">
+        <v>-56544547000</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71">
+        <v>1670585160000</v>
+      </c>
+      <c r="B71">
+        <v>1079000</v>
+      </c>
+      <c r="C71">
+        <v>2135500</v>
+      </c>
+      <c r="D71">
+        <v>15700</v>
+      </c>
+      <c r="E71">
+        <v>22726605000</v>
+      </c>
+      <c r="F71">
+        <v>34589779000</v>
+      </c>
+      <c r="G71">
+        <v>87724000</v>
+      </c>
+      <c r="H71">
+        <v>3230200</v>
+      </c>
+      <c r="I71">
+        <v>57404108000</v>
+      </c>
+      <c r="J71" t="str">
+        <v>2022-12-09T11:26:00.000Z</v>
+      </c>
+      <c r="K71">
+        <v>5395900861000</v>
+      </c>
+      <c r="L71">
+        <v>331783500</v>
+      </c>
+      <c r="M71">
+        <v>1056500</v>
+      </c>
+      <c r="N71">
+        <v>11863174000</v>
+      </c>
+      <c r="O71">
+        <v>-6729400</v>
+      </c>
+      <c r="P71">
+        <v>-44681373000</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72">
+        <v>1670585280000</v>
+      </c>
+      <c r="B72">
+        <v>1759100</v>
+      </c>
+      <c r="C72">
+        <v>7511300</v>
+      </c>
+      <c r="D72">
+        <v>160100</v>
+      </c>
+      <c r="E72">
+        <v>28678152000</v>
+      </c>
+      <c r="F72">
+        <v>128577910000</v>
+      </c>
+      <c r="G72">
+        <v>3365450000</v>
+      </c>
+      <c r="H72">
+        <v>9430500</v>
+      </c>
+      <c r="I72">
+        <v>160621512000</v>
+      </c>
+      <c r="J72" t="str">
+        <v>2022-12-09T11:28:00.000Z</v>
+      </c>
+      <c r="K72">
+        <v>5556522373000</v>
+      </c>
+      <c r="L72">
+        <v>341214000</v>
+      </c>
+      <c r="M72">
+        <v>5752200</v>
+      </c>
+      <c r="N72">
+        <v>99899758000</v>
+      </c>
+      <c r="O72">
+        <v>-977200</v>
+      </c>
+      <c r="P72">
+        <v>55218385000</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73">
+        <v>1670585400000</v>
+      </c>
+      <c r="B73">
+        <v>7300</v>
+      </c>
+      <c r="C73">
+        <v>92700</v>
+      </c>
+      <c r="D73">
+        <v>0</v>
+      </c>
+      <c r="E73">
+        <v>174508000</v>
+      </c>
+      <c r="F73">
+        <v>1407865000</v>
+      </c>
+      <c r="G73">
+        <v>0</v>
+      </c>
+      <c r="H73">
+        <v>100000</v>
+      </c>
+      <c r="I73">
+        <v>1582373000</v>
+      </c>
+      <c r="J73" t="str">
+        <v>2022-12-09T11:30:00.000Z</v>
+      </c>
+      <c r="K73">
+        <v>5558104746000</v>
+      </c>
+      <c r="L73">
+        <v>341314000</v>
+      </c>
+      <c r="M73">
+        <v>85400</v>
+      </c>
+      <c r="N73">
+        <v>1233357000</v>
+      </c>
+      <c r="O73">
+        <v>-891800</v>
+      </c>
+      <c r="P73">
+        <v>56451742000</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74">
+        <v>1670590800000</v>
+      </c>
+      <c r="B74">
+        <v>10757300</v>
+      </c>
+      <c r="C74">
+        <v>13966300</v>
+      </c>
+      <c r="D74">
+        <v>500200</v>
+      </c>
+      <c r="E74">
+        <v>172430809000</v>
+      </c>
+      <c r="F74">
+        <v>218880086000</v>
+      </c>
+      <c r="G74">
+        <v>8246975000</v>
+      </c>
+      <c r="H74">
+        <v>25223800</v>
+      </c>
+      <c r="I74">
+        <v>399557870000</v>
+      </c>
+      <c r="J74" t="str">
+        <v>2022-12-09T13:00:00.000Z</v>
+      </c>
+      <c r="K74">
+        <v>5957662616000</v>
+      </c>
+      <c r="L74">
+        <v>366537800</v>
+      </c>
+      <c r="M74">
+        <v>3209000</v>
+      </c>
+      <c r="N74">
+        <v>46449277000</v>
+      </c>
+      <c r="O74">
+        <v>2317200</v>
+      </c>
+      <c r="P74">
+        <v>102901019000</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75">
+        <v>1670590920000</v>
+      </c>
+      <c r="B75">
+        <v>2237500</v>
+      </c>
+      <c r="C75">
+        <v>7402500</v>
+      </c>
+      <c r="D75">
+        <v>42200</v>
+      </c>
+      <c r="E75">
+        <v>39411424000</v>
+      </c>
+      <c r="F75">
+        <v>153925142000</v>
+      </c>
+      <c r="G75">
+        <v>1259392000</v>
+      </c>
+      <c r="H75">
+        <v>9682200</v>
+      </c>
+      <c r="I75">
+        <v>194595958000</v>
+      </c>
+      <c r="J75" t="str">
+        <v>2022-12-09T13:02:00.000Z</v>
+      </c>
+      <c r="K75">
+        <v>6152258574000</v>
+      </c>
+      <c r="L75">
+        <v>376220000</v>
+      </c>
+      <c r="M75">
+        <v>5165000</v>
+      </c>
+      <c r="N75">
+        <v>114513718000</v>
+      </c>
+      <c r="O75">
+        <v>7482200</v>
+      </c>
+      <c r="P75">
+        <v>217414737000</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76">
+        <v>1670591040000</v>
+      </c>
+      <c r="B76">
+        <v>3805500</v>
+      </c>
+      <c r="C76">
+        <v>7706500</v>
+      </c>
+      <c r="D76">
+        <v>51600</v>
+      </c>
+      <c r="E76">
+        <v>58906779000</v>
+      </c>
+      <c r="F76">
+        <v>150534717000</v>
+      </c>
+      <c r="G76">
+        <v>856884000</v>
+      </c>
+      <c r="H76">
+        <v>11563600</v>
+      </c>
+      <c r="I76">
+        <v>210298380000</v>
+      </c>
+      <c r="J76" t="str">
+        <v>2022-12-09T13:04:00.000Z</v>
+      </c>
+      <c r="K76">
+        <v>6362556954000</v>
+      </c>
+      <c r="L76">
+        <v>387783600</v>
+      </c>
+      <c r="M76">
+        <v>3901000</v>
+      </c>
+      <c r="N76">
+        <v>91627938000</v>
+      </c>
+      <c r="O76">
+        <v>11383200</v>
+      </c>
+      <c r="P76">
+        <v>309042675000</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77">
+        <v>1670591160000</v>
+      </c>
+      <c r="B77">
+        <v>6186200</v>
+      </c>
+      <c r="C77">
+        <v>5656000</v>
+      </c>
+      <c r="D77">
+        <v>46300</v>
+      </c>
+      <c r="E77">
+        <v>98838754000</v>
+      </c>
+      <c r="F77">
+        <v>97629895000</v>
+      </c>
+      <c r="G77">
+        <v>628348000</v>
+      </c>
+      <c r="H77">
+        <v>11888500</v>
+      </c>
+      <c r="I77">
+        <v>197096997000</v>
+      </c>
+      <c r="J77" t="str">
+        <v>2022-12-09T13:06:00.000Z</v>
+      </c>
+      <c r="K77">
+        <v>6559653951000</v>
+      </c>
+      <c r="L77">
+        <v>399672100</v>
+      </c>
+      <c r="M77">
+        <v>-530200</v>
+      </c>
+      <c r="N77">
+        <v>-1208859000</v>
+      </c>
+      <c r="O77">
+        <v>10853000</v>
+      </c>
+      <c r="P77">
+        <v>307833816000</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78">
+        <v>1670591280000</v>
+      </c>
+      <c r="B78">
+        <v>5760200</v>
+      </c>
+      <c r="C78">
+        <v>3217900</v>
+      </c>
+      <c r="D78">
+        <v>97600</v>
+      </c>
+      <c r="E78">
+        <v>88759377000</v>
+      </c>
+      <c r="F78">
+        <v>57656565000</v>
+      </c>
+      <c r="G78">
+        <v>1372634000</v>
+      </c>
+      <c r="H78">
+        <v>9075700</v>
+      </c>
+      <c r="I78">
+        <v>147788576000</v>
+      </c>
+      <c r="J78" t="str">
+        <v>2022-12-09T13:08:00.000Z</v>
+      </c>
+      <c r="K78">
+        <v>6707442527000</v>
+      </c>
+      <c r="L78">
+        <v>408747800</v>
+      </c>
+      <c r="M78">
+        <v>-2542300</v>
+      </c>
+      <c r="N78">
+        <v>-31102812000</v>
+      </c>
+      <c r="O78">
+        <v>8310700</v>
+      </c>
+      <c r="P78">
+        <v>276731004000</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79">
+        <v>1670591400000</v>
+      </c>
+      <c r="B79">
+        <v>3874900</v>
+      </c>
+      <c r="C79">
+        <v>1870300</v>
+      </c>
+      <c r="D79">
+        <v>30800</v>
+      </c>
+      <c r="E79">
+        <v>63996634000</v>
+      </c>
+      <c r="F79">
+        <v>34624736000</v>
+      </c>
+      <c r="G79">
+        <v>395375000</v>
+      </c>
+      <c r="H79">
+        <v>5776000</v>
+      </c>
+      <c r="I79">
+        <v>99016745000</v>
+      </c>
+      <c r="J79" t="str">
+        <v>2022-12-09T13:10:00.000Z</v>
+      </c>
+      <c r="K79">
+        <v>6806459272000</v>
+      </c>
+      <c r="L79">
+        <v>414523800</v>
+      </c>
+      <c r="M79">
+        <v>-2004600</v>
+      </c>
+      <c r="N79">
+        <v>-29371898000</v>
+      </c>
+      <c r="O79">
+        <v>6306100</v>
+      </c>
+      <c r="P79">
+        <v>247359106000</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80">
+        <v>1670591520000</v>
+      </c>
+      <c r="B80">
+        <v>3107400</v>
+      </c>
+      <c r="C80">
+        <v>2449800</v>
+      </c>
+      <c r="D80">
+        <v>9400</v>
+      </c>
+      <c r="E80">
+        <v>53152754000</v>
+      </c>
+      <c r="F80">
+        <v>45901217000</v>
+      </c>
+      <c r="G80">
+        <v>472282000</v>
+      </c>
+      <c r="H80">
+        <v>5566600</v>
+      </c>
+      <c r="I80">
+        <v>99526253000</v>
+      </c>
+      <c r="J80" t="str">
+        <v>2022-12-09T13:12:00.000Z</v>
+      </c>
+      <c r="K80">
+        <v>6905985525000</v>
+      </c>
+      <c r="L80">
+        <v>420090400</v>
+      </c>
+      <c r="M80">
+        <v>-657600</v>
+      </c>
+      <c r="N80">
+        <v>-7251537000</v>
+      </c>
+      <c r="O80">
+        <v>5648500</v>
+      </c>
+      <c r="P80">
+        <v>240107569000</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81">
+        <v>1670591640000</v>
+      </c>
+      <c r="B81">
+        <v>4118400</v>
+      </c>
+      <c r="C81">
+        <v>2036300</v>
+      </c>
+      <c r="D81">
+        <v>38200</v>
+      </c>
+      <c r="E81">
+        <v>66523726000</v>
+      </c>
+      <c r="F81">
+        <v>37621901000</v>
+      </c>
+      <c r="G81">
+        <v>386928000</v>
+      </c>
+      <c r="H81">
+        <v>6192900</v>
+      </c>
+      <c r="I81">
+        <v>104532555000</v>
+      </c>
+      <c r="J81" t="str">
+        <v>2022-12-09T13:14:00.000Z</v>
+      </c>
+      <c r="K81">
+        <v>7010518080000</v>
+      </c>
+      <c r="L81">
+        <v>426283300</v>
+      </c>
+      <c r="M81">
+        <v>-2082100</v>
+      </c>
+      <c r="N81">
+        <v>-28901825000</v>
+      </c>
+      <c r="O81">
+        <v>3566400</v>
+      </c>
+      <c r="P81">
+        <v>211205744000</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82">
+        <v>1670591760000</v>
+      </c>
+      <c r="B82">
+        <v>3190600</v>
+      </c>
+      <c r="C82">
+        <v>2296600</v>
+      </c>
+      <c r="D82">
+        <v>13400</v>
+      </c>
+      <c r="E82">
+        <v>55124519000</v>
+      </c>
+      <c r="F82">
+        <v>45039564000</v>
+      </c>
+      <c r="G82">
+        <v>355892000</v>
+      </c>
+      <c r="H82">
+        <v>5500600</v>
+      </c>
+      <c r="I82">
+        <v>100519975000</v>
+      </c>
+      <c r="J82" t="str">
+        <v>2022-12-09T13:16:00.000Z</v>
+      </c>
+      <c r="K82">
+        <v>7111038055000</v>
+      </c>
+      <c r="L82">
+        <v>431783900</v>
+      </c>
+      <c r="M82">
+        <v>-894000</v>
+      </c>
+      <c r="N82">
+        <v>-10084955000</v>
+      </c>
+      <c r="O82">
+        <v>2672400</v>
+      </c>
+      <c r="P82">
+        <v>201120789000</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83">
+        <v>1670591880000</v>
+      </c>
+      <c r="B83">
+        <v>2666800</v>
+      </c>
+      <c r="C83">
+        <v>2076600</v>
+      </c>
+      <c r="D83">
+        <v>51000</v>
+      </c>
+      <c r="E83">
+        <v>53708244000</v>
+      </c>
+      <c r="F83">
+        <v>41978034000</v>
+      </c>
+      <c r="G83">
+        <v>902859000</v>
+      </c>
+      <c r="H83">
+        <v>4794400</v>
+      </c>
+      <c r="I83">
+        <v>96589137000</v>
+      </c>
+      <c r="J83" t="str">
+        <v>2022-12-09T13:18:00.000Z</v>
+      </c>
+      <c r="K83">
+        <v>7207627192000</v>
+      </c>
+      <c r="L83">
+        <v>436578300</v>
+      </c>
+      <c r="M83">
+        <v>-590200</v>
+      </c>
+      <c r="N83">
+        <v>-11730210000</v>
+      </c>
+      <c r="O83">
+        <v>2082200</v>
+      </c>
+      <c r="P83">
+        <v>189390579000</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84">
+        <v>1670592000000</v>
+      </c>
+      <c r="B84">
+        <v>3034500</v>
+      </c>
+      <c r="C84">
+        <v>1252100</v>
+      </c>
+      <c r="D84">
+        <v>46000</v>
+      </c>
+      <c r="E84">
+        <v>51974854000</v>
+      </c>
+      <c r="F84">
+        <v>24005263000</v>
+      </c>
+      <c r="G84">
+        <v>240528000</v>
+      </c>
+      <c r="H84">
+        <v>4332600</v>
+      </c>
+      <c r="I84">
+        <v>76220645000</v>
+      </c>
+      <c r="J84" t="str">
+        <v>2022-12-09T13:20:00.000Z</v>
+      </c>
+      <c r="K84">
+        <v>7283847837000</v>
+      </c>
+      <c r="L84">
+        <v>440910900</v>
+      </c>
+      <c r="M84">
+        <v>-1782400</v>
+      </c>
+      <c r="N84">
+        <v>-27969591000</v>
+      </c>
+      <c r="O84">
+        <v>299800</v>
+      </c>
+      <c r="P84">
+        <v>161420988000</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85">
+        <v>1670592120000</v>
+      </c>
+      <c r="B85">
+        <v>3165200</v>
+      </c>
+      <c r="C85">
+        <v>2068500</v>
+      </c>
+      <c r="D85">
+        <v>8600</v>
+      </c>
+      <c r="E85">
+        <v>57539298000</v>
+      </c>
+      <c r="F85">
+        <v>43296955000</v>
+      </c>
+      <c r="G85">
+        <v>268416000</v>
+      </c>
+      <c r="H85">
+        <v>5242300</v>
+      </c>
+      <c r="I85">
+        <v>101104669000</v>
+      </c>
+      <c r="J85" t="str">
+        <v>2022-12-09T13:22:00.000Z</v>
+      </c>
+      <c r="K85">
+        <v>7384952506000</v>
+      </c>
+      <c r="L85">
+        <v>446153200</v>
+      </c>
+      <c r="M85">
+        <v>-1096700</v>
+      </c>
+      <c r="N85">
+        <v>-14242343000</v>
+      </c>
+      <c r="O85">
+        <v>-796900</v>
+      </c>
+      <c r="P85">
+        <v>147178645000</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86">
+        <v>1670592240000</v>
+      </c>
+      <c r="B86">
+        <v>3208600</v>
+      </c>
+      <c r="C86">
+        <v>1517300</v>
+      </c>
+      <c r="D86">
+        <v>130600</v>
+      </c>
+      <c r="E86">
+        <v>57026359000</v>
+      </c>
+      <c r="F86">
+        <v>25763870000</v>
+      </c>
+      <c r="G86">
+        <v>1789176000</v>
+      </c>
+      <c r="H86">
+        <v>4856500</v>
+      </c>
+      <c r="I86">
+        <v>84579405000</v>
+      </c>
+      <c r="J86" t="str">
+        <v>2022-12-09T13:24:00.000Z</v>
+      </c>
+      <c r="K86">
+        <v>7469531911000</v>
+      </c>
+      <c r="L86">
+        <v>451009700</v>
+      </c>
+      <c r="M86">
+        <v>-1691300</v>
+      </c>
+      <c r="N86">
+        <v>-31262489000</v>
+      </c>
+      <c r="O86">
+        <v>-2488200</v>
+      </c>
+      <c r="P86">
+        <v>115916156000</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87">
+        <v>1670592360000</v>
+      </c>
+      <c r="B87">
+        <v>3270500</v>
+      </c>
+      <c r="C87">
+        <v>1107500</v>
+      </c>
+      <c r="D87">
+        <v>28400</v>
+      </c>
+      <c r="E87">
+        <v>56633184000</v>
+      </c>
+      <c r="F87">
+        <v>20155936000</v>
+      </c>
+      <c r="G87">
+        <v>518056000</v>
+      </c>
+      <c r="H87">
+        <v>4406400</v>
+      </c>
+      <c r="I87">
+        <v>77307176000</v>
+      </c>
+      <c r="J87" t="str">
+        <v>2022-12-09T13:26:00.000Z</v>
+      </c>
+      <c r="K87">
+        <v>7546839087000</v>
+      </c>
+      <c r="L87">
+        <v>455416100</v>
+      </c>
+      <c r="M87">
+        <v>-2163000</v>
+      </c>
+      <c r="N87">
+        <v>-36477248000</v>
+      </c>
+      <c r="O87">
+        <v>-4651200</v>
+      </c>
+      <c r="P87">
+        <v>79438908000</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88">
+        <v>1670592480000</v>
+      </c>
+      <c r="B88">
+        <v>2495600</v>
+      </c>
+      <c r="C88">
+        <v>1982300</v>
+      </c>
+      <c r="D88">
+        <v>5300</v>
+      </c>
+      <c r="E88">
+        <v>47107791000</v>
+      </c>
+      <c r="F88">
+        <v>41759675000</v>
+      </c>
+      <c r="G88">
+        <v>182300000</v>
+      </c>
+      <c r="H88">
+        <v>4483200</v>
+      </c>
+      <c r="I88">
+        <v>89049766000</v>
+      </c>
+      <c r="J88" t="str">
+        <v>2022-12-09T13:28:00.000Z</v>
+      </c>
+      <c r="K88">
+        <v>7635888853000</v>
+      </c>
+      <c r="L88">
+        <v>459899300</v>
+      </c>
+      <c r="M88">
+        <v>-513300</v>
+      </c>
+      <c r="N88">
+        <v>-5348116000</v>
+      </c>
+      <c r="O88">
+        <v>-5164500</v>
+      </c>
+      <c r="P88">
+        <v>74090792000</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89">
+        <v>1670592600000</v>
+      </c>
+      <c r="B89">
+        <v>1744500</v>
+      </c>
+      <c r="C89">
+        <v>2766900</v>
+      </c>
+      <c r="D89">
+        <v>23200</v>
+      </c>
+      <c r="E89">
+        <v>30015936000</v>
+      </c>
+      <c r="F89">
+        <v>56190323000</v>
+      </c>
+      <c r="G89">
+        <v>596929000</v>
+      </c>
+      <c r="H89">
+        <v>4534600</v>
+      </c>
+      <c r="I89">
+        <v>86803188000</v>
+      </c>
+      <c r="J89" t="str">
+        <v>2022-12-09T13:30:00.000Z</v>
+      </c>
+      <c r="K89">
+        <v>7722692041000</v>
+      </c>
+      <c r="L89">
+        <v>464433900</v>
+      </c>
+      <c r="M89">
+        <v>1022400</v>
+      </c>
+      <c r="N89">
+        <v>26174387000</v>
+      </c>
+      <c r="O89">
+        <v>-4142100</v>
+      </c>
+      <c r="P89">
+        <v>100265179000</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90">
+        <v>1670592720000</v>
+      </c>
+      <c r="B90">
+        <v>979000</v>
+      </c>
+      <c r="C90">
+        <v>5888900</v>
+      </c>
+      <c r="D90">
+        <v>29800</v>
+      </c>
+      <c r="E90">
+        <v>16856645000</v>
+      </c>
+      <c r="F90">
+        <v>102517001000</v>
+      </c>
+      <c r="G90">
+        <v>320541000</v>
+      </c>
+      <c r="H90">
+        <v>6897700</v>
+      </c>
+      <c r="I90">
+        <v>119694187000</v>
+      </c>
+      <c r="J90" t="str">
+        <v>2022-12-09T13:32:00.000Z</v>
+      </c>
+      <c r="K90">
+        <v>7842386228000</v>
+      </c>
+      <c r="L90">
+        <v>471331600</v>
+      </c>
+      <c r="M90">
+        <v>4909900</v>
+      </c>
+      <c r="N90">
+        <v>85660356000</v>
+      </c>
+      <c r="O90">
+        <v>767800</v>
+      </c>
+      <c r="P90">
+        <v>185925535000</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91">
+        <v>1670592840000</v>
+      </c>
+      <c r="B91">
+        <v>1462700</v>
+      </c>
+      <c r="C91">
+        <v>4498700</v>
+      </c>
+      <c r="D91">
+        <v>7300</v>
+      </c>
+      <c r="E91">
+        <v>27466756000</v>
+      </c>
+      <c r="F91">
+        <v>67105200000</v>
+      </c>
+      <c r="G91">
+        <v>225066000</v>
+      </c>
+      <c r="H91">
+        <v>5968700</v>
+      </c>
+      <c r="I91">
+        <v>94797022000</v>
+      </c>
+      <c r="J91" t="str">
+        <v>2022-12-09T13:34:00.000Z</v>
+      </c>
+      <c r="K91">
+        <v>7937183250000</v>
+      </c>
+      <c r="L91">
+        <v>477300300</v>
+      </c>
+      <c r="M91">
+        <v>3036000</v>
+      </c>
+      <c r="N91">
+        <v>39638444000</v>
+      </c>
+      <c r="O91">
+        <v>3803800</v>
+      </c>
+      <c r="P91">
+        <v>225563979000</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92">
+        <v>1670592960000</v>
+      </c>
+      <c r="B92">
+        <v>2759400</v>
+      </c>
+      <c r="C92">
+        <v>2519600</v>
+      </c>
+      <c r="D92">
+        <v>36700</v>
+      </c>
+      <c r="E92">
+        <v>52118069000</v>
+      </c>
+      <c r="F92">
+        <v>34583798000</v>
+      </c>
+      <c r="G92">
+        <v>606987000</v>
+      </c>
+      <c r="H92">
+        <v>5315700</v>
+      </c>
+      <c r="I92">
+        <v>87308854000</v>
+      </c>
+      <c r="J92" t="str">
+        <v>2022-12-09T13:36:00.000Z</v>
+      </c>
+      <c r="K92">
+        <v>8024492104000</v>
+      </c>
+      <c r="L92">
+        <v>482616000</v>
+      </c>
+      <c r="M92">
+        <v>-239800</v>
+      </c>
+      <c r="N92">
+        <v>-17534271000</v>
+      </c>
+      <c r="O92">
+        <v>3564000</v>
+      </c>
+      <c r="P92">
+        <v>208029708000</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93">
+        <v>1670593080000</v>
+      </c>
+      <c r="B93">
+        <v>4017400</v>
+      </c>
+      <c r="C93">
+        <v>1161700</v>
+      </c>
+      <c r="D93">
+        <v>24300</v>
+      </c>
+      <c r="E93">
+        <v>75859930000</v>
+      </c>
+      <c r="F93">
+        <v>18757002000</v>
+      </c>
+      <c r="G93">
+        <v>603514000</v>
+      </c>
+      <c r="H93">
+        <v>5203400</v>
+      </c>
+      <c r="I93">
+        <v>95220446000</v>
+      </c>
+      <c r="J93" t="str">
+        <v>2022-12-09T13:38:00.000Z</v>
+      </c>
+      <c r="K93">
+        <v>8119712550000</v>
+      </c>
+      <c r="L93">
+        <v>487819400</v>
+      </c>
+      <c r="M93">
+        <v>-2855700</v>
+      </c>
+      <c r="N93">
+        <v>-57102928000</v>
+      </c>
+      <c r="O93">
+        <v>708300</v>
+      </c>
+      <c r="P93">
+        <v>150926780000</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94">
+        <v>1670593200000</v>
+      </c>
+      <c r="B94">
+        <v>2185200</v>
+      </c>
+      <c r="C94">
+        <v>1243900</v>
+      </c>
+      <c r="D94">
+        <v>37600</v>
+      </c>
+      <c r="E94">
+        <v>36764164000</v>
+      </c>
+      <c r="F94">
+        <v>23496444000</v>
+      </c>
+      <c r="G94">
+        <v>692203000</v>
+      </c>
+      <c r="H94">
+        <v>3466700</v>
+      </c>
+      <c r="I94">
+        <v>60952811000</v>
+      </c>
+      <c r="J94" t="str">
+        <v>2022-12-09T13:40:00.000Z</v>
+      </c>
+      <c r="K94">
+        <v>8180665361000</v>
+      </c>
+      <c r="L94">
+        <v>491286100</v>
+      </c>
+      <c r="M94">
+        <v>-941300</v>
+      </c>
+      <c r="N94">
+        <v>-13267720000</v>
+      </c>
+      <c r="O94">
+        <v>-233000</v>
+      </c>
+      <c r="P94">
+        <v>137659060000</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95">
+        <v>1670593320000</v>
+      </c>
+      <c r="B95">
+        <v>2372300</v>
+      </c>
+      <c r="C95">
+        <v>1538300</v>
+      </c>
+      <c r="D95">
+        <v>9100</v>
+      </c>
+      <c r="E95">
+        <v>39573872000</v>
+      </c>
+      <c r="F95">
+        <v>26748715000</v>
+      </c>
+      <c r="G95">
+        <v>156351000</v>
+      </c>
+      <c r="H95">
+        <v>3919700</v>
+      </c>
+      <c r="I95">
+        <v>66478938000</v>
+      </c>
+      <c r="J95" t="str">
+        <v>2022-12-09T13:42:00.000Z</v>
+      </c>
+      <c r="K95">
+        <v>8247144299000</v>
+      </c>
+      <c r="L95">
+        <v>495205800</v>
+      </c>
+      <c r="M95">
+        <v>-834000</v>
+      </c>
+      <c r="N95">
+        <v>-12825157000</v>
+      </c>
+      <c r="O95">
+        <v>-1067000</v>
+      </c>
+      <c r="P95">
+        <v>124833903000</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96">
+        <v>1670593440000</v>
+      </c>
+      <c r="B96">
+        <v>2121300</v>
+      </c>
+      <c r="C96">
+        <v>1958900</v>
+      </c>
+      <c r="D96">
+        <v>40000</v>
+      </c>
+      <c r="E96">
+        <v>33258459000</v>
+      </c>
+      <c r="F96">
+        <v>41153667000</v>
+      </c>
+      <c r="G96">
+        <v>688623000</v>
+      </c>
+      <c r="H96">
+        <v>4120200</v>
+      </c>
+      <c r="I96">
+        <v>75100749000</v>
+      </c>
+      <c r="J96" t="str">
+        <v>2022-12-09T13:44:00.000Z</v>
+      </c>
+      <c r="K96">
+        <v>8322245048000</v>
+      </c>
+      <c r="L96">
+        <v>499326000</v>
+      </c>
+      <c r="M96">
+        <v>-162400</v>
+      </c>
+      <c r="N96">
+        <v>7895208000</v>
+      </c>
+      <c r="O96">
+        <v>-1229400</v>
+      </c>
+      <c r="P96">
+        <v>132729111000</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97">
+        <v>1670593560000</v>
+      </c>
+      <c r="B97">
+        <v>1734100</v>
+      </c>
+      <c r="C97">
+        <v>5165500</v>
+      </c>
+      <c r="D97">
+        <v>58300</v>
+      </c>
+      <c r="E97">
+        <v>26080907000</v>
+      </c>
+      <c r="F97">
+        <v>106870233000</v>
+      </c>
+      <c r="G97">
+        <v>1895017000</v>
+      </c>
+      <c r="H97">
+        <v>6957900</v>
+      </c>
+      <c r="I97">
+        <v>134846157000</v>
+      </c>
+      <c r="J97" t="str">
+        <v>2022-12-09T13:46:00.000Z</v>
+      </c>
+      <c r="K97">
+        <v>8457091205000</v>
+      </c>
+      <c r="L97">
+        <v>506283900</v>
+      </c>
+      <c r="M97">
+        <v>3431400</v>
+      </c>
+      <c r="N97">
+        <v>80789326000</v>
+      </c>
+      <c r="O97">
+        <v>2202000</v>
+      </c>
+      <c r="P97">
+        <v>213518437000</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98">
+        <v>1670593680000</v>
+      </c>
+      <c r="B98">
+        <v>1497800</v>
+      </c>
+      <c r="C98">
+        <v>3650800</v>
+      </c>
+      <c r="D98">
+        <v>17900</v>
+      </c>
+      <c r="E98">
+        <v>27156865000</v>
+      </c>
+      <c r="F98">
+        <v>62492622000</v>
+      </c>
+      <c r="G98">
+        <v>401232000</v>
+      </c>
+      <c r="H98">
+        <v>5166500</v>
+      </c>
+      <c r="I98">
+        <v>90050719000</v>
+      </c>
+      <c r="J98" t="str">
+        <v>2022-12-09T13:48:00.000Z</v>
+      </c>
+      <c r="K98">
+        <v>8547141924000</v>
+      </c>
+      <c r="L98">
+        <v>511450400</v>
+      </c>
+      <c r="M98">
+        <v>2153000</v>
+      </c>
+      <c r="N98">
+        <v>35335757000</v>
+      </c>
+      <c r="O98">
+        <v>4355000</v>
+      </c>
+      <c r="P98">
+        <v>248854194000</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99">
+        <v>1670593800000</v>
+      </c>
+      <c r="B99">
+        <v>2426800</v>
+      </c>
+      <c r="C99">
+        <v>2120200</v>
+      </c>
+      <c r="D99">
+        <v>35500</v>
+      </c>
+      <c r="E99">
+        <v>34812483000</v>
+      </c>
+      <c r="F99">
+        <v>41741645000</v>
+      </c>
+      <c r="G99">
+        <v>813820000</v>
+      </c>
+      <c r="H99">
+        <v>4582500</v>
+      </c>
+      <c r="I99">
+        <v>77367948000</v>
+      </c>
+      <c r="J99" t="str">
+        <v>2022-12-09T13:50:00.000Z</v>
+      </c>
+      <c r="K99">
+        <v>8624509872000</v>
+      </c>
+      <c r="L99">
+        <v>516032900</v>
+      </c>
+      <c r="M99">
+        <v>-306600</v>
+      </c>
+      <c r="N99">
+        <v>6929162000</v>
+      </c>
+      <c r="O99">
+        <v>4048400</v>
+      </c>
+      <c r="P99">
+        <v>255783356000</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100">
+        <v>1670593920000</v>
+      </c>
+      <c r="B100">
+        <v>3328700</v>
+      </c>
+      <c r="C100">
+        <v>1236300</v>
+      </c>
+      <c r="D100">
+        <v>41100</v>
+      </c>
+      <c r="E100">
+        <v>64218038000</v>
+      </c>
+      <c r="F100">
+        <v>20406441000</v>
+      </c>
+      <c r="G100">
+        <v>433501000</v>
+      </c>
+      <c r="H100">
+        <v>4606100</v>
+      </c>
+      <c r="I100">
+        <v>85057980000</v>
+      </c>
+      <c r="J100" t="str">
+        <v>2022-12-09T13:52:00.000Z</v>
+      </c>
+      <c r="K100">
+        <v>8709567852000</v>
+      </c>
+      <c r="L100">
+        <v>520639000</v>
+      </c>
+      <c r="M100">
+        <v>-2092400</v>
+      </c>
+      <c r="N100">
+        <v>-43811597000</v>
+      </c>
+      <c r="O100">
+        <v>1956000</v>
+      </c>
+      <c r="P100">
+        <v>211971759000</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101">
+        <v>1670594040000</v>
+      </c>
+      <c r="B101">
+        <v>4178300</v>
+      </c>
+      <c r="C101">
+        <v>1076700</v>
+      </c>
+      <c r="D101">
+        <v>118800</v>
+      </c>
+      <c r="E101">
+        <v>70357691000</v>
+      </c>
+      <c r="F101">
+        <v>19914005000</v>
+      </c>
+      <c r="G101">
+        <v>988103000</v>
+      </c>
+      <c r="H101">
+        <v>5373800</v>
+      </c>
+      <c r="I101">
+        <v>91259799000</v>
+      </c>
+      <c r="J101" t="str">
+        <v>2022-12-09T13:54:00.000Z</v>
+      </c>
+      <c r="K101">
+        <v>8800827651000</v>
+      </c>
+      <c r="L101">
+        <v>526012800</v>
+      </c>
+      <c r="M101">
+        <v>-3101600</v>
+      </c>
+      <c r="N101">
+        <v>-50443686000</v>
+      </c>
+      <c r="O101">
+        <v>-1145600</v>
+      </c>
+      <c r="P101">
+        <v>161528073000</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102">
+        <v>1670594160000</v>
+      </c>
+      <c r="B102">
+        <v>2208800</v>
+      </c>
+      <c r="C102">
+        <v>1253600</v>
+      </c>
+      <c r="D102">
+        <v>9400</v>
+      </c>
+      <c r="E102">
+        <v>39205450000</v>
+      </c>
+      <c r="F102">
+        <v>23287897000</v>
+      </c>
+      <c r="G102">
+        <v>52314000</v>
+      </c>
+      <c r="H102">
+        <v>3471800</v>
+      </c>
+      <c r="I102">
+        <v>62545661000</v>
+      </c>
+      <c r="J102" t="str">
+        <v>2022-12-09T13:56:00.000Z</v>
+      </c>
+      <c r="K102">
+        <v>8863373312000</v>
+      </c>
+      <c r="L102">
+        <v>529484600</v>
+      </c>
+      <c r="M102">
+        <v>-955200</v>
+      </c>
+      <c r="N102">
+        <v>-15917553000</v>
+      </c>
+      <c r="O102">
+        <v>-2100800</v>
+      </c>
+      <c r="P102">
+        <v>145610520000</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103">
+        <v>1670594280000</v>
+      </c>
+      <c r="B103">
+        <v>5276800</v>
+      </c>
+      <c r="C103">
+        <v>1566200</v>
+      </c>
+      <c r="D103">
+        <v>21800</v>
+      </c>
+      <c r="E103">
+        <v>89137594000</v>
+      </c>
+      <c r="F103">
+        <v>29663236000</v>
+      </c>
+      <c r="G103">
+        <v>362493000</v>
+      </c>
+      <c r="H103">
+        <v>6864800</v>
+      </c>
+      <c r="I103">
+        <v>119163323000</v>
+      </c>
+      <c r="J103" t="str">
+        <v>2022-12-09T13:58:00.000Z</v>
+      </c>
+      <c r="K103">
+        <v>8982536635000</v>
+      </c>
+      <c r="L103">
+        <v>536349400</v>
+      </c>
+      <c r="M103">
+        <v>-3710600</v>
+      </c>
+      <c r="N103">
+        <v>-59474358000</v>
+      </c>
+      <c r="O103">
+        <v>-5811400</v>
+      </c>
+      <c r="P103">
+        <v>86136162000</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104">
+        <v>1670594400000</v>
+      </c>
+      <c r="B104">
+        <v>3649100</v>
+      </c>
+      <c r="C104">
+        <v>1383400</v>
+      </c>
+      <c r="D104">
+        <v>7100</v>
+      </c>
+      <c r="E104">
+        <v>62547262000</v>
+      </c>
+      <c r="F104">
+        <v>23973635000</v>
+      </c>
+      <c r="G104">
+        <v>76318000</v>
+      </c>
+      <c r="H104">
+        <v>5039600</v>
+      </c>
+      <c r="I104">
+        <v>86597215000</v>
+      </c>
+      <c r="J104" t="str">
+        <v>2022-12-09T14:00:00.000Z</v>
+      </c>
+      <c r="K104">
+        <v>9069133850000</v>
+      </c>
+      <c r="L104">
+        <v>541389000</v>
+      </c>
+      <c r="M104">
+        <v>-2265700</v>
+      </c>
+      <c r="N104">
+        <v>-38573627000</v>
+      </c>
+      <c r="O104">
+        <v>-8077100</v>
+      </c>
+      <c r="P104">
+        <v>47562535000</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105">
+        <v>1670594520000</v>
+      </c>
+      <c r="B105">
+        <v>3635200</v>
+      </c>
+      <c r="C105">
+        <v>2118100</v>
+      </c>
+      <c r="D105">
+        <v>31900</v>
+      </c>
+      <c r="E105">
+        <v>61107181000</v>
+      </c>
+      <c r="F105">
+        <v>39845398000</v>
+      </c>
+      <c r="G105">
+        <v>454583000</v>
+      </c>
+      <c r="H105">
+        <v>5785200</v>
+      </c>
+      <c r="I105">
+        <v>101407162000</v>
+      </c>
+      <c r="J105" t="str">
+        <v>2022-12-09T14:02:00.000Z</v>
+      </c>
+      <c r="K105">
+        <v>9170541012000</v>
+      </c>
+      <c r="L105">
+        <v>547174200</v>
+      </c>
+      <c r="M105">
+        <v>-1517100</v>
+      </c>
+      <c r="N105">
+        <v>-21261783000</v>
+      </c>
+      <c r="O105">
+        <v>-9594200</v>
+      </c>
+      <c r="P105">
+        <v>26300752000</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106">
+        <v>1670594640000</v>
+      </c>
+      <c r="B106">
+        <v>2348800</v>
+      </c>
+      <c r="C106">
+        <v>3676300</v>
+      </c>
+      <c r="D106">
+        <v>67800</v>
+      </c>
+      <c r="E106">
+        <v>36160694000</v>
+      </c>
+      <c r="F106">
+        <v>65233628000</v>
+      </c>
+      <c r="G106">
+        <v>867978000</v>
+      </c>
+      <c r="H106">
+        <v>6092900</v>
+      </c>
+      <c r="I106">
+        <v>102262300000</v>
+      </c>
+      <c r="J106" t="str">
+        <v>2022-12-09T14:04:00.000Z</v>
+      </c>
+      <c r="K106">
+        <v>9272803312000</v>
+      </c>
+      <c r="L106">
+        <v>553267100</v>
+      </c>
+      <c r="M106">
+        <v>1327500</v>
+      </c>
+      <c r="N106">
+        <v>29072934000</v>
+      </c>
+      <c r="O106">
+        <v>-8266700</v>
+      </c>
+      <c r="P106">
+        <v>55373686000</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107">
+        <v>1670594760000</v>
+      </c>
+      <c r="B107">
+        <v>1598000</v>
+      </c>
+      <c r="C107">
+        <v>8484500</v>
+      </c>
+      <c r="D107">
+        <v>22400</v>
+      </c>
+      <c r="E107">
+        <v>28532992000</v>
+      </c>
+      <c r="F107">
+        <v>140077427000</v>
+      </c>
+      <c r="G107">
+        <v>535297000</v>
+      </c>
+      <c r="H107">
+        <v>10104900</v>
+      </c>
+      <c r="I107">
+        <v>169145716000</v>
+      </c>
+      <c r="J107" t="str">
+        <v>2022-12-09T14:06:00.000Z</v>
+      </c>
+      <c r="K107">
+        <v>9441949028000</v>
+      </c>
+      <c r="L107">
+        <v>563372000</v>
+      </c>
+      <c r="M107">
+        <v>6886500</v>
+      </c>
+      <c r="N107">
+        <v>111544435000</v>
+      </c>
+      <c r="O107">
+        <v>-1380200</v>
+      </c>
+      <c r="P107">
+        <v>166918121000</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108">
+        <v>1670594880000</v>
+      </c>
+      <c r="B108">
+        <v>2328900</v>
+      </c>
+      <c r="C108">
+        <v>10620500</v>
+      </c>
+      <c r="D108">
+        <v>175800</v>
+      </c>
+      <c r="E108">
+        <v>37941135000</v>
+      </c>
+      <c r="F108">
+        <v>173559566000</v>
+      </c>
+      <c r="G108">
+        <v>2459284000</v>
+      </c>
+      <c r="H108">
+        <v>13125200</v>
+      </c>
+      <c r="I108">
+        <v>213959985000</v>
+      </c>
+      <c r="J108" t="str">
+        <v>2022-12-09T14:08:00.000Z</v>
+      </c>
+      <c r="K108">
+        <v>9655909013000</v>
+      </c>
+      <c r="L108">
+        <v>576497200</v>
+      </c>
+      <c r="M108">
+        <v>8291600</v>
+      </c>
+      <c r="N108">
+        <v>135618431000</v>
+      </c>
+      <c r="O108">
+        <v>6911400</v>
+      </c>
+      <c r="P108">
+        <v>302536552000</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109">
+        <v>1670595000000</v>
+      </c>
+      <c r="B109">
+        <v>2400600</v>
+      </c>
+      <c r="C109">
+        <v>4815500</v>
+      </c>
+      <c r="D109">
+        <v>93900</v>
+      </c>
+      <c r="E109">
+        <v>43501204000</v>
+      </c>
+      <c r="F109">
+        <v>79153199000</v>
+      </c>
+      <c r="G109">
+        <v>1456509000</v>
+      </c>
+      <c r="H109">
+        <v>7310000</v>
+      </c>
+      <c r="I109">
+        <v>124110912000</v>
+      </c>
+      <c r="J109" t="str">
+        <v>2022-12-09T14:10:00.000Z</v>
+      </c>
+      <c r="K109">
+        <v>9780019925000</v>
+      </c>
+      <c r="L109">
+        <v>583807200</v>
+      </c>
+      <c r="M109">
+        <v>2414900</v>
+      </c>
+      <c r="N109">
+        <v>35651995000</v>
+      </c>
+      <c r="O109">
+        <v>9326300</v>
+      </c>
+      <c r="P109">
+        <v>338188547000</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110">
+        <v>1670595120000</v>
+      </c>
+      <c r="B110">
+        <v>3475700</v>
+      </c>
+      <c r="C110">
+        <v>3265000</v>
+      </c>
+      <c r="D110">
+        <v>94200</v>
+      </c>
+      <c r="E110">
+        <v>58492060000</v>
+      </c>
+      <c r="F110">
+        <v>51013193000</v>
+      </c>
+      <c r="G110">
+        <v>847388000</v>
+      </c>
+      <c r="H110">
+        <v>6834900</v>
+      </c>
+      <c r="I110">
+        <v>110352641000</v>
+      </c>
+      <c r="J110" t="str">
+        <v>2022-12-09T14:12:00.000Z</v>
+      </c>
+      <c r="K110">
+        <v>9890372566000</v>
+      </c>
+      <c r="L110">
+        <v>590642100</v>
+      </c>
+      <c r="M110">
+        <v>-210700</v>
+      </c>
+      <c r="N110">
+        <v>-7478867000</v>
+      </c>
+      <c r="O110">
+        <v>9115600</v>
+      </c>
+      <c r="P110">
+        <v>330709680000</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111">
+        <v>1670595240000</v>
+      </c>
+      <c r="B111">
+        <v>3441500</v>
+      </c>
+      <c r="C111">
+        <v>1574100</v>
+      </c>
+      <c r="D111">
+        <v>10500</v>
+      </c>
+      <c r="E111">
+        <v>62183755000</v>
+      </c>
+      <c r="F111">
+        <v>26849514000</v>
+      </c>
+      <c r="G111">
+        <v>139210000</v>
+      </c>
+      <c r="H111">
+        <v>5026100</v>
+      </c>
+      <c r="I111">
+        <v>89172479000</v>
+      </c>
+      <c r="J111" t="str">
+        <v>2022-12-09T14:14:00.000Z</v>
+      </c>
+      <c r="K111">
+        <v>9979545045000</v>
+      </c>
+      <c r="L111">
+        <v>595668200</v>
+      </c>
+      <c r="M111">
+        <v>-1867400</v>
+      </c>
+      <c r="N111">
+        <v>-35334241000</v>
+      </c>
+      <c r="O111">
+        <v>7248200</v>
+      </c>
+      <c r="P111">
+        <v>295375439000</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112">
+        <v>1670595360000</v>
+      </c>
+      <c r="B112">
+        <v>5291000</v>
+      </c>
+      <c r="C112">
+        <v>1196200</v>
+      </c>
+      <c r="D112">
+        <v>28100</v>
+      </c>
+      <c r="E112">
+        <v>85013024000</v>
+      </c>
+      <c r="F112">
+        <v>22508490000</v>
+      </c>
+      <c r="G112">
+        <v>581797000</v>
+      </c>
+      <c r="H112">
+        <v>6515300</v>
+      </c>
+      <c r="I112">
+        <v>108103311000</v>
+      </c>
+      <c r="J112" t="str">
+        <v>2022-12-09T14:16:00.000Z</v>
+      </c>
+      <c r="K112">
+        <v>10087648356000</v>
+      </c>
+      <c r="L112">
+        <v>602183500</v>
+      </c>
+      <c r="M112">
+        <v>-4094800</v>
+      </c>
+      <c r="N112">
+        <v>-62504534000</v>
+      </c>
+      <c r="O112">
+        <v>3153400</v>
+      </c>
+      <c r="P112">
+        <v>232870905000</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113">
+        <v>1670595480000</v>
+      </c>
+      <c r="B113">
+        <v>3960600</v>
+      </c>
+      <c r="C113">
+        <v>1892500</v>
+      </c>
+      <c r="D113">
+        <v>96500</v>
+      </c>
+      <c r="E113">
+        <v>66104441000</v>
+      </c>
+      <c r="F113">
+        <v>33509867000</v>
+      </c>
+      <c r="G113">
+        <v>1966592000</v>
+      </c>
+      <c r="H113">
+        <v>5949600</v>
+      </c>
+      <c r="I113">
+        <v>101580900000</v>
+      </c>
+      <c r="J113" t="str">
+        <v>2022-12-09T14:18:00.000Z</v>
+      </c>
+      <c r="K113">
+        <v>10189229256000</v>
+      </c>
+      <c r="L113">
+        <v>608133100</v>
+      </c>
+      <c r="M113">
+        <v>-2068100</v>
+      </c>
+      <c r="N113">
+        <v>-32594574000</v>
+      </c>
+      <c r="O113">
+        <v>1085300</v>
+      </c>
+      <c r="P113">
+        <v>200276331000</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114">
+        <v>1670595600000</v>
+      </c>
+      <c r="B114">
+        <v>2712300</v>
+      </c>
+      <c r="C114">
+        <v>3051600</v>
+      </c>
+      <c r="D114">
+        <v>4500</v>
+      </c>
+      <c r="E114">
+        <v>49353191000</v>
+      </c>
+      <c r="F114">
+        <v>54087486000</v>
+      </c>
+      <c r="G114">
+        <v>57071000</v>
+      </c>
+      <c r="H114">
+        <v>5768400</v>
+      </c>
+      <c r="I114">
+        <v>103497748000</v>
+      </c>
+      <c r="J114" t="str">
+        <v>2022-12-09T14:20:00.000Z</v>
+      </c>
+      <c r="K114">
+        <v>10292727004000</v>
+      </c>
+      <c r="L114">
+        <v>613901500</v>
+      </c>
+      <c r="M114">
+        <v>339300</v>
+      </c>
+      <c r="N114">
+        <v>4734295000</v>
+      </c>
+      <c r="O114">
+        <v>1424600</v>
+      </c>
+      <c r="P114">
+        <v>205010626000</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115">
+        <v>1670595720000</v>
+      </c>
+      <c r="B115">
+        <v>1829300</v>
+      </c>
+      <c r="C115">
+        <v>6338700</v>
+      </c>
+      <c r="D115">
+        <v>127200</v>
+      </c>
+      <c r="E115">
+        <v>30431831000</v>
+      </c>
+      <c r="F115">
+        <v>135643994000</v>
+      </c>
+      <c r="G115">
+        <v>1756057000</v>
+      </c>
+      <c r="H115">
+        <v>8295200</v>
+      </c>
+      <c r="I115">
+        <v>167831882000</v>
+      </c>
+      <c r="J115" t="str">
+        <v>2022-12-09T14:22:00.000Z</v>
+      </c>
+      <c r="K115">
+        <v>10460558886000</v>
+      </c>
+      <c r="L115">
+        <v>622196700</v>
+      </c>
+      <c r="M115">
+        <v>4509400</v>
+      </c>
+      <c r="N115">
+        <v>105212163000</v>
+      </c>
+      <c r="O115">
+        <v>5934000</v>
+      </c>
+      <c r="P115">
+        <v>310222789000</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116">
+        <v>1670595840000</v>
+      </c>
+      <c r="B116">
+        <v>2633300</v>
+      </c>
+      <c r="C116">
+        <v>5109400</v>
+      </c>
+      <c r="D116">
+        <v>62100</v>
+      </c>
+      <c r="E116">
+        <v>49979375000</v>
+      </c>
+      <c r="F116">
+        <v>89498327000</v>
+      </c>
+      <c r="G116">
+        <v>1645520000</v>
+      </c>
+      <c r="H116">
+        <v>7804800</v>
+      </c>
+      <c r="I116">
+        <v>141123222000</v>
+      </c>
+      <c r="J116" t="str">
+        <v>2022-12-09T14:24:00.000Z</v>
+      </c>
+      <c r="K116">
+        <v>10601682108000</v>
+      </c>
+      <c r="L116">
+        <v>630001500</v>
+      </c>
+      <c r="M116">
+        <v>2476100</v>
+      </c>
+      <c r="N116">
+        <v>39518952000</v>
+      </c>
+      <c r="O116">
+        <v>8410100</v>
+      </c>
+      <c r="P116">
+        <v>349741741000</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117">
+        <v>1670595960000</v>
+      </c>
+      <c r="B117">
+        <v>3244400</v>
+      </c>
+      <c r="C117">
+        <v>3552300</v>
+      </c>
+      <c r="D117">
+        <v>88600</v>
+      </c>
+      <c r="E117">
+        <v>55092460000</v>
+      </c>
+      <c r="F117">
+        <v>63295173000</v>
+      </c>
+      <c r="G117">
+        <v>1437014000</v>
+      </c>
+      <c r="H117">
+        <v>6885300</v>
+      </c>
+      <c r="I117">
+        <v>119824647000</v>
+      </c>
+      <c r="J117" t="str">
+        <v>2022-12-09T14:26:00.000Z</v>
+      </c>
+      <c r="K117">
+        <v>10721506755000</v>
+      </c>
+      <c r="L117">
+        <v>636886800</v>
+      </c>
+      <c r="M117">
+        <v>307900</v>
+      </c>
+      <c r="N117">
+        <v>8202713000</v>
+      </c>
+      <c r="O117">
+        <v>8718000</v>
+      </c>
+      <c r="P117">
+        <v>357944454000</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118">
+        <v>1670596080000</v>
+      </c>
+      <c r="B118">
+        <v>4980700</v>
+      </c>
+      <c r="C118">
+        <v>7916600</v>
+      </c>
+      <c r="D118">
+        <v>170100</v>
+      </c>
+      <c r="E118">
+        <v>74835083000</v>
+      </c>
+      <c r="F118">
+        <v>147853569000</v>
+      </c>
+      <c r="G118">
+        <v>2242308000</v>
+      </c>
+      <c r="H118">
+        <v>13067400</v>
+      </c>
+      <c r="I118">
+        <v>224930960000</v>
+      </c>
+      <c r="J118" t="str">
+        <v>2022-12-09T14:28:00.000Z</v>
+      </c>
+      <c r="K118">
+        <v>10946437715000</v>
+      </c>
+      <c r="L118">
+        <v>649954200</v>
+      </c>
+      <c r="M118">
+        <v>2935900</v>
+      </c>
+      <c r="N118">
+        <v>73018486000</v>
+      </c>
+      <c r="O118">
+        <v>11653900</v>
+      </c>
+      <c r="P118">
+        <v>430962940000</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119">
+        <v>1670596200000</v>
+      </c>
+      <c r="B119">
+        <v>13700</v>
+      </c>
+      <c r="C119">
+        <v>19700</v>
+      </c>
+      <c r="D119">
+        <v>0</v>
+      </c>
+      <c r="E119">
+        <v>233415000</v>
+      </c>
+      <c r="F119">
+        <v>523320000</v>
+      </c>
+      <c r="G119">
+        <v>0</v>
+      </c>
+      <c r="H119">
+        <v>33400</v>
+      </c>
+      <c r="I119">
+        <v>756735000</v>
+      </c>
+      <c r="J119" t="str">
+        <v>2022-12-09T14:30:00.000Z</v>
+      </c>
+      <c r="K119">
+        <v>10947194450000</v>
+      </c>
+      <c r="L119">
+        <v>649987600</v>
+      </c>
+      <c r="M119">
+        <v>6000</v>
+      </c>
+      <c r="N119">
+        <v>289905000</v>
+      </c>
+      <c r="O119">
+        <v>11659900</v>
+      </c>
+      <c r="P119">
+        <v>431252845000</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120">
+        <v>1670597040000</v>
+      </c>
+      <c r="B120">
+        <v>2825900</v>
+      </c>
+      <c r="C120">
+        <v>3717600</v>
+      </c>
+      <c r="D120">
+        <v>36085100</v>
+      </c>
+      <c r="E120">
+        <v>74670597000</v>
+      </c>
+      <c r="F120">
+        <v>84080980000</v>
+      </c>
+      <c r="G120">
+        <v>647446149000</v>
+      </c>
+      <c r="H120">
+        <v>42628600</v>
+      </c>
+      <c r="I120">
+        <v>806197726000</v>
+      </c>
+      <c r="J120" t="str">
+        <v>2022-12-09T14:44:00.000Z</v>
+      </c>
+      <c r="K120">
+        <v>11753392176000</v>
+      </c>
+      <c r="L120">
+        <v>692616200</v>
+      </c>
+      <c r="M120">
+        <v>891700</v>
+      </c>
+      <c r="N120">
+        <v>9410383000</v>
+      </c>
+      <c r="O120">
+        <v>12551600</v>
+      </c>
+      <c r="P120">
+        <v>440663228000</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121">
+        <v>1670597760000</v>
+      </c>
+      <c r="B121">
+        <v>0</v>
+      </c>
+      <c r="C121">
+        <v>11200</v>
+      </c>
+      <c r="D121">
+        <v>0</v>
+      </c>
+      <c r="E121">
+        <v>0</v>
+      </c>
+      <c r="F121">
+        <v>112000000</v>
+      </c>
+      <c r="G121">
+        <v>0</v>
+      </c>
+      <c r="H121">
+        <v>11200</v>
+      </c>
+      <c r="I121">
+        <v>112000000</v>
+      </c>
+      <c r="J121" t="str">
+        <v>2022-12-09T14:56:00.000Z</v>
+      </c>
+      <c r="K121">
+        <v>11753504176000</v>
+      </c>
+      <c r="L121">
+        <v>692627400</v>
+      </c>
+      <c r="M121">
+        <v>11200</v>
+      </c>
+      <c r="N121">
+        <v>112000000</v>
+      </c>
+      <c r="O121">
+        <v>12562800</v>
+      </c>
+      <c r="P121">
+        <v>440775228000</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122">
+        <v>1670597880000</v>
+      </c>
+      <c r="B122">
         <v>600</v>
       </c>
-      <c r="C53">
-        <v>11200</v>
-      </c>
-      <c r="D53">
+      <c r="C122">
         <v>0</v>
       </c>
-      <c r="E53">
+      <c r="D122">
+        <v>0</v>
+      </c>
+      <c r="E122">
         <v>6000000</v>
       </c>
-      <c r="F53">
-        <v>112000000</v>
-      </c>
-      <c r="G53">
+      <c r="F122">
         <v>0</v>
       </c>
-      <c r="H53">
-        <v>11800</v>
-      </c>
-      <c r="I53">
-        <v>118000000</v>
-      </c>
-      <c r="J53" t="str">
-        <v>2022-12-09T14:55:00.000Z</v>
-      </c>
-      <c r="K53">
+      <c r="G122">
+        <v>0</v>
+      </c>
+      <c r="H122">
+        <v>600</v>
+      </c>
+      <c r="I122">
+        <v>6000000</v>
+      </c>
+      <c r="J122" t="str">
+        <v>2022-12-09T14:58:00.000Z</v>
+      </c>
+      <c r="K122">
         <v>11753510176000</v>
       </c>
-      <c r="L53">
+      <c r="L122">
         <v>692628000</v>
       </c>
-      <c r="M53">
-        <v>10600</v>
-      </c>
-      <c r="N53">
-        <v>106000000</v>
-      </c>
-      <c r="O53">
+      <c r="M122">
+        <v>-600</v>
+      </c>
+      <c r="N122">
+        <v>-6000000</v>
+      </c>
+      <c r="O122">
         <v>12562200</v>
       </c>
-      <c r="P53">
+      <c r="P122">
         <v>440769228000</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:P53"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:P122"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/name/vnindex/20221209/VNINDEX_HOSE_5p_20221209.xlsx
+++ b/name/vnindex/20221209/VNINDEX_HOSE_5p_20221209.xlsx
@@ -616,25 +616,25 @@
         <v>18056400</v>
       </c>
       <c r="E5">
-        <v>52240763000</v>
+        <v>47206802000</v>
       </c>
       <c r="F5">
-        <v>81990356000</v>
+        <v>77666684000</v>
       </c>
       <c r="G5">
-        <v>267869223999.99997</v>
+        <v>257688215199.99997</v>
       </c>
       <c r="H5">
         <v>27677600</v>
       </c>
       <c r="I5">
-        <v>402100343000</v>
+        <v>382561701200</v>
       </c>
       <c r="J5" t="str">
         <v>2022-12-09T09:14:00.000Z</v>
       </c>
       <c r="K5">
-        <v>402123573000</v>
+        <v>382584931200</v>
       </c>
       <c r="L5">
         <v>27679900</v>
@@ -643,13 +643,13 @@
         <v>706600</v>
       </c>
       <c r="N5">
-        <v>29749593000</v>
+        <v>30459882000</v>
       </c>
       <c r="O5">
         <v>704700</v>
       </c>
       <c r="P5">
-        <v>29730403000</v>
+        <v>30440692000</v>
       </c>
     </row>
     <row r="6">
@@ -666,25 +666,25 @@
         <v>74800</v>
       </c>
       <c r="E6">
-        <v>45391564000</v>
+        <v>43721535700</v>
       </c>
       <c r="F6">
-        <v>60354986000</v>
+        <v>53546201600</v>
       </c>
       <c r="G6">
-        <v>1326145000</v>
+        <v>1323847300</v>
       </c>
       <c r="H6">
         <v>7477600</v>
       </c>
       <c r="I6">
-        <v>107072695000</v>
+        <v>98591584600</v>
       </c>
       <c r="J6" t="str">
         <v>2022-12-09T09:16:00.000Z</v>
       </c>
       <c r="K6">
-        <v>509196268000</v>
+        <v>481176515800</v>
       </c>
       <c r="L6">
         <v>35157500</v>
@@ -693,13 +693,13 @@
         <v>495800</v>
       </c>
       <c r="N6">
-        <v>14963422000</v>
+        <v>9824665900</v>
       </c>
       <c r="O6">
         <v>1200500</v>
       </c>
       <c r="P6">
-        <v>44693825000</v>
+        <v>40265357900</v>
       </c>
     </row>
     <row r="7">
@@ -716,25 +716,25 @@
         <v>54700</v>
       </c>
       <c r="E7">
-        <v>44742972000</v>
+        <v>38870250600</v>
       </c>
       <c r="F7">
-        <v>46921287000</v>
+        <v>42232780200</v>
       </c>
       <c r="G7">
-        <v>1171655000</v>
+        <v>1164861800</v>
       </c>
       <c r="H7">
         <v>5669800</v>
       </c>
       <c r="I7">
-        <v>92835914000</v>
+        <v>82267892600</v>
       </c>
       <c r="J7" t="str">
         <v>2022-12-09T09:18:00.000Z</v>
       </c>
       <c r="K7">
-        <v>602032182000</v>
+        <v>563444408400</v>
       </c>
       <c r="L7">
         <v>40827300</v>
@@ -743,13 +743,13 @@
         <v>-37500</v>
       </c>
       <c r="N7">
-        <v>2178315000</v>
+        <v>3362529600</v>
       </c>
       <c r="O7">
         <v>1163000</v>
       </c>
       <c r="P7">
-        <v>46872140000</v>
+        <v>43627887500</v>
       </c>
     </row>
     <row r="8">
@@ -766,25 +766,25 @@
         <v>30400</v>
       </c>
       <c r="E8">
-        <v>54518774000</v>
+        <v>49158539600</v>
       </c>
       <c r="F8">
-        <v>38962089000</v>
+        <v>32820536700</v>
       </c>
       <c r="G8">
-        <v>426710000</v>
+        <v>314822000</v>
       </c>
       <c r="H8">
         <v>6019900</v>
       </c>
       <c r="I8">
-        <v>93907573000</v>
+        <v>82293898300</v>
       </c>
       <c r="J8" t="str">
         <v>2022-12-09T09:20:00.000Z</v>
       </c>
       <c r="K8">
-        <v>695939755000</v>
+        <v>645738306700</v>
       </c>
       <c r="L8">
         <v>46847200</v>
@@ -793,13 +793,13 @@
         <v>-1267700</v>
       </c>
       <c r="N8">
-        <v>-15556685000</v>
+        <v>-16338002900</v>
       </c>
       <c r="O8">
         <v>-104700</v>
       </c>
       <c r="P8">
-        <v>31315455000</v>
+        <v>27289884600</v>
       </c>
     </row>
     <row r="9">
@@ -816,10 +816,10 @@
         <v>65300</v>
       </c>
       <c r="E9">
-        <v>61334476000</v>
+        <v>55459756600</v>
       </c>
       <c r="F9">
-        <v>33764219000</v>
+        <v>31801383800</v>
       </c>
       <c r="G9">
         <v>911616000</v>
@@ -828,13 +828,13 @@
         <v>6373600</v>
       </c>
       <c r="I9">
-        <v>96010311000</v>
+        <v>88172756400</v>
       </c>
       <c r="J9" t="str">
         <v>2022-12-09T09:22:00.000Z</v>
       </c>
       <c r="K9">
-        <v>791950066000</v>
+        <v>733911063100</v>
       </c>
       <c r="L9">
         <v>53220800</v>
@@ -843,13 +843,13 @@
         <v>-1875100</v>
       </c>
       <c r="N9">
-        <v>-27570257000</v>
+        <v>-23658372800</v>
       </c>
       <c r="O9">
         <v>-1979800</v>
       </c>
       <c r="P9">
-        <v>3745198000</v>
+        <v>3631511800</v>
       </c>
     </row>
     <row r="10">
@@ -866,10 +866,10 @@
         <v>38800</v>
       </c>
       <c r="E10">
-        <v>50299712000</v>
+        <v>44743673600</v>
       </c>
       <c r="F10">
-        <v>31784063000</v>
+        <v>28734016100</v>
       </c>
       <c r="G10">
         <v>498708000</v>
@@ -878,13 +878,13 @@
         <v>5202700</v>
       </c>
       <c r="I10">
-        <v>82582483000</v>
+        <v>73976397700</v>
       </c>
       <c r="J10" t="str">
         <v>2022-12-09T09:24:00.000Z</v>
       </c>
       <c r="K10">
-        <v>874532549000</v>
+        <v>807887460800</v>
       </c>
       <c r="L10">
         <v>58423500</v>
@@ -893,13 +893,13 @@
         <v>-1686100</v>
       </c>
       <c r="N10">
-        <v>-18515649000</v>
+        <v>-16009657500</v>
       </c>
       <c r="O10">
         <v>-3665900</v>
       </c>
       <c r="P10">
-        <v>-14770451000</v>
+        <v>-12378145700</v>
       </c>
     </row>
     <row r="11">
@@ -916,25 +916,25 @@
         <v>73600</v>
       </c>
       <c r="E11">
-        <v>34380099000</v>
+        <v>31217564700</v>
       </c>
       <c r="F11">
-        <v>62902602000</v>
+        <v>57851358300</v>
       </c>
       <c r="G11">
-        <v>1199223000</v>
+        <v>980442000</v>
       </c>
       <c r="H11">
         <v>5914400</v>
       </c>
       <c r="I11">
-        <v>98481924000</v>
+        <v>90049365000</v>
       </c>
       <c r="J11" t="str">
         <v>2022-12-09T09:26:00.000Z</v>
       </c>
       <c r="K11">
-        <v>973014473000</v>
+        <v>897936825800</v>
       </c>
       <c r="L11">
         <v>64337900</v>
@@ -943,13 +943,13 @@
         <v>1330000</v>
       </c>
       <c r="N11">
-        <v>28522503000</v>
+        <v>26633793600</v>
       </c>
       <c r="O11">
         <v>-2335900</v>
       </c>
       <c r="P11">
-        <v>13752052000</v>
+        <v>14255647900</v>
       </c>
     </row>
     <row r="12">
@@ -966,10 +966,10 @@
         <v>20000</v>
       </c>
       <c r="E12">
-        <v>34245910000</v>
+        <v>28342419400</v>
       </c>
       <c r="F12">
-        <v>31358829000</v>
+        <v>27895595700</v>
       </c>
       <c r="G12">
         <v>191931000</v>
@@ -978,13 +978,13 @@
         <v>4181800</v>
       </c>
       <c r="I12">
-        <v>65796670000</v>
+        <v>56429946100</v>
       </c>
       <c r="J12" t="str">
         <v>2022-12-09T09:28:00.000Z</v>
       </c>
       <c r="K12">
-        <v>1038811143000</v>
+        <v>954366771900</v>
       </c>
       <c r="L12">
         <v>68519700</v>
@@ -993,13 +993,13 @@
         <v>-129600</v>
       </c>
       <c r="N12">
-        <v>-2887081000</v>
+        <v>-446823700</v>
       </c>
       <c r="O12">
         <v>-2465500</v>
       </c>
       <c r="P12">
-        <v>10864971000</v>
+        <v>13808824200</v>
       </c>
     </row>
     <row r="13">
@@ -1016,25 +1016,25 @@
         <v>42200</v>
       </c>
       <c r="E13">
-        <v>36671389000</v>
+        <v>34714248100</v>
       </c>
       <c r="F13">
-        <v>31141752000</v>
+        <v>27762734400</v>
       </c>
       <c r="G13">
-        <v>368061000</v>
+        <v>306322800</v>
       </c>
       <c r="H13">
         <v>4391900</v>
       </c>
       <c r="I13">
-        <v>68181202000</v>
+        <v>62783305300</v>
       </c>
       <c r="J13" t="str">
         <v>2022-12-09T09:30:00.000Z</v>
       </c>
       <c r="K13">
-        <v>1106992345000</v>
+        <v>1017150077200</v>
       </c>
       <c r="L13">
         <v>72911600</v>
@@ -1043,13 +1043,13 @@
         <v>-525700</v>
       </c>
       <c r="N13">
-        <v>-5529637000</v>
+        <v>-6951513700</v>
       </c>
       <c r="O13">
         <v>-2991200</v>
       </c>
       <c r="P13">
-        <v>5335334000</v>
+        <v>6857310500</v>
       </c>
     </row>
     <row r="14">
@@ -1066,10 +1066,10 @@
         <v>62800</v>
       </c>
       <c r="E14">
-        <v>43800978000</v>
+        <v>42515764500</v>
       </c>
       <c r="F14">
-        <v>30212845000</v>
+        <v>28604355100</v>
       </c>
       <c r="G14">
         <v>991243000</v>
@@ -1078,13 +1078,13 @@
         <v>4609500</v>
       </c>
       <c r="I14">
-        <v>75005066000</v>
+        <v>72111362600</v>
       </c>
       <c r="J14" t="str">
         <v>2022-12-09T09:32:00.000Z</v>
       </c>
       <c r="K14">
-        <v>1181997411000</v>
+        <v>1089261439800</v>
       </c>
       <c r="L14">
         <v>77521100</v>
@@ -1093,13 +1093,13 @@
         <v>-1153500</v>
       </c>
       <c r="N14">
-        <v>-13588133000</v>
+        <v>-13911409400</v>
       </c>
       <c r="O14">
         <v>-4144700</v>
       </c>
       <c r="P14">
-        <v>-8252799000</v>
+        <v>-7054098900</v>
       </c>
     </row>
     <row r="15">
@@ -1116,25 +1116,25 @@
         <v>32600</v>
       </c>
       <c r="E15">
-        <v>37547627000</v>
+        <v>34640137400</v>
       </c>
       <c r="F15">
-        <v>31168556000</v>
+        <v>26787341600</v>
       </c>
       <c r="G15">
-        <v>295724000</v>
+        <v>236183600</v>
       </c>
       <c r="H15">
         <v>4425800</v>
       </c>
       <c r="I15">
-        <v>69011907000</v>
+        <v>61663662600</v>
       </c>
       <c r="J15" t="str">
         <v>2022-12-09T09:34:00.000Z</v>
       </c>
       <c r="K15">
-        <v>1251009318000</v>
+        <v>1150925102400</v>
       </c>
       <c r="L15">
         <v>81946900</v>
@@ -1143,13 +1143,13 @@
         <v>-762400</v>
       </c>
       <c r="N15">
-        <v>-6379071000</v>
+        <v>-7852795800</v>
       </c>
       <c r="O15">
         <v>-4907100</v>
       </c>
       <c r="P15">
-        <v>-14631870000</v>
+        <v>-14906894700</v>
       </c>
     </row>
     <row r="16">
@@ -1166,10 +1166,10 @@
         <v>7800</v>
       </c>
       <c r="E16">
-        <v>23250649000</v>
+        <v>22214486200</v>
       </c>
       <c r="F16">
-        <v>58089825000</v>
+        <v>44961766200</v>
       </c>
       <c r="G16">
         <v>224557000</v>
@@ -1178,13 +1178,13 @@
         <v>4801900</v>
       </c>
       <c r="I16">
-        <v>81565031000</v>
+        <v>67400809400</v>
       </c>
       <c r="J16" t="str">
         <v>2022-12-09T09:36:00.000Z</v>
       </c>
       <c r="K16">
-        <v>1332574349000</v>
+        <v>1218325911800</v>
       </c>
       <c r="L16">
         <v>86748800</v>
@@ -1193,13 +1193,13 @@
         <v>1841700</v>
       </c>
       <c r="N16">
-        <v>34839176000</v>
+        <v>22747280000</v>
       </c>
       <c r="O16">
         <v>-3065400</v>
       </c>
       <c r="P16">
-        <v>20207306000</v>
+        <v>7840385300</v>
       </c>
     </row>
     <row r="17">
@@ -1216,10 +1216,10 @@
         <v>40700</v>
       </c>
       <c r="E17">
-        <v>23868457000</v>
+        <v>23147678500</v>
       </c>
       <c r="F17">
-        <v>54519171000</v>
+        <v>51112481100</v>
       </c>
       <c r="G17">
         <v>714061000</v>
@@ -1228,13 +1228,13 @@
         <v>4875800</v>
       </c>
       <c r="I17">
-        <v>79101689000</v>
+        <v>74974220600</v>
       </c>
       <c r="J17" t="str">
         <v>2022-12-09T09:38:00.000Z</v>
       </c>
       <c r="K17">
-        <v>1411676038000</v>
+        <v>1293300132400</v>
       </c>
       <c r="L17">
         <v>91624600</v>
@@ -1243,13 +1243,13 @@
         <v>1985900</v>
       </c>
       <c r="N17">
-        <v>30650714000</v>
+        <v>27964802600</v>
       </c>
       <c r="O17">
         <v>-1079500</v>
       </c>
       <c r="P17">
-        <v>50858020000</v>
+        <v>35805187900</v>
       </c>
     </row>
     <row r="18">
@@ -1266,25 +1266,25 @@
         <v>17800</v>
       </c>
       <c r="E18">
-        <v>39589690000</v>
+        <v>33280805200</v>
       </c>
       <c r="F18">
-        <v>57777623000</v>
+        <v>50011896500</v>
       </c>
       <c r="G18">
-        <v>293885000</v>
+        <v>177801200</v>
       </c>
       <c r="H18">
         <v>6056200</v>
       </c>
       <c r="I18">
-        <v>97661198000</v>
+        <v>83470502900</v>
       </c>
       <c r="J18" t="str">
         <v>2022-12-09T09:40:00.000Z</v>
       </c>
       <c r="K18">
-        <v>1509337236000</v>
+        <v>1376770635300</v>
       </c>
       <c r="L18">
         <v>97680800</v>
@@ -1293,13 +1293,13 @@
         <v>1523400</v>
       </c>
       <c r="N18">
-        <v>18187933000</v>
+        <v>16731091300</v>
       </c>
       <c r="O18">
         <v>443900</v>
       </c>
       <c r="P18">
-        <v>69045953000</v>
+        <v>52536279200</v>
       </c>
     </row>
     <row r="19">
@@ -1316,25 +1316,25 @@
         <v>50100</v>
       </c>
       <c r="E19">
-        <v>30759725000</v>
+        <v>27130857500</v>
       </c>
       <c r="F19">
-        <v>77978658000</v>
+        <v>67926420300</v>
       </c>
       <c r="G19">
-        <v>677005000</v>
+        <v>648733300</v>
       </c>
       <c r="H19">
         <v>7185200</v>
       </c>
       <c r="I19">
-        <v>109415388000</v>
+        <v>95706011100</v>
       </c>
       <c r="J19" t="str">
         <v>2022-12-09T09:42:00.000Z</v>
       </c>
       <c r="K19">
-        <v>1618752624000</v>
+        <v>1472476646400</v>
       </c>
       <c r="L19">
         <v>104866000</v>
@@ -1343,13 +1343,13 @@
         <v>3088700</v>
       </c>
       <c r="N19">
-        <v>47218933000</v>
+        <v>40795562800</v>
       </c>
       <c r="O19">
         <v>3532600</v>
       </c>
       <c r="P19">
-        <v>116264886000</v>
+        <v>93331842000</v>
       </c>
     </row>
     <row r="20">
@@ -1366,10 +1366,10 @@
         <v>45500</v>
       </c>
       <c r="E20">
-        <v>23275792000</v>
+        <v>22458410200</v>
       </c>
       <c r="F20">
-        <v>86476446000</v>
+        <v>79055274600</v>
       </c>
       <c r="G20">
         <v>487695000</v>
@@ -1378,13 +1378,13 @@
         <v>7064500</v>
       </c>
       <c r="I20">
-        <v>110239933000</v>
+        <v>102001379800</v>
       </c>
       <c r="J20" t="str">
         <v>2022-12-09T09:44:00.000Z</v>
       </c>
       <c r="K20">
-        <v>1728992557000</v>
+        <v>1574478026200</v>
       </c>
       <c r="L20">
         <v>111930500</v>
@@ -1393,13 +1393,13 @@
         <v>3787600</v>
       </c>
       <c r="N20">
-        <v>63200654000</v>
+        <v>56596864400</v>
       </c>
       <c r="O20">
         <v>7320200</v>
       </c>
       <c r="P20">
-        <v>179465540000</v>
+        <v>149928706400</v>
       </c>
     </row>
     <row r="21">
@@ -1416,10 +1416,10 @@
         <v>69100</v>
       </c>
       <c r="E21">
-        <v>26079655000</v>
+        <v>24543692500</v>
       </c>
       <c r="F21">
-        <v>49905042000</v>
+        <v>47315234400</v>
       </c>
       <c r="G21">
         <v>729728000</v>
@@ -1428,13 +1428,13 @@
         <v>5340400</v>
       </c>
       <c r="I21">
-        <v>76714425000</v>
+        <v>72588654900</v>
       </c>
       <c r="J21" t="str">
         <v>2022-12-09T09:46:00.000Z</v>
       </c>
       <c r="K21">
-        <v>1805706982000</v>
+        <v>1647066681100</v>
       </c>
       <c r="L21">
         <v>117270900</v>
@@ -1443,13 +1443,13 @@
         <v>1408300</v>
       </c>
       <c r="N21">
-        <v>23825387000</v>
+        <v>22771541900</v>
       </c>
       <c r="O21">
         <v>8728500</v>
       </c>
       <c r="P21">
-        <v>203290927000</v>
+        <v>172700248300</v>
       </c>
     </row>
     <row r="22">
@@ -1466,10 +1466,10 @@
         <v>18800</v>
       </c>
       <c r="E22">
-        <v>32352783000</v>
+        <v>32053083000</v>
       </c>
       <c r="F22">
-        <v>50039491000</v>
+        <v>47216916400</v>
       </c>
       <c r="G22">
         <v>240659000</v>
@@ -1478,13 +1478,13 @@
         <v>5760300</v>
       </c>
       <c r="I22">
-        <v>82632933000</v>
+        <v>79510658400</v>
       </c>
       <c r="J22" t="str">
         <v>2022-12-09T09:48:00.000Z</v>
       </c>
       <c r="K22">
-        <v>1888339915000</v>
+        <v>1726577339500</v>
       </c>
       <c r="L22">
         <v>123031200</v>
@@ -1493,13 +1493,13 @@
         <v>576700</v>
       </c>
       <c r="N22">
-        <v>17686708000</v>
+        <v>15163833400</v>
       </c>
       <c r="O22">
         <v>9305200</v>
       </c>
       <c r="P22">
-        <v>220977635000</v>
+        <v>187864081700</v>
       </c>
     </row>
     <row r="23">
@@ -1516,10 +1516,10 @@
         <v>19100</v>
       </c>
       <c r="E23">
-        <v>58282782000</v>
+        <v>54871996200</v>
       </c>
       <c r="F23">
-        <v>41970429000</v>
+        <v>38745956700</v>
       </c>
       <c r="G23">
         <v>335527000</v>
@@ -1528,13 +1528,13 @@
         <v>6877000</v>
       </c>
       <c r="I23">
-        <v>100588738000</v>
+        <v>93953479900</v>
       </c>
       <c r="J23" t="str">
         <v>2022-12-09T09:50:00.000Z</v>
       </c>
       <c r="K23">
-        <v>1988928653000</v>
+        <v>1820530819400</v>
       </c>
       <c r="L23">
         <v>129908200</v>
@@ -1543,13 +1543,13 @@
         <v>-1772300</v>
       </c>
       <c r="N23">
-        <v>-16312353000</v>
+        <v>-16126039500</v>
       </c>
       <c r="O23">
         <v>7532900</v>
       </c>
       <c r="P23">
-        <v>204665282000</v>
+        <v>171738042200</v>
       </c>
     </row>
     <row r="24">
@@ -1566,25 +1566,25 @@
         <v>14700</v>
       </c>
       <c r="E24">
-        <v>47629129000</v>
+        <v>45760000000</v>
       </c>
       <c r="F24">
-        <v>31519960000</v>
+        <v>27098186200</v>
       </c>
       <c r="G24">
-        <v>242521000</v>
+        <v>192970600</v>
       </c>
       <c r="H24">
         <v>6629400</v>
       </c>
       <c r="I24">
-        <v>79391610000</v>
+        <v>73051156800</v>
       </c>
       <c r="J24" t="str">
         <v>2022-12-09T09:52:00.000Z</v>
       </c>
       <c r="K24">
-        <v>2068320263000</v>
+        <v>1893581976200</v>
       </c>
       <c r="L24">
         <v>136537600</v>
@@ -1593,13 +1593,13 @@
         <v>-2063500</v>
       </c>
       <c r="N24">
-        <v>-16109169000</v>
+        <v>-18661813800</v>
       </c>
       <c r="O24">
         <v>5469400</v>
       </c>
       <c r="P24">
-        <v>188556113000</v>
+        <v>153076228400</v>
       </c>
     </row>
     <row r="25">
@@ -1616,10 +1616,10 @@
         <v>12800</v>
       </c>
       <c r="E25">
-        <v>31456591000</v>
+        <v>29920528600</v>
       </c>
       <c r="F25">
-        <v>34603836000</v>
+        <v>30324219900</v>
       </c>
       <c r="G25">
         <v>121849000</v>
@@ -1628,13 +1628,13 @@
         <v>4447500</v>
       </c>
       <c r="I25">
-        <v>66182276000</v>
+        <v>60366597500</v>
       </c>
       <c r="J25" t="str">
         <v>2022-12-09T09:54:00.000Z</v>
       </c>
       <c r="K25">
-        <v>2134502539000</v>
+        <v>1953948573700</v>
       </c>
       <c r="L25">
         <v>140985100</v>
@@ -1643,13 +1643,13 @@
         <v>-41500</v>
       </c>
       <c r="N25">
-        <v>3147245000</v>
+        <v>403691300</v>
       </c>
       <c r="O25">
         <v>5427900</v>
       </c>
       <c r="P25">
-        <v>191703358000</v>
+        <v>153479919700</v>
       </c>
     </row>
     <row r="26">
@@ -1666,10 +1666,10 @@
         <v>7100</v>
       </c>
       <c r="E26">
-        <v>41232652000</v>
+        <v>39834951100</v>
       </c>
       <c r="F26">
-        <v>25345896000</v>
+        <v>20752094400</v>
       </c>
       <c r="G26">
         <v>68727000</v>
@@ -1678,13 +1678,13 @@
         <v>3990200</v>
       </c>
       <c r="I26">
-        <v>66647275000</v>
+        <v>60655772500</v>
       </c>
       <c r="J26" t="str">
         <v>2022-12-09T09:56:00.000Z</v>
       </c>
       <c r="K26">
-        <v>2201149814000</v>
+        <v>2014604346200</v>
       </c>
       <c r="L26">
         <v>144975300</v>
@@ -1693,13 +1693,13 @@
         <v>-1163500</v>
       </c>
       <c r="N26">
-        <v>-15886756000</v>
+        <v>-19082856700</v>
       </c>
       <c r="O26">
         <v>4264400</v>
       </c>
       <c r="P26">
-        <v>175816602000</v>
+        <v>134397063000</v>
       </c>
     </row>
     <row r="27">
@@ -1716,10 +1716,10 @@
         <v>3200</v>
       </c>
       <c r="E27">
-        <v>42032990000</v>
+        <v>38697728600</v>
       </c>
       <c r="F27">
-        <v>22943697000</v>
+        <v>21360282000</v>
       </c>
       <c r="G27">
         <v>49046000</v>
@@ -1728,13 +1728,13 @@
         <v>3847900</v>
       </c>
       <c r="I27">
-        <v>65025733000</v>
+        <v>60107056600</v>
       </c>
       <c r="J27" t="str">
         <v>2022-12-09T09:58:00.000Z</v>
       </c>
       <c r="K27">
-        <v>2266175547000</v>
+        <v>2074711402800</v>
       </c>
       <c r="L27">
         <v>148823200</v>
@@ -1743,13 +1743,13 @@
         <v>-1292100</v>
       </c>
       <c r="N27">
-        <v>-19089293000</v>
+        <v>-17337446600</v>
       </c>
       <c r="O27">
         <v>2972300</v>
       </c>
       <c r="P27">
-        <v>156727309000</v>
+        <v>117059616400</v>
       </c>
     </row>
     <row r="28">
@@ -1766,10 +1766,10 @@
         <v>26200</v>
       </c>
       <c r="E28">
-        <v>66033941000</v>
+        <v>64595880500</v>
       </c>
       <c r="F28">
-        <v>14131689000</v>
+        <v>13340580900</v>
       </c>
       <c r="G28">
         <v>271359000</v>
@@ -1778,13 +1778,13 @@
         <v>5326300</v>
       </c>
       <c r="I28">
-        <v>80436989000</v>
+        <v>78207820400</v>
       </c>
       <c r="J28" t="str">
         <v>2022-12-09T10:00:00.000Z</v>
       </c>
       <c r="K28">
-        <v>2346612536000</v>
+        <v>2152919223200</v>
       </c>
       <c r="L28">
         <v>154149500</v>
@@ -1793,13 +1793,13 @@
         <v>-3493500</v>
       </c>
       <c r="N28">
-        <v>-51902252000</v>
+        <v>-51255299600</v>
       </c>
       <c r="O28">
         <v>-521200</v>
       </c>
       <c r="P28">
-        <v>104825057000</v>
+        <v>65804316800</v>
       </c>
     </row>
     <row r="29">
@@ -1816,25 +1816,25 @@
         <v>29800</v>
       </c>
       <c r="E29">
-        <v>163780000000</v>
+        <v>151735756300</v>
       </c>
       <c r="F29">
-        <v>18385592000</v>
+        <v>16497581900</v>
       </c>
       <c r="G29">
-        <v>743249000</v>
+        <v>741850400</v>
       </c>
       <c r="H29">
         <v>11782200</v>
       </c>
       <c r="I29">
-        <v>182908841000</v>
+        <v>168975188600</v>
       </c>
       <c r="J29" t="str">
         <v>2022-12-09T10:02:00.000Z</v>
       </c>
       <c r="K29">
-        <v>2529521377000</v>
+        <v>2321894411800</v>
       </c>
       <c r="L29">
         <v>165931700</v>
@@ -1843,13 +1843,13 @@
         <v>-9601000</v>
       </c>
       <c r="N29">
-        <v>-145394408000</v>
+        <v>-135238174400</v>
       </c>
       <c r="O29">
         <v>-10122200</v>
       </c>
       <c r="P29">
-        <v>-40569351000</v>
+        <v>-69433857600</v>
       </c>
     </row>
     <row r="30">
@@ -1866,25 +1866,25 @@
         <v>42800</v>
       </c>
       <c r="E30">
-        <v>101986048000</v>
+        <v>95580659800</v>
       </c>
       <c r="F30">
-        <v>23348106000</v>
+        <v>20540116800</v>
       </c>
       <c r="G30">
-        <v>505619000</v>
+        <v>476248400</v>
       </c>
       <c r="H30">
         <v>7591000</v>
       </c>
       <c r="I30">
-        <v>125839773000</v>
+        <v>116597025000</v>
       </c>
       <c r="J30" t="str">
         <v>2022-12-09T10:04:00.000Z</v>
       </c>
       <c r="K30">
-        <v>2655361150000</v>
+        <v>2438491436800</v>
       </c>
       <c r="L30">
         <v>173522700</v>
@@ -1893,13 +1893,13 @@
         <v>-4655200</v>
       </c>
       <c r="N30">
-        <v>-78637942000</v>
+        <v>-75040543000</v>
       </c>
       <c r="O30">
         <v>-14777400</v>
       </c>
       <c r="P30">
-        <v>-119207293000</v>
+        <v>-144474400600</v>
       </c>
     </row>
     <row r="31">
@@ -1916,10 +1916,10 @@
         <v>7700</v>
       </c>
       <c r="E31">
-        <v>62872368000</v>
+        <v>54839908500</v>
       </c>
       <c r="F31">
-        <v>16013885000</v>
+        <v>13206095600</v>
       </c>
       <c r="G31">
         <v>155916000</v>
@@ -1928,13 +1928,13 @@
         <v>5014500</v>
       </c>
       <c r="I31">
-        <v>79042169000</v>
+        <v>68201920100</v>
       </c>
       <c r="J31" t="str">
         <v>2022-12-09T10:06:00.000Z</v>
       </c>
       <c r="K31">
-        <v>2734403319000</v>
+        <v>2506693356900</v>
       </c>
       <c r="L31">
         <v>178537200</v>
@@ -1943,13 +1943,13 @@
         <v>-3055400</v>
       </c>
       <c r="N31">
-        <v>-46858483000</v>
+        <v>-41633812900</v>
       </c>
       <c r="O31">
         <v>-17832800</v>
       </c>
       <c r="P31">
-        <v>-166065776000</v>
+        <v>-186108213500</v>
       </c>
     </row>
     <row r="32">
@@ -1966,25 +1966,25 @@
         <v>8500</v>
       </c>
       <c r="E32">
-        <v>55920544000</v>
+        <v>50098571800</v>
       </c>
       <c r="F32">
-        <v>25880663000</v>
+        <v>23207239100</v>
       </c>
       <c r="G32">
-        <v>95672000</v>
+        <v>63204500</v>
       </c>
       <c r="H32">
         <v>5189000</v>
       </c>
       <c r="I32">
-        <v>81896879000</v>
+        <v>73369015400</v>
       </c>
       <c r="J32" t="str">
         <v>2022-12-09T10:08:00.000Z</v>
       </c>
       <c r="K32">
-        <v>2816300198000</v>
+        <v>2580062372300</v>
       </c>
       <c r="L32">
         <v>183726200</v>
@@ -1993,13 +1993,13 @@
         <v>-1786300</v>
       </c>
       <c r="N32">
-        <v>-30039881000</v>
+        <v>-26891332700</v>
       </c>
       <c r="O32">
         <v>-19619100</v>
       </c>
       <c r="P32">
-        <v>-196105657000</v>
+        <v>-212999546200</v>
       </c>
     </row>
     <row r="33">
@@ -2016,10 +2016,10 @@
         <v>29400</v>
       </c>
       <c r="E33">
-        <v>66557709000</v>
+        <v>51392589300</v>
       </c>
       <c r="F33">
-        <v>26379303000</v>
+        <v>23022163500</v>
       </c>
       <c r="G33">
         <v>532535000</v>
@@ -2028,13 +2028,13 @@
         <v>5506100</v>
       </c>
       <c r="I33">
-        <v>93469547000</v>
+        <v>74947287800</v>
       </c>
       <c r="J33" t="str">
         <v>2022-12-09T10:10:00.000Z</v>
       </c>
       <c r="K33">
-        <v>2909769745000</v>
+        <v>2655009660100</v>
       </c>
       <c r="L33">
         <v>189232300</v>
@@ -2043,13 +2043,13 @@
         <v>-2132500</v>
       </c>
       <c r="N33">
-        <v>-40178406000</v>
+        <v>-28370425800</v>
       </c>
       <c r="O33">
         <v>-21751600</v>
       </c>
       <c r="P33">
-        <v>-236284063000</v>
+        <v>-241369972000</v>
       </c>
     </row>
     <row r="34">
@@ -2066,10 +2066,10 @@
         <v>22100</v>
       </c>
       <c r="E34">
-        <v>49875975000</v>
+        <v>41617142100</v>
       </c>
       <c r="F34">
-        <v>22645695000</v>
+        <v>20526116700</v>
       </c>
       <c r="G34">
         <v>245403000</v>
@@ -2078,13 +2078,13 @@
         <v>4214300</v>
       </c>
       <c r="I34">
-        <v>72767073000</v>
+        <v>62388661800</v>
       </c>
       <c r="J34" t="str">
         <v>2022-12-09T10:12:00.000Z</v>
       </c>
       <c r="K34">
-        <v>2982536818000</v>
+        <v>2717398321900</v>
       </c>
       <c r="L34">
         <v>193446600</v>
@@ -2093,13 +2093,13 @@
         <v>-1545000</v>
       </c>
       <c r="N34">
-        <v>-27230280000</v>
+        <v>-21091025400</v>
       </c>
       <c r="O34">
         <v>-23296600</v>
       </c>
       <c r="P34">
-        <v>-263514343000</v>
+        <v>-262460997400</v>
       </c>
     </row>
     <row r="35">
@@ -2116,25 +2116,25 @@
         <v>57400</v>
       </c>
       <c r="E35">
-        <v>23915510000</v>
+        <v>22087939400</v>
       </c>
       <c r="F35">
-        <v>45760612000</v>
+        <v>39639339400</v>
       </c>
       <c r="G35">
-        <v>1063969000</v>
+        <v>1061771200</v>
       </c>
       <c r="H35">
         <v>4348400</v>
       </c>
       <c r="I35">
-        <v>70740091000</v>
+        <v>62789050000</v>
       </c>
       <c r="J35" t="str">
         <v>2022-12-09T10:14:00.000Z</v>
       </c>
       <c r="K35">
-        <v>3053276909000</v>
+        <v>2780187371900</v>
       </c>
       <c r="L35">
         <v>197795000</v>
@@ -2143,13 +2143,13 @@
         <v>1362600</v>
       </c>
       <c r="N35">
-        <v>21845102000</v>
+        <v>17551400000</v>
       </c>
       <c r="O35">
         <v>-21934000</v>
       </c>
       <c r="P35">
-        <v>-241669241000</v>
+        <v>-244909597400</v>
       </c>
     </row>
     <row r="36">
@@ -2166,10 +2166,10 @@
         <v>14000</v>
       </c>
       <c r="E36">
-        <v>16605675000</v>
+        <v>15287394600</v>
       </c>
       <c r="F36">
-        <v>41859768000</v>
+        <v>39434495700</v>
       </c>
       <c r="G36">
         <v>164539000</v>
@@ -2178,13 +2178,13 @@
         <v>3703400</v>
       </c>
       <c r="I36">
-        <v>58629982000</v>
+        <v>54886429300</v>
       </c>
       <c r="J36" t="str">
         <v>2022-12-09T10:16:00.000Z</v>
       </c>
       <c r="K36">
-        <v>3111906891000</v>
+        <v>2835073801200</v>
       </c>
       <c r="L36">
         <v>201498400</v>
@@ -2193,13 +2193,13 @@
         <v>1709000</v>
       </c>
       <c r="N36">
-        <v>25254093000</v>
+        <v>24147101100</v>
       </c>
       <c r="O36">
         <v>-20225000</v>
       </c>
       <c r="P36">
-        <v>-216415148000</v>
+        <v>-220762496300</v>
       </c>
     </row>
     <row r="37">
@@ -2216,25 +2216,25 @@
         <v>26600</v>
       </c>
       <c r="E37">
-        <v>13482828000</v>
+        <v>11789323200</v>
       </c>
       <c r="F37">
-        <v>33716884000</v>
+        <v>29490414700</v>
       </c>
       <c r="G37">
-        <v>608597000</v>
+        <v>605400200</v>
       </c>
       <c r="H37">
         <v>2890800</v>
       </c>
       <c r="I37">
-        <v>47808309000</v>
+        <v>41885138100</v>
       </c>
       <c r="J37" t="str">
         <v>2022-12-09T10:18:00.000Z</v>
       </c>
       <c r="K37">
-        <v>3159715200000</v>
+        <v>2876958939300</v>
       </c>
       <c r="L37">
         <v>204389200</v>
@@ -2243,13 +2243,13 @@
         <v>1295400</v>
       </c>
       <c r="N37">
-        <v>20234056000</v>
+        <v>17701091500</v>
       </c>
       <c r="O37">
         <v>-18929600</v>
       </c>
       <c r="P37">
-        <v>-196181092000</v>
+        <v>-203061404800</v>
       </c>
     </row>
     <row r="38">
@@ -2266,10 +2266,10 @@
         <v>18000</v>
       </c>
       <c r="E38">
-        <v>24986995000</v>
+        <v>23012071900</v>
       </c>
       <c r="F38">
-        <v>21461517000</v>
+        <v>18528253200</v>
       </c>
       <c r="G38">
         <v>187643000</v>
@@ -2278,13 +2278,13 @@
         <v>2676800</v>
       </c>
       <c r="I38">
-        <v>46636155000</v>
+        <v>41727968100</v>
       </c>
       <c r="J38" t="str">
         <v>2022-12-09T10:20:00.000Z</v>
       </c>
       <c r="K38">
-        <v>3206351355000</v>
+        <v>2918686907400</v>
       </c>
       <c r="L38">
         <v>207066000</v>
@@ -2293,13 +2293,13 @@
         <v>73000</v>
       </c>
       <c r="N38">
-        <v>-3525478000</v>
+        <v>-4483818700</v>
       </c>
       <c r="O38">
         <v>-18856600</v>
       </c>
       <c r="P38">
-        <v>-199706570000</v>
+        <v>-207545223500</v>
       </c>
     </row>
     <row r="39">
@@ -2316,25 +2316,25 @@
         <v>9800</v>
       </c>
       <c r="E39">
-        <v>31835648000</v>
+        <v>29982802700</v>
       </c>
       <c r="F39">
-        <v>15123621000</v>
+        <v>13391754600</v>
       </c>
       <c r="G39">
-        <v>187519000</v>
+        <v>163543000</v>
       </c>
       <c r="H39">
         <v>2893400</v>
       </c>
       <c r="I39">
-        <v>47146788000</v>
+        <v>43538100300</v>
       </c>
       <c r="J39" t="str">
         <v>2022-12-09T10:22:00.000Z</v>
       </c>
       <c r="K39">
-        <v>3253498143000</v>
+        <v>2962225007700</v>
       </c>
       <c r="L39">
         <v>209959400</v>
@@ -2343,13 +2343,13 @@
         <v>-1118600</v>
       </c>
       <c r="N39">
-        <v>-16712027000</v>
+        <v>-16591048100</v>
       </c>
       <c r="O39">
         <v>-19975200</v>
       </c>
       <c r="P39">
-        <v>-216418597000</v>
+        <v>-224136271600</v>
       </c>
     </row>
     <row r="40">
@@ -2366,25 +2366,25 @@
         <v>14400</v>
       </c>
       <c r="E40">
-        <v>31714932000</v>
+        <v>30029619000</v>
       </c>
       <c r="F40">
-        <v>13254770000</v>
+        <v>11374252400</v>
       </c>
       <c r="G40">
-        <v>250970000</v>
+        <v>101519600</v>
       </c>
       <c r="H40">
         <v>2699700</v>
       </c>
       <c r="I40">
-        <v>45220672000</v>
+        <v>41505391000</v>
       </c>
       <c r="J40" t="str">
         <v>2022-12-09T10:24:00.000Z</v>
       </c>
       <c r="K40">
-        <v>3298718815000</v>
+        <v>3003730398700</v>
       </c>
       <c r="L40">
         <v>212659100</v>
@@ -2393,13 +2393,13 @@
         <v>-1182500</v>
       </c>
       <c r="N40">
-        <v>-18460162000</v>
+        <v>-18655366600</v>
       </c>
       <c r="O40">
         <v>-21157700</v>
       </c>
       <c r="P40">
-        <v>-234878759000</v>
+        <v>-242791638200</v>
       </c>
     </row>
     <row r="41">
@@ -2416,10 +2416,10 @@
         <v>8600</v>
       </c>
       <c r="E41">
-        <v>51692659000</v>
+        <v>46697459200</v>
       </c>
       <c r="F41">
-        <v>14935667000</v>
+        <v>13443960200</v>
       </c>
       <c r="G41">
         <v>121800000</v>
@@ -2428,13 +2428,13 @@
         <v>3528800</v>
       </c>
       <c r="I41">
-        <v>66750126000</v>
+        <v>60263219400</v>
       </c>
       <c r="J41" t="str">
         <v>2022-12-09T10:26:00.000Z</v>
       </c>
       <c r="K41">
-        <v>3365468941000</v>
+        <v>3063993618100</v>
       </c>
       <c r="L41">
         <v>216187900</v>
@@ -2443,13 +2443,13 @@
         <v>-1923800</v>
       </c>
       <c r="N41">
-        <v>-36756992000</v>
+        <v>-33253499000</v>
       </c>
       <c r="O41">
         <v>-23081500</v>
       </c>
       <c r="P41">
-        <v>-271635751000</v>
+        <v>-276045137200</v>
       </c>
     </row>
     <row r="42">
@@ -2466,10 +2466,10 @@
         <v>32000</v>
       </c>
       <c r="E42">
-        <v>72965758000</v>
+        <v>61179755800</v>
       </c>
       <c r="F42">
-        <v>8603212000</v>
+        <v>8368746700</v>
       </c>
       <c r="G42">
         <v>813961000</v>
@@ -2478,13 +2478,13 @@
         <v>4530400</v>
       </c>
       <c r="I42">
-        <v>82382931000</v>
+        <v>70362463500</v>
       </c>
       <c r="J42" t="str">
         <v>2022-12-09T10:28:00.000Z</v>
       </c>
       <c r="K42">
-        <v>3447851872000</v>
+        <v>3134356081600</v>
       </c>
       <c r="L42">
         <v>220718300</v>
@@ -2493,13 +2493,13 @@
         <v>-3501000</v>
       </c>
       <c r="N42">
-        <v>-64362546000</v>
+        <v>-52811009100</v>
       </c>
       <c r="O42">
         <v>-26582500</v>
       </c>
       <c r="P42">
-        <v>-335998297000</v>
+        <v>-328856146300</v>
       </c>
     </row>
     <row r="43">
@@ -2516,25 +2516,25 @@
         <v>19600</v>
       </c>
       <c r="E43">
-        <v>61518692000</v>
+        <v>57945568700</v>
       </c>
       <c r="F43">
-        <v>14122573000</v>
+        <v>11840457400</v>
       </c>
       <c r="G43">
-        <v>211924000</v>
+        <v>205130800</v>
       </c>
       <c r="H43">
         <v>4352800</v>
       </c>
       <c r="I43">
-        <v>75853189000</v>
+        <v>69991156900</v>
       </c>
       <c r="J43" t="str">
         <v>2022-12-09T10:30:00.000Z</v>
       </c>
       <c r="K43">
-        <v>3523705061000</v>
+        <v>3204347238500</v>
       </c>
       <c r="L43">
         <v>225071100</v>
@@ -2543,13 +2543,13 @@
         <v>-2691000</v>
       </c>
       <c r="N43">
-        <v>-47396119000</v>
+        <v>-46105111300</v>
       </c>
       <c r="O43">
         <v>-29273500</v>
       </c>
       <c r="P43">
-        <v>-383394416000</v>
+        <v>-374961257600</v>
       </c>
     </row>
     <row r="44">
@@ -2566,10 +2566,10 @@
         <v>89700</v>
       </c>
       <c r="E44">
-        <v>41163500000</v>
+        <v>37372095200</v>
       </c>
       <c r="F44">
-        <v>33766614000</v>
+        <v>27132255000</v>
       </c>
       <c r="G44">
         <v>1144963000</v>
@@ -2578,13 +2578,13 @@
         <v>4327100</v>
       </c>
       <c r="I44">
-        <v>76075077000</v>
+        <v>65649313200</v>
       </c>
       <c r="J44" t="str">
         <v>2022-12-09T10:32:00.000Z</v>
       </c>
       <c r="K44">
-        <v>3599780138000</v>
+        <v>3269996551700</v>
       </c>
       <c r="L44">
         <v>229398200</v>
@@ -2593,13 +2593,13 @@
         <v>-470800</v>
       </c>
       <c r="N44">
-        <v>-7396886000</v>
+        <v>-10239840200</v>
       </c>
       <c r="O44">
         <v>-29744300</v>
       </c>
       <c r="P44">
-        <v>-390791302000</v>
+        <v>-385201097800</v>
       </c>
     </row>
     <row r="45">
@@ -2616,10 +2616,10 @@
         <v>21500</v>
       </c>
       <c r="E45">
-        <v>23417826000</v>
+        <v>22717926600</v>
       </c>
       <c r="F45">
-        <v>36285817000</v>
+        <v>33117688300</v>
       </c>
       <c r="G45">
         <v>323161000</v>
@@ -2628,13 +2628,13 @@
         <v>3518600</v>
       </c>
       <c r="I45">
-        <v>60026804000</v>
+        <v>56158775900</v>
       </c>
       <c r="J45" t="str">
         <v>2022-12-09T10:34:00.000Z</v>
       </c>
       <c r="K45">
-        <v>3659806942000</v>
+        <v>3326155327600</v>
       </c>
       <c r="L45">
         <v>232916800</v>
@@ -2643,13 +2643,13 @@
         <v>920500</v>
       </c>
       <c r="N45">
-        <v>12867991000</v>
+        <v>10399761700</v>
       </c>
       <c r="O45">
         <v>-28823800</v>
       </c>
       <c r="P45">
-        <v>-377923311000</v>
+        <v>-374801336100</v>
       </c>
     </row>
     <row r="46">
@@ -2666,10 +2666,10 @@
         <v>12900</v>
       </c>
       <c r="E46">
-        <v>32892971000</v>
+        <v>29930836100</v>
       </c>
       <c r="F46">
-        <v>24747643000</v>
+        <v>22140652600</v>
       </c>
       <c r="G46">
         <v>178620000</v>
@@ -2678,13 +2678,13 @@
         <v>2997500</v>
       </c>
       <c r="I46">
-        <v>57819234000</v>
+        <v>52250108700</v>
       </c>
       <c r="J46" t="str">
         <v>2022-12-09T10:36:00.000Z</v>
       </c>
       <c r="K46">
-        <v>3717626176000</v>
+        <v>3378405436300</v>
       </c>
       <c r="L46">
         <v>235914300</v>
@@ -2693,13 +2693,13 @@
         <v>43000</v>
       </c>
       <c r="N46">
-        <v>-8145328000</v>
+        <v>-7790183500</v>
       </c>
       <c r="O46">
         <v>-28780800</v>
       </c>
       <c r="P46">
-        <v>-386068639000</v>
+        <v>-382591519600</v>
       </c>
     </row>
     <row r="47">
@@ -2716,25 +2716,25 @@
         <v>15900</v>
       </c>
       <c r="E47">
-        <v>72645883000</v>
+        <v>63324913300</v>
       </c>
       <c r="F47">
-        <v>16325464000</v>
+        <v>14772118900</v>
       </c>
       <c r="G47">
-        <v>281898000</v>
+        <v>154425600</v>
       </c>
       <c r="H47">
         <v>4877500</v>
       </c>
       <c r="I47">
-        <v>89253245000</v>
+        <v>78251457800</v>
       </c>
       <c r="J47" t="str">
         <v>2022-12-09T10:38:00.000Z</v>
       </c>
       <c r="K47">
-        <v>3806879421000</v>
+        <v>3456656894100</v>
       </c>
       <c r="L47">
         <v>240791800</v>
@@ -2743,13 +2743,13 @@
         <v>-3012400</v>
       </c>
       <c r="N47">
-        <v>-56320419000</v>
+        <v>-48552794400</v>
       </c>
       <c r="O47">
         <v>-31793200</v>
       </c>
       <c r="P47">
-        <v>-442389058000</v>
+        <v>-431144314000</v>
       </c>
     </row>
     <row r="48">
@@ -2766,10 +2766,10 @@
         <v>26700</v>
       </c>
       <c r="E48">
-        <v>58082179000</v>
+        <v>52800166300</v>
       </c>
       <c r="F48">
-        <v>21321373000</v>
+        <v>18847549300</v>
       </c>
       <c r="G48">
         <v>285577000</v>
@@ -2778,13 +2778,13 @@
         <v>4740500</v>
       </c>
       <c r="I48">
-        <v>79689129000</v>
+        <v>71933292600</v>
       </c>
       <c r="J48" t="str">
         <v>2022-12-09T10:40:00.000Z</v>
       </c>
       <c r="K48">
-        <v>3886568550000</v>
+        <v>3528590186700</v>
       </c>
       <c r="L48">
         <v>245532300</v>
@@ -2793,13 +2793,13 @@
         <v>-2415600</v>
       </c>
       <c r="N48">
-        <v>-36760806000</v>
+        <v>-33952617000</v>
       </c>
       <c r="O48">
         <v>-34208800</v>
       </c>
       <c r="P48">
-        <v>-479149864000</v>
+        <v>-465096931000</v>
       </c>
     </row>
     <row r="49">
@@ -2816,25 +2816,25 @@
         <v>15700</v>
       </c>
       <c r="E49">
-        <v>16769241000</v>
+        <v>14154058800</v>
       </c>
       <c r="F49">
-        <v>32873983000</v>
+        <v>27849612400</v>
       </c>
       <c r="G49">
-        <v>420856000</v>
+        <v>372504400</v>
       </c>
       <c r="H49">
         <v>2915200</v>
       </c>
       <c r="I49">
-        <v>50064080000</v>
+        <v>42376175600</v>
       </c>
       <c r="J49" t="str">
         <v>2022-12-09T10:42:00.000Z</v>
       </c>
       <c r="K49">
-        <v>3936632630000</v>
+        <v>3570966362300</v>
       </c>
       <c r="L49">
         <v>248447500</v>
@@ -2843,13 +2843,13 @@
         <v>842700</v>
       </c>
       <c r="N49">
-        <v>16104742000</v>
+        <v>13695553600</v>
       </c>
       <c r="O49">
         <v>-33366100</v>
       </c>
       <c r="P49">
-        <v>-463045122000</v>
+        <v>-451401377400</v>
       </c>
     </row>
     <row r="50">
@@ -2866,25 +2866,25 @@
         <v>34200</v>
       </c>
       <c r="E50">
-        <v>18597485000</v>
+        <v>18191491400</v>
       </c>
       <c r="F50">
-        <v>20836203000</v>
+        <v>19482957600</v>
       </c>
       <c r="G50">
-        <v>561089000</v>
+        <v>493157000</v>
       </c>
       <c r="H50">
         <v>2239700</v>
       </c>
       <c r="I50">
-        <v>39994777000</v>
+        <v>38167606000</v>
       </c>
       <c r="J50" t="str">
         <v>2022-12-09T10:44:00.000Z</v>
       </c>
       <c r="K50">
-        <v>3976627407000</v>
+        <v>3609133968300</v>
       </c>
       <c r="L50">
         <v>250687200</v>
@@ -2893,13 +2893,13 @@
         <v>4700</v>
       </c>
       <c r="N50">
-        <v>2238718000</v>
+        <v>1291466200</v>
       </c>
       <c r="O50">
         <v>-33361400</v>
       </c>
       <c r="P50">
-        <v>-460806404000</v>
+        <v>-450109911200</v>
       </c>
     </row>
     <row r="51">
@@ -2916,10 +2916,10 @@
         <v>15700</v>
       </c>
       <c r="E51">
-        <v>29567345000</v>
+        <v>24516800600</v>
       </c>
       <c r="F51">
-        <v>21938573000</v>
+        <v>20963748800</v>
       </c>
       <c r="G51">
         <v>227409000</v>
@@ -2928,13 +2928,13 @@
         <v>2739600</v>
       </c>
       <c r="I51">
-        <v>51733327000</v>
+        <v>45707958400</v>
       </c>
       <c r="J51" t="str">
         <v>2022-12-09T10:46:00.000Z</v>
       </c>
       <c r="K51">
-        <v>4028360734000</v>
+        <v>3654841926700</v>
       </c>
       <c r="L51">
         <v>253426800</v>
@@ -2943,13 +2943,13 @@
         <v>-548900</v>
       </c>
       <c r="N51">
-        <v>-7628772000</v>
+        <v>-3553051800</v>
       </c>
       <c r="O51">
         <v>-33910300</v>
       </c>
       <c r="P51">
-        <v>-468435176000</v>
+        <v>-453662963000</v>
       </c>
     </row>
     <row r="52">
@@ -2966,10 +2966,10 @@
         <v>7700</v>
       </c>
       <c r="E52">
-        <v>12947467000</v>
+        <v>12268746400</v>
       </c>
       <c r="F52">
-        <v>47494532000</v>
+        <v>45229099700</v>
       </c>
       <c r="G52">
         <v>92649000</v>
@@ -2978,13 +2978,13 @@
         <v>3125900</v>
       </c>
       <c r="I52">
-        <v>60534648000</v>
+        <v>57590495100</v>
       </c>
       <c r="J52" t="str">
         <v>2022-12-09T10:48:00.000Z</v>
       </c>
       <c r="K52">
-        <v>4088895382000</v>
+        <v>3712432421800</v>
       </c>
       <c r="L52">
         <v>256552700</v>
@@ -2993,13 +2993,13 @@
         <v>1750200</v>
       </c>
       <c r="N52">
-        <v>34547065000</v>
+        <v>32960353300</v>
       </c>
       <c r="O52">
         <v>-32160100</v>
       </c>
       <c r="P52">
-        <v>-433888111000</v>
+        <v>-420702609700</v>
       </c>
     </row>
     <row r="53">
@@ -3016,10 +3016,10 @@
         <v>6000</v>
       </c>
       <c r="E53">
-        <v>19775520000</v>
+        <v>19098297900</v>
       </c>
       <c r="F53">
-        <v>75050815000</v>
+        <v>61446932500</v>
       </c>
       <c r="G53">
         <v>190830000</v>
@@ -3028,13 +3028,13 @@
         <v>4986100</v>
       </c>
       <c r="I53">
-        <v>95017165000</v>
+        <v>80736060400</v>
       </c>
       <c r="J53" t="str">
         <v>2022-12-09T10:50:00.000Z</v>
       </c>
       <c r="K53">
-        <v>4183912547000</v>
+        <v>3793168482200</v>
       </c>
       <c r="L53">
         <v>261538800</v>
@@ -3043,13 +3043,13 @@
         <v>2838100</v>
       </c>
       <c r="N53">
-        <v>55275295000</v>
+        <v>42348634600</v>
       </c>
       <c r="O53">
         <v>-29322000</v>
       </c>
       <c r="P53">
-        <v>-378612816000</v>
+        <v>-378353975100</v>
       </c>
     </row>
     <row r="54">
@@ -3066,10 +3066,10 @@
         <v>7500</v>
       </c>
       <c r="E54">
-        <v>14584105000</v>
+        <v>11417075200</v>
       </c>
       <c r="F54">
-        <v>73254338000</v>
+        <v>66911786900</v>
       </c>
       <c r="G54">
         <v>147312000</v>
@@ -3078,13 +3078,13 @@
         <v>5071300</v>
       </c>
       <c r="I54">
-        <v>87985755000</v>
+        <v>78476174100</v>
       </c>
       <c r="J54" t="str">
         <v>2022-12-09T10:52:00.000Z</v>
       </c>
       <c r="K54">
-        <v>4271898302000</v>
+        <v>3871644656300</v>
       </c>
       <c r="L54">
         <v>266610100</v>
@@ -3093,13 +3093,13 @@
         <v>3451000</v>
       </c>
       <c r="N54">
-        <v>58670233000</v>
+        <v>55494711700</v>
       </c>
       <c r="O54">
         <v>-25871000</v>
       </c>
       <c r="P54">
-        <v>-319942583000</v>
+        <v>-322859263400</v>
       </c>
     </row>
     <row r="55">
@@ -3116,25 +3116,25 @@
         <v>36400</v>
       </c>
       <c r="E55">
-        <v>34106030000</v>
+        <v>29962377800</v>
       </c>
       <c r="F55">
-        <v>39469474000</v>
+        <v>33871078000</v>
       </c>
       <c r="G55">
-        <v>854317000</v>
+        <v>847623700</v>
       </c>
       <c r="H55">
         <v>4018500</v>
       </c>
       <c r="I55">
-        <v>74429821000</v>
+        <v>64681079500</v>
       </c>
       <c r="J55" t="str">
         <v>2022-12-09T10:54:00.000Z</v>
       </c>
       <c r="K55">
-        <v>4346328123000</v>
+        <v>3936325735800</v>
       </c>
       <c r="L55">
         <v>270628600</v>
@@ -3143,13 +3143,13 @@
         <v>730500</v>
       </c>
       <c r="N55">
-        <v>5363444000</v>
+        <v>3908700200</v>
       </c>
       <c r="O55">
         <v>-25140500</v>
       </c>
       <c r="P55">
-        <v>-314579139000</v>
+        <v>-318950563200</v>
       </c>
     </row>
     <row r="56">
@@ -3166,10 +3166,10 @@
         <v>8800</v>
       </c>
       <c r="E56">
-        <v>20525481000</v>
+        <v>18691317000</v>
       </c>
       <c r="F56">
-        <v>43346300000</v>
+        <v>39904844900</v>
       </c>
       <c r="G56">
         <v>233195000</v>
@@ -3178,13 +3178,13 @@
         <v>3385200</v>
       </c>
       <c r="I56">
-        <v>64104976000</v>
+        <v>58829356900</v>
       </c>
       <c r="J56" t="str">
         <v>2022-12-09T10:56:00.000Z</v>
       </c>
       <c r="K56">
-        <v>4410433099000</v>
+        <v>3995155092700</v>
       </c>
       <c r="L56">
         <v>274013800</v>
@@ -3193,13 +3193,13 @@
         <v>962400</v>
       </c>
       <c r="N56">
-        <v>22820819000</v>
+        <v>21213527900</v>
       </c>
       <c r="O56">
         <v>-24178100</v>
       </c>
       <c r="P56">
-        <v>-291758320000</v>
+        <v>-297737035300</v>
       </c>
     </row>
     <row r="57">
@@ -3216,10 +3216,10 @@
         <v>25200</v>
       </c>
       <c r="E57">
-        <v>30907138000</v>
+        <v>27236412400</v>
       </c>
       <c r="F57">
-        <v>27148114000</v>
+        <v>25631831800</v>
       </c>
       <c r="G57">
         <v>326670000</v>
@@ -3228,13 +3228,13 @@
         <v>2912500</v>
       </c>
       <c r="I57">
-        <v>58381922000</v>
+        <v>53194914200</v>
       </c>
       <c r="J57" t="str">
         <v>2022-12-09T10:58:00.000Z</v>
       </c>
       <c r="K57">
-        <v>4468815021000</v>
+        <v>4048350006900</v>
       </c>
       <c r="L57">
         <v>276926300</v>
@@ -3243,13 +3243,13 @@
         <v>-83100</v>
       </c>
       <c r="N57">
-        <v>-3759024000</v>
+        <v>-1604580600</v>
       </c>
       <c r="O57">
         <v>-24261200</v>
       </c>
       <c r="P57">
-        <v>-295517344000</v>
+        <v>-299341615900</v>
       </c>
     </row>
     <row r="58">
@@ -3266,10 +3266,10 @@
         <v>23800</v>
       </c>
       <c r="E58">
-        <v>62911938000</v>
+        <v>57390465000</v>
       </c>
       <c r="F58">
-        <v>26659679000</v>
+        <v>23950590800</v>
       </c>
       <c r="G58">
         <v>287713000</v>
@@ -3278,13 +3278,13 @@
         <v>4595500</v>
       </c>
       <c r="I58">
-        <v>89859330000</v>
+        <v>81628768800</v>
       </c>
       <c r="J58" t="str">
         <v>2022-12-09T11:00:00.000Z</v>
       </c>
       <c r="K58">
-        <v>4558674351000</v>
+        <v>4129978775700</v>
       </c>
       <c r="L58">
         <v>281521800</v>
@@ -3293,13 +3293,13 @@
         <v>-1478300</v>
       </c>
       <c r="N58">
-        <v>-36252259000</v>
+        <v>-33439874200</v>
       </c>
       <c r="O58">
         <v>-25739500</v>
       </c>
       <c r="P58">
-        <v>-331769603000</v>
+        <v>-332781490100</v>
       </c>
     </row>
     <row r="59">
@@ -3316,25 +3316,25 @@
         <v>51200</v>
       </c>
       <c r="E59">
-        <v>35143901000</v>
+        <v>32762784500</v>
       </c>
       <c r="F59">
-        <v>22271003000</v>
+        <v>19145631500</v>
       </c>
       <c r="G59">
-        <v>948570000</v>
+        <v>919499100</v>
       </c>
       <c r="H59">
         <v>3321500</v>
       </c>
       <c r="I59">
-        <v>58363474000</v>
+        <v>52827915100</v>
       </c>
       <c r="J59" t="str">
         <v>2022-12-09T11:02:00.000Z</v>
       </c>
       <c r="K59">
-        <v>4617037825000</v>
+        <v>4182806690800</v>
       </c>
       <c r="L59">
         <v>284843300</v>
@@ -3343,13 +3343,13 @@
         <v>-714100</v>
       </c>
       <c r="N59">
-        <v>-12872898000</v>
+        <v>-13617153000</v>
       </c>
       <c r="O59">
         <v>-26453600</v>
       </c>
       <c r="P59">
-        <v>-344642501000</v>
+        <v>-346398643100</v>
       </c>
     </row>
     <row r="60">
@@ -3366,10 +3366,10 @@
         <v>14700</v>
       </c>
       <c r="E60">
-        <v>17585616000</v>
+        <v>16997304900</v>
       </c>
       <c r="F60">
-        <v>26600611000</v>
+        <v>24682730800</v>
       </c>
       <c r="G60">
         <v>246333000</v>
@@ -3378,13 +3378,13 @@
         <v>2573700</v>
       </c>
       <c r="I60">
-        <v>44432560000</v>
+        <v>41926368700</v>
       </c>
       <c r="J60" t="str">
         <v>2022-12-09T11:04:00.000Z</v>
       </c>
       <c r="K60">
-        <v>4661470385000</v>
+        <v>4224733059500</v>
       </c>
       <c r="L60">
         <v>287417000</v>
@@ -3393,13 +3393,13 @@
         <v>445800</v>
       </c>
       <c r="N60">
-        <v>9014995000</v>
+        <v>7685425900</v>
       </c>
       <c r="O60">
         <v>-26007800</v>
       </c>
       <c r="P60">
-        <v>-335627506000</v>
+        <v>-338713217200</v>
       </c>
     </row>
     <row r="61">
@@ -3416,10 +3416,10 @@
         <v>16400</v>
       </c>
       <c r="E61">
-        <v>12947016000</v>
+        <v>12451512000</v>
       </c>
       <c r="F61">
-        <v>27321488000</v>
+        <v>26212398200</v>
       </c>
       <c r="G61">
         <v>143410000</v>
@@ -3428,13 +3428,13 @@
         <v>2558900</v>
       </c>
       <c r="I61">
-        <v>40411914000</v>
+        <v>38807320200</v>
       </c>
       <c r="J61" t="str">
         <v>2022-12-09T11:06:00.000Z</v>
       </c>
       <c r="K61">
-        <v>4701882299000</v>
+        <v>4263540379700</v>
       </c>
       <c r="L61">
         <v>289975900</v>
@@ -3443,13 +3443,13 @@
         <v>1001700</v>
       </c>
       <c r="N61">
-        <v>14374472000</v>
+        <v>13760886200</v>
       </c>
       <c r="O61">
         <v>-25006100</v>
       </c>
       <c r="P61">
-        <v>-321253034000</v>
+        <v>-324952331000</v>
       </c>
     </row>
     <row r="62">
@@ -3466,25 +3466,25 @@
         <v>28900</v>
       </c>
       <c r="E62">
-        <v>15367603000</v>
+        <v>15066304600</v>
       </c>
       <c r="F62">
-        <v>36184614000</v>
+        <v>33915685200</v>
       </c>
       <c r="G62">
-        <v>371584000</v>
+        <v>340615000</v>
       </c>
       <c r="H62">
         <v>3212600</v>
       </c>
       <c r="I62">
-        <v>51923801000</v>
+        <v>49322604800</v>
       </c>
       <c r="J62" t="str">
         <v>2022-12-09T11:08:00.000Z</v>
       </c>
       <c r="K62">
-        <v>4753806100000</v>
+        <v>4312862984500</v>
       </c>
       <c r="L62">
         <v>293188500</v>
@@ -3493,13 +3493,13 @@
         <v>1529500</v>
       </c>
       <c r="N62">
-        <v>20817011000</v>
+        <v>18849380600</v>
       </c>
       <c r="O62">
         <v>-23476600</v>
       </c>
       <c r="P62">
-        <v>-300436023000</v>
+        <v>-306102950400</v>
       </c>
     </row>
     <row r="63">
@@ -3516,10 +3516,10 @@
         <v>31500</v>
       </c>
       <c r="E63">
-        <v>11755202000</v>
+        <v>11631525800</v>
       </c>
       <c r="F63">
-        <v>38796519000</v>
+        <v>37397719200</v>
       </c>
       <c r="G63">
         <v>457703000</v>
@@ -3528,13 +3528,13 @@
         <v>3131300</v>
       </c>
       <c r="I63">
-        <v>51009424000</v>
+        <v>49486948000</v>
       </c>
       <c r="J63" t="str">
         <v>2022-12-09T11:10:00.000Z</v>
       </c>
       <c r="K63">
-        <v>4804815524000</v>
+        <v>4362349932500</v>
       </c>
       <c r="L63">
         <v>296319800</v>
@@ -3543,13 +3543,13 @@
         <v>1563400</v>
       </c>
       <c r="N63">
-        <v>27041317000</v>
+        <v>25766193400</v>
       </c>
       <c r="O63">
         <v>-21913200</v>
       </c>
       <c r="P63">
-        <v>-273394706000</v>
+        <v>-280336757000</v>
       </c>
     </row>
     <row r="64">
@@ -3566,25 +3566,25 @@
         <v>18900</v>
       </c>
       <c r="E64">
-        <v>15667146000</v>
+        <v>13964150700</v>
       </c>
       <c r="F64">
-        <v>75346066000</v>
+        <v>57937891600</v>
       </c>
       <c r="G64">
-        <v>428807000</v>
+        <v>418617200</v>
       </c>
       <c r="H64">
         <v>5625600</v>
       </c>
       <c r="I64">
-        <v>91442019000</v>
+        <v>72320659500</v>
       </c>
       <c r="J64" t="str">
         <v>2022-12-09T11:12:00.000Z</v>
       </c>
       <c r="K64">
-        <v>4896257543000</v>
+        <v>4434670592000</v>
       </c>
       <c r="L64">
         <v>301945400</v>
@@ -3593,13 +3593,13 @@
         <v>3890300</v>
       </c>
       <c r="N64">
-        <v>59678920000</v>
+        <v>43973740900</v>
       </c>
       <c r="O64">
         <v>-18022900</v>
       </c>
       <c r="P64">
-        <v>-213715786000</v>
+        <v>-236363016100</v>
       </c>
     </row>
     <row r="65">
@@ -3616,10 +3616,10 @@
         <v>175700</v>
       </c>
       <c r="E65">
-        <v>15428725000</v>
+        <v>13797957400</v>
       </c>
       <c r="F65">
-        <v>72301288000</v>
+        <v>65275021300</v>
       </c>
       <c r="G65">
         <v>1870637000</v>
@@ -3628,13 +3628,13 @@
         <v>6023700</v>
       </c>
       <c r="I65">
-        <v>89600650000</v>
+        <v>80943615700</v>
       </c>
       <c r="J65" t="str">
         <v>2022-12-09T11:14:00.000Z</v>
       </c>
       <c r="K65">
-        <v>4985858193000</v>
+        <v>4515614207700</v>
       </c>
       <c r="L65">
         <v>307969100</v>
@@ -3643,13 +3643,13 @@
         <v>4116600</v>
       </c>
       <c r="N65">
-        <v>56872563000</v>
+        <v>51477063900</v>
       </c>
       <c r="O65">
         <v>-13906300</v>
       </c>
       <c r="P65">
-        <v>-156843223000</v>
+        <v>-184885952200</v>
       </c>
     </row>
     <row r="66">
@@ -3666,25 +3666,25 @@
         <v>119700</v>
       </c>
       <c r="E66">
-        <v>34770087000</v>
+        <v>25346220300</v>
       </c>
       <c r="F66">
-        <v>59564611000</v>
+        <v>52960621600</v>
       </c>
       <c r="G66">
-        <v>1376097000</v>
+        <v>1375397700</v>
       </c>
       <c r="H66">
         <v>5729000</v>
       </c>
       <c r="I66">
-        <v>95710795000</v>
+        <v>79682239600</v>
       </c>
       <c r="J66" t="str">
         <v>2022-12-09T11:16:00.000Z</v>
       </c>
       <c r="K66">
-        <v>5081568988000</v>
+        <v>4595296447300</v>
       </c>
       <c r="L66">
         <v>313698100</v>
@@ -3693,13 +3693,13 @@
         <v>1857700</v>
       </c>
       <c r="N66">
-        <v>24794524000</v>
+        <v>27614401300</v>
       </c>
       <c r="O66">
         <v>-12048600</v>
       </c>
       <c r="P66">
-        <v>-132048699000</v>
+        <v>-157271550900</v>
       </c>
     </row>
     <row r="67">
@@ -3716,10 +3716,10 @@
         <v>77300</v>
       </c>
       <c r="E67">
-        <v>25053323000</v>
+        <v>20516664200</v>
       </c>
       <c r="F67">
-        <v>34190685000</v>
+        <v>32404373100</v>
       </c>
       <c r="G67">
         <v>742968000</v>
@@ -3728,13 +3728,13 @@
         <v>3407600</v>
       </c>
       <c r="I67">
-        <v>59986976000</v>
+        <v>53664005300</v>
       </c>
       <c r="J67" t="str">
         <v>2022-12-09T11:18:00.000Z</v>
       </c>
       <c r="K67">
-        <v>5141555964000</v>
+        <v>4648960452600</v>
       </c>
       <c r="L67">
         <v>317105700</v>
@@ -3743,13 +3743,13 @@
         <v>510100</v>
       </c>
       <c r="N67">
-        <v>9137362000</v>
+        <v>11887708900</v>
       </c>
       <c r="O67">
         <v>-11538500</v>
       </c>
       <c r="P67">
-        <v>-122911337000</v>
+        <v>-145383842000</v>
       </c>
     </row>
     <row r="68">
@@ -3766,10 +3766,10 @@
         <v>27600</v>
       </c>
       <c r="E68">
-        <v>23353730000</v>
+        <v>22326258500</v>
       </c>
       <c r="F68">
-        <v>43742201000</v>
+        <v>40956989000</v>
       </c>
       <c r="G68">
         <v>375481000</v>
@@ -3778,13 +3778,13 @@
         <v>4058700</v>
       </c>
       <c r="I68">
-        <v>67471412000</v>
+        <v>63658728500</v>
       </c>
       <c r="J68" t="str">
         <v>2022-12-09T11:20:00.000Z</v>
       </c>
       <c r="K68">
-        <v>5209027376000</v>
+        <v>4712619181100</v>
       </c>
       <c r="L68">
         <v>321164400</v>
@@ -3793,13 +3793,13 @@
         <v>1113300</v>
       </c>
       <c r="N68">
-        <v>20388471000</v>
+        <v>18630730500</v>
       </c>
       <c r="O68">
         <v>-10425200</v>
       </c>
       <c r="P68">
-        <v>-102522866000</v>
+        <v>-126753111500</v>
       </c>
     </row>
     <row r="69">
@@ -3816,25 +3816,25 @@
         <v>13700</v>
       </c>
       <c r="E69">
-        <v>11750282000</v>
+        <v>10977855200</v>
       </c>
       <c r="F69">
-        <v>46218018000</v>
+        <v>36739506000</v>
       </c>
       <c r="G69">
-        <v>278350000</v>
+        <v>218210200</v>
       </c>
       <c r="H69">
         <v>3349100</v>
       </c>
       <c r="I69">
-        <v>58246650000</v>
+        <v>47935571400</v>
       </c>
       <c r="J69" t="str">
         <v>2022-12-09T11:22:00.000Z</v>
       </c>
       <c r="K69">
-        <v>5267274026000</v>
+        <v>4760554752500</v>
       </c>
       <c r="L69">
         <v>324513500</v>
@@ -3843,13 +3843,13 @@
         <v>1933400</v>
       </c>
       <c r="N69">
-        <v>34467736000</v>
+        <v>25761650800</v>
       </c>
       <c r="O69">
         <v>-8491800</v>
       </c>
       <c r="P69">
-        <v>-68055130000</v>
+        <v>-100991460700</v>
       </c>
     </row>
     <row r="70">
@@ -3866,10 +3866,10 @@
         <v>7500</v>
       </c>
       <c r="E70">
-        <v>29743870000</v>
+        <v>26367949300</v>
       </c>
       <c r="F70">
-        <v>41254453000</v>
+        <v>38023387300</v>
       </c>
       <c r="G70">
         <v>224404000</v>
@@ -3878,13 +3878,13 @@
         <v>4039800</v>
       </c>
       <c r="I70">
-        <v>71222727000</v>
+        <v>64615740600</v>
       </c>
       <c r="J70" t="str">
         <v>2022-12-09T11:24:00.000Z</v>
       </c>
       <c r="K70">
-        <v>5338496753000</v>
+        <v>4825170493100</v>
       </c>
       <c r="L70">
         <v>328553300</v>
@@ -3893,13 +3893,13 @@
         <v>705900</v>
       </c>
       <c r="N70">
-        <v>11510583000</v>
+        <v>11655438000</v>
       </c>
       <c r="O70">
         <v>-7785900</v>
       </c>
       <c r="P70">
-        <v>-56544547000</v>
+        <v>-89336022700</v>
       </c>
     </row>
     <row r="71">
@@ -3916,25 +3916,25 @@
         <v>15700</v>
       </c>
       <c r="E71">
-        <v>22726605000</v>
+        <v>19705629000</v>
       </c>
       <c r="F71">
-        <v>34589779000</v>
+        <v>33302667400</v>
       </c>
       <c r="G71">
-        <v>87724000</v>
+        <v>84926800</v>
       </c>
       <c r="H71">
         <v>3230200</v>
       </c>
       <c r="I71">
-        <v>57404108000</v>
+        <v>53093223200</v>
       </c>
       <c r="J71" t="str">
         <v>2022-12-09T11:26:00.000Z</v>
       </c>
       <c r="K71">
-        <v>5395900861000</v>
+        <v>4878263716300</v>
       </c>
       <c r="L71">
         <v>331783500</v>
@@ -3943,13 +3943,13 @@
         <v>1056500</v>
       </c>
       <c r="N71">
-        <v>11863174000</v>
+        <v>13597038400</v>
       </c>
       <c r="O71">
         <v>-6729400</v>
       </c>
       <c r="P71">
-        <v>-44681373000</v>
+        <v>-75738984300</v>
       </c>
     </row>
     <row r="72">
@@ -3966,25 +3966,25 @@
         <v>160100</v>
       </c>
       <c r="E72">
-        <v>28678152000</v>
+        <v>26290941600</v>
       </c>
       <c r="F72">
-        <v>128577910000</v>
+        <v>115860340300</v>
       </c>
       <c r="G72">
-        <v>3365450000</v>
+        <v>3362053400</v>
       </c>
       <c r="H72">
         <v>9430500</v>
       </c>
       <c r="I72">
-        <v>160621512000</v>
+        <v>145513335300</v>
       </c>
       <c r="J72" t="str">
         <v>2022-12-09T11:28:00.000Z</v>
       </c>
       <c r="K72">
-        <v>5556522373000</v>
+        <v>5023777051600</v>
       </c>
       <c r="L72">
         <v>341214000</v>
@@ -3993,13 +3993,13 @@
         <v>5752200</v>
       </c>
       <c r="N72">
-        <v>99899758000</v>
+        <v>89569398700</v>
       </c>
       <c r="O72">
         <v>-977200</v>
       </c>
       <c r="P72">
-        <v>55218385000</v>
+        <v>13830414400</v>
       </c>
     </row>
     <row r="73">
@@ -4034,7 +4034,7 @@
         <v>2022-12-09T11:30:00.000Z</v>
       </c>
       <c r="K73">
-        <v>5558104746000</v>
+        <v>5025359424600</v>
       </c>
       <c r="L73">
         <v>341314000</v>
@@ -4049,7 +4049,7 @@
         <v>-891800</v>
       </c>
       <c r="P73">
-        <v>56451742000</v>
+        <v>15063771400</v>
       </c>
     </row>
     <row r="74">
@@ -4066,25 +4066,25 @@
         <v>500200</v>
       </c>
       <c r="E74">
-        <v>172430809000</v>
+        <v>157451403400</v>
       </c>
       <c r="F74">
-        <v>218880086000</v>
+        <v>195238950800</v>
       </c>
       <c r="G74">
-        <v>8246975000</v>
+        <v>8118303800</v>
       </c>
       <c r="H74">
         <v>25223800</v>
       </c>
       <c r="I74">
-        <v>399557870000</v>
+        <v>360808658000</v>
       </c>
       <c r="J74" t="str">
         <v>2022-12-09T13:00:00.000Z</v>
       </c>
       <c r="K74">
-        <v>5957662616000</v>
+        <v>5386168082600</v>
       </c>
       <c r="L74">
         <v>366537800</v>
@@ -4093,13 +4093,13 @@
         <v>3209000</v>
       </c>
       <c r="N74">
-        <v>46449277000</v>
+        <v>37787547400</v>
       </c>
       <c r="O74">
         <v>2317200</v>
       </c>
       <c r="P74">
-        <v>102901019000</v>
+        <v>52851318800</v>
       </c>
     </row>
     <row r="75">
@@ -4116,25 +4116,25 @@
         <v>42200</v>
       </c>
       <c r="E75">
-        <v>39411424000</v>
+        <v>37738798300</v>
       </c>
       <c r="F75">
-        <v>153925142000</v>
+        <v>134432853800</v>
       </c>
       <c r="G75">
-        <v>1259392000</v>
+        <v>1194656800</v>
       </c>
       <c r="H75">
         <v>9682200</v>
       </c>
       <c r="I75">
-        <v>194595958000</v>
+        <v>173366308900</v>
       </c>
       <c r="J75" t="str">
         <v>2022-12-09T13:02:00.000Z</v>
       </c>
       <c r="K75">
-        <v>6152258574000</v>
+        <v>5559534391500</v>
       </c>
       <c r="L75">
         <v>376220000</v>
@@ -4143,13 +4143,13 @@
         <v>5165000</v>
       </c>
       <c r="N75">
-        <v>114513718000</v>
+        <v>96694055500</v>
       </c>
       <c r="O75">
         <v>7482200</v>
       </c>
       <c r="P75">
-        <v>217414737000</v>
+        <v>149545374300</v>
       </c>
     </row>
     <row r="76">
@@ -4166,10 +4166,10 @@
         <v>51600</v>
       </c>
       <c r="E76">
-        <v>58906779000</v>
+        <v>58028658000</v>
       </c>
       <c r="F76">
-        <v>150534717000</v>
+        <v>130416655200</v>
       </c>
       <c r="G76">
         <v>856884000</v>
@@ -4178,13 +4178,13 @@
         <v>11563600</v>
       </c>
       <c r="I76">
-        <v>210298380000</v>
+        <v>189302197200</v>
       </c>
       <c r="J76" t="str">
         <v>2022-12-09T13:04:00.000Z</v>
       </c>
       <c r="K76">
-        <v>6362556954000</v>
+        <v>5748836588700</v>
       </c>
       <c r="L76">
         <v>387783600</v>
@@ -4193,13 +4193,13 @@
         <v>3901000</v>
       </c>
       <c r="N76">
-        <v>91627938000</v>
+        <v>72387997200</v>
       </c>
       <c r="O76">
         <v>11383200</v>
       </c>
       <c r="P76">
-        <v>309042675000</v>
+        <v>221933371500</v>
       </c>
     </row>
     <row r="77">
@@ -4216,10 +4216,10 @@
         <v>46300</v>
       </c>
       <c r="E77">
-        <v>98838754000</v>
+        <v>93968529100</v>
       </c>
       <c r="F77">
-        <v>97629895000</v>
+        <v>80899142500</v>
       </c>
       <c r="G77">
         <v>628348000</v>
@@ -4228,13 +4228,13 @@
         <v>11888500</v>
       </c>
       <c r="I77">
-        <v>197096997000</v>
+        <v>175496019600</v>
       </c>
       <c r="J77" t="str">
         <v>2022-12-09T13:06:00.000Z</v>
       </c>
       <c r="K77">
-        <v>6559653951000</v>
+        <v>5924332608300</v>
       </c>
       <c r="L77">
         <v>399672100</v>
@@ -4243,13 +4243,13 @@
         <v>-530200</v>
       </c>
       <c r="N77">
-        <v>-1208859000</v>
+        <v>-13069386600</v>
       </c>
       <c r="O77">
         <v>10853000</v>
       </c>
       <c r="P77">
-        <v>307833816000</v>
+        <v>208863984900</v>
       </c>
     </row>
     <row r="78">
@@ -4266,25 +4266,25 @@
         <v>97600</v>
       </c>
       <c r="E78">
-        <v>88759377000</v>
+        <v>79320924900</v>
       </c>
       <c r="F78">
-        <v>57656565000</v>
+        <v>50396032800</v>
       </c>
       <c r="G78">
-        <v>1372634000</v>
+        <v>1340666000</v>
       </c>
       <c r="H78">
         <v>9075700</v>
       </c>
       <c r="I78">
-        <v>147788576000</v>
+        <v>131057623700</v>
       </c>
       <c r="J78" t="str">
         <v>2022-12-09T13:08:00.000Z</v>
       </c>
       <c r="K78">
-        <v>6707442527000</v>
+        <v>6055390232000</v>
       </c>
       <c r="L78">
         <v>408747800</v>
@@ -4293,13 +4293,13 @@
         <v>-2542300</v>
       </c>
       <c r="N78">
-        <v>-31102812000</v>
+        <v>-28924892100</v>
       </c>
       <c r="O78">
         <v>8310700</v>
       </c>
       <c r="P78">
-        <v>276731004000</v>
+        <v>179939092800</v>
       </c>
     </row>
     <row r="79">
@@ -4316,25 +4316,25 @@
         <v>30800</v>
       </c>
       <c r="E79">
-        <v>63996634000</v>
+        <v>60840892900</v>
       </c>
       <c r="F79">
-        <v>34624736000</v>
+        <v>30787577000</v>
       </c>
       <c r="G79">
-        <v>395375000</v>
+        <v>271299200</v>
       </c>
       <c r="H79">
         <v>5776000</v>
       </c>
       <c r="I79">
-        <v>99016745000</v>
+        <v>91899769100</v>
       </c>
       <c r="J79" t="str">
         <v>2022-12-09T13:10:00.000Z</v>
       </c>
       <c r="K79">
-        <v>6806459272000</v>
+        <v>6147290001100</v>
       </c>
       <c r="L79">
         <v>414523800</v>
@@ -4343,13 +4343,13 @@
         <v>-2004600</v>
       </c>
       <c r="N79">
-        <v>-29371898000</v>
+        <v>-30053315900</v>
       </c>
       <c r="O79">
         <v>6306100</v>
       </c>
       <c r="P79">
-        <v>247359106000</v>
+        <v>149885776900</v>
       </c>
     </row>
     <row r="80">
@@ -4366,10 +4366,10 @@
         <v>9400</v>
       </c>
       <c r="E80">
-        <v>53152754000</v>
+        <v>52028179700</v>
       </c>
       <c r="F80">
-        <v>45901217000</v>
+        <v>39168656300</v>
       </c>
       <c r="G80">
         <v>472282000</v>
@@ -4378,13 +4378,13 @@
         <v>5566600</v>
       </c>
       <c r="I80">
-        <v>99526253000</v>
+        <v>91669118000</v>
       </c>
       <c r="J80" t="str">
         <v>2022-12-09T13:12:00.000Z</v>
       </c>
       <c r="K80">
-        <v>6905985525000</v>
+        <v>6238959119100</v>
       </c>
       <c r="L80">
         <v>420090400</v>
@@ -4393,13 +4393,13 @@
         <v>-657600</v>
       </c>
       <c r="N80">
-        <v>-7251537000</v>
+        <v>-12859523400</v>
       </c>
       <c r="O80">
         <v>5648500</v>
       </c>
       <c r="P80">
-        <v>240107569000</v>
+        <v>137026253500</v>
       </c>
     </row>
     <row r="81">
@@ -4416,25 +4416,25 @@
         <v>38200</v>
       </c>
       <c r="E81">
-        <v>66523726000</v>
+        <v>63068484700</v>
       </c>
       <c r="F81">
-        <v>37621901000</v>
+        <v>28865266400</v>
       </c>
       <c r="G81">
-        <v>386928000</v>
+        <v>380034900</v>
       </c>
       <c r="H81">
         <v>6192900</v>
       </c>
       <c r="I81">
-        <v>104532555000</v>
+        <v>92313786000</v>
       </c>
       <c r="J81" t="str">
         <v>2022-12-09T13:14:00.000Z</v>
       </c>
       <c r="K81">
-        <v>7010518080000</v>
+        <v>6331272905100</v>
       </c>
       <c r="L81">
         <v>426283300</v>
@@ -4443,13 +4443,13 @@
         <v>-2082100</v>
       </c>
       <c r="N81">
-        <v>-28901825000</v>
+        <v>-34203218300</v>
       </c>
       <c r="O81">
         <v>3566400</v>
       </c>
       <c r="P81">
-        <v>211205744000</v>
+        <v>102823035200</v>
       </c>
     </row>
     <row r="82">
@@ -4466,10 +4466,10 @@
         <v>13400</v>
       </c>
       <c r="E82">
-        <v>55124519000</v>
+        <v>51119328200</v>
       </c>
       <c r="F82">
-        <v>45039564000</v>
+        <v>37208103300</v>
       </c>
       <c r="G82">
         <v>355892000</v>
@@ -4478,13 +4478,13 @@
         <v>5500600</v>
       </c>
       <c r="I82">
-        <v>100519975000</v>
+        <v>88683323500</v>
       </c>
       <c r="J82" t="str">
         <v>2022-12-09T13:16:00.000Z</v>
       </c>
       <c r="K82">
-        <v>7111038055000</v>
+        <v>6419956228600</v>
       </c>
       <c r="L82">
         <v>431783900</v>
@@ -4493,13 +4493,13 @@
         <v>-894000</v>
       </c>
       <c r="N82">
-        <v>-10084955000</v>
+        <v>-13911224900</v>
       </c>
       <c r="O82">
         <v>2672400</v>
       </c>
       <c r="P82">
-        <v>201120789000</v>
+        <v>88911810300</v>
       </c>
     </row>
     <row r="83">
@@ -4516,25 +4516,25 @@
         <v>51000</v>
       </c>
       <c r="E83">
-        <v>53708244000</v>
+        <v>47389369200</v>
       </c>
       <c r="F83">
-        <v>41978034000</v>
+        <v>39008606400</v>
       </c>
       <c r="G83">
-        <v>902859000</v>
+        <v>388673700</v>
       </c>
       <c r="H83">
         <v>4794400</v>
       </c>
       <c r="I83">
-        <v>96589137000</v>
+        <v>86786649300</v>
       </c>
       <c r="J83" t="str">
         <v>2022-12-09T13:18:00.000Z</v>
       </c>
       <c r="K83">
-        <v>7207627192000</v>
+        <v>6506742877900</v>
       </c>
       <c r="L83">
         <v>436578300</v>
@@ -4543,13 +4543,13 @@
         <v>-590200</v>
       </c>
       <c r="N83">
-        <v>-11730210000</v>
+        <v>-8380762800</v>
       </c>
       <c r="O83">
         <v>2082200</v>
       </c>
       <c r="P83">
-        <v>189390579000</v>
+        <v>80531047500</v>
       </c>
     </row>
     <row r="84">
@@ -4566,10 +4566,10 @@
         <v>46000</v>
       </c>
       <c r="E84">
-        <v>51974854000</v>
+        <v>50258172400</v>
       </c>
       <c r="F84">
-        <v>24005263000</v>
+        <v>22870998400</v>
       </c>
       <c r="G84">
         <v>240528000</v>
@@ -4578,13 +4578,13 @@
         <v>4332600</v>
       </c>
       <c r="I84">
-        <v>76220645000</v>
+        <v>73369698800</v>
       </c>
       <c r="J84" t="str">
         <v>2022-12-09T13:20:00.000Z</v>
       </c>
       <c r="K84">
-        <v>7283847837000</v>
+        <v>6580112576700</v>
       </c>
       <c r="L84">
         <v>440910900</v>
@@ -4593,13 +4593,13 @@
         <v>-1782400</v>
       </c>
       <c r="N84">
-        <v>-27969591000</v>
+        <v>-27387174000</v>
       </c>
       <c r="O84">
         <v>299800</v>
       </c>
       <c r="P84">
-        <v>161420988000</v>
+        <v>53143873500</v>
       </c>
     </row>
     <row r="85">
@@ -4616,10 +4616,10 @@
         <v>8600</v>
       </c>
       <c r="E85">
-        <v>57539298000</v>
+        <v>55186053600</v>
       </c>
       <c r="F85">
-        <v>43296955000</v>
+        <v>41353400500</v>
       </c>
       <c r="G85">
         <v>268416000</v>
@@ -4628,13 +4628,13 @@
         <v>5242300</v>
       </c>
       <c r="I85">
-        <v>101104669000</v>
+        <v>96807870100</v>
       </c>
       <c r="J85" t="str">
         <v>2022-12-09T13:22:00.000Z</v>
       </c>
       <c r="K85">
-        <v>7384952506000</v>
+        <v>6676920446800</v>
       </c>
       <c r="L85">
         <v>446153200</v>
@@ -4643,13 +4643,13 @@
         <v>-1096700</v>
       </c>
       <c r="N85">
-        <v>-14242343000</v>
+        <v>-13832653100</v>
       </c>
       <c r="O85">
         <v>-796900</v>
       </c>
       <c r="P85">
-        <v>147178645000</v>
+        <v>39311220400</v>
       </c>
     </row>
     <row r="86">
@@ -4666,10 +4666,10 @@
         <v>130600</v>
       </c>
       <c r="E86">
-        <v>57026359000</v>
+        <v>53516072800</v>
       </c>
       <c r="F86">
-        <v>25763870000</v>
+        <v>24434800400</v>
       </c>
       <c r="G86">
         <v>1789176000</v>
@@ -4678,13 +4678,13 @@
         <v>4856500</v>
       </c>
       <c r="I86">
-        <v>84579405000</v>
+        <v>79740049200</v>
       </c>
       <c r="J86" t="str">
         <v>2022-12-09T13:24:00.000Z</v>
       </c>
       <c r="K86">
-        <v>7469531911000</v>
+        <v>6756660496000</v>
       </c>
       <c r="L86">
         <v>451009700</v>
@@ -4693,13 +4693,13 @@
         <v>-1691300</v>
       </c>
       <c r="N86">
-        <v>-31262489000</v>
+        <v>-29081272400</v>
       </c>
       <c r="O86">
         <v>-2488200</v>
       </c>
       <c r="P86">
-        <v>115916156000</v>
+        <v>10229948000</v>
       </c>
     </row>
     <row r="87">
@@ -4716,25 +4716,25 @@
         <v>28400</v>
       </c>
       <c r="E87">
-        <v>56633184000</v>
+        <v>54558460800</v>
       </c>
       <c r="F87">
-        <v>20155936000</v>
+        <v>18533360200</v>
       </c>
       <c r="G87">
-        <v>518056000</v>
+        <v>514060000</v>
       </c>
       <c r="H87">
         <v>4406400</v>
       </c>
       <c r="I87">
-        <v>77307176000</v>
+        <v>73605881000</v>
       </c>
       <c r="J87" t="str">
         <v>2022-12-09T13:26:00.000Z</v>
       </c>
       <c r="K87">
-        <v>7546839087000</v>
+        <v>6830266377000</v>
       </c>
       <c r="L87">
         <v>455416100</v>
@@ -4743,13 +4743,13 @@
         <v>-2163000</v>
       </c>
       <c r="N87">
-        <v>-36477248000</v>
+        <v>-36025100600</v>
       </c>
       <c r="O87">
         <v>-4651200</v>
       </c>
       <c r="P87">
-        <v>79438908000</v>
+        <v>-25795152600</v>
       </c>
     </row>
     <row r="88">
@@ -4766,10 +4766,10 @@
         <v>5300</v>
       </c>
       <c r="E88">
-        <v>47107791000</v>
+        <v>44679721500</v>
       </c>
       <c r="F88">
-        <v>41759675000</v>
+        <v>36243396800</v>
       </c>
       <c r="G88">
         <v>182300000</v>
@@ -4778,13 +4778,13 @@
         <v>4483200</v>
       </c>
       <c r="I88">
-        <v>89049766000</v>
+        <v>81105418300</v>
       </c>
       <c r="J88" t="str">
         <v>2022-12-09T13:28:00.000Z</v>
       </c>
       <c r="K88">
-        <v>7635888853000</v>
+        <v>6911371795300</v>
       </c>
       <c r="L88">
         <v>459899300</v>
@@ -4793,13 +4793,13 @@
         <v>-513300</v>
       </c>
       <c r="N88">
-        <v>-5348116000</v>
+        <v>-8436324700</v>
       </c>
       <c r="O88">
         <v>-5164500</v>
       </c>
       <c r="P88">
-        <v>74090792000</v>
+        <v>-34231477300</v>
       </c>
     </row>
     <row r="89">
@@ -4816,25 +4816,25 @@
         <v>23200</v>
       </c>
       <c r="E89">
-        <v>30015936000</v>
+        <v>28436017500</v>
       </c>
       <c r="F89">
-        <v>56190323000</v>
+        <v>52747169600</v>
       </c>
       <c r="G89">
-        <v>596929000</v>
+        <v>409017100</v>
       </c>
       <c r="H89">
         <v>4534600</v>
       </c>
       <c r="I89">
-        <v>86803188000</v>
+        <v>81592204200</v>
       </c>
       <c r="J89" t="str">
         <v>2022-12-09T13:30:00.000Z</v>
       </c>
       <c r="K89">
-        <v>7722692041000</v>
+        <v>6992963999500</v>
       </c>
       <c r="L89">
         <v>464433900</v>
@@ -4843,13 +4843,13 @@
         <v>1022400</v>
       </c>
       <c r="N89">
-        <v>26174387000</v>
+        <v>24311152100</v>
       </c>
       <c r="O89">
         <v>-4142100</v>
       </c>
       <c r="P89">
-        <v>100265179000</v>
+        <v>-9920325200</v>
       </c>
     </row>
     <row r="90">
@@ -4866,10 +4866,10 @@
         <v>29800</v>
       </c>
       <c r="E90">
-        <v>16856645000</v>
+        <v>16283019200</v>
       </c>
       <c r="F90">
-        <v>102517001000</v>
+        <v>90820409300</v>
       </c>
       <c r="G90">
         <v>320541000</v>
@@ -4878,13 +4878,13 @@
         <v>6897700</v>
       </c>
       <c r="I90">
-        <v>119694187000</v>
+        <v>107423969500</v>
       </c>
       <c r="J90" t="str">
         <v>2022-12-09T13:32:00.000Z</v>
       </c>
       <c r="K90">
-        <v>7842386228000</v>
+        <v>7100387969000</v>
       </c>
       <c r="L90">
         <v>471331600</v>
@@ -4893,13 +4893,13 @@
         <v>4909900</v>
       </c>
       <c r="N90">
-        <v>85660356000</v>
+        <v>74537390100</v>
       </c>
       <c r="O90">
         <v>767800</v>
       </c>
       <c r="P90">
-        <v>185925535000</v>
+        <v>64617064900</v>
       </c>
     </row>
     <row r="91">
@@ -4916,10 +4916,10 @@
         <v>7300</v>
       </c>
       <c r="E91">
-        <v>27466756000</v>
+        <v>26436587200</v>
       </c>
       <c r="F91">
-        <v>67105200000</v>
+        <v>60332779200</v>
       </c>
       <c r="G91">
         <v>225066000</v>
@@ -4928,13 +4928,13 @@
         <v>5968700</v>
       </c>
       <c r="I91">
-        <v>94797022000</v>
+        <v>86994432400</v>
       </c>
       <c r="J91" t="str">
         <v>2022-12-09T13:34:00.000Z</v>
       </c>
       <c r="K91">
-        <v>7937183250000</v>
+        <v>7187382401400</v>
       </c>
       <c r="L91">
         <v>477300300</v>
@@ -4943,13 +4943,13 @@
         <v>3036000</v>
       </c>
       <c r="N91">
-        <v>39638444000</v>
+        <v>33896192000</v>
       </c>
       <c r="O91">
         <v>3803800</v>
       </c>
       <c r="P91">
-        <v>225563979000</v>
+        <v>98513256900</v>
       </c>
     </row>
     <row r="92">
@@ -4966,10 +4966,10 @@
         <v>36700</v>
       </c>
       <c r="E92">
-        <v>52118069000</v>
+        <v>46490302400</v>
       </c>
       <c r="F92">
-        <v>34583798000</v>
+        <v>30884600900</v>
       </c>
       <c r="G92">
         <v>606987000</v>
@@ -4978,13 +4978,13 @@
         <v>5315700</v>
       </c>
       <c r="I92">
-        <v>87308854000</v>
+        <v>77981890300</v>
       </c>
       <c r="J92" t="str">
         <v>2022-12-09T13:36:00.000Z</v>
       </c>
       <c r="K92">
-        <v>8024492104000</v>
+        <v>7265364291700</v>
       </c>
       <c r="L92">
         <v>482616000</v>
@@ -4993,13 +4993,13 @@
         <v>-239800</v>
       </c>
       <c r="N92">
-        <v>-17534271000</v>
+        <v>-15605701500</v>
       </c>
       <c r="O92">
         <v>3564000</v>
       </c>
       <c r="P92">
-        <v>208029708000</v>
+        <v>82907555400</v>
       </c>
     </row>
     <row r="93">
@@ -5016,25 +5016,25 @@
         <v>24300</v>
       </c>
       <c r="E93">
-        <v>75859930000</v>
+        <v>68909787100</v>
       </c>
       <c r="F93">
-        <v>18757002000</v>
+        <v>18586772400</v>
       </c>
       <c r="G93">
-        <v>603514000</v>
+        <v>506411200</v>
       </c>
       <c r="H93">
         <v>5203400</v>
       </c>
       <c r="I93">
-        <v>95220446000</v>
+        <v>88002970700</v>
       </c>
       <c r="J93" t="str">
         <v>2022-12-09T13:38:00.000Z</v>
       </c>
       <c r="K93">
-        <v>8119712550000</v>
+        <v>7353367262400</v>
       </c>
       <c r="L93">
         <v>487819400</v>
@@ -5043,13 +5043,13 @@
         <v>-2855700</v>
       </c>
       <c r="N93">
-        <v>-57102928000</v>
+        <v>-50323014700</v>
       </c>
       <c r="O93">
         <v>708300</v>
       </c>
       <c r="P93">
-        <v>150926780000</v>
+        <v>32584540700</v>
       </c>
     </row>
     <row r="94">
@@ -5066,10 +5066,10 @@
         <v>37600</v>
       </c>
       <c r="E94">
-        <v>36764164000</v>
+        <v>34332198400</v>
       </c>
       <c r="F94">
-        <v>23496444000</v>
+        <v>21716425800</v>
       </c>
       <c r="G94">
         <v>692203000</v>
@@ -5078,13 +5078,13 @@
         <v>3466700</v>
       </c>
       <c r="I94">
-        <v>60952811000</v>
+        <v>56740827200</v>
       </c>
       <c r="J94" t="str">
         <v>2022-12-09T13:40:00.000Z</v>
       </c>
       <c r="K94">
-        <v>8180665361000</v>
+        <v>7410108089600</v>
       </c>
       <c r="L94">
         <v>491286100</v>
@@ -5093,13 +5093,13 @@
         <v>-941300</v>
       </c>
       <c r="N94">
-        <v>-13267720000</v>
+        <v>-12615772600</v>
       </c>
       <c r="O94">
         <v>-233000</v>
       </c>
       <c r="P94">
-        <v>137659060000</v>
+        <v>19968768100</v>
       </c>
     </row>
     <row r="95">
@@ -5116,10 +5116,10 @@
         <v>9100</v>
       </c>
       <c r="E95">
-        <v>39573872000</v>
+        <v>36926621900</v>
       </c>
       <c r="F95">
-        <v>26748715000</v>
+        <v>25389175900</v>
       </c>
       <c r="G95">
         <v>156351000</v>
@@ -5128,13 +5128,13 @@
         <v>3919700</v>
       </c>
       <c r="I95">
-        <v>66478938000</v>
+        <v>62472148800</v>
       </c>
       <c r="J95" t="str">
         <v>2022-12-09T13:42:00.000Z</v>
       </c>
       <c r="K95">
-        <v>8247144299000</v>
+        <v>7472580238400</v>
       </c>
       <c r="L95">
         <v>495205800</v>
@@ -5143,13 +5143,13 @@
         <v>-834000</v>
       </c>
       <c r="N95">
-        <v>-12825157000</v>
+        <v>-11537446000</v>
       </c>
       <c r="O95">
         <v>-1067000</v>
       </c>
       <c r="P95">
-        <v>124833903000</v>
+        <v>8431322100</v>
       </c>
     </row>
     <row r="96">
@@ -5166,25 +5166,25 @@
         <v>40000</v>
       </c>
       <c r="E96">
-        <v>33258459000</v>
+        <v>31037082600</v>
       </c>
       <c r="F96">
-        <v>41153667000</v>
+        <v>37995728100</v>
       </c>
       <c r="G96">
-        <v>688623000</v>
+        <v>406705200</v>
       </c>
       <c r="H96">
         <v>4120200</v>
       </c>
       <c r="I96">
-        <v>75100749000</v>
+        <v>69439515900</v>
       </c>
       <c r="J96" t="str">
         <v>2022-12-09T13:44:00.000Z</v>
       </c>
       <c r="K96">
-        <v>8322245048000</v>
+        <v>7542019754300</v>
       </c>
       <c r="L96">
         <v>499326000</v>
@@ -5193,13 +5193,13 @@
         <v>-162400</v>
       </c>
       <c r="N96">
-        <v>7895208000</v>
+        <v>6958645500</v>
       </c>
       <c r="O96">
         <v>-1229400</v>
       </c>
       <c r="P96">
-        <v>132729111000</v>
+        <v>15389967600</v>
       </c>
     </row>
     <row r="97">
@@ -5216,25 +5216,25 @@
         <v>58300</v>
       </c>
       <c r="E97">
-        <v>26080907000</v>
+        <v>24133356500</v>
       </c>
       <c r="F97">
-        <v>106870233000</v>
+        <v>96682331100</v>
       </c>
       <c r="G97">
-        <v>1895017000</v>
+        <v>1602110200</v>
       </c>
       <c r="H97">
         <v>6957900</v>
       </c>
       <c r="I97">
-        <v>134846157000</v>
+        <v>122417797800</v>
       </c>
       <c r="J97" t="str">
         <v>2022-12-09T13:46:00.000Z</v>
       </c>
       <c r="K97">
-        <v>8457091205000</v>
+        <v>7664437552100</v>
       </c>
       <c r="L97">
         <v>506283900</v>
@@ -5243,13 +5243,13 @@
         <v>3431400</v>
       </c>
       <c r="N97">
-        <v>80789326000</v>
+        <v>72548974600</v>
       </c>
       <c r="O97">
         <v>2202000</v>
       </c>
       <c r="P97">
-        <v>213518437000</v>
+        <v>87938942200</v>
       </c>
     </row>
     <row r="98">
@@ -5266,10 +5266,10 @@
         <v>17900</v>
       </c>
       <c r="E98">
-        <v>27156865000</v>
+        <v>22211615200</v>
       </c>
       <c r="F98">
-        <v>62492622000</v>
+        <v>41494441200</v>
       </c>
       <c r="G98">
         <v>401232000</v>
@@ -5278,13 +5278,13 @@
         <v>5166500</v>
       </c>
       <c r="I98">
-        <v>90050719000</v>
+        <v>64107288400</v>
       </c>
       <c r="J98" t="str">
         <v>2022-12-09T13:48:00.000Z</v>
       </c>
       <c r="K98">
-        <v>8547141924000</v>
+        <v>7728544840500</v>
       </c>
       <c r="L98">
         <v>511450400</v>
@@ -5293,13 +5293,13 @@
         <v>2153000</v>
       </c>
       <c r="N98">
-        <v>35335757000</v>
+        <v>19282826000</v>
       </c>
       <c r="O98">
         <v>4355000</v>
       </c>
       <c r="P98">
-        <v>248854194000</v>
+        <v>107221768200</v>
       </c>
     </row>
     <row r="99">
@@ -5316,25 +5316,25 @@
         <v>35500</v>
       </c>
       <c r="E99">
-        <v>34812483000</v>
+        <v>32098799400</v>
       </c>
       <c r="F99">
-        <v>41741645000</v>
+        <v>35360832200</v>
       </c>
       <c r="G99">
-        <v>813820000</v>
+        <v>505928200</v>
       </c>
       <c r="H99">
         <v>4582500</v>
       </c>
       <c r="I99">
-        <v>77367948000</v>
+        <v>67965559800</v>
       </c>
       <c r="J99" t="str">
         <v>2022-12-09T13:50:00.000Z</v>
       </c>
       <c r="K99">
-        <v>8624509872000</v>
+        <v>7796510400300</v>
       </c>
       <c r="L99">
         <v>516032900</v>
@@ -5343,13 +5343,13 @@
         <v>-306600</v>
       </c>
       <c r="N99">
-        <v>6929162000</v>
+        <v>3262032800</v>
       </c>
       <c r="O99">
         <v>4048400</v>
       </c>
       <c r="P99">
-        <v>255783356000</v>
+        <v>110483801000</v>
       </c>
     </row>
     <row r="100">
@@ -5366,10 +5366,10 @@
         <v>41100</v>
       </c>
       <c r="E100">
-        <v>64218038000</v>
+        <v>54586179500</v>
       </c>
       <c r="F100">
-        <v>20406441000</v>
+        <v>18021628200</v>
       </c>
       <c r="G100">
         <v>433501000</v>
@@ -5378,13 +5378,13 @@
         <v>4606100</v>
       </c>
       <c r="I100">
-        <v>85057980000</v>
+        <v>73041308700</v>
       </c>
       <c r="J100" t="str">
         <v>2022-12-09T13:52:00.000Z</v>
       </c>
       <c r="K100">
-        <v>8709567852000</v>
+        <v>7869551709000</v>
       </c>
       <c r="L100">
         <v>520639000</v>
@@ -5393,13 +5393,13 @@
         <v>-2092400</v>
       </c>
       <c r="N100">
-        <v>-43811597000</v>
+        <v>-36564551300</v>
       </c>
       <c r="O100">
         <v>1956000</v>
       </c>
       <c r="P100">
-        <v>211971759000</v>
+        <v>73919249700</v>
       </c>
     </row>
     <row r="101">
@@ -5416,10 +5416,10 @@
         <v>118800</v>
       </c>
       <c r="E101">
-        <v>70357691000</v>
+        <v>65683170200</v>
       </c>
       <c r="F101">
-        <v>19914005000</v>
+        <v>18273746900</v>
       </c>
       <c r="G101">
         <v>988103000</v>
@@ -5428,13 +5428,13 @@
         <v>5373800</v>
       </c>
       <c r="I101">
-        <v>91259799000</v>
+        <v>84945020100</v>
       </c>
       <c r="J101" t="str">
         <v>2022-12-09T13:54:00.000Z</v>
       </c>
       <c r="K101">
-        <v>8800827651000</v>
+        <v>7954496729100</v>
       </c>
       <c r="L101">
         <v>526012800</v>
@@ -5443,13 +5443,13 @@
         <v>-3101600</v>
       </c>
       <c r="N101">
-        <v>-50443686000</v>
+        <v>-47409423300</v>
       </c>
       <c r="O101">
         <v>-1145600</v>
       </c>
       <c r="P101">
-        <v>161528073000</v>
+        <v>26509826400</v>
       </c>
     </row>
     <row r="102">
@@ -5466,10 +5466,10 @@
         <v>9400</v>
       </c>
       <c r="E102">
-        <v>39205450000</v>
+        <v>35723835100</v>
       </c>
       <c r="F102">
-        <v>23287897000</v>
+        <v>21055431700</v>
       </c>
       <c r="G102">
         <v>52314000</v>
@@ -5478,13 +5478,13 @@
         <v>3471800</v>
       </c>
       <c r="I102">
-        <v>62545661000</v>
+        <v>56831580800</v>
       </c>
       <c r="J102" t="str">
         <v>2022-12-09T13:56:00.000Z</v>
       </c>
       <c r="K102">
-        <v>8863373312000</v>
+        <v>8011328309900</v>
       </c>
       <c r="L102">
         <v>529484600</v>
@@ -5493,13 +5493,13 @@
         <v>-955200</v>
       </c>
       <c r="N102">
-        <v>-15917553000</v>
+        <v>-14668403400</v>
       </c>
       <c r="O102">
         <v>-2100800</v>
       </c>
       <c r="P102">
-        <v>145610520000</v>
+        <v>11841423000</v>
       </c>
     </row>
     <row r="103">
@@ -5516,10 +5516,10 @@
         <v>21800</v>
       </c>
       <c r="E103">
-        <v>89137594000</v>
+        <v>84839096800</v>
       </c>
       <c r="F103">
-        <v>29663236000</v>
+        <v>27474027400</v>
       </c>
       <c r="G103">
         <v>362493000</v>
@@ -5528,13 +5528,13 @@
         <v>6864800</v>
       </c>
       <c r="I103">
-        <v>119163323000</v>
+        <v>112675617200</v>
       </c>
       <c r="J103" t="str">
         <v>2022-12-09T13:58:00.000Z</v>
       </c>
       <c r="K103">
-        <v>8982536635000</v>
+        <v>8124003927100</v>
       </c>
       <c r="L103">
         <v>536349400</v>
@@ -5543,13 +5543,13 @@
         <v>-3710600</v>
       </c>
       <c r="N103">
-        <v>-59474358000</v>
+        <v>-57365069400</v>
       </c>
       <c r="O103">
         <v>-5811400</v>
       </c>
       <c r="P103">
-        <v>86136162000</v>
+        <v>-45523646400</v>
       </c>
     </row>
     <row r="104">
@@ -5566,25 +5566,25 @@
         <v>7100</v>
       </c>
       <c r="E104">
-        <v>62547262000</v>
+        <v>56634280900</v>
       </c>
       <c r="F104">
-        <v>23973635000</v>
+        <v>20868743000</v>
       </c>
       <c r="G104">
-        <v>76318000</v>
+        <v>74719600</v>
       </c>
       <c r="H104">
         <v>5039600</v>
       </c>
       <c r="I104">
-        <v>86597215000</v>
+        <v>77577743500</v>
       </c>
       <c r="J104" t="str">
         <v>2022-12-09T14:00:00.000Z</v>
       </c>
       <c r="K104">
-        <v>9069133850000</v>
+        <v>8201581670600</v>
       </c>
       <c r="L104">
         <v>541389000</v>
@@ -5593,13 +5593,13 @@
         <v>-2265700</v>
       </c>
       <c r="N104">
-        <v>-38573627000</v>
+        <v>-35765537900</v>
       </c>
       <c r="O104">
         <v>-8077100</v>
       </c>
       <c r="P104">
-        <v>47562535000</v>
+        <v>-81289184300</v>
       </c>
     </row>
     <row r="105">
@@ -5616,25 +5616,25 @@
         <v>31900</v>
       </c>
       <c r="E105">
-        <v>61107181000</v>
+        <v>57479012800</v>
       </c>
       <c r="F105">
-        <v>39845398000</v>
+        <v>36318828100</v>
       </c>
       <c r="G105">
-        <v>454583000</v>
+        <v>412125500</v>
       </c>
       <c r="H105">
         <v>5785200</v>
       </c>
       <c r="I105">
-        <v>101407162000</v>
+        <v>94209966400</v>
       </c>
       <c r="J105" t="str">
         <v>2022-12-09T14:02:00.000Z</v>
       </c>
       <c r="K105">
-        <v>9170541012000</v>
+        <v>8295791637000</v>
       </c>
       <c r="L105">
         <v>547174200</v>
@@ -5643,13 +5643,13 @@
         <v>-1517100</v>
       </c>
       <c r="N105">
-        <v>-21261783000</v>
+        <v>-21160184700</v>
       </c>
       <c r="O105">
         <v>-9594200</v>
       </c>
       <c r="P105">
-        <v>26300752000</v>
+        <v>-102449369000</v>
       </c>
     </row>
     <row r="106">
@@ -5666,25 +5666,25 @@
         <v>67800</v>
       </c>
       <c r="E106">
-        <v>36160694000</v>
+        <v>32204853800</v>
       </c>
       <c r="F106">
-        <v>65233628000</v>
+        <v>57545124200</v>
       </c>
       <c r="G106">
-        <v>867978000</v>
+        <v>862883100</v>
       </c>
       <c r="H106">
         <v>6092900</v>
       </c>
       <c r="I106">
-        <v>102262300000</v>
+        <v>90612861100</v>
       </c>
       <c r="J106" t="str">
         <v>2022-12-09T14:04:00.000Z</v>
       </c>
       <c r="K106">
-        <v>9272803312000</v>
+        <v>8386404498100</v>
       </c>
       <c r="L106">
         <v>553267100</v>
@@ -5693,13 +5693,13 @@
         <v>1327500</v>
       </c>
       <c r="N106">
-        <v>29072934000</v>
+        <v>25340270400</v>
       </c>
       <c r="O106">
         <v>-8266700</v>
       </c>
       <c r="P106">
-        <v>55373686000</v>
+        <v>-77109098600</v>
       </c>
     </row>
     <row r="107">
@@ -5716,10 +5716,10 @@
         <v>22400</v>
       </c>
       <c r="E107">
-        <v>28532992000</v>
+        <v>27096829600</v>
       </c>
       <c r="F107">
-        <v>140077427000</v>
+        <v>111414318800</v>
       </c>
       <c r="G107">
         <v>535297000</v>
@@ -5728,13 +5728,13 @@
         <v>10104900</v>
       </c>
       <c r="I107">
-        <v>169145716000</v>
+        <v>139046445400</v>
       </c>
       <c r="J107" t="str">
         <v>2022-12-09T14:06:00.000Z</v>
       </c>
       <c r="K107">
-        <v>9441949028000</v>
+        <v>8525450943500</v>
       </c>
       <c r="L107">
         <v>563372000</v>
@@ -5743,13 +5743,13 @@
         <v>6886500</v>
       </c>
       <c r="N107">
-        <v>111544435000</v>
+        <v>84317489200</v>
       </c>
       <c r="O107">
         <v>-1380200</v>
       </c>
       <c r="P107">
-        <v>166918121000</v>
+        <v>7208390600</v>
       </c>
     </row>
     <row r="108">
@@ -5766,25 +5766,25 @@
         <v>175800</v>
       </c>
       <c r="E108">
-        <v>37941135000</v>
+        <v>36351226500</v>
       </c>
       <c r="F108">
-        <v>173559566000</v>
+        <v>154469475200</v>
       </c>
       <c r="G108">
-        <v>2459284000</v>
+        <v>2422920400</v>
       </c>
       <c r="H108">
         <v>13125200</v>
       </c>
       <c r="I108">
-        <v>213959985000</v>
+        <v>193243622100</v>
       </c>
       <c r="J108" t="str">
         <v>2022-12-09T14:08:00.000Z</v>
       </c>
       <c r="K108">
-        <v>9655909013000</v>
+        <v>8718694565600</v>
       </c>
       <c r="L108">
         <v>576497200</v>
@@ -5793,13 +5793,13 @@
         <v>8291600</v>
       </c>
       <c r="N108">
-        <v>135618431000</v>
+        <v>118118248700</v>
       </c>
       <c r="O108">
         <v>6911400</v>
       </c>
       <c r="P108">
-        <v>302536552000</v>
+        <v>125326639300</v>
       </c>
     </row>
     <row r="109">
@@ -5816,10 +5816,10 @@
         <v>93900</v>
       </c>
       <c r="E109">
-        <v>43501204000</v>
+        <v>34434679600</v>
       </c>
       <c r="F109">
-        <v>79153199000</v>
+        <v>69611750000</v>
       </c>
       <c r="G109">
         <v>1456509000</v>
@@ -5828,13 +5828,13 @@
         <v>7310000</v>
       </c>
       <c r="I109">
-        <v>124110912000</v>
+        <v>105502938600</v>
       </c>
       <c r="J109" t="str">
         <v>2022-12-09T14:10:00.000Z</v>
       </c>
       <c r="K109">
-        <v>9780019925000</v>
+        <v>8824197504200</v>
       </c>
       <c r="L109">
         <v>583807200</v>
@@ -5843,13 +5843,13 @@
         <v>2414900</v>
       </c>
       <c r="N109">
-        <v>35651995000</v>
+        <v>35177070400</v>
       </c>
       <c r="O109">
         <v>9326300</v>
       </c>
       <c r="P109">
-        <v>338188547000</v>
+        <v>160503709700</v>
       </c>
     </row>
     <row r="110">
@@ -5866,25 +5866,25 @@
         <v>94200</v>
       </c>
       <c r="E110">
-        <v>58492060000</v>
+        <v>49598262700</v>
       </c>
       <c r="F110">
-        <v>51013193000</v>
+        <v>48515493200</v>
       </c>
       <c r="G110">
-        <v>847388000</v>
+        <v>801034400</v>
       </c>
       <c r="H110">
         <v>6834900</v>
       </c>
       <c r="I110">
-        <v>110352641000</v>
+        <v>98914790300</v>
       </c>
       <c r="J110" t="str">
         <v>2022-12-09T14:12:00.000Z</v>
       </c>
       <c r="K110">
-        <v>9890372566000</v>
+        <v>8923112294500</v>
       </c>
       <c r="L110">
         <v>590642100</v>
@@ -5893,13 +5893,13 @@
         <v>-210700</v>
       </c>
       <c r="N110">
-        <v>-7478867000</v>
+        <v>-1082769500</v>
       </c>
       <c r="O110">
         <v>9115600</v>
       </c>
       <c r="P110">
-        <v>330709680000</v>
+        <v>159420940200</v>
       </c>
     </row>
     <row r="111">
@@ -5916,10 +5916,10 @@
         <v>10500</v>
       </c>
       <c r="E111">
-        <v>62183755000</v>
+        <v>57218225500</v>
       </c>
       <c r="F111">
-        <v>26849514000</v>
+        <v>24989376000</v>
       </c>
       <c r="G111">
         <v>139210000</v>
@@ -5928,13 +5928,13 @@
         <v>5026100</v>
       </c>
       <c r="I111">
-        <v>89172479000</v>
+        <v>82346811500</v>
       </c>
       <c r="J111" t="str">
         <v>2022-12-09T14:14:00.000Z</v>
       </c>
       <c r="K111">
-        <v>9979545045000</v>
+        <v>9005459106000</v>
       </c>
       <c r="L111">
         <v>595668200</v>
@@ -5943,13 +5943,13 @@
         <v>-1867400</v>
       </c>
       <c r="N111">
-        <v>-35334241000</v>
+        <v>-32228849500</v>
       </c>
       <c r="O111">
         <v>7248200</v>
       </c>
       <c r="P111">
-        <v>295375439000</v>
+        <v>127192090700</v>
       </c>
     </row>
     <row r="112">
@@ -5966,25 +5966,25 @@
         <v>28100</v>
       </c>
       <c r="E112">
-        <v>85013024000</v>
+        <v>80749891400</v>
       </c>
       <c r="F112">
-        <v>22508490000</v>
+        <v>20933666400</v>
       </c>
       <c r="G112">
-        <v>581797000</v>
+        <v>448630300</v>
       </c>
       <c r="H112">
         <v>6515300</v>
       </c>
       <c r="I112">
-        <v>108103311000</v>
+        <v>102132188100</v>
       </c>
       <c r="J112" t="str">
         <v>2022-12-09T14:16:00.000Z</v>
       </c>
       <c r="K112">
-        <v>10087648356000</v>
+        <v>9107591294100</v>
       </c>
       <c r="L112">
         <v>602183500</v>
@@ -5993,13 +5993,13 @@
         <v>-4094800</v>
       </c>
       <c r="N112">
-        <v>-62504534000</v>
+        <v>-59816225000</v>
       </c>
       <c r="O112">
         <v>3153400</v>
       </c>
       <c r="P112">
-        <v>232870905000</v>
+        <v>67375865700</v>
       </c>
     </row>
     <row r="113">
@@ -6016,25 +6016,25 @@
         <v>96500</v>
       </c>
       <c r="E113">
-        <v>66104441000</v>
+        <v>54215541800</v>
       </c>
       <c r="F113">
-        <v>33509867000</v>
+        <v>30205774400</v>
       </c>
       <c r="G113">
-        <v>1966592000</v>
+        <v>1838720000</v>
       </c>
       <c r="H113">
         <v>5949600</v>
       </c>
       <c r="I113">
-        <v>101580900000</v>
+        <v>86260036200</v>
       </c>
       <c r="J113" t="str">
         <v>2022-12-09T14:18:00.000Z</v>
       </c>
       <c r="K113">
-        <v>10189229256000</v>
+        <v>9193851330300</v>
       </c>
       <c r="L113">
         <v>608133100</v>
@@ -6043,13 +6043,13 @@
         <v>-2068100</v>
       </c>
       <c r="N113">
-        <v>-32594574000</v>
+        <v>-24009767400</v>
       </c>
       <c r="O113">
         <v>1085300</v>
       </c>
       <c r="P113">
-        <v>200276331000</v>
+        <v>43366098300</v>
       </c>
     </row>
     <row r="114">
@@ -6066,10 +6066,10 @@
         <v>4500</v>
       </c>
       <c r="E114">
-        <v>49353191000</v>
+        <v>40019334200</v>
       </c>
       <c r="F114">
-        <v>54087486000</v>
+        <v>46420061100</v>
       </c>
       <c r="G114">
         <v>57071000</v>
@@ -6078,13 +6078,13 @@
         <v>5768400</v>
       </c>
       <c r="I114">
-        <v>103497748000</v>
+        <v>86496466300</v>
       </c>
       <c r="J114" t="str">
         <v>2022-12-09T14:20:00.000Z</v>
       </c>
       <c r="K114">
-        <v>10292727004000</v>
+        <v>9280347796600</v>
       </c>
       <c r="L114">
         <v>613901500</v>
@@ -6093,13 +6093,13 @@
         <v>339300</v>
       </c>
       <c r="N114">
-        <v>4734295000</v>
+        <v>6400726900</v>
       </c>
       <c r="O114">
         <v>1424600</v>
       </c>
       <c r="P114">
-        <v>205010626000</v>
+        <v>49766825200</v>
       </c>
     </row>
     <row r="115">
@@ -6116,25 +6116,25 @@
         <v>127200</v>
       </c>
       <c r="E115">
-        <v>30431831000</v>
+        <v>28551213500</v>
       </c>
       <c r="F115">
-        <v>135643994000</v>
+        <v>122980769900</v>
       </c>
       <c r="G115">
-        <v>1756057000</v>
+        <v>1705707400</v>
       </c>
       <c r="H115">
         <v>8295200</v>
       </c>
       <c r="I115">
-        <v>167831882000</v>
+        <v>153237690800</v>
       </c>
       <c r="J115" t="str">
         <v>2022-12-09T14:22:00.000Z</v>
       </c>
       <c r="K115">
-        <v>10460558886000</v>
+        <v>9433585487400</v>
       </c>
       <c r="L115">
         <v>622196700</v>
@@ -6143,13 +6143,13 @@
         <v>4509400</v>
       </c>
       <c r="N115">
-        <v>105212163000</v>
+        <v>94429556400</v>
       </c>
       <c r="O115">
         <v>5934000</v>
       </c>
       <c r="P115">
-        <v>310222789000</v>
+        <v>144196381600</v>
       </c>
     </row>
     <row r="116">
@@ -6166,25 +6166,25 @@
         <v>62100</v>
       </c>
       <c r="E116">
-        <v>49979375000</v>
+        <v>39013052300</v>
       </c>
       <c r="F116">
-        <v>89498327000</v>
+        <v>81252381200</v>
       </c>
       <c r="G116">
-        <v>1645520000</v>
+        <v>1630535000</v>
       </c>
       <c r="H116">
         <v>7804800</v>
       </c>
       <c r="I116">
-        <v>141123222000</v>
+        <v>121895968500</v>
       </c>
       <c r="J116" t="str">
         <v>2022-12-09T14:24:00.000Z</v>
       </c>
       <c r="K116">
-        <v>10601682108000</v>
+        <v>9555481455900</v>
       </c>
       <c r="L116">
         <v>630001500</v>
@@ -6193,13 +6193,13 @@
         <v>2476100</v>
       </c>
       <c r="N116">
-        <v>39518952000</v>
+        <v>42239328900</v>
       </c>
       <c r="O116">
         <v>8410100</v>
       </c>
       <c r="P116">
-        <v>349741741000</v>
+        <v>186435710500</v>
       </c>
     </row>
     <row r="117">
@@ -6216,25 +6216,25 @@
         <v>88600</v>
       </c>
       <c r="E117">
-        <v>55092460000</v>
+        <v>51384072100</v>
       </c>
       <c r="F117">
-        <v>63295173000</v>
+        <v>59086386000</v>
       </c>
       <c r="G117">
-        <v>1437014000</v>
+        <v>1422029000</v>
       </c>
       <c r="H117">
         <v>6885300</v>
       </c>
       <c r="I117">
-        <v>119824647000</v>
+        <v>111892487100</v>
       </c>
       <c r="J117" t="str">
         <v>2022-12-09T14:26:00.000Z</v>
       </c>
       <c r="K117">
-        <v>10721506755000</v>
+        <v>9667373943000</v>
       </c>
       <c r="L117">
         <v>636886800</v>
@@ -6243,13 +6243,13 @@
         <v>307900</v>
       </c>
       <c r="N117">
-        <v>8202713000</v>
+        <v>7702313900</v>
       </c>
       <c r="O117">
         <v>8718000</v>
       </c>
       <c r="P117">
-        <v>357944454000</v>
+        <v>194138024400</v>
       </c>
     </row>
     <row r="118">
@@ -6266,25 +6266,25 @@
         <v>170100</v>
       </c>
       <c r="E118">
-        <v>74835083000</v>
+        <v>66489636800</v>
       </c>
       <c r="F118">
-        <v>147853569000</v>
+        <v>137200932300</v>
       </c>
       <c r="G118">
-        <v>2242308000</v>
+        <v>2091658800</v>
       </c>
       <c r="H118">
         <v>13067400</v>
       </c>
       <c r="I118">
-        <v>224930960000</v>
+        <v>205782227900</v>
       </c>
       <c r="J118" t="str">
         <v>2022-12-09T14:28:00.000Z</v>
       </c>
       <c r="K118">
-        <v>10946437715000</v>
+        <v>9873156170900</v>
       </c>
       <c r="L118">
         <v>649954200</v>
@@ -6293,13 +6293,13 @@
         <v>2935900</v>
       </c>
       <c r="N118">
-        <v>73018486000</v>
+        <v>70711295500</v>
       </c>
       <c r="O118">
         <v>11653900</v>
       </c>
       <c r="P118">
-        <v>430962940000</v>
+        <v>264849319900</v>
       </c>
     </row>
     <row r="119">
@@ -6316,10 +6316,10 @@
         <v>0</v>
       </c>
       <c r="E119">
-        <v>233415000</v>
+        <v>230817600</v>
       </c>
       <c r="F119">
-        <v>523320000</v>
+        <v>514229100</v>
       </c>
       <c r="G119">
         <v>0</v>
@@ -6328,13 +6328,13 @@
         <v>33400</v>
       </c>
       <c r="I119">
-        <v>756735000</v>
+        <v>745046700</v>
       </c>
       <c r="J119" t="str">
         <v>2022-12-09T14:30:00.000Z</v>
       </c>
       <c r="K119">
-        <v>10947194450000</v>
+        <v>9873901217600</v>
       </c>
       <c r="L119">
         <v>649987600</v>
@@ -6343,13 +6343,13 @@
         <v>6000</v>
       </c>
       <c r="N119">
-        <v>289905000</v>
+        <v>283411500</v>
       </c>
       <c r="O119">
         <v>11659900</v>
       </c>
       <c r="P119">
-        <v>431252845000</v>
+        <v>265132731400</v>
       </c>
     </row>
     <row r="120">
@@ -6366,25 +6366,25 @@
         <v>36085100</v>
       </c>
       <c r="E120">
-        <v>74670597000</v>
+        <v>60845835600</v>
       </c>
       <c r="F120">
-        <v>84080980000</v>
+        <v>66806471800</v>
       </c>
       <c r="G120">
-        <v>647446149000</v>
+        <v>567333541800</v>
       </c>
       <c r="H120">
         <v>42628600</v>
       </c>
       <c r="I120">
-        <v>806197726000</v>
+        <v>694985849200</v>
       </c>
       <c r="J120" t="str">
         <v>2022-12-09T14:44:00.000Z</v>
       </c>
       <c r="K120">
-        <v>11753392176000</v>
+        <v>10568887066800</v>
       </c>
       <c r="L120">
         <v>692616200</v>
@@ -6393,13 +6393,13 @@
         <v>891700</v>
       </c>
       <c r="N120">
-        <v>9410383000</v>
+        <v>5960636200</v>
       </c>
       <c r="O120">
         <v>12551600</v>
       </c>
       <c r="P120">
-        <v>440663228000</v>
+        <v>271093367600</v>
       </c>
     </row>
     <row r="121">
@@ -6419,7 +6419,7 @@
         <v>0</v>
       </c>
       <c r="F121">
-        <v>112000000</v>
+        <v>112000</v>
       </c>
       <c r="G121">
         <v>0</v>
@@ -6428,13 +6428,13 @@
         <v>11200</v>
       </c>
       <c r="I121">
-        <v>112000000</v>
+        <v>112000</v>
       </c>
       <c r="J121" t="str">
         <v>2022-12-09T14:56:00.000Z</v>
       </c>
       <c r="K121">
-        <v>11753504176000</v>
+        <v>10568887178800</v>
       </c>
       <c r="L121">
         <v>692627400</v>
@@ -6443,13 +6443,13 @@
         <v>11200</v>
       </c>
       <c r="N121">
-        <v>112000000</v>
+        <v>112000</v>
       </c>
       <c r="O121">
         <v>12562800</v>
       </c>
       <c r="P121">
-        <v>440775228000</v>
+        <v>271093479600</v>
       </c>
     </row>
     <row r="122">
@@ -6466,7 +6466,7 @@
         <v>0</v>
       </c>
       <c r="E122">
-        <v>6000000</v>
+        <v>6000</v>
       </c>
       <c r="F122">
         <v>0</v>
@@ -6478,13 +6478,13 @@
         <v>600</v>
       </c>
       <c r="I122">
-        <v>6000000</v>
+        <v>6000</v>
       </c>
       <c r="J122" t="str">
         <v>2022-12-09T14:58:00.000Z</v>
       </c>
       <c r="K122">
-        <v>11753510176000</v>
+        <v>10568887184800</v>
       </c>
       <c r="L122">
         <v>692628000</v>
@@ -6493,13 +6493,13 @@
         <v>-600</v>
       </c>
       <c r="N122">
-        <v>-6000000</v>
+        <v>-6000</v>
       </c>
       <c r="O122">
         <v>12562200</v>
       </c>
       <c r="P122">
-        <v>440769228000</v>
+        <v>271093473600</v>
       </c>
     </row>
   </sheetData>

--- a/name/vnindex/20221209/VNINDEX_HOSE_5p_20221209.xlsx
+++ b/name/vnindex/20221209/VNINDEX_HOSE_5p_20221209.xlsx
@@ -397,7 +397,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:P122"/>
+  <dimension ref="A1:AC122"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -451,6 +451,45 @@
       <c r="P1" t="str">
         <v>acum_busd_val</v>
       </c>
+      <c r="Q1" t="str">
+        <v>acum_val_bu</v>
+      </c>
+      <c r="R1" t="str">
+        <v>acum_val_sd</v>
+      </c>
+      <c r="S1" t="str">
+        <v>accum_bu</v>
+      </c>
+      <c r="T1" t="str">
+        <v>accum_sd</v>
+      </c>
+      <c r="U1" t="str">
+        <v>avg_val_bu</v>
+      </c>
+      <c r="V1" t="str">
+        <v>avg_val_sd</v>
+      </c>
+      <c r="W1" t="str">
+        <v>avg_val</v>
+      </c>
+      <c r="X1" t="str">
+        <v>avg_vol</v>
+      </c>
+      <c r="Y1" t="str">
+        <v>avg_bu</v>
+      </c>
+      <c r="Z1" t="str">
+        <v>avg_sd</v>
+      </c>
+      <c r="AA1" t="str">
+        <v>avg_busd</v>
+      </c>
+      <c r="AB1" t="str">
+        <v>avg_busd_val</v>
+      </c>
+      <c r="AC1" t="str">
+        <v>rbusd</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2">
@@ -501,6 +540,45 @@
       <c r="P2">
         <v>-1010000</v>
       </c>
+      <c r="Q2">
+        <v>0</v>
+      </c>
+      <c r="R2">
+        <v>1010000</v>
+      </c>
+      <c r="S2">
+        <v>0</v>
+      </c>
+      <c r="T2">
+        <v>100</v>
+      </c>
+      <c r="U2">
+        <v>41080496474.4</v>
+      </c>
+      <c r="V2">
+        <v>38840054543.8</v>
+      </c>
+      <c r="W2">
+        <v>87346175081</v>
+      </c>
+      <c r="X2">
+        <v>5724198.3</v>
+      </c>
+      <c r="Y2">
+        <v>2669761.2</v>
+      </c>
+      <c r="Z2">
+        <v>2565941.3</v>
+      </c>
+      <c r="AA2">
+        <v>103819.8</v>
+      </c>
+      <c r="AB2">
+        <v>2240441930.6</v>
+      </c>
+      <c r="AC2">
+        <v>0</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3">
@@ -551,6 +629,45 @@
       <c r="P3">
         <v>-21210000</v>
       </c>
+      <c r="Q3">
+        <v>0</v>
+      </c>
+      <c r="R3">
+        <v>21210000</v>
+      </c>
+      <c r="S3">
+        <v>0</v>
+      </c>
+      <c r="T3">
+        <v>2100</v>
+      </c>
+      <c r="U3">
+        <v>41080496474.4</v>
+      </c>
+      <c r="V3">
+        <v>38840054543.8</v>
+      </c>
+      <c r="W3">
+        <v>87346175081</v>
+      </c>
+      <c r="X3">
+        <v>5724198.3</v>
+      </c>
+      <c r="Y3">
+        <v>2669761.2</v>
+      </c>
+      <c r="Z3">
+        <v>2565941.3</v>
+      </c>
+      <c r="AA3">
+        <v>103819.8</v>
+      </c>
+      <c r="AB3">
+        <v>2240441930.6</v>
+      </c>
+      <c r="AC3">
+        <v>0</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4">
@@ -601,6 +718,45 @@
       <c r="P4">
         <v>-19190000</v>
       </c>
+      <c r="Q4">
+        <v>2020000</v>
+      </c>
+      <c r="R4">
+        <v>21210000</v>
+      </c>
+      <c r="S4">
+        <v>200</v>
+      </c>
+      <c r="T4">
+        <v>2100</v>
+      </c>
+      <c r="U4">
+        <v>41080496474.4</v>
+      </c>
+      <c r="V4">
+        <v>38840054543.8</v>
+      </c>
+      <c r="W4">
+        <v>87346175081</v>
+      </c>
+      <c r="X4">
+        <v>5724198.3</v>
+      </c>
+      <c r="Y4">
+        <v>2669761.2</v>
+      </c>
+      <c r="Z4">
+        <v>2565941.3</v>
+      </c>
+      <c r="AA4">
+        <v>103819.8</v>
+      </c>
+      <c r="AB4">
+        <v>2240441930.6</v>
+      </c>
+      <c r="AC4">
+        <v>0</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5">
@@ -651,6 +807,45 @@
       <c r="P5">
         <v>30440692000</v>
       </c>
+      <c r="Q5">
+        <v>77668704000</v>
+      </c>
+      <c r="R5">
+        <v>47228012000</v>
+      </c>
+      <c r="S5">
+        <v>5164100</v>
+      </c>
+      <c r="T5">
+        <v>4459400</v>
+      </c>
+      <c r="U5">
+        <v>41080496474.4</v>
+      </c>
+      <c r="V5">
+        <v>38840054543.8</v>
+      </c>
+      <c r="W5">
+        <v>87346175081</v>
+      </c>
+      <c r="X5">
+        <v>5724198.3</v>
+      </c>
+      <c r="Y5">
+        <v>2669761.2</v>
+      </c>
+      <c r="Z5">
+        <v>2565941.3</v>
+      </c>
+      <c r="AA5">
+        <v>103819.8</v>
+      </c>
+      <c r="AB5">
+        <v>2240441930.6</v>
+      </c>
+      <c r="AC5">
+        <v>13.6</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6">
@@ -701,6 +896,45 @@
       <c r="P6">
         <v>40265357900</v>
       </c>
+      <c r="Q6">
+        <v>131214905600</v>
+      </c>
+      <c r="R6">
+        <v>90949547700</v>
+      </c>
+      <c r="S6">
+        <v>9113400</v>
+      </c>
+      <c r="T6">
+        <v>7912900</v>
+      </c>
+      <c r="U6">
+        <v>41080496474.4</v>
+      </c>
+      <c r="V6">
+        <v>38840054543.8</v>
+      </c>
+      <c r="W6">
+        <v>87346175081</v>
+      </c>
+      <c r="X6">
+        <v>5724198.3</v>
+      </c>
+      <c r="Y6">
+        <v>2669761.2</v>
+      </c>
+      <c r="Z6">
+        <v>2565941.3</v>
+      </c>
+      <c r="AA6">
+        <v>103819.8</v>
+      </c>
+      <c r="AB6">
+        <v>2240441930.6</v>
+      </c>
+      <c r="AC6">
+        <v>4.4</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7">
@@ -751,6 +985,45 @@
       <c r="P7">
         <v>43627887500</v>
       </c>
+      <c r="Q7">
+        <v>173447685800</v>
+      </c>
+      <c r="R7">
+        <v>129819798300</v>
+      </c>
+      <c r="S7">
+        <v>11902200</v>
+      </c>
+      <c r="T7">
+        <v>10739200</v>
+      </c>
+      <c r="U7">
+        <v>41080496474.4</v>
+      </c>
+      <c r="V7">
+        <v>38840054543.8</v>
+      </c>
+      <c r="W7">
+        <v>87346175081</v>
+      </c>
+      <c r="X7">
+        <v>5724198.3</v>
+      </c>
+      <c r="Y7">
+        <v>2669761.2</v>
+      </c>
+      <c r="Z7">
+        <v>2565941.3</v>
+      </c>
+      <c r="AA7">
+        <v>103819.8</v>
+      </c>
+      <c r="AB7">
+        <v>2240441930.6</v>
+      </c>
+      <c r="AC7">
+        <v>1.5</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8">
@@ -801,6 +1074,45 @@
       <c r="P8">
         <v>27289884600</v>
       </c>
+      <c r="Q8">
+        <v>206268222500</v>
+      </c>
+      <c r="R8">
+        <v>178978337900</v>
+      </c>
+      <c r="S8">
+        <v>14263100</v>
+      </c>
+      <c r="T8">
+        <v>14367800</v>
+      </c>
+      <c r="U8">
+        <v>41080496474.4</v>
+      </c>
+      <c r="V8">
+        <v>38840054543.8</v>
+      </c>
+      <c r="W8">
+        <v>87346175081</v>
+      </c>
+      <c r="X8">
+        <v>5724198.3</v>
+      </c>
+      <c r="Y8">
+        <v>2669761.2</v>
+      </c>
+      <c r="Z8">
+        <v>2565941.3</v>
+      </c>
+      <c r="AA8">
+        <v>103819.8</v>
+      </c>
+      <c r="AB8">
+        <v>2240441930.6</v>
+      </c>
+      <c r="AC8">
+        <v>7.3</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9">
@@ -851,6 +1163,45 @@
       <c r="P9">
         <v>3631511800</v>
       </c>
+      <c r="Q9">
+        <v>238069606300</v>
+      </c>
+      <c r="R9">
+        <v>234438094500</v>
+      </c>
+      <c r="S9">
+        <v>16479700</v>
+      </c>
+      <c r="T9">
+        <v>18459500</v>
+      </c>
+      <c r="U9">
+        <v>41080496474.4</v>
+      </c>
+      <c r="V9">
+        <v>38840054543.8</v>
+      </c>
+      <c r="W9">
+        <v>87346175081</v>
+      </c>
+      <c r="X9">
+        <v>5724198.3</v>
+      </c>
+      <c r="Y9">
+        <v>2669761.2</v>
+      </c>
+      <c r="Z9">
+        <v>2565941.3</v>
+      </c>
+      <c r="AA9">
+        <v>103819.8</v>
+      </c>
+      <c r="AB9">
+        <v>2240441930.6</v>
+      </c>
+      <c r="AC9">
+        <v>10.6</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10">
@@ -901,6 +1252,45 @@
       <c r="P10">
         <v>-12378145700</v>
       </c>
+      <c r="Q10">
+        <v>266803622400</v>
+      </c>
+      <c r="R10">
+        <v>279181768100</v>
+      </c>
+      <c r="S10">
+        <v>18218600</v>
+      </c>
+      <c r="T10">
+        <v>21884500</v>
+      </c>
+      <c r="U10">
+        <v>41080496474.4</v>
+      </c>
+      <c r="V10">
+        <v>38840054543.8</v>
+      </c>
+      <c r="W10">
+        <v>87346175081</v>
+      </c>
+      <c r="X10">
+        <v>5724198.3</v>
+      </c>
+      <c r="Y10">
+        <v>2669761.2</v>
+      </c>
+      <c r="Z10">
+        <v>2565941.3</v>
+      </c>
+      <c r="AA10">
+        <v>103819.8</v>
+      </c>
+      <c r="AB10">
+        <v>2240441930.6</v>
+      </c>
+      <c r="AC10">
+        <v>7.1</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11">
@@ -951,6 +1341,45 @@
       <c r="P11">
         <v>14255647900</v>
       </c>
+      <c r="Q11">
+        <v>324654980700</v>
+      </c>
+      <c r="R11">
+        <v>310399332800</v>
+      </c>
+      <c r="S11">
+        <v>21804000</v>
+      </c>
+      <c r="T11">
+        <v>24139900</v>
+      </c>
+      <c r="U11">
+        <v>41080496474.4</v>
+      </c>
+      <c r="V11">
+        <v>38840054543.8</v>
+      </c>
+      <c r="W11">
+        <v>87346175081</v>
+      </c>
+      <c r="X11">
+        <v>5724198.3</v>
+      </c>
+      <c r="Y11">
+        <v>2669761.2</v>
+      </c>
+      <c r="Z11">
+        <v>2565941.3</v>
+      </c>
+      <c r="AA11">
+        <v>103819.8</v>
+      </c>
+      <c r="AB11">
+        <v>2240441930.6</v>
+      </c>
+      <c r="AC11">
+        <v>11.9</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12">
@@ -1001,6 +1430,45 @@
       <c r="P12">
         <v>13808824200</v>
       </c>
+      <c r="Q12">
+        <v>352550576400</v>
+      </c>
+      <c r="R12">
+        <v>338741752200</v>
+      </c>
+      <c r="S12">
+        <v>23820100</v>
+      </c>
+      <c r="T12">
+        <v>26285600</v>
+      </c>
+      <c r="U12">
+        <v>41080496474.4</v>
+      </c>
+      <c r="V12">
+        <v>38840054543.8</v>
+      </c>
+      <c r="W12">
+        <v>87346175081</v>
+      </c>
+      <c r="X12">
+        <v>5724198.3</v>
+      </c>
+      <c r="Y12">
+        <v>2669761.2</v>
+      </c>
+      <c r="Z12">
+        <v>2565941.3</v>
+      </c>
+      <c r="AA12">
+        <v>103819.8</v>
+      </c>
+      <c r="AB12">
+        <v>2240441930.6</v>
+      </c>
+      <c r="AC12">
+        <v>0.2</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13">
@@ -1051,6 +1519,45 @@
       <c r="P13">
         <v>6857310500</v>
       </c>
+      <c r="Q13">
+        <v>380313310800</v>
+      </c>
+      <c r="R13">
+        <v>373456000300</v>
+      </c>
+      <c r="S13">
+        <v>25732100</v>
+      </c>
+      <c r="T13">
+        <v>28723300</v>
+      </c>
+      <c r="U13">
+        <v>41080496474.4</v>
+      </c>
+      <c r="V13">
+        <v>38840054543.8</v>
+      </c>
+      <c r="W13">
+        <v>87346175081</v>
+      </c>
+      <c r="X13">
+        <v>5724198.3</v>
+      </c>
+      <c r="Y13">
+        <v>2669761.2</v>
+      </c>
+      <c r="Z13">
+        <v>2565941.3</v>
+      </c>
+      <c r="AA13">
+        <v>103819.8</v>
+      </c>
+      <c r="AB13">
+        <v>2240441930.6</v>
+      </c>
+      <c r="AC13">
+        <v>3.1</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14">
@@ -1101,6 +1608,45 @@
       <c r="P14">
         <v>-7054098900</v>
       </c>
+      <c r="Q14">
+        <v>408917665900</v>
+      </c>
+      <c r="R14">
+        <v>415971764800</v>
+      </c>
+      <c r="S14">
+        <v>27428700</v>
+      </c>
+      <c r="T14">
+        <v>31573400</v>
+      </c>
+      <c r="U14">
+        <v>41080496474.4</v>
+      </c>
+      <c r="V14">
+        <v>38840054543.8</v>
+      </c>
+      <c r="W14">
+        <v>87346175081</v>
+      </c>
+      <c r="X14">
+        <v>5724198.3</v>
+      </c>
+      <c r="Y14">
+        <v>2669761.2</v>
+      </c>
+      <c r="Z14">
+        <v>2565941.3</v>
+      </c>
+      <c r="AA14">
+        <v>103819.8</v>
+      </c>
+      <c r="AB14">
+        <v>2240441930.6</v>
+      </c>
+      <c r="AC14">
+        <v>6.2</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15">
@@ -1151,6 +1697,45 @@
       <c r="P15">
         <v>-14906894700</v>
       </c>
+      <c r="Q15">
+        <v>435705007500</v>
+      </c>
+      <c r="R15">
+        <v>450611902200</v>
+      </c>
+      <c r="S15">
+        <v>29244100</v>
+      </c>
+      <c r="T15">
+        <v>34151200</v>
+      </c>
+      <c r="U15">
+        <v>41080496474.4</v>
+      </c>
+      <c r="V15">
+        <v>38840054543.8</v>
+      </c>
+      <c r="W15">
+        <v>87346175081</v>
+      </c>
+      <c r="X15">
+        <v>5724198.3</v>
+      </c>
+      <c r="Y15">
+        <v>2669761.2</v>
+      </c>
+      <c r="Z15">
+        <v>2565941.3</v>
+      </c>
+      <c r="AA15">
+        <v>103819.8</v>
+      </c>
+      <c r="AB15">
+        <v>2240441930.6</v>
+      </c>
+      <c r="AC15">
+        <v>3.5</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16">
@@ -1201,6 +1786,45 @@
       <c r="P16">
         <v>7840385300</v>
       </c>
+      <c r="Q16">
+        <v>480666773700</v>
+      </c>
+      <c r="R16">
+        <v>472826388400</v>
+      </c>
+      <c r="S16">
+        <v>32562000</v>
+      </c>
+      <c r="T16">
+        <v>35627400</v>
+      </c>
+      <c r="U16">
+        <v>41080496474.4</v>
+      </c>
+      <c r="V16">
+        <v>38840054543.8</v>
+      </c>
+      <c r="W16">
+        <v>87346175081</v>
+      </c>
+      <c r="X16">
+        <v>5724198.3</v>
+      </c>
+      <c r="Y16">
+        <v>2669761.2</v>
+      </c>
+      <c r="Z16">
+        <v>2565941.3</v>
+      </c>
+      <c r="AA16">
+        <v>103819.8</v>
+      </c>
+      <c r="AB16">
+        <v>2240441930.6</v>
+      </c>
+      <c r="AC16">
+        <v>10.2</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17">
@@ -1251,6 +1875,45 @@
       <c r="P17">
         <v>35805187900</v>
       </c>
+      <c r="Q17">
+        <v>531779254800</v>
+      </c>
+      <c r="R17">
+        <v>495974066900</v>
+      </c>
+      <c r="S17">
+        <v>35972500</v>
+      </c>
+      <c r="T17">
+        <v>37052000</v>
+      </c>
+      <c r="U17">
+        <v>41080496474.4</v>
+      </c>
+      <c r="V17">
+        <v>38840054543.8</v>
+      </c>
+      <c r="W17">
+        <v>87346175081</v>
+      </c>
+      <c r="X17">
+        <v>5724198.3</v>
+      </c>
+      <c r="Y17">
+        <v>2669761.2</v>
+      </c>
+      <c r="Z17">
+        <v>2565941.3</v>
+      </c>
+      <c r="AA17">
+        <v>103819.8</v>
+      </c>
+      <c r="AB17">
+        <v>2240441930.6</v>
+      </c>
+      <c r="AC17">
+        <v>12.5</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18">
@@ -1301,6 +1964,45 @@
       <c r="P18">
         <v>52536279200</v>
       </c>
+      <c r="Q18">
+        <v>581791151300</v>
+      </c>
+      <c r="R18">
+        <v>529254872100</v>
+      </c>
+      <c r="S18">
+        <v>39753400</v>
+      </c>
+      <c r="T18">
+        <v>39309500</v>
+      </c>
+      <c r="U18">
+        <v>41080496474.4</v>
+      </c>
+      <c r="V18">
+        <v>38840054543.8</v>
+      </c>
+      <c r="W18">
+        <v>87346175081</v>
+      </c>
+      <c r="X18">
+        <v>5724198.3</v>
+      </c>
+      <c r="Y18">
+        <v>2669761.2</v>
+      </c>
+      <c r="Z18">
+        <v>2565941.3</v>
+      </c>
+      <c r="AA18">
+        <v>103819.8</v>
+      </c>
+      <c r="AB18">
+        <v>2240441930.6</v>
+      </c>
+      <c r="AC18">
+        <v>7.5</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19">
@@ -1351,6 +2053,45 @@
       <c r="P19">
         <v>93331842000</v>
       </c>
+      <c r="Q19">
+        <v>649717571600</v>
+      </c>
+      <c r="R19">
+        <v>556385729600</v>
+      </c>
+      <c r="S19">
+        <v>44865300</v>
+      </c>
+      <c r="T19">
+        <v>41332700</v>
+      </c>
+      <c r="U19">
+        <v>41080496474.4</v>
+      </c>
+      <c r="V19">
+        <v>38840054543.8</v>
+      </c>
+      <c r="W19">
+        <v>87346175081</v>
+      </c>
+      <c r="X19">
+        <v>5724198.3</v>
+      </c>
+      <c r="Y19">
+        <v>2669761.2</v>
+      </c>
+      <c r="Z19">
+        <v>2565941.3</v>
+      </c>
+      <c r="AA19">
+        <v>103819.8</v>
+      </c>
+      <c r="AB19">
+        <v>2240441930.6</v>
+      </c>
+      <c r="AC19">
+        <v>18.2</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20">
@@ -1401,6 +2142,45 @@
       <c r="P20">
         <v>149928706400</v>
       </c>
+      <c r="Q20">
+        <v>728772846200</v>
+      </c>
+      <c r="R20">
+        <v>578844139800</v>
+      </c>
+      <c r="S20">
+        <v>50268600</v>
+      </c>
+      <c r="T20">
+        <v>42948400</v>
+      </c>
+      <c r="U20">
+        <v>41080496474.4</v>
+      </c>
+      <c r="V20">
+        <v>38840054543.8</v>
+      </c>
+      <c r="W20">
+        <v>87346175081</v>
+      </c>
+      <c r="X20">
+        <v>5724198.3</v>
+      </c>
+      <c r="Y20">
+        <v>2669761.2</v>
+      </c>
+      <c r="Z20">
+        <v>2565941.3</v>
+      </c>
+      <c r="AA20">
+        <v>103819.8</v>
+      </c>
+      <c r="AB20">
+        <v>2240441930.6</v>
+      </c>
+      <c r="AC20">
+        <v>25.3</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21">
@@ -1451,6 +2231,45 @@
       <c r="P21">
         <v>172700248300</v>
       </c>
+      <c r="Q21">
+        <v>776088080600</v>
+      </c>
+      <c r="R21">
+        <v>603387832300</v>
+      </c>
+      <c r="S21">
+        <v>53608400</v>
+      </c>
+      <c r="T21">
+        <v>44879900</v>
+      </c>
+      <c r="U21">
+        <v>41080496474.4</v>
+      </c>
+      <c r="V21">
+        <v>38840054543.8</v>
+      </c>
+      <c r="W21">
+        <v>87346175081</v>
+      </c>
+      <c r="X21">
+        <v>5724198.3</v>
+      </c>
+      <c r="Y21">
+        <v>2669761.2</v>
+      </c>
+      <c r="Z21">
+        <v>2565941.3</v>
+      </c>
+      <c r="AA21">
+        <v>103819.8</v>
+      </c>
+      <c r="AB21">
+        <v>2240441930.6</v>
+      </c>
+      <c r="AC21">
+        <v>10.2</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22">
@@ -1501,6 +2320,45 @@
       <c r="P22">
         <v>187864081700</v>
       </c>
+      <c r="Q22">
+        <v>823304997000</v>
+      </c>
+      <c r="R22">
+        <v>635440915300</v>
+      </c>
+      <c r="S22">
+        <v>56767500</v>
+      </c>
+      <c r="T22">
+        <v>47462300</v>
+      </c>
+      <c r="U22">
+        <v>41080496474.4</v>
+      </c>
+      <c r="V22">
+        <v>38840054543.8</v>
+      </c>
+      <c r="W22">
+        <v>87346175081</v>
+      </c>
+      <c r="X22">
+        <v>5724198.3</v>
+      </c>
+      <c r="Y22">
+        <v>2669761.2</v>
+      </c>
+      <c r="Z22">
+        <v>2565941.3</v>
+      </c>
+      <c r="AA22">
+        <v>103819.8</v>
+      </c>
+      <c r="AB22">
+        <v>2240441930.6</v>
+      </c>
+      <c r="AC22">
+        <v>6.8</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23">
@@ -1551,6 +2409,45 @@
       <c r="P23">
         <v>171738042200</v>
       </c>
+      <c r="Q23">
+        <v>862050953700</v>
+      </c>
+      <c r="R23">
+        <v>690312911500</v>
+      </c>
+      <c r="S23">
+        <v>59310300</v>
+      </c>
+      <c r="T23">
+        <v>51777400</v>
+      </c>
+      <c r="U23">
+        <v>41080496474.4</v>
+      </c>
+      <c r="V23">
+        <v>38840054543.8</v>
+      </c>
+      <c r="W23">
+        <v>87346175081</v>
+      </c>
+      <c r="X23">
+        <v>5724198.3</v>
+      </c>
+      <c r="Y23">
+        <v>2669761.2</v>
+      </c>
+      <c r="Z23">
+        <v>2565941.3</v>
+      </c>
+      <c r="AA23">
+        <v>103819.8</v>
+      </c>
+      <c r="AB23">
+        <v>2240441930.6</v>
+      </c>
+      <c r="AC23">
+        <v>7.2</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24">
@@ -1601,6 +2498,45 @@
       <c r="P24">
         <v>153076228400</v>
       </c>
+      <c r="Q24">
+        <v>889149139900</v>
+      </c>
+      <c r="R24">
+        <v>736072911500</v>
+      </c>
+      <c r="S24">
+        <v>61585900</v>
+      </c>
+      <c r="T24">
+        <v>56116500</v>
+      </c>
+      <c r="U24">
+        <v>41080496474.4</v>
+      </c>
+      <c r="V24">
+        <v>38840054543.8</v>
+      </c>
+      <c r="W24">
+        <v>87346175081</v>
+      </c>
+      <c r="X24">
+        <v>5724198.3</v>
+      </c>
+      <c r="Y24">
+        <v>2669761.2</v>
+      </c>
+      <c r="Z24">
+        <v>2565941.3</v>
+      </c>
+      <c r="AA24">
+        <v>103819.8</v>
+      </c>
+      <c r="AB24">
+        <v>2240441930.6</v>
+      </c>
+      <c r="AC24">
+        <v>8.3</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25">
@@ -1651,6 +2587,45 @@
       <c r="P25">
         <v>153479919700</v>
       </c>
+      <c r="Q25">
+        <v>919473359800</v>
+      </c>
+      <c r="R25">
+        <v>765993440100</v>
+      </c>
+      <c r="S25">
+        <v>63782500</v>
+      </c>
+      <c r="T25">
+        <v>58354600</v>
+      </c>
+      <c r="U25">
+        <v>41080496474.4</v>
+      </c>
+      <c r="V25">
+        <v>38840054543.8</v>
+      </c>
+      <c r="W25">
+        <v>87346175081</v>
+      </c>
+      <c r="X25">
+        <v>5724198.3</v>
+      </c>
+      <c r="Y25">
+        <v>2669761.2</v>
+      </c>
+      <c r="Z25">
+        <v>2565941.3</v>
+      </c>
+      <c r="AA25">
+        <v>103819.8</v>
+      </c>
+      <c r="AB25">
+        <v>2240441930.6</v>
+      </c>
+      <c r="AC25">
+        <v>0.2</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26">
@@ -1701,6 +2676,45 @@
       <c r="P26">
         <v>134397063000</v>
       </c>
+      <c r="Q26">
+        <v>940225454200</v>
+      </c>
+      <c r="R26">
+        <v>805828391200</v>
+      </c>
+      <c r="S26">
+        <v>65192300</v>
+      </c>
+      <c r="T26">
+        <v>60927900</v>
+      </c>
+      <c r="U26">
+        <v>41080496474.4</v>
+      </c>
+      <c r="V26">
+        <v>38840054543.8</v>
+      </c>
+      <c r="W26">
+        <v>87346175081</v>
+      </c>
+      <c r="X26">
+        <v>5724198.3</v>
+      </c>
+      <c r="Y26">
+        <v>2669761.2</v>
+      </c>
+      <c r="Z26">
+        <v>2565941.3</v>
+      </c>
+      <c r="AA26">
+        <v>103819.8</v>
+      </c>
+      <c r="AB26">
+        <v>2240441930.6</v>
+      </c>
+      <c r="AC26">
+        <v>8.5</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27">
@@ -1751,6 +2765,45 @@
       <c r="P27">
         <v>117059616400</v>
       </c>
+      <c r="Q27">
+        <v>961585736200</v>
+      </c>
+      <c r="R27">
+        <v>844526119800</v>
+      </c>
+      <c r="S27">
+        <v>66468600</v>
+      </c>
+      <c r="T27">
+        <v>63496300</v>
+      </c>
+      <c r="U27">
+        <v>41080496474.4</v>
+      </c>
+      <c r="V27">
+        <v>38840054543.8</v>
+      </c>
+      <c r="W27">
+        <v>87346175081</v>
+      </c>
+      <c r="X27">
+        <v>5724198.3</v>
+      </c>
+      <c r="Y27">
+        <v>2669761.2</v>
+      </c>
+      <c r="Z27">
+        <v>2565941.3</v>
+      </c>
+      <c r="AA27">
+        <v>103819.8</v>
+      </c>
+      <c r="AB27">
+        <v>2240441930.6</v>
+      </c>
+      <c r="AC27">
+        <v>7.7</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28">
@@ -1801,6 +2854,45 @@
       <c r="P28">
         <v>65804316800</v>
       </c>
+      <c r="Q28">
+        <v>974926317100</v>
+      </c>
+      <c r="R28">
+        <v>909122000300</v>
+      </c>
+      <c r="S28">
+        <v>67371900</v>
+      </c>
+      <c r="T28">
+        <v>67893100</v>
+      </c>
+      <c r="U28">
+        <v>41080496474.4</v>
+      </c>
+      <c r="V28">
+        <v>38840054543.8</v>
+      </c>
+      <c r="W28">
+        <v>87346175081</v>
+      </c>
+      <c r="X28">
+        <v>5724198.3</v>
+      </c>
+      <c r="Y28">
+        <v>2669761.2</v>
+      </c>
+      <c r="Z28">
+        <v>2565941.3</v>
+      </c>
+      <c r="AA28">
+        <v>103819.8</v>
+      </c>
+      <c r="AB28">
+        <v>2240441930.6</v>
+      </c>
+      <c r="AC28">
+        <v>22.9</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29">
@@ -1851,6 +2943,45 @@
       <c r="P29">
         <v>-69433857600</v>
       </c>
+      <c r="Q29">
+        <v>991423899000</v>
+      </c>
+      <c r="R29">
+        <v>1060857756600</v>
+      </c>
+      <c r="S29">
+        <v>68447600</v>
+      </c>
+      <c r="T29">
+        <v>78569800</v>
+      </c>
+      <c r="U29">
+        <v>41080496474.4</v>
+      </c>
+      <c r="V29">
+        <v>38840054543.8</v>
+      </c>
+      <c r="W29">
+        <v>87346175081</v>
+      </c>
+      <c r="X29">
+        <v>5724198.3</v>
+      </c>
+      <c r="Y29">
+        <v>2669761.2</v>
+      </c>
+      <c r="Z29">
+        <v>2565941.3</v>
+      </c>
+      <c r="AA29">
+        <v>103819.8</v>
+      </c>
+      <c r="AB29">
+        <v>2240441930.6</v>
+      </c>
+      <c r="AC29">
+        <v>60.4</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30">
@@ -1901,6 +3032,45 @@
       <c r="P30">
         <v>-144474400600</v>
       </c>
+      <c r="Q30">
+        <v>1011964015800</v>
+      </c>
+      <c r="R30">
+        <v>1156438416400</v>
+      </c>
+      <c r="S30">
+        <v>69894100</v>
+      </c>
+      <c r="T30">
+        <v>84671500</v>
+      </c>
+      <c r="U30">
+        <v>41080496474.4</v>
+      </c>
+      <c r="V30">
+        <v>38840054543.8</v>
+      </c>
+      <c r="W30">
+        <v>87346175081</v>
+      </c>
+      <c r="X30">
+        <v>5724198.3</v>
+      </c>
+      <c r="Y30">
+        <v>2669761.2</v>
+      </c>
+      <c r="Z30">
+        <v>2565941.3</v>
+      </c>
+      <c r="AA30">
+        <v>103819.8</v>
+      </c>
+      <c r="AB30">
+        <v>2240441930.6</v>
+      </c>
+      <c r="AC30">
+        <v>33.5</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31">
@@ -1951,6 +3121,45 @@
       <c r="P31">
         <v>-186108213500</v>
       </c>
+      <c r="Q31">
+        <v>1025170111400</v>
+      </c>
+      <c r="R31">
+        <v>1211278324900</v>
+      </c>
+      <c r="S31">
+        <v>70869800</v>
+      </c>
+      <c r="T31">
+        <v>88702600</v>
+      </c>
+      <c r="U31">
+        <v>41080496474.4</v>
+      </c>
+      <c r="V31">
+        <v>38840054543.8</v>
+      </c>
+      <c r="W31">
+        <v>87346175081</v>
+      </c>
+      <c r="X31">
+        <v>5724198.3</v>
+      </c>
+      <c r="Y31">
+        <v>2669761.2</v>
+      </c>
+      <c r="Z31">
+        <v>2565941.3</v>
+      </c>
+      <c r="AA31">
+        <v>103819.8</v>
+      </c>
+      <c r="AB31">
+        <v>2240441930.6</v>
+      </c>
+      <c r="AC31">
+        <v>18.6</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32">
@@ -2001,6 +3210,45 @@
       <c r="P32">
         <v>-212999546200</v>
       </c>
+      <c r="Q32">
+        <v>1048377350500</v>
+      </c>
+      <c r="R32">
+        <v>1261376896700</v>
+      </c>
+      <c r="S32">
+        <v>72566900</v>
+      </c>
+      <c r="T32">
+        <v>92186000</v>
+      </c>
+      <c r="U32">
+        <v>41080496474.4</v>
+      </c>
+      <c r="V32">
+        <v>38840054543.8</v>
+      </c>
+      <c r="W32">
+        <v>87346175081</v>
+      </c>
+      <c r="X32">
+        <v>5724198.3</v>
+      </c>
+      <c r="Y32">
+        <v>2669761.2</v>
+      </c>
+      <c r="Z32">
+        <v>2565941.3</v>
+      </c>
+      <c r="AA32">
+        <v>103819.8</v>
+      </c>
+      <c r="AB32">
+        <v>2240441930.6</v>
+      </c>
+      <c r="AC32">
+        <v>12</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33">
@@ -2051,6 +3299,45 @@
       <c r="P33">
         <v>-241369972000</v>
       </c>
+      <c r="Q33">
+        <v>1071399514000</v>
+      </c>
+      <c r="R33">
+        <v>1312769486000</v>
+      </c>
+      <c r="S33">
+        <v>74239000</v>
+      </c>
+      <c r="T33">
+        <v>95990600</v>
+      </c>
+      <c r="U33">
+        <v>41080496474.4</v>
+      </c>
+      <c r="V33">
+        <v>38840054543.8</v>
+      </c>
+      <c r="W33">
+        <v>87346175081</v>
+      </c>
+      <c r="X33">
+        <v>5724198.3</v>
+      </c>
+      <c r="Y33">
+        <v>2669761.2</v>
+      </c>
+      <c r="Z33">
+        <v>2565941.3</v>
+      </c>
+      <c r="AA33">
+        <v>103819.8</v>
+      </c>
+      <c r="AB33">
+        <v>2240441930.6</v>
+      </c>
+      <c r="AC33">
+        <v>12.7</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34">
@@ -2101,6 +3388,45 @@
       <c r="P34">
         <v>-262460997400</v>
       </c>
+      <c r="Q34">
+        <v>1091925630700</v>
+      </c>
+      <c r="R34">
+        <v>1354386628100</v>
+      </c>
+      <c r="S34">
+        <v>75562600</v>
+      </c>
+      <c r="T34">
+        <v>98859200</v>
+      </c>
+      <c r="U34">
+        <v>41080496474.4</v>
+      </c>
+      <c r="V34">
+        <v>38840054543.8</v>
+      </c>
+      <c r="W34">
+        <v>87346175081</v>
+      </c>
+      <c r="X34">
+        <v>5724198.3</v>
+      </c>
+      <c r="Y34">
+        <v>2669761.2</v>
+      </c>
+      <c r="Z34">
+        <v>2565941.3</v>
+      </c>
+      <c r="AA34">
+        <v>103819.8</v>
+      </c>
+      <c r="AB34">
+        <v>2240441930.6</v>
+      </c>
+      <c r="AC34">
+        <v>9.4</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35">
@@ -2151,6 +3477,45 @@
       <c r="P35">
         <v>-244909597400</v>
       </c>
+      <c r="Q35">
+        <v>1131564970100</v>
+      </c>
+      <c r="R35">
+        <v>1376474567500</v>
+      </c>
+      <c r="S35">
+        <v>78389400</v>
+      </c>
+      <c r="T35">
+        <v>100323400</v>
+      </c>
+      <c r="U35">
+        <v>41080496474.4</v>
+      </c>
+      <c r="V35">
+        <v>38840054543.8</v>
+      </c>
+      <c r="W35">
+        <v>87346175081</v>
+      </c>
+      <c r="X35">
+        <v>5724198.3</v>
+      </c>
+      <c r="Y35">
+        <v>2669761.2</v>
+      </c>
+      <c r="Z35">
+        <v>2565941.3</v>
+      </c>
+      <c r="AA35">
+        <v>103819.8</v>
+      </c>
+      <c r="AB35">
+        <v>2240441930.6</v>
+      </c>
+      <c r="AC35">
+        <v>7.8</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36">
@@ -2201,6 +3566,45 @@
       <c r="P36">
         <v>-220762496300</v>
       </c>
+      <c r="Q36">
+        <v>1170999465800</v>
+      </c>
+      <c r="R36">
+        <v>1391761962100</v>
+      </c>
+      <c r="S36">
+        <v>81088600</v>
+      </c>
+      <c r="T36">
+        <v>101313600</v>
+      </c>
+      <c r="U36">
+        <v>41080496474.4</v>
+      </c>
+      <c r="V36">
+        <v>38840054543.8</v>
+      </c>
+      <c r="W36">
+        <v>87346175081</v>
+      </c>
+      <c r="X36">
+        <v>5724198.3</v>
+      </c>
+      <c r="Y36">
+        <v>2669761.2</v>
+      </c>
+      <c r="Z36">
+        <v>2565941.3</v>
+      </c>
+      <c r="AA36">
+        <v>103819.8</v>
+      </c>
+      <c r="AB36">
+        <v>2240441930.6</v>
+      </c>
+      <c r="AC36">
+        <v>10.8</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37">
@@ -2251,6 +3655,45 @@
       <c r="P37">
         <v>-203061404800</v>
       </c>
+      <c r="Q37">
+        <v>1200489880500</v>
+      </c>
+      <c r="R37">
+        <v>1403551285300</v>
+      </c>
+      <c r="S37">
+        <v>83168400</v>
+      </c>
+      <c r="T37">
+        <v>102098000</v>
+      </c>
+      <c r="U37">
+        <v>41080496474.4</v>
+      </c>
+      <c r="V37">
+        <v>38840054543.8</v>
+      </c>
+      <c r="W37">
+        <v>87346175081</v>
+      </c>
+      <c r="X37">
+        <v>5724198.3</v>
+      </c>
+      <c r="Y37">
+        <v>2669761.2</v>
+      </c>
+      <c r="Z37">
+        <v>2565941.3</v>
+      </c>
+      <c r="AA37">
+        <v>103819.8</v>
+      </c>
+      <c r="AB37">
+        <v>2240441930.6</v>
+      </c>
+      <c r="AC37">
+        <v>7.9</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38">
@@ -2301,6 +3744,45 @@
       <c r="P38">
         <v>-207545223500</v>
       </c>
+      <c r="Q38">
+        <v>1219018133700</v>
+      </c>
+      <c r="R38">
+        <v>1426563357200</v>
+      </c>
+      <c r="S38">
+        <v>84534300</v>
+      </c>
+      <c r="T38">
+        <v>103390900</v>
+      </c>
+      <c r="U38">
+        <v>41080496474.4</v>
+      </c>
+      <c r="V38">
+        <v>38840054543.8</v>
+      </c>
+      <c r="W38">
+        <v>87346175081</v>
+      </c>
+      <c r="X38">
+        <v>5724198.3</v>
+      </c>
+      <c r="Y38">
+        <v>2669761.2</v>
+      </c>
+      <c r="Z38">
+        <v>2565941.3</v>
+      </c>
+      <c r="AA38">
+        <v>103819.8</v>
+      </c>
+      <c r="AB38">
+        <v>2240441930.6</v>
+      </c>
+      <c r="AC38">
+        <v>2</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39">
@@ -2351,6 +3833,45 @@
       <c r="P39">
         <v>-224136271600</v>
       </c>
+      <c r="Q39">
+        <v>1232409888300</v>
+      </c>
+      <c r="R39">
+        <v>1456546159900</v>
+      </c>
+      <c r="S39">
+        <v>85416800</v>
+      </c>
+      <c r="T39">
+        <v>105392000</v>
+      </c>
+      <c r="U39">
+        <v>41080496474.4</v>
+      </c>
+      <c r="V39">
+        <v>38840054543.8</v>
+      </c>
+      <c r="W39">
+        <v>87346175081</v>
+      </c>
+      <c r="X39">
+        <v>5724198.3</v>
+      </c>
+      <c r="Y39">
+        <v>2669761.2</v>
+      </c>
+      <c r="Z39">
+        <v>2565941.3</v>
+      </c>
+      <c r="AA39">
+        <v>103819.8</v>
+      </c>
+      <c r="AB39">
+        <v>2240441930.6</v>
+      </c>
+      <c r="AC39">
+        <v>7.4</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40">
@@ -2401,6 +3922,45 @@
       <c r="P40">
         <v>-242791638200</v>
       </c>
+      <c r="Q40">
+        <v>1243784140700</v>
+      </c>
+      <c r="R40">
+        <v>1486575778900</v>
+      </c>
+      <c r="S40">
+        <v>86168200</v>
+      </c>
+      <c r="T40">
+        <v>107325900</v>
+      </c>
+      <c r="U40">
+        <v>41080496474.4</v>
+      </c>
+      <c r="V40">
+        <v>38840054543.8</v>
+      </c>
+      <c r="W40">
+        <v>87346175081</v>
+      </c>
+      <c r="X40">
+        <v>5724198.3</v>
+      </c>
+      <c r="Y40">
+        <v>2669761.2</v>
+      </c>
+      <c r="Z40">
+        <v>2565941.3</v>
+      </c>
+      <c r="AA40">
+        <v>103819.8</v>
+      </c>
+      <c r="AB40">
+        <v>2240441930.6</v>
+      </c>
+      <c r="AC40">
+        <v>8.3</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41">
@@ -2451,6 +4011,45 @@
       <c r="P41">
         <v>-276045137200</v>
       </c>
+      <c r="Q41">
+        <v>1257228100900</v>
+      </c>
+      <c r="R41">
+        <v>1533273238100</v>
+      </c>
+      <c r="S41">
+        <v>86966400</v>
+      </c>
+      <c r="T41">
+        <v>110047900</v>
+      </c>
+      <c r="U41">
+        <v>41080496474.4</v>
+      </c>
+      <c r="V41">
+        <v>38840054543.8</v>
+      </c>
+      <c r="W41">
+        <v>87346175081</v>
+      </c>
+      <c r="X41">
+        <v>5724198.3</v>
+      </c>
+      <c r="Y41">
+        <v>2669761.2</v>
+      </c>
+      <c r="Z41">
+        <v>2565941.3</v>
+      </c>
+      <c r="AA41">
+        <v>103819.8</v>
+      </c>
+      <c r="AB41">
+        <v>2240441930.6</v>
+      </c>
+      <c r="AC41">
+        <v>14.8</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42">
@@ -2501,6 +4100,45 @@
       <c r="P42">
         <v>-328856146300</v>
       </c>
+      <c r="Q42">
+        <v>1265596847600</v>
+      </c>
+      <c r="R42">
+        <v>1594452993900</v>
+      </c>
+      <c r="S42">
+        <v>87465100</v>
+      </c>
+      <c r="T42">
+        <v>114047600</v>
+      </c>
+      <c r="U42">
+        <v>41080496474.4</v>
+      </c>
+      <c r="V42">
+        <v>38840054543.8</v>
+      </c>
+      <c r="W42">
+        <v>87346175081</v>
+      </c>
+      <c r="X42">
+        <v>5724198.3</v>
+      </c>
+      <c r="Y42">
+        <v>2669761.2</v>
+      </c>
+      <c r="Z42">
+        <v>2565941.3</v>
+      </c>
+      <c r="AA42">
+        <v>103819.8</v>
+      </c>
+      <c r="AB42">
+        <v>2240441930.6</v>
+      </c>
+      <c r="AC42">
+        <v>23.6</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43">
@@ -2551,6 +4189,45 @@
       <c r="P43">
         <v>-374961257600</v>
       </c>
+      <c r="Q43">
+        <v>1277437305000</v>
+      </c>
+      <c r="R43">
+        <v>1652398562600</v>
+      </c>
+      <c r="S43">
+        <v>88286200</v>
+      </c>
+      <c r="T43">
+        <v>117559700</v>
+      </c>
+      <c r="U43">
+        <v>41080496474.4</v>
+      </c>
+      <c r="V43">
+        <v>38840054543.8</v>
+      </c>
+      <c r="W43">
+        <v>87346175081</v>
+      </c>
+      <c r="X43">
+        <v>5724198.3</v>
+      </c>
+      <c r="Y43">
+        <v>2669761.2</v>
+      </c>
+      <c r="Z43">
+        <v>2565941.3</v>
+      </c>
+      <c r="AA43">
+        <v>103819.8</v>
+      </c>
+      <c r="AB43">
+        <v>2240441930.6</v>
+      </c>
+      <c r="AC43">
+        <v>20.6</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44">
@@ -2601,6 +4278,45 @@
       <c r="P44">
         <v>-385201097800</v>
       </c>
+      <c r="Q44">
+        <v>1304569560000</v>
+      </c>
+      <c r="R44">
+        <v>1689770657800</v>
+      </c>
+      <c r="S44">
+        <v>90169500</v>
+      </c>
+      <c r="T44">
+        <v>119913800</v>
+      </c>
+      <c r="U44">
+        <v>41080496474.4</v>
+      </c>
+      <c r="V44">
+        <v>38840054543.8</v>
+      </c>
+      <c r="W44">
+        <v>87346175081</v>
+      </c>
+      <c r="X44">
+        <v>5724198.3</v>
+      </c>
+      <c r="Y44">
+        <v>2669761.2</v>
+      </c>
+      <c r="Z44">
+        <v>2565941.3</v>
+      </c>
+      <c r="AA44">
+        <v>103819.8</v>
+      </c>
+      <c r="AB44">
+        <v>2240441930.6</v>
+      </c>
+      <c r="AC44">
+        <v>4.6</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45">
@@ -2651,6 +4367,45 @@
       <c r="P45">
         <v>-374801336100</v>
       </c>
+      <c r="Q45">
+        <v>1337687248300</v>
+      </c>
+      <c r="R45">
+        <v>1712488584400</v>
+      </c>
+      <c r="S45">
+        <v>92378300</v>
+      </c>
+      <c r="T45">
+        <v>121202100</v>
+      </c>
+      <c r="U45">
+        <v>41080496474.4</v>
+      </c>
+      <c r="V45">
+        <v>38840054543.8</v>
+      </c>
+      <c r="W45">
+        <v>87346175081</v>
+      </c>
+      <c r="X45">
+        <v>5724198.3</v>
+      </c>
+      <c r="Y45">
+        <v>2669761.2</v>
+      </c>
+      <c r="Z45">
+        <v>2565941.3</v>
+      </c>
+      <c r="AA45">
+        <v>103819.8</v>
+      </c>
+      <c r="AB45">
+        <v>2240441930.6</v>
+      </c>
+      <c r="AC45">
+        <v>4.6</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46">
@@ -2701,6 +4456,45 @@
       <c r="P46">
         <v>-382591519600</v>
       </c>
+      <c r="Q46">
+        <v>1359827900900</v>
+      </c>
+      <c r="R46">
+        <v>1742419420500</v>
+      </c>
+      <c r="S46">
+        <v>93892100</v>
+      </c>
+      <c r="T46">
+        <v>122672900</v>
+      </c>
+      <c r="U46">
+        <v>41080496474.4</v>
+      </c>
+      <c r="V46">
+        <v>38840054543.8</v>
+      </c>
+      <c r="W46">
+        <v>87346175081</v>
+      </c>
+      <c r="X46">
+        <v>5724198.3</v>
+      </c>
+      <c r="Y46">
+        <v>2669761.2</v>
+      </c>
+      <c r="Z46">
+        <v>2565941.3</v>
+      </c>
+      <c r="AA46">
+        <v>103819.8</v>
+      </c>
+      <c r="AB46">
+        <v>2240441930.6</v>
+      </c>
+      <c r="AC46">
+        <v>3.5</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47">
@@ -2751,6 +4545,45 @@
       <c r="P47">
         <v>-431144314000</v>
       </c>
+      <c r="Q47">
+        <v>1374600019800</v>
+      </c>
+      <c r="R47">
+        <v>1805744333800</v>
+      </c>
+      <c r="S47">
+        <v>94816700</v>
+      </c>
+      <c r="T47">
+        <v>126609900</v>
+      </c>
+      <c r="U47">
+        <v>41080496474.4</v>
+      </c>
+      <c r="V47">
+        <v>38840054543.8</v>
+      </c>
+      <c r="W47">
+        <v>87346175081</v>
+      </c>
+      <c r="X47">
+        <v>5724198.3</v>
+      </c>
+      <c r="Y47">
+        <v>2669761.2</v>
+      </c>
+      <c r="Z47">
+        <v>2565941.3</v>
+      </c>
+      <c r="AA47">
+        <v>103819.8</v>
+      </c>
+      <c r="AB47">
+        <v>2240441930.6</v>
+      </c>
+      <c r="AC47">
+        <v>21.7</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48">
@@ -2801,6 +4634,45 @@
       <c r="P48">
         <v>-465096931000</v>
       </c>
+      <c r="Q48">
+        <v>1393447569100</v>
+      </c>
+      <c r="R48">
+        <v>1858544500100</v>
+      </c>
+      <c r="S48">
+        <v>95965800</v>
+      </c>
+      <c r="T48">
+        <v>130174600</v>
+      </c>
+      <c r="U48">
+        <v>41080496474.4</v>
+      </c>
+      <c r="V48">
+        <v>38840054543.8</v>
+      </c>
+      <c r="W48">
+        <v>87346175081</v>
+      </c>
+      <c r="X48">
+        <v>5724198.3</v>
+      </c>
+      <c r="Y48">
+        <v>2669761.2</v>
+      </c>
+      <c r="Z48">
+        <v>2565941.3</v>
+      </c>
+      <c r="AA48">
+        <v>103819.8</v>
+      </c>
+      <c r="AB48">
+        <v>2240441930.6</v>
+      </c>
+      <c r="AC48">
+        <v>15.2</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49">
@@ -2851,6 +4723,45 @@
       <c r="P49">
         <v>-451401377400</v>
       </c>
+      <c r="Q49">
+        <v>1421297181500</v>
+      </c>
+      <c r="R49">
+        <v>1872698558900</v>
+      </c>
+      <c r="S49">
+        <v>97836900</v>
+      </c>
+      <c r="T49">
+        <v>131203000</v>
+      </c>
+      <c r="U49">
+        <v>41080496474.4</v>
+      </c>
+      <c r="V49">
+        <v>38840054543.8</v>
+      </c>
+      <c r="W49">
+        <v>87346175081</v>
+      </c>
+      <c r="X49">
+        <v>5724198.3</v>
+      </c>
+      <c r="Y49">
+        <v>2669761.2</v>
+      </c>
+      <c r="Z49">
+        <v>2565941.3</v>
+      </c>
+      <c r="AA49">
+        <v>103819.8</v>
+      </c>
+      <c r="AB49">
+        <v>2240441930.6</v>
+      </c>
+      <c r="AC49">
+        <v>6.1</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50">
@@ -2901,6 +4812,45 @@
       <c r="P50">
         <v>-450109911200</v>
       </c>
+      <c r="Q50">
+        <v>1440780139100</v>
+      </c>
+      <c r="R50">
+        <v>1890890050300</v>
+      </c>
+      <c r="S50">
+        <v>98942000</v>
+      </c>
+      <c r="T50">
+        <v>132303400</v>
+      </c>
+      <c r="U50">
+        <v>41080496474.4</v>
+      </c>
+      <c r="V50">
+        <v>38840054543.8</v>
+      </c>
+      <c r="W50">
+        <v>87346175081</v>
+      </c>
+      <c r="X50">
+        <v>5724198.3</v>
+      </c>
+      <c r="Y50">
+        <v>2669761.2</v>
+      </c>
+      <c r="Z50">
+        <v>2565941.3</v>
+      </c>
+      <c r="AA50">
+        <v>103819.8</v>
+      </c>
+      <c r="AB50">
+        <v>2240441930.6</v>
+      </c>
+      <c r="AC50">
+        <v>0.6</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51">
@@ -2951,6 +4901,45 @@
       <c r="P51">
         <v>-453662963000</v>
       </c>
+      <c r="Q51">
+        <v>1461743887900</v>
+      </c>
+      <c r="R51">
+        <v>1915406850900</v>
+      </c>
+      <c r="S51">
+        <v>100029500</v>
+      </c>
+      <c r="T51">
+        <v>133939800</v>
+      </c>
+      <c r="U51">
+        <v>41080496474.4</v>
+      </c>
+      <c r="V51">
+        <v>38840054543.8</v>
+      </c>
+      <c r="W51">
+        <v>87346175081</v>
+      </c>
+      <c r="X51">
+        <v>5724198.3</v>
+      </c>
+      <c r="Y51">
+        <v>2669761.2</v>
+      </c>
+      <c r="Z51">
+        <v>2565941.3</v>
+      </c>
+      <c r="AA51">
+        <v>103819.8</v>
+      </c>
+      <c r="AB51">
+        <v>2240441930.6</v>
+      </c>
+      <c r="AC51">
+        <v>1.6</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52">
@@ -3001,6 +4990,45 @@
       <c r="P52">
         <v>-420702609700</v>
       </c>
+      <c r="Q52">
+        <v>1506972987600</v>
+      </c>
+      <c r="R52">
+        <v>1927675597300</v>
+      </c>
+      <c r="S52">
+        <v>102463700</v>
+      </c>
+      <c r="T52">
+        <v>134623800</v>
+      </c>
+      <c r="U52">
+        <v>41080496474.4</v>
+      </c>
+      <c r="V52">
+        <v>38840054543.8</v>
+      </c>
+      <c r="W52">
+        <v>87346175081</v>
+      </c>
+      <c r="X52">
+        <v>5724198.3</v>
+      </c>
+      <c r="Y52">
+        <v>2669761.2</v>
+      </c>
+      <c r="Z52">
+        <v>2565941.3</v>
+      </c>
+      <c r="AA52">
+        <v>103819.8</v>
+      </c>
+      <c r="AB52">
+        <v>2240441930.6</v>
+      </c>
+      <c r="AC52">
+        <v>14.7</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53">
@@ -3051,6 +5079,45 @@
       <c r="P53">
         <v>-378353975100</v>
       </c>
+      <c r="Q53">
+        <v>1568419920100</v>
+      </c>
+      <c r="R53">
+        <v>1946773895200</v>
+      </c>
+      <c r="S53">
+        <v>106372800</v>
+      </c>
+      <c r="T53">
+        <v>135694800</v>
+      </c>
+      <c r="U53">
+        <v>41080496474.4</v>
+      </c>
+      <c r="V53">
+        <v>38840054543.8</v>
+      </c>
+      <c r="W53">
+        <v>87346175081</v>
+      </c>
+      <c r="X53">
+        <v>5724198.3</v>
+      </c>
+      <c r="Y53">
+        <v>2669761.2</v>
+      </c>
+      <c r="Z53">
+        <v>2565941.3</v>
+      </c>
+      <c r="AA53">
+        <v>103819.8</v>
+      </c>
+      <c r="AB53">
+        <v>2240441930.6</v>
+      </c>
+      <c r="AC53">
+        <v>18.9</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54">
@@ -3101,6 +5168,45 @@
       <c r="P54">
         <v>-322859263400</v>
       </c>
+      <c r="Q54">
+        <v>1635331707000</v>
+      </c>
+      <c r="R54">
+        <v>1958190970400</v>
+      </c>
+      <c r="S54">
+        <v>110630200</v>
+      </c>
+      <c r="T54">
+        <v>136501200</v>
+      </c>
+      <c r="U54">
+        <v>41080496474.4</v>
+      </c>
+      <c r="V54">
+        <v>38840054543.8</v>
+      </c>
+      <c r="W54">
+        <v>87346175081</v>
+      </c>
+      <c r="X54">
+        <v>5724198.3</v>
+      </c>
+      <c r="Y54">
+        <v>2669761.2</v>
+      </c>
+      <c r="Z54">
+        <v>2565941.3</v>
+      </c>
+      <c r="AA54">
+        <v>103819.8</v>
+      </c>
+      <c r="AB54">
+        <v>2240441930.6</v>
+      </c>
+      <c r="AC54">
+        <v>24.8</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55">
@@ -3151,6 +5257,45 @@
       <c r="P55">
         <v>-318950563200</v>
       </c>
+      <c r="Q55">
+        <v>1669202785000</v>
+      </c>
+      <c r="R55">
+        <v>1988153348200</v>
+      </c>
+      <c r="S55">
+        <v>112986500</v>
+      </c>
+      <c r="T55">
+        <v>138127000</v>
+      </c>
+      <c r="U55">
+        <v>41080496474.4</v>
+      </c>
+      <c r="V55">
+        <v>38840054543.8</v>
+      </c>
+      <c r="W55">
+        <v>87346175081</v>
+      </c>
+      <c r="X55">
+        <v>5724198.3</v>
+      </c>
+      <c r="Y55">
+        <v>2669761.2</v>
+      </c>
+      <c r="Z55">
+        <v>2565941.3</v>
+      </c>
+      <c r="AA55">
+        <v>103819.8</v>
+      </c>
+      <c r="AB55">
+        <v>2240441930.6</v>
+      </c>
+      <c r="AC55">
+        <v>1.7</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56">
@@ -3201,6 +5346,45 @@
       <c r="P56">
         <v>-297737035300</v>
       </c>
+      <c r="Q56">
+        <v>1709107629900</v>
+      </c>
+      <c r="R56">
+        <v>2006844665200</v>
+      </c>
+      <c r="S56">
+        <v>115155900</v>
+      </c>
+      <c r="T56">
+        <v>139334000</v>
+      </c>
+      <c r="U56">
+        <v>41080496474.4</v>
+      </c>
+      <c r="V56">
+        <v>38840054543.8</v>
+      </c>
+      <c r="W56">
+        <v>87346175081</v>
+      </c>
+      <c r="X56">
+        <v>5724198.3</v>
+      </c>
+      <c r="Y56">
+        <v>2669761.2</v>
+      </c>
+      <c r="Z56">
+        <v>2565941.3</v>
+      </c>
+      <c r="AA56">
+        <v>103819.8</v>
+      </c>
+      <c r="AB56">
+        <v>2240441930.6</v>
+      </c>
+      <c r="AC56">
+        <v>9.5</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57">
@@ -3251,6 +5435,45 @@
       <c r="P57">
         <v>-299341615900</v>
       </c>
+      <c r="Q57">
+        <v>1734739461700</v>
+      </c>
+      <c r="R57">
+        <v>2034081077600</v>
+      </c>
+      <c r="S57">
+        <v>116558000</v>
+      </c>
+      <c r="T57">
+        <v>140819200</v>
+      </c>
+      <c r="U57">
+        <v>41080496474.4</v>
+      </c>
+      <c r="V57">
+        <v>38840054543.8</v>
+      </c>
+      <c r="W57">
+        <v>87346175081</v>
+      </c>
+      <c r="X57">
+        <v>5724198.3</v>
+      </c>
+      <c r="Y57">
+        <v>2669761.2</v>
+      </c>
+      <c r="Z57">
+        <v>2565941.3</v>
+      </c>
+      <c r="AA57">
+        <v>103819.8</v>
+      </c>
+      <c r="AB57">
+        <v>2240441930.6</v>
+      </c>
+      <c r="AC57">
+        <v>0.7</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58">
@@ -3301,6 +5524,45 @@
       <c r="P58">
         <v>-332781490100</v>
       </c>
+      <c r="Q58">
+        <v>1758690052500</v>
+      </c>
+      <c r="R58">
+        <v>2091471542600</v>
+      </c>
+      <c r="S58">
+        <v>118104700</v>
+      </c>
+      <c r="T58">
+        <v>143844200</v>
+      </c>
+      <c r="U58">
+        <v>41080496474.4</v>
+      </c>
+      <c r="V58">
+        <v>38840054543.8</v>
+      </c>
+      <c r="W58">
+        <v>87346175081</v>
+      </c>
+      <c r="X58">
+        <v>5724198.3</v>
+      </c>
+      <c r="Y58">
+        <v>2669761.2</v>
+      </c>
+      <c r="Z58">
+        <v>2565941.3</v>
+      </c>
+      <c r="AA58">
+        <v>103819.8</v>
+      </c>
+      <c r="AB58">
+        <v>2240441930.6</v>
+      </c>
+      <c r="AC58">
+        <v>14.9</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59">
@@ -3351,6 +5613,45 @@
       <c r="P59">
         <v>-346398643100</v>
       </c>
+      <c r="Q59">
+        <v>1777835684000</v>
+      </c>
+      <c r="R59">
+        <v>2124234327100</v>
+      </c>
+      <c r="S59">
+        <v>119382800</v>
+      </c>
+      <c r="T59">
+        <v>145836400</v>
+      </c>
+      <c r="U59">
+        <v>41080496474.4</v>
+      </c>
+      <c r="V59">
+        <v>38840054543.8</v>
+      </c>
+      <c r="W59">
+        <v>87346175081</v>
+      </c>
+      <c r="X59">
+        <v>5724198.3</v>
+      </c>
+      <c r="Y59">
+        <v>2669761.2</v>
+      </c>
+      <c r="Z59">
+        <v>2565941.3</v>
+      </c>
+      <c r="AA59">
+        <v>103819.8</v>
+      </c>
+      <c r="AB59">
+        <v>2240441930.6</v>
+      </c>
+      <c r="AC59">
+        <v>6.1</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60">
@@ -3401,6 +5702,45 @@
       <c r="P60">
         <v>-338713217200</v>
       </c>
+      <c r="Q60">
+        <v>1802518414800</v>
+      </c>
+      <c r="R60">
+        <v>2141231632000</v>
+      </c>
+      <c r="S60">
+        <v>120885200</v>
+      </c>
+      <c r="T60">
+        <v>146893000</v>
+      </c>
+      <c r="U60">
+        <v>41080496474.4</v>
+      </c>
+      <c r="V60">
+        <v>38840054543.8</v>
+      </c>
+      <c r="W60">
+        <v>87346175081</v>
+      </c>
+      <c r="X60">
+        <v>5724198.3</v>
+      </c>
+      <c r="Y60">
+        <v>2669761.2</v>
+      </c>
+      <c r="Z60">
+        <v>2565941.3</v>
+      </c>
+      <c r="AA60">
+        <v>103819.8</v>
+      </c>
+      <c r="AB60">
+        <v>2240441930.6</v>
+      </c>
+      <c r="AC60">
+        <v>3.4</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61">
@@ -3451,6 +5791,45 @@
       <c r="P61">
         <v>-324952331000</v>
       </c>
+      <c r="Q61">
+        <v>1828730813000</v>
+      </c>
+      <c r="R61">
+        <v>2153683144000</v>
+      </c>
+      <c r="S61">
+        <v>122657300</v>
+      </c>
+      <c r="T61">
+        <v>147663400</v>
+      </c>
+      <c r="U61">
+        <v>41080496474.4</v>
+      </c>
+      <c r="V61">
+        <v>38840054543.8</v>
+      </c>
+      <c r="W61">
+        <v>87346175081</v>
+      </c>
+      <c r="X61">
+        <v>5724198.3</v>
+      </c>
+      <c r="Y61">
+        <v>2669761.2</v>
+      </c>
+      <c r="Z61">
+        <v>2565941.3</v>
+      </c>
+      <c r="AA61">
+        <v>103819.8</v>
+      </c>
+      <c r="AB61">
+        <v>2240441930.6</v>
+      </c>
+      <c r="AC61">
+        <v>6.1</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62">
@@ -3501,6 +5880,45 @@
       <c r="P62">
         <v>-306102950400</v>
       </c>
+      <c r="Q62">
+        <v>1862646498200</v>
+      </c>
+      <c r="R62">
+        <v>2168749448600</v>
+      </c>
+      <c r="S62">
+        <v>125013900</v>
+      </c>
+      <c r="T62">
+        <v>148490500</v>
+      </c>
+      <c r="U62">
+        <v>41080496474.4</v>
+      </c>
+      <c r="V62">
+        <v>38840054543.8</v>
+      </c>
+      <c r="W62">
+        <v>87346175081</v>
+      </c>
+      <c r="X62">
+        <v>5724198.3</v>
+      </c>
+      <c r="Y62">
+        <v>2669761.2</v>
+      </c>
+      <c r="Z62">
+        <v>2565941.3</v>
+      </c>
+      <c r="AA62">
+        <v>103819.8</v>
+      </c>
+      <c r="AB62">
+        <v>2240441930.6</v>
+      </c>
+      <c r="AC62">
+        <v>8.4</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63">
@@ -3551,6 +5969,45 @@
       <c r="P63">
         <v>-280336757000</v>
       </c>
+      <c r="Q63">
+        <v>1900044217400</v>
+      </c>
+      <c r="R63">
+        <v>2180380974400</v>
+      </c>
+      <c r="S63">
+        <v>127345500</v>
+      </c>
+      <c r="T63">
+        <v>149258700</v>
+      </c>
+      <c r="U63">
+        <v>41080496474.4</v>
+      </c>
+      <c r="V63">
+        <v>38840054543.8</v>
+      </c>
+      <c r="W63">
+        <v>87346175081</v>
+      </c>
+      <c r="X63">
+        <v>5724198.3</v>
+      </c>
+      <c r="Y63">
+        <v>2669761.2</v>
+      </c>
+      <c r="Z63">
+        <v>2565941.3</v>
+      </c>
+      <c r="AA63">
+        <v>103819.8</v>
+      </c>
+      <c r="AB63">
+        <v>2240441930.6</v>
+      </c>
+      <c r="AC63">
+        <v>11.5</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64">
@@ -3601,6 +6058,45 @@
       <c r="P64">
         <v>-236363016100</v>
       </c>
+      <c r="Q64">
+        <v>1957982109000</v>
+      </c>
+      <c r="R64">
+        <v>2194345125100</v>
+      </c>
+      <c r="S64">
+        <v>132094000</v>
+      </c>
+      <c r="T64">
+        <v>150116900</v>
+      </c>
+      <c r="U64">
+        <v>41080496474.4</v>
+      </c>
+      <c r="V64">
+        <v>38840054543.8</v>
+      </c>
+      <c r="W64">
+        <v>87346175081</v>
+      </c>
+      <c r="X64">
+        <v>5724198.3</v>
+      </c>
+      <c r="Y64">
+        <v>2669761.2</v>
+      </c>
+      <c r="Z64">
+        <v>2565941.3</v>
+      </c>
+      <c r="AA64">
+        <v>103819.8</v>
+      </c>
+      <c r="AB64">
+        <v>2240441930.6</v>
+      </c>
+      <c r="AC64">
+        <v>19.6</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65">
@@ -3651,6 +6147,45 @@
       <c r="P65">
         <v>-184885952200</v>
       </c>
+      <c r="Q65">
+        <v>2023257130300</v>
+      </c>
+      <c r="R65">
+        <v>2208143082500</v>
+      </c>
+      <c r="S65">
+        <v>137076300</v>
+      </c>
+      <c r="T65">
+        <v>150982600</v>
+      </c>
+      <c r="U65">
+        <v>41080496474.4</v>
+      </c>
+      <c r="V65">
+        <v>38840054543.8</v>
+      </c>
+      <c r="W65">
+        <v>87346175081</v>
+      </c>
+      <c r="X65">
+        <v>5724198.3</v>
+      </c>
+      <c r="Y65">
+        <v>2669761.2</v>
+      </c>
+      <c r="Z65">
+        <v>2565941.3</v>
+      </c>
+      <c r="AA65">
+        <v>103819.8</v>
+      </c>
+      <c r="AB65">
+        <v>2240441930.6</v>
+      </c>
+      <c r="AC65">
+        <v>23</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66">
@@ -3701,6 +6236,45 @@
       <c r="P66">
         <v>-157271550900</v>
       </c>
+      <c r="Q66">
+        <v>2076217751900</v>
+      </c>
+      <c r="R66">
+        <v>2233489302800</v>
+      </c>
+      <c r="S66">
+        <v>140809800</v>
+      </c>
+      <c r="T66">
+        <v>152858400</v>
+      </c>
+      <c r="U66">
+        <v>41080496474.4</v>
+      </c>
+      <c r="V66">
+        <v>38840054543.8</v>
+      </c>
+      <c r="W66">
+        <v>87346175081</v>
+      </c>
+      <c r="X66">
+        <v>5724198.3</v>
+      </c>
+      <c r="Y66">
+        <v>2669761.2</v>
+      </c>
+      <c r="Z66">
+        <v>2565941.3</v>
+      </c>
+      <c r="AA66">
+        <v>103819.8</v>
+      </c>
+      <c r="AB66">
+        <v>2240441930.6</v>
+      </c>
+      <c r="AC66">
+        <v>12.3</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67">
@@ -3751,6 +6325,45 @@
       <c r="P67">
         <v>-145383842000</v>
       </c>
+      <c r="Q67">
+        <v>2108622125000</v>
+      </c>
+      <c r="R67">
+        <v>2254005967000</v>
+      </c>
+      <c r="S67">
+        <v>142730000</v>
+      </c>
+      <c r="T67">
+        <v>154268500</v>
+      </c>
+      <c r="U67">
+        <v>41080496474.4</v>
+      </c>
+      <c r="V67">
+        <v>38840054543.8</v>
+      </c>
+      <c r="W67">
+        <v>87346175081</v>
+      </c>
+      <c r="X67">
+        <v>5724198.3</v>
+      </c>
+      <c r="Y67">
+        <v>2669761.2</v>
+      </c>
+      <c r="Z67">
+        <v>2565941.3</v>
+      </c>
+      <c r="AA67">
+        <v>103819.8</v>
+      </c>
+      <c r="AB67">
+        <v>2240441930.6</v>
+      </c>
+      <c r="AC67">
+        <v>5.3</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68">
@@ -3801,6 +6414,45 @@
       <c r="P68">
         <v>-126753111500</v>
       </c>
+      <c r="Q68">
+        <v>2149579114000</v>
+      </c>
+      <c r="R68">
+        <v>2276332225500</v>
+      </c>
+      <c r="S68">
+        <v>145302200</v>
+      </c>
+      <c r="T68">
+        <v>155727400</v>
+      </c>
+      <c r="U68">
+        <v>41080496474.4</v>
+      </c>
+      <c r="V68">
+        <v>38840054543.8</v>
+      </c>
+      <c r="W68">
+        <v>87346175081</v>
+      </c>
+      <c r="X68">
+        <v>5724198.3</v>
+      </c>
+      <c r="Y68">
+        <v>2669761.2</v>
+      </c>
+      <c r="Z68">
+        <v>2565941.3</v>
+      </c>
+      <c r="AA68">
+        <v>103819.8</v>
+      </c>
+      <c r="AB68">
+        <v>2240441930.6</v>
+      </c>
+      <c r="AC68">
+        <v>8.3</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69">
@@ -3851,6 +6503,45 @@
       <c r="P69">
         <v>-100991460700</v>
       </c>
+      <c r="Q69">
+        <v>2186318620000</v>
+      </c>
+      <c r="R69">
+        <v>2287310080700</v>
+      </c>
+      <c r="S69">
+        <v>147936600</v>
+      </c>
+      <c r="T69">
+        <v>156428400</v>
+      </c>
+      <c r="U69">
+        <v>41080496474.4</v>
+      </c>
+      <c r="V69">
+        <v>38840054543.8</v>
+      </c>
+      <c r="W69">
+        <v>87346175081</v>
+      </c>
+      <c r="X69">
+        <v>5724198.3</v>
+      </c>
+      <c r="Y69">
+        <v>2669761.2</v>
+      </c>
+      <c r="Z69">
+        <v>2565941.3</v>
+      </c>
+      <c r="AA69">
+        <v>103819.8</v>
+      </c>
+      <c r="AB69">
+        <v>2240441930.6</v>
+      </c>
+      <c r="AC69">
+        <v>11.5</v>
+      </c>
     </row>
     <row r="70">
       <c r="A70">
@@ -3901,6 +6592,45 @@
       <c r="P70">
         <v>-89336022700</v>
       </c>
+      <c r="Q70">
+        <v>2224342007300</v>
+      </c>
+      <c r="R70">
+        <v>2313678030000</v>
+      </c>
+      <c r="S70">
+        <v>150305700</v>
+      </c>
+      <c r="T70">
+        <v>158091600</v>
+      </c>
+      <c r="U70">
+        <v>41080496474.4</v>
+      </c>
+      <c r="V70">
+        <v>38840054543.8</v>
+      </c>
+      <c r="W70">
+        <v>87346175081</v>
+      </c>
+      <c r="X70">
+        <v>5724198.3</v>
+      </c>
+      <c r="Y70">
+        <v>2669761.2</v>
+      </c>
+      <c r="Z70">
+        <v>2565941.3</v>
+      </c>
+      <c r="AA70">
+        <v>103819.8</v>
+      </c>
+      <c r="AB70">
+        <v>2240441930.6</v>
+      </c>
+      <c r="AC70">
+        <v>5.2</v>
+      </c>
     </row>
     <row r="71">
       <c r="A71">
@@ -3951,6 +6681,45 @@
       <c r="P71">
         <v>-75738984300</v>
       </c>
+      <c r="Q71">
+        <v>2257644674700</v>
+      </c>
+      <c r="R71">
+        <v>2333383659000</v>
+      </c>
+      <c r="S71">
+        <v>152441200</v>
+      </c>
+      <c r="T71">
+        <v>159170600</v>
+      </c>
+      <c r="U71">
+        <v>41080496474.4</v>
+      </c>
+      <c r="V71">
+        <v>38840054543.8</v>
+      </c>
+      <c r="W71">
+        <v>87346175081</v>
+      </c>
+      <c r="X71">
+        <v>5724198.3</v>
+      </c>
+      <c r="Y71">
+        <v>2669761.2</v>
+      </c>
+      <c r="Z71">
+        <v>2565941.3</v>
+      </c>
+      <c r="AA71">
+        <v>103819.8</v>
+      </c>
+      <c r="AB71">
+        <v>2240441930.6</v>
+      </c>
+      <c r="AC71">
+        <v>6.1</v>
+      </c>
     </row>
     <row r="72">
       <c r="A72">
@@ -4001,6 +6770,45 @@
       <c r="P72">
         <v>13830414400</v>
       </c>
+      <c r="Q72">
+        <v>2373505015000</v>
+      </c>
+      <c r="R72">
+        <v>2359674600600</v>
+      </c>
+      <c r="S72">
+        <v>159952500</v>
+      </c>
+      <c r="T72">
+        <v>160929700</v>
+      </c>
+      <c r="U72">
+        <v>41080496474.4</v>
+      </c>
+      <c r="V72">
+        <v>38840054543.8</v>
+      </c>
+      <c r="W72">
+        <v>87346175081</v>
+      </c>
+      <c r="X72">
+        <v>5724198.3</v>
+      </c>
+      <c r="Y72">
+        <v>2669761.2</v>
+      </c>
+      <c r="Z72">
+        <v>2565941.3</v>
+      </c>
+      <c r="AA72">
+        <v>103819.8</v>
+      </c>
+      <c r="AB72">
+        <v>2240441930.6</v>
+      </c>
+      <c r="AC72">
+        <v>40</v>
+      </c>
     </row>
     <row r="73">
       <c r="A73">
@@ -4051,6 +6859,45 @@
       <c r="P73">
         <v>15063771400</v>
       </c>
+      <c r="Q73">
+        <v>2374912880000</v>
+      </c>
+      <c r="R73">
+        <v>2359849108600</v>
+      </c>
+      <c r="S73">
+        <v>160045200</v>
+      </c>
+      <c r="T73">
+        <v>160937000</v>
+      </c>
+      <c r="U73">
+        <v>41080496474.4</v>
+      </c>
+      <c r="V73">
+        <v>38840054543.8</v>
+      </c>
+      <c r="W73">
+        <v>87346175081</v>
+      </c>
+      <c r="X73">
+        <v>5724198.3</v>
+      </c>
+      <c r="Y73">
+        <v>2669761.2</v>
+      </c>
+      <c r="Z73">
+        <v>2565941.3</v>
+      </c>
+      <c r="AA73">
+        <v>103819.8</v>
+      </c>
+      <c r="AB73">
+        <v>2240441930.6</v>
+      </c>
+      <c r="AC73">
+        <v>0.6</v>
+      </c>
     </row>
     <row r="74">
       <c r="A74">
@@ -4101,6 +6948,45 @@
       <c r="P74">
         <v>52851318800</v>
       </c>
+      <c r="Q74">
+        <v>2570151830800</v>
+      </c>
+      <c r="R74">
+        <v>2517300512000</v>
+      </c>
+      <c r="S74">
+        <v>174011500</v>
+      </c>
+      <c r="T74">
+        <v>171694300</v>
+      </c>
+      <c r="U74">
+        <v>41080496474.4</v>
+      </c>
+      <c r="V74">
+        <v>38840054543.8</v>
+      </c>
+      <c r="W74">
+        <v>87346175081</v>
+      </c>
+      <c r="X74">
+        <v>5724198.3</v>
+      </c>
+      <c r="Y74">
+        <v>2669761.2</v>
+      </c>
+      <c r="Z74">
+        <v>2565941.3</v>
+      </c>
+      <c r="AA74">
+        <v>103819.8</v>
+      </c>
+      <c r="AB74">
+        <v>2240441930.6</v>
+      </c>
+      <c r="AC74">
+        <v>16.9</v>
+      </c>
     </row>
     <row r="75">
       <c r="A75">
@@ -4151,6 +7037,45 @@
       <c r="P75">
         <v>149545374300</v>
       </c>
+      <c r="Q75">
+        <v>2704584684600</v>
+      </c>
+      <c r="R75">
+        <v>2555039310300</v>
+      </c>
+      <c r="S75">
+        <v>181414000</v>
+      </c>
+      <c r="T75">
+        <v>173931800</v>
+      </c>
+      <c r="U75">
+        <v>41080496474.4</v>
+      </c>
+      <c r="V75">
+        <v>38840054543.8</v>
+      </c>
+      <c r="W75">
+        <v>87346175081</v>
+      </c>
+      <c r="X75">
+        <v>5724198.3</v>
+      </c>
+      <c r="Y75">
+        <v>2669761.2</v>
+      </c>
+      <c r="Z75">
+        <v>2565941.3</v>
+      </c>
+      <c r="AA75">
+        <v>103819.8</v>
+      </c>
+      <c r="AB75">
+        <v>2240441930.6</v>
+      </c>
+      <c r="AC75">
+        <v>43.2</v>
+      </c>
     </row>
     <row r="76">
       <c r="A76">
@@ -4201,6 +7126,45 @@
       <c r="P76">
         <v>221933371500</v>
       </c>
+      <c r="Q76">
+        <v>2835001339800</v>
+      </c>
+      <c r="R76">
+        <v>2613067968300</v>
+      </c>
+      <c r="S76">
+        <v>189120500</v>
+      </c>
+      <c r="T76">
+        <v>177737300</v>
+      </c>
+      <c r="U76">
+        <v>41080496474.4</v>
+      </c>
+      <c r="V76">
+        <v>38840054543.8</v>
+      </c>
+      <c r="W76">
+        <v>87346175081</v>
+      </c>
+      <c r="X76">
+        <v>5724198.3</v>
+      </c>
+      <c r="Y76">
+        <v>2669761.2</v>
+      </c>
+      <c r="Z76">
+        <v>2565941.3</v>
+      </c>
+      <c r="AA76">
+        <v>103819.8</v>
+      </c>
+      <c r="AB76">
+        <v>2240441930.6</v>
+      </c>
+      <c r="AC76">
+        <v>32.3</v>
+      </c>
     </row>
     <row r="77">
       <c r="A77">
@@ -4251,6 +7215,45 @@
       <c r="P77">
         <v>208863984900</v>
       </c>
+      <c r="Q77">
+        <v>2915900482300</v>
+      </c>
+      <c r="R77">
+        <v>2707036497400</v>
+      </c>
+      <c r="S77">
+        <v>194776500</v>
+      </c>
+      <c r="T77">
+        <v>183923500</v>
+      </c>
+      <c r="U77">
+        <v>41080496474.4</v>
+      </c>
+      <c r="V77">
+        <v>38840054543.8</v>
+      </c>
+      <c r="W77">
+        <v>87346175081</v>
+      </c>
+      <c r="X77">
+        <v>5724198.3</v>
+      </c>
+      <c r="Y77">
+        <v>2669761.2</v>
+      </c>
+      <c r="Z77">
+        <v>2565941.3</v>
+      </c>
+      <c r="AA77">
+        <v>103819.8</v>
+      </c>
+      <c r="AB77">
+        <v>2240441930.6</v>
+      </c>
+      <c r="AC77">
+        <v>5.8</v>
+      </c>
     </row>
     <row r="78">
       <c r="A78">
@@ -4301,6 +7304,45 @@
       <c r="P78">
         <v>179939092800</v>
       </c>
+      <c r="Q78">
+        <v>2966296515100</v>
+      </c>
+      <c r="R78">
+        <v>2786357422300</v>
+      </c>
+      <c r="S78">
+        <v>197994400</v>
+      </c>
+      <c r="T78">
+        <v>189683700</v>
+      </c>
+      <c r="U78">
+        <v>41080496474.4</v>
+      </c>
+      <c r="V78">
+        <v>38840054543.8</v>
+      </c>
+      <c r="W78">
+        <v>87346175081</v>
+      </c>
+      <c r="X78">
+        <v>5724198.3</v>
+      </c>
+      <c r="Y78">
+        <v>2669761.2</v>
+      </c>
+      <c r="Z78">
+        <v>2565941.3</v>
+      </c>
+      <c r="AA78">
+        <v>103819.8</v>
+      </c>
+      <c r="AB78">
+        <v>2240441930.6</v>
+      </c>
+      <c r="AC78">
+        <v>12.9</v>
+      </c>
     </row>
     <row r="79">
       <c r="A79">
@@ -4351,6 +7393,45 @@
       <c r="P79">
         <v>149885776900</v>
       </c>
+      <c r="Q79">
+        <v>2997084092100</v>
+      </c>
+      <c r="R79">
+        <v>2847198315200</v>
+      </c>
+      <c r="S79">
+        <v>199864700</v>
+      </c>
+      <c r="T79">
+        <v>193558600</v>
+      </c>
+      <c r="U79">
+        <v>41080496474.4</v>
+      </c>
+      <c r="V79">
+        <v>38840054543.8</v>
+      </c>
+      <c r="W79">
+        <v>87346175081</v>
+      </c>
+      <c r="X79">
+        <v>5724198.3</v>
+      </c>
+      <c r="Y79">
+        <v>2669761.2</v>
+      </c>
+      <c r="Z79">
+        <v>2565941.3</v>
+      </c>
+      <c r="AA79">
+        <v>103819.8</v>
+      </c>
+      <c r="AB79">
+        <v>2240441930.6</v>
+      </c>
+      <c r="AC79">
+        <v>13.4</v>
+      </c>
     </row>
     <row r="80">
       <c r="A80">
@@ -4401,6 +7482,45 @@
       <c r="P80">
         <v>137026253500</v>
       </c>
+      <c r="Q80">
+        <v>3036252748400</v>
+      </c>
+      <c r="R80">
+        <v>2899226494900</v>
+      </c>
+      <c r="S80">
+        <v>202314500</v>
+      </c>
+      <c r="T80">
+        <v>196666000</v>
+      </c>
+      <c r="U80">
+        <v>41080496474.4</v>
+      </c>
+      <c r="V80">
+        <v>38840054543.8</v>
+      </c>
+      <c r="W80">
+        <v>87346175081</v>
+      </c>
+      <c r="X80">
+        <v>5724198.3</v>
+      </c>
+      <c r="Y80">
+        <v>2669761.2</v>
+      </c>
+      <c r="Z80">
+        <v>2565941.3</v>
+      </c>
+      <c r="AA80">
+        <v>103819.8</v>
+      </c>
+      <c r="AB80">
+        <v>2240441930.6</v>
+      </c>
+      <c r="AC80">
+        <v>5.7</v>
+      </c>
     </row>
     <row r="81">
       <c r="A81">
@@ -4451,6 +7571,45 @@
       <c r="P81">
         <v>102823035200</v>
       </c>
+      <c r="Q81">
+        <v>3065118014800</v>
+      </c>
+      <c r="R81">
+        <v>2962294979600</v>
+      </c>
+      <c r="S81">
+        <v>204350800</v>
+      </c>
+      <c r="T81">
+        <v>200784400</v>
+      </c>
+      <c r="U81">
+        <v>41080496474.4</v>
+      </c>
+      <c r="V81">
+        <v>38840054543.8</v>
+      </c>
+      <c r="W81">
+        <v>87346175081</v>
+      </c>
+      <c r="X81">
+        <v>5724198.3</v>
+      </c>
+      <c r="Y81">
+        <v>2669761.2</v>
+      </c>
+      <c r="Z81">
+        <v>2565941.3</v>
+      </c>
+      <c r="AA81">
+        <v>103819.8</v>
+      </c>
+      <c r="AB81">
+        <v>2240441930.6</v>
+      </c>
+      <c r="AC81">
+        <v>15.3</v>
+      </c>
     </row>
     <row r="82">
       <c r="A82">
@@ -4501,6 +7660,45 @@
       <c r="P82">
         <v>88911810300</v>
       </c>
+      <c r="Q82">
+        <v>3102326118100</v>
+      </c>
+      <c r="R82">
+        <v>3013414307800</v>
+      </c>
+      <c r="S82">
+        <v>206647400</v>
+      </c>
+      <c r="T82">
+        <v>203975000</v>
+      </c>
+      <c r="U82">
+        <v>41080496474.4</v>
+      </c>
+      <c r="V82">
+        <v>38840054543.8</v>
+      </c>
+      <c r="W82">
+        <v>87346175081</v>
+      </c>
+      <c r="X82">
+        <v>5724198.3</v>
+      </c>
+      <c r="Y82">
+        <v>2669761.2</v>
+      </c>
+      <c r="Z82">
+        <v>2565941.3</v>
+      </c>
+      <c r="AA82">
+        <v>103819.8</v>
+      </c>
+      <c r="AB82">
+        <v>2240441930.6</v>
+      </c>
+      <c r="AC82">
+        <v>6.2</v>
+      </c>
     </row>
     <row r="83">
       <c r="A83">
@@ -4551,6 +7749,45 @@
       <c r="P83">
         <v>80531047500</v>
       </c>
+      <c r="Q83">
+        <v>3141334724500</v>
+      </c>
+      <c r="R83">
+        <v>3060803677000</v>
+      </c>
+      <c r="S83">
+        <v>208724000</v>
+      </c>
+      <c r="T83">
+        <v>206641800</v>
+      </c>
+      <c r="U83">
+        <v>41080496474.4</v>
+      </c>
+      <c r="V83">
+        <v>38840054543.8</v>
+      </c>
+      <c r="W83">
+        <v>87346175081</v>
+      </c>
+      <c r="X83">
+        <v>5724198.3</v>
+      </c>
+      <c r="Y83">
+        <v>2669761.2</v>
+      </c>
+      <c r="Z83">
+        <v>2565941.3</v>
+      </c>
+      <c r="AA83">
+        <v>103819.8</v>
+      </c>
+      <c r="AB83">
+        <v>2240441930.6</v>
+      </c>
+      <c r="AC83">
+        <v>3.7</v>
+      </c>
     </row>
     <row r="84">
       <c r="A84">
@@ -4601,6 +7838,45 @@
       <c r="P84">
         <v>53143873500</v>
       </c>
+      <c r="Q84">
+        <v>3164205722900</v>
+      </c>
+      <c r="R84">
+        <v>3111061849400</v>
+      </c>
+      <c r="S84">
+        <v>209976100</v>
+      </c>
+      <c r="T84">
+        <v>209676300</v>
+      </c>
+      <c r="U84">
+        <v>41080496474.4</v>
+      </c>
+      <c r="V84">
+        <v>38840054543.8</v>
+      </c>
+      <c r="W84">
+        <v>87346175081</v>
+      </c>
+      <c r="X84">
+        <v>5724198.3</v>
+      </c>
+      <c r="Y84">
+        <v>2669761.2</v>
+      </c>
+      <c r="Z84">
+        <v>2565941.3</v>
+      </c>
+      <c r="AA84">
+        <v>103819.8</v>
+      </c>
+      <c r="AB84">
+        <v>2240441930.6</v>
+      </c>
+      <c r="AC84">
+        <v>12.2</v>
+      </c>
     </row>
     <row r="85">
       <c r="A85">
@@ -4651,6 +7927,45 @@
       <c r="P85">
         <v>39311220400</v>
       </c>
+      <c r="Q85">
+        <v>3205559123400</v>
+      </c>
+      <c r="R85">
+        <v>3166247903000</v>
+      </c>
+      <c r="S85">
+        <v>212044600</v>
+      </c>
+      <c r="T85">
+        <v>212841500</v>
+      </c>
+      <c r="U85">
+        <v>41080496474.4</v>
+      </c>
+      <c r="V85">
+        <v>38840054543.8</v>
+      </c>
+      <c r="W85">
+        <v>87346175081</v>
+      </c>
+      <c r="X85">
+        <v>5724198.3</v>
+      </c>
+      <c r="Y85">
+        <v>2669761.2</v>
+      </c>
+      <c r="Z85">
+        <v>2565941.3</v>
+      </c>
+      <c r="AA85">
+        <v>103819.8</v>
+      </c>
+      <c r="AB85">
+        <v>2240441930.6</v>
+      </c>
+      <c r="AC85">
+        <v>6.2</v>
+      </c>
     </row>
     <row r="86">
       <c r="A86">
@@ -4701,6 +8016,45 @@
       <c r="P86">
         <v>10229948000</v>
       </c>
+      <c r="Q86">
+        <v>3229993923800</v>
+      </c>
+      <c r="R86">
+        <v>3219763975800</v>
+      </c>
+      <c r="S86">
+        <v>213561900</v>
+      </c>
+      <c r="T86">
+        <v>216050100</v>
+      </c>
+      <c r="U86">
+        <v>41080496474.4</v>
+      </c>
+      <c r="V86">
+        <v>38840054543.8</v>
+      </c>
+      <c r="W86">
+        <v>87346175081</v>
+      </c>
+      <c r="X86">
+        <v>5724198.3</v>
+      </c>
+      <c r="Y86">
+        <v>2669761.2</v>
+      </c>
+      <c r="Z86">
+        <v>2565941.3</v>
+      </c>
+      <c r="AA86">
+        <v>103819.8</v>
+      </c>
+      <c r="AB86">
+        <v>2240441930.6</v>
+      </c>
+      <c r="AC86">
+        <v>13</v>
+      </c>
     </row>
     <row r="87">
       <c r="A87">
@@ -4751,6 +8105,45 @@
       <c r="P87">
         <v>-25795152600</v>
       </c>
+      <c r="Q87">
+        <v>3248527284000</v>
+      </c>
+      <c r="R87">
+        <v>3274322436600</v>
+      </c>
+      <c r="S87">
+        <v>214669400</v>
+      </c>
+      <c r="T87">
+        <v>219320600</v>
+      </c>
+      <c r="U87">
+        <v>41080496474.4</v>
+      </c>
+      <c r="V87">
+        <v>38840054543.8</v>
+      </c>
+      <c r="W87">
+        <v>87346175081</v>
+      </c>
+      <c r="X87">
+        <v>5724198.3</v>
+      </c>
+      <c r="Y87">
+        <v>2669761.2</v>
+      </c>
+      <c r="Z87">
+        <v>2565941.3</v>
+      </c>
+      <c r="AA87">
+        <v>103819.8</v>
+      </c>
+      <c r="AB87">
+        <v>2240441930.6</v>
+      </c>
+      <c r="AC87">
+        <v>16.1</v>
+      </c>
     </row>
     <row r="88">
       <c r="A88">
@@ -4801,6 +8194,45 @@
       <c r="P88">
         <v>-34231477300</v>
       </c>
+      <c r="Q88">
+        <v>3284770680800</v>
+      </c>
+      <c r="R88">
+        <v>3319002158100</v>
+      </c>
+      <c r="S88">
+        <v>216651700</v>
+      </c>
+      <c r="T88">
+        <v>221816200</v>
+      </c>
+      <c r="U88">
+        <v>41080496474.4</v>
+      </c>
+      <c r="V88">
+        <v>38840054543.8</v>
+      </c>
+      <c r="W88">
+        <v>87346175081</v>
+      </c>
+      <c r="X88">
+        <v>5724198.3</v>
+      </c>
+      <c r="Y88">
+        <v>2669761.2</v>
+      </c>
+      <c r="Z88">
+        <v>2565941.3</v>
+      </c>
+      <c r="AA88">
+        <v>103819.8</v>
+      </c>
+      <c r="AB88">
+        <v>2240441930.6</v>
+      </c>
+      <c r="AC88">
+        <v>3.8</v>
+      </c>
     </row>
     <row r="89">
       <c r="A89">
@@ -4851,6 +8283,45 @@
       <c r="P89">
         <v>-9920325200</v>
       </c>
+      <c r="Q89">
+        <v>3337517850400</v>
+      </c>
+      <c r="R89">
+        <v>3347438175600</v>
+      </c>
+      <c r="S89">
+        <v>219418600</v>
+      </c>
+      <c r="T89">
+        <v>223560700</v>
+      </c>
+      <c r="U89">
+        <v>41080496474.4</v>
+      </c>
+      <c r="V89">
+        <v>38840054543.8</v>
+      </c>
+      <c r="W89">
+        <v>87346175081</v>
+      </c>
+      <c r="X89">
+        <v>5724198.3</v>
+      </c>
+      <c r="Y89">
+        <v>2669761.2</v>
+      </c>
+      <c r="Z89">
+        <v>2565941.3</v>
+      </c>
+      <c r="AA89">
+        <v>103819.8</v>
+      </c>
+      <c r="AB89">
+        <v>2240441930.6</v>
+      </c>
+      <c r="AC89">
+        <v>10.9</v>
+      </c>
     </row>
     <row r="90">
       <c r="A90">
@@ -4901,6 +8372,45 @@
       <c r="P90">
         <v>64617064900</v>
       </c>
+      <c r="Q90">
+        <v>3428338259700</v>
+      </c>
+      <c r="R90">
+        <v>3363721194800</v>
+      </c>
+      <c r="S90">
+        <v>225307500</v>
+      </c>
+      <c r="T90">
+        <v>224539700</v>
+      </c>
+      <c r="U90">
+        <v>41080496474.4</v>
+      </c>
+      <c r="V90">
+        <v>38840054543.8</v>
+      </c>
+      <c r="W90">
+        <v>87346175081</v>
+      </c>
+      <c r="X90">
+        <v>5724198.3</v>
+      </c>
+      <c r="Y90">
+        <v>2669761.2</v>
+      </c>
+      <c r="Z90">
+        <v>2565941.3</v>
+      </c>
+      <c r="AA90">
+        <v>103819.8</v>
+      </c>
+      <c r="AB90">
+        <v>2240441930.6</v>
+      </c>
+      <c r="AC90">
+        <v>33.3</v>
+      </c>
     </row>
     <row r="91">
       <c r="A91">
@@ -4951,6 +8461,45 @@
       <c r="P91">
         <v>98513256900</v>
       </c>
+      <c r="Q91">
+        <v>3488671038900</v>
+      </c>
+      <c r="R91">
+        <v>3390157782000</v>
+      </c>
+      <c r="S91">
+        <v>229806200</v>
+      </c>
+      <c r="T91">
+        <v>226002400</v>
+      </c>
+      <c r="U91">
+        <v>41080496474.4</v>
+      </c>
+      <c r="V91">
+        <v>38840054543.8</v>
+      </c>
+      <c r="W91">
+        <v>87346175081</v>
+      </c>
+      <c r="X91">
+        <v>5724198.3</v>
+      </c>
+      <c r="Y91">
+        <v>2669761.2</v>
+      </c>
+      <c r="Z91">
+        <v>2565941.3</v>
+      </c>
+      <c r="AA91">
+        <v>103819.8</v>
+      </c>
+      <c r="AB91">
+        <v>2240441930.6</v>
+      </c>
+      <c r="AC91">
+        <v>15.1</v>
+      </c>
     </row>
     <row r="92">
       <c r="A92">
@@ -5001,6 +8550,45 @@
       <c r="P92">
         <v>82907555400</v>
       </c>
+      <c r="Q92">
+        <v>3519555639800</v>
+      </c>
+      <c r="R92">
+        <v>3436648084400</v>
+      </c>
+      <c r="S92">
+        <v>232325800</v>
+      </c>
+      <c r="T92">
+        <v>228761800</v>
+      </c>
+      <c r="U92">
+        <v>41080496474.4</v>
+      </c>
+      <c r="V92">
+        <v>38840054543.8</v>
+      </c>
+      <c r="W92">
+        <v>87346175081</v>
+      </c>
+      <c r="X92">
+        <v>5724198.3</v>
+      </c>
+      <c r="Y92">
+        <v>2669761.2</v>
+      </c>
+      <c r="Z92">
+        <v>2565941.3</v>
+      </c>
+      <c r="AA92">
+        <v>103819.8</v>
+      </c>
+      <c r="AB92">
+        <v>2240441930.6</v>
+      </c>
+      <c r="AC92">
+        <v>7</v>
+      </c>
     </row>
     <row r="93">
       <c r="A93">
@@ -5051,6 +8639,45 @@
       <c r="P93">
         <v>32584540700</v>
       </c>
+      <c r="Q93">
+        <v>3538142412200</v>
+      </c>
+      <c r="R93">
+        <v>3505557871500</v>
+      </c>
+      <c r="S93">
+        <v>233487500</v>
+      </c>
+      <c r="T93">
+        <v>232779200</v>
+      </c>
+      <c r="U93">
+        <v>41080496474.4</v>
+      </c>
+      <c r="V93">
+        <v>38840054543.8</v>
+      </c>
+      <c r="W93">
+        <v>87346175081</v>
+      </c>
+      <c r="X93">
+        <v>5724198.3</v>
+      </c>
+      <c r="Y93">
+        <v>2669761.2</v>
+      </c>
+      <c r="Z93">
+        <v>2565941.3</v>
+      </c>
+      <c r="AA93">
+        <v>103819.8</v>
+      </c>
+      <c r="AB93">
+        <v>2240441930.6</v>
+      </c>
+      <c r="AC93">
+        <v>22.5</v>
+      </c>
     </row>
     <row r="94">
       <c r="A94">
@@ -5101,6 +8728,45 @@
       <c r="P94">
         <v>19968768100</v>
       </c>
+      <c r="Q94">
+        <v>3559858838000</v>
+      </c>
+      <c r="R94">
+        <v>3539890069900</v>
+      </c>
+      <c r="S94">
+        <v>234731400</v>
+      </c>
+      <c r="T94">
+        <v>234964400</v>
+      </c>
+      <c r="U94">
+        <v>41080496474.4</v>
+      </c>
+      <c r="V94">
+        <v>38840054543.8</v>
+      </c>
+      <c r="W94">
+        <v>87346175081</v>
+      </c>
+      <c r="X94">
+        <v>5724198.3</v>
+      </c>
+      <c r="Y94">
+        <v>2669761.2</v>
+      </c>
+      <c r="Z94">
+        <v>2565941.3</v>
+      </c>
+      <c r="AA94">
+        <v>103819.8</v>
+      </c>
+      <c r="AB94">
+        <v>2240441930.6</v>
+      </c>
+      <c r="AC94">
+        <v>5.6</v>
+      </c>
     </row>
     <row r="95">
       <c r="A95">
@@ -5151,6 +8817,45 @@
       <c r="P95">
         <v>8431322100</v>
       </c>
+      <c r="Q95">
+        <v>3585248013900</v>
+      </c>
+      <c r="R95">
+        <v>3576816691800</v>
+      </c>
+      <c r="S95">
+        <v>236269700</v>
+      </c>
+      <c r="T95">
+        <v>237336700</v>
+      </c>
+      <c r="U95">
+        <v>41080496474.4</v>
+      </c>
+      <c r="V95">
+        <v>38840054543.8</v>
+      </c>
+      <c r="W95">
+        <v>87346175081</v>
+      </c>
+      <c r="X95">
+        <v>5724198.3</v>
+      </c>
+      <c r="Y95">
+        <v>2669761.2</v>
+      </c>
+      <c r="Z95">
+        <v>2565941.3</v>
+      </c>
+      <c r="AA95">
+        <v>103819.8</v>
+      </c>
+      <c r="AB95">
+        <v>2240441930.6</v>
+      </c>
+      <c r="AC95">
+        <v>5.1</v>
+      </c>
     </row>
     <row r="96">
       <c r="A96">
@@ -5201,6 +8906,45 @@
       <c r="P96">
         <v>15389967600</v>
       </c>
+      <c r="Q96">
+        <v>3623243742000</v>
+      </c>
+      <c r="R96">
+        <v>3607853774400</v>
+      </c>
+      <c r="S96">
+        <v>238228600</v>
+      </c>
+      <c r="T96">
+        <v>239458000</v>
+      </c>
+      <c r="U96">
+        <v>41080496474.4</v>
+      </c>
+      <c r="V96">
+        <v>38840054543.8</v>
+      </c>
+      <c r="W96">
+        <v>87346175081</v>
+      </c>
+      <c r="X96">
+        <v>5724198.3</v>
+      </c>
+      <c r="Y96">
+        <v>2669761.2</v>
+      </c>
+      <c r="Z96">
+        <v>2565941.3</v>
+      </c>
+      <c r="AA96">
+        <v>103819.8</v>
+      </c>
+      <c r="AB96">
+        <v>2240441930.6</v>
+      </c>
+      <c r="AC96">
+        <v>3.1</v>
+      </c>
     </row>
     <row r="97">
       <c r="A97">
@@ -5251,6 +8995,45 @@
       <c r="P97">
         <v>87938942200</v>
       </c>
+      <c r="Q97">
+        <v>3719926073100</v>
+      </c>
+      <c r="R97">
+        <v>3631987130900</v>
+      </c>
+      <c r="S97">
+        <v>243394100</v>
+      </c>
+      <c r="T97">
+        <v>241192100</v>
+      </c>
+      <c r="U97">
+        <v>41080496474.4</v>
+      </c>
+      <c r="V97">
+        <v>38840054543.8</v>
+      </c>
+      <c r="W97">
+        <v>87346175081</v>
+      </c>
+      <c r="X97">
+        <v>5724198.3</v>
+      </c>
+      <c r="Y97">
+        <v>2669761.2</v>
+      </c>
+      <c r="Z97">
+        <v>2565941.3</v>
+      </c>
+      <c r="AA97">
+        <v>103819.8</v>
+      </c>
+      <c r="AB97">
+        <v>2240441930.6</v>
+      </c>
+      <c r="AC97">
+        <v>32.4</v>
+      </c>
     </row>
     <row r="98">
       <c r="A98">
@@ -5301,6 +9084,45 @@
       <c r="P98">
         <v>107221768200</v>
       </c>
+      <c r="Q98">
+        <v>3761420514300</v>
+      </c>
+      <c r="R98">
+        <v>3654198746100</v>
+      </c>
+      <c r="S98">
+        <v>247044900</v>
+      </c>
+      <c r="T98">
+        <v>242689900</v>
+      </c>
+      <c r="U98">
+        <v>41080496474.4</v>
+      </c>
+      <c r="V98">
+        <v>38840054543.8</v>
+      </c>
+      <c r="W98">
+        <v>87346175081</v>
+      </c>
+      <c r="X98">
+        <v>5724198.3</v>
+      </c>
+      <c r="Y98">
+        <v>2669761.2</v>
+      </c>
+      <c r="Z98">
+        <v>2565941.3</v>
+      </c>
+      <c r="AA98">
+        <v>103819.8</v>
+      </c>
+      <c r="AB98">
+        <v>2240441930.6</v>
+      </c>
+      <c r="AC98">
+        <v>8.6</v>
+      </c>
     </row>
     <row r="99">
       <c r="A99">
@@ -5351,6 +9173,45 @@
       <c r="P99">
         <v>110483801000</v>
       </c>
+      <c r="Q99">
+        <v>3796781346500</v>
+      </c>
+      <c r="R99">
+        <v>3686297545500</v>
+      </c>
+      <c r="S99">
+        <v>249165100</v>
+      </c>
+      <c r="T99">
+        <v>245116700</v>
+      </c>
+      <c r="U99">
+        <v>41080496474.4</v>
+      </c>
+      <c r="V99">
+        <v>38840054543.8</v>
+      </c>
+      <c r="W99">
+        <v>87346175081</v>
+      </c>
+      <c r="X99">
+        <v>5724198.3</v>
+      </c>
+      <c r="Y99">
+        <v>2669761.2</v>
+      </c>
+      <c r="Z99">
+        <v>2565941.3</v>
+      </c>
+      <c r="AA99">
+        <v>103819.8</v>
+      </c>
+      <c r="AB99">
+        <v>2240441930.6</v>
+      </c>
+      <c r="AC99">
+        <v>1.5</v>
+      </c>
     </row>
     <row r="100">
       <c r="A100">
@@ -5401,6 +9262,45 @@
       <c r="P100">
         <v>73919249700</v>
       </c>
+      <c r="Q100">
+        <v>3814802974700</v>
+      </c>
+      <c r="R100">
+        <v>3740883725000</v>
+      </c>
+      <c r="S100">
+        <v>250401400</v>
+      </c>
+      <c r="T100">
+        <v>248445400</v>
+      </c>
+      <c r="U100">
+        <v>41080496474.4</v>
+      </c>
+      <c r="V100">
+        <v>38840054543.8</v>
+      </c>
+      <c r="W100">
+        <v>87346175081</v>
+      </c>
+      <c r="X100">
+        <v>5724198.3</v>
+      </c>
+      <c r="Y100">
+        <v>2669761.2</v>
+      </c>
+      <c r="Z100">
+        <v>2565941.3</v>
+      </c>
+      <c r="AA100">
+        <v>103819.8</v>
+      </c>
+      <c r="AB100">
+        <v>2240441930.6</v>
+      </c>
+      <c r="AC100">
+        <v>16.3</v>
+      </c>
     </row>
     <row r="101">
       <c r="A101">
@@ -5451,6 +9351,45 @@
       <c r="P101">
         <v>26509826400</v>
       </c>
+      <c r="Q101">
+        <v>3833076721600</v>
+      </c>
+      <c r="R101">
+        <v>3806566895200</v>
+      </c>
+      <c r="S101">
+        <v>251478100</v>
+      </c>
+      <c r="T101">
+        <v>252623700</v>
+      </c>
+      <c r="U101">
+        <v>41080496474.4</v>
+      </c>
+      <c r="V101">
+        <v>38840054543.8</v>
+      </c>
+      <c r="W101">
+        <v>87346175081</v>
+      </c>
+      <c r="X101">
+        <v>5724198.3</v>
+      </c>
+      <c r="Y101">
+        <v>2669761.2</v>
+      </c>
+      <c r="Z101">
+        <v>2565941.3</v>
+      </c>
+      <c r="AA101">
+        <v>103819.8</v>
+      </c>
+      <c r="AB101">
+        <v>2240441930.6</v>
+      </c>
+      <c r="AC101">
+        <v>21.2</v>
+      </c>
     </row>
     <row r="102">
       <c r="A102">
@@ -5501,6 +9440,45 @@
       <c r="P102">
         <v>11841423000</v>
       </c>
+      <c r="Q102">
+        <v>3854132153300</v>
+      </c>
+      <c r="R102">
+        <v>3842290730300</v>
+      </c>
+      <c r="S102">
+        <v>252731700</v>
+      </c>
+      <c r="T102">
+        <v>254832500</v>
+      </c>
+      <c r="U102">
+        <v>41080496474.4</v>
+      </c>
+      <c r="V102">
+        <v>38840054543.8</v>
+      </c>
+      <c r="W102">
+        <v>87346175081</v>
+      </c>
+      <c r="X102">
+        <v>5724198.3</v>
+      </c>
+      <c r="Y102">
+        <v>2669761.2</v>
+      </c>
+      <c r="Z102">
+        <v>2565941.3</v>
+      </c>
+      <c r="AA102">
+        <v>103819.8</v>
+      </c>
+      <c r="AB102">
+        <v>2240441930.6</v>
+      </c>
+      <c r="AC102">
+        <v>6.5</v>
+      </c>
     </row>
     <row r="103">
       <c r="A103">
@@ -5551,6 +9529,45 @@
       <c r="P103">
         <v>-45523646400</v>
       </c>
+      <c r="Q103">
+        <v>3881606180700</v>
+      </c>
+      <c r="R103">
+        <v>3927129827100</v>
+      </c>
+      <c r="S103">
+        <v>254297900</v>
+      </c>
+      <c r="T103">
+        <v>260109300</v>
+      </c>
+      <c r="U103">
+        <v>41080496474.4</v>
+      </c>
+      <c r="V103">
+        <v>38840054543.8</v>
+      </c>
+      <c r="W103">
+        <v>87346175081</v>
+      </c>
+      <c r="X103">
+        <v>5724198.3</v>
+      </c>
+      <c r="Y103">
+        <v>2669761.2</v>
+      </c>
+      <c r="Z103">
+        <v>2565941.3</v>
+      </c>
+      <c r="AA103">
+        <v>103819.8</v>
+      </c>
+      <c r="AB103">
+        <v>2240441930.6</v>
+      </c>
+      <c r="AC103">
+        <v>25.6</v>
+      </c>
     </row>
     <row r="104">
       <c r="A104">
@@ -5601,6 +9618,45 @@
       <c r="P104">
         <v>-81289184300</v>
       </c>
+      <c r="Q104">
+        <v>3902474923700</v>
+      </c>
+      <c r="R104">
+        <v>3983764108000</v>
+      </c>
+      <c r="S104">
+        <v>255681300</v>
+      </c>
+      <c r="T104">
+        <v>263758400</v>
+      </c>
+      <c r="U104">
+        <v>41080496474.4</v>
+      </c>
+      <c r="V104">
+        <v>38840054543.8</v>
+      </c>
+      <c r="W104">
+        <v>87346175081</v>
+      </c>
+      <c r="X104">
+        <v>5724198.3</v>
+      </c>
+      <c r="Y104">
+        <v>2669761.2</v>
+      </c>
+      <c r="Z104">
+        <v>2565941.3</v>
+      </c>
+      <c r="AA104">
+        <v>103819.8</v>
+      </c>
+      <c r="AB104">
+        <v>2240441930.6</v>
+      </c>
+      <c r="AC104">
+        <v>16</v>
+      </c>
     </row>
     <row r="105">
       <c r="A105">
@@ -5651,6 +9707,45 @@
       <c r="P105">
         <v>-102449369000</v>
       </c>
+      <c r="Q105">
+        <v>3938793751800</v>
+      </c>
+      <c r="R105">
+        <v>4041243120800</v>
+      </c>
+      <c r="S105">
+        <v>257799400</v>
+      </c>
+      <c r="T105">
+        <v>267393600</v>
+      </c>
+      <c r="U105">
+        <v>41080496474.4</v>
+      </c>
+      <c r="V105">
+        <v>38840054543.8</v>
+      </c>
+      <c r="W105">
+        <v>87346175081</v>
+      </c>
+      <c r="X105">
+        <v>5724198.3</v>
+      </c>
+      <c r="Y105">
+        <v>2669761.2</v>
+      </c>
+      <c r="Z105">
+        <v>2565941.3</v>
+      </c>
+      <c r="AA105">
+        <v>103819.8</v>
+      </c>
+      <c r="AB105">
+        <v>2240441930.6</v>
+      </c>
+      <c r="AC105">
+        <v>9.4</v>
+      </c>
     </row>
     <row r="106">
       <c r="A106">
@@ -5701,6 +9796,45 @@
       <c r="P106">
         <v>-77109098600</v>
       </c>
+      <c r="Q106">
+        <v>3996338876000</v>
+      </c>
+      <c r="R106">
+        <v>4073447974600</v>
+      </c>
+      <c r="S106">
+        <v>261475700</v>
+      </c>
+      <c r="T106">
+        <v>269742400</v>
+      </c>
+      <c r="U106">
+        <v>41080496474.4</v>
+      </c>
+      <c r="V106">
+        <v>38840054543.8</v>
+      </c>
+      <c r="W106">
+        <v>87346175081</v>
+      </c>
+      <c r="X106">
+        <v>5724198.3</v>
+      </c>
+      <c r="Y106">
+        <v>2669761.2</v>
+      </c>
+      <c r="Z106">
+        <v>2565941.3</v>
+      </c>
+      <c r="AA106">
+        <v>103819.8</v>
+      </c>
+      <c r="AB106">
+        <v>2240441930.6</v>
+      </c>
+      <c r="AC106">
+        <v>11.3</v>
+      </c>
     </row>
     <row r="107">
       <c r="A107">
@@ -5751,6 +9885,45 @@
       <c r="P107">
         <v>7208390600</v>
       </c>
+      <c r="Q107">
+        <v>4107753194800</v>
+      </c>
+      <c r="R107">
+        <v>4100544804200</v>
+      </c>
+      <c r="S107">
+        <v>269960200</v>
+      </c>
+      <c r="T107">
+        <v>271340400</v>
+      </c>
+      <c r="U107">
+        <v>41080496474.4</v>
+      </c>
+      <c r="V107">
+        <v>38840054543.8</v>
+      </c>
+      <c r="W107">
+        <v>87346175081</v>
+      </c>
+      <c r="X107">
+        <v>5724198.3</v>
+      </c>
+      <c r="Y107">
+        <v>2669761.2</v>
+      </c>
+      <c r="Z107">
+        <v>2565941.3</v>
+      </c>
+      <c r="AA107">
+        <v>103819.8</v>
+      </c>
+      <c r="AB107">
+        <v>2240441930.6</v>
+      </c>
+      <c r="AC107">
+        <v>37.6</v>
+      </c>
     </row>
     <row r="108">
       <c r="A108">
@@ -5801,6 +9974,45 @@
       <c r="P108">
         <v>125326639300</v>
       </c>
+      <c r="Q108">
+        <v>4262222670000</v>
+      </c>
+      <c r="R108">
+        <v>4136896030700</v>
+      </c>
+      <c r="S108">
+        <v>280580700</v>
+      </c>
+      <c r="T108">
+        <v>273669300</v>
+      </c>
+      <c r="U108">
+        <v>41080496474.4</v>
+      </c>
+      <c r="V108">
+        <v>38840054543.8</v>
+      </c>
+      <c r="W108">
+        <v>87346175081</v>
+      </c>
+      <c r="X108">
+        <v>5724198.3</v>
+      </c>
+      <c r="Y108">
+        <v>2669761.2</v>
+      </c>
+      <c r="Z108">
+        <v>2565941.3</v>
+      </c>
+      <c r="AA108">
+        <v>103819.8</v>
+      </c>
+      <c r="AB108">
+        <v>2240441930.6</v>
+      </c>
+      <c r="AC108">
+        <v>52.7</v>
+      </c>
     </row>
     <row r="109">
       <c r="A109">
@@ -5851,6 +10063,45 @@
       <c r="P109">
         <v>160503709700</v>
       </c>
+      <c r="Q109">
+        <v>4331834420000</v>
+      </c>
+      <c r="R109">
+        <v>4171330710300</v>
+      </c>
+      <c r="S109">
+        <v>285396200</v>
+      </c>
+      <c r="T109">
+        <v>276069900</v>
+      </c>
+      <c r="U109">
+        <v>41080496474.4</v>
+      </c>
+      <c r="V109">
+        <v>38840054543.8</v>
+      </c>
+      <c r="W109">
+        <v>87346175081</v>
+      </c>
+      <c r="X109">
+        <v>5724198.3</v>
+      </c>
+      <c r="Y109">
+        <v>2669761.2</v>
+      </c>
+      <c r="Z109">
+        <v>2565941.3</v>
+      </c>
+      <c r="AA109">
+        <v>103819.8</v>
+      </c>
+      <c r="AB109">
+        <v>2240441930.6</v>
+      </c>
+      <c r="AC109">
+        <v>15.7</v>
+      </c>
     </row>
     <row r="110">
       <c r="A110">
@@ -5901,6 +10152,45 @@
       <c r="P110">
         <v>159420940200</v>
       </c>
+      <c r="Q110">
+        <v>4380349913200</v>
+      </c>
+      <c r="R110">
+        <v>4220928973000</v>
+      </c>
+      <c r="S110">
+        <v>288661200</v>
+      </c>
+      <c r="T110">
+        <v>279545600</v>
+      </c>
+      <c r="U110">
+        <v>41080496474.4</v>
+      </c>
+      <c r="V110">
+        <v>38840054543.8</v>
+      </c>
+      <c r="W110">
+        <v>87346175081</v>
+      </c>
+      <c r="X110">
+        <v>5724198.3</v>
+      </c>
+      <c r="Y110">
+        <v>2669761.2</v>
+      </c>
+      <c r="Z110">
+        <v>2565941.3</v>
+      </c>
+      <c r="AA110">
+        <v>103819.8</v>
+      </c>
+      <c r="AB110">
+        <v>2240441930.6</v>
+      </c>
+      <c r="AC110">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="111">
       <c r="A111">
@@ -5951,6 +10241,45 @@
       <c r="P111">
         <v>127192090700</v>
       </c>
+      <c r="Q111">
+        <v>4405339289200</v>
+      </c>
+      <c r="R111">
+        <v>4278147198500</v>
+      </c>
+      <c r="S111">
+        <v>290235300</v>
+      </c>
+      <c r="T111">
+        <v>282987100</v>
+      </c>
+      <c r="U111">
+        <v>41080496474.4</v>
+      </c>
+      <c r="V111">
+        <v>38840054543.8</v>
+      </c>
+      <c r="W111">
+        <v>87346175081</v>
+      </c>
+      <c r="X111">
+        <v>5724198.3</v>
+      </c>
+      <c r="Y111">
+        <v>2669761.2</v>
+      </c>
+      <c r="Z111">
+        <v>2565941.3</v>
+      </c>
+      <c r="AA111">
+        <v>103819.8</v>
+      </c>
+      <c r="AB111">
+        <v>2240441930.6</v>
+      </c>
+      <c r="AC111">
+        <v>14.4</v>
+      </c>
     </row>
     <row r="112">
       <c r="A112">
@@ -6001,6 +10330,45 @@
       <c r="P112">
         <v>67375865700</v>
       </c>
+      <c r="Q112">
+        <v>4426272955600</v>
+      </c>
+      <c r="R112">
+        <v>4358897089900</v>
+      </c>
+      <c r="S112">
+        <v>291431500</v>
+      </c>
+      <c r="T112">
+        <v>288278100</v>
+      </c>
+      <c r="U112">
+        <v>41080496474.4</v>
+      </c>
+      <c r="V112">
+        <v>38840054543.8</v>
+      </c>
+      <c r="W112">
+        <v>87346175081</v>
+      </c>
+      <c r="X112">
+        <v>5724198.3</v>
+      </c>
+      <c r="Y112">
+        <v>2669761.2</v>
+      </c>
+      <c r="Z112">
+        <v>2565941.3</v>
+      </c>
+      <c r="AA112">
+        <v>103819.8</v>
+      </c>
+      <c r="AB112">
+        <v>2240441930.6</v>
+      </c>
+      <c r="AC112">
+        <v>26.7</v>
+      </c>
     </row>
     <row r="113">
       <c r="A113">
@@ -6051,6 +10419,45 @@
       <c r="P113">
         <v>43366098300</v>
       </c>
+      <c r="Q113">
+        <v>4456478730000</v>
+      </c>
+      <c r="R113">
+        <v>4413112631700</v>
+      </c>
+      <c r="S113">
+        <v>293324000</v>
+      </c>
+      <c r="T113">
+        <v>292238700</v>
+      </c>
+      <c r="U113">
+        <v>41080496474.4</v>
+      </c>
+      <c r="V113">
+        <v>38840054543.8</v>
+      </c>
+      <c r="W113">
+        <v>87346175081</v>
+      </c>
+      <c r="X113">
+        <v>5724198.3</v>
+      </c>
+      <c r="Y113">
+        <v>2669761.2</v>
+      </c>
+      <c r="Z113">
+        <v>2565941.3</v>
+      </c>
+      <c r="AA113">
+        <v>103819.8</v>
+      </c>
+      <c r="AB113">
+        <v>2240441930.6</v>
+      </c>
+      <c r="AC113">
+        <v>10.7</v>
+      </c>
     </row>
     <row r="114">
       <c r="A114">
@@ -6101,6 +10508,45 @@
       <c r="P114">
         <v>49766825200</v>
       </c>
+      <c r="Q114">
+        <v>4502898791100</v>
+      </c>
+      <c r="R114">
+        <v>4453131965900</v>
+      </c>
+      <c r="S114">
+        <v>296375600</v>
+      </c>
+      <c r="T114">
+        <v>294951000</v>
+      </c>
+      <c r="U114">
+        <v>41080496474.4</v>
+      </c>
+      <c r="V114">
+        <v>38840054543.8</v>
+      </c>
+      <c r="W114">
+        <v>87346175081</v>
+      </c>
+      <c r="X114">
+        <v>5724198.3</v>
+      </c>
+      <c r="Y114">
+        <v>2669761.2</v>
+      </c>
+      <c r="Z114">
+        <v>2565941.3</v>
+      </c>
+      <c r="AA114">
+        <v>103819.8</v>
+      </c>
+      <c r="AB114">
+        <v>2240441930.6</v>
+      </c>
+      <c r="AC114">
+        <v>2.9</v>
+      </c>
     </row>
     <row r="115">
       <c r="A115">
@@ -6151,6 +10597,45 @@
       <c r="P115">
         <v>144196381600</v>
       </c>
+      <c r="Q115">
+        <v>4625879561000</v>
+      </c>
+      <c r="R115">
+        <v>4481683179400</v>
+      </c>
+      <c r="S115">
+        <v>302714300</v>
+      </c>
+      <c r="T115">
+        <v>296780300</v>
+      </c>
+      <c r="U115">
+        <v>41080496474.4</v>
+      </c>
+      <c r="V115">
+        <v>38840054543.8</v>
+      </c>
+      <c r="W115">
+        <v>87346175081</v>
+      </c>
+      <c r="X115">
+        <v>5724198.3</v>
+      </c>
+      <c r="Y115">
+        <v>2669761.2</v>
+      </c>
+      <c r="Z115">
+        <v>2565941.3</v>
+      </c>
+      <c r="AA115">
+        <v>103819.8</v>
+      </c>
+      <c r="AB115">
+        <v>2240441930.6</v>
+      </c>
+      <c r="AC115">
+        <v>42.1</v>
+      </c>
     </row>
     <row r="116">
       <c r="A116">
@@ -6201,6 +10686,45 @@
       <c r="P116">
         <v>186435710500</v>
       </c>
+      <c r="Q116">
+        <v>4707131942200</v>
+      </c>
+      <c r="R116">
+        <v>4520696231700</v>
+      </c>
+      <c r="S116">
+        <v>307823700</v>
+      </c>
+      <c r="T116">
+        <v>299413600</v>
+      </c>
+      <c r="U116">
+        <v>41080496474.4</v>
+      </c>
+      <c r="V116">
+        <v>38840054543.8</v>
+      </c>
+      <c r="W116">
+        <v>87346175081</v>
+      </c>
+      <c r="X116">
+        <v>5724198.3</v>
+      </c>
+      <c r="Y116">
+        <v>2669761.2</v>
+      </c>
+      <c r="Z116">
+        <v>2565941.3</v>
+      </c>
+      <c r="AA116">
+        <v>103819.8</v>
+      </c>
+      <c r="AB116">
+        <v>2240441930.6</v>
+      </c>
+      <c r="AC116">
+        <v>18.9</v>
+      </c>
     </row>
     <row r="117">
       <c r="A117">
@@ -6251,6 +10775,45 @@
       <c r="P117">
         <v>194138024400</v>
       </c>
+      <c r="Q117">
+        <v>4766218328200</v>
+      </c>
+      <c r="R117">
+        <v>4572080303800</v>
+      </c>
+      <c r="S117">
+        <v>311376000</v>
+      </c>
+      <c r="T117">
+        <v>302658000</v>
+      </c>
+      <c r="U117">
+        <v>41080496474.4</v>
+      </c>
+      <c r="V117">
+        <v>38840054543.8</v>
+      </c>
+      <c r="W117">
+        <v>87346175081</v>
+      </c>
+      <c r="X117">
+        <v>5724198.3</v>
+      </c>
+      <c r="Y117">
+        <v>2669761.2</v>
+      </c>
+      <c r="Z117">
+        <v>2565941.3</v>
+      </c>
+      <c r="AA117">
+        <v>103819.8</v>
+      </c>
+      <c r="AB117">
+        <v>2240441930.6</v>
+      </c>
+      <c r="AC117">
+        <v>3.4</v>
+      </c>
     </row>
     <row r="118">
       <c r="A118">
@@ -6301,6 +10864,45 @@
       <c r="P118">
         <v>264849319900</v>
       </c>
+      <c r="Q118">
+        <v>4903419260500</v>
+      </c>
+      <c r="R118">
+        <v>4638569940600</v>
+      </c>
+      <c r="S118">
+        <v>319292600</v>
+      </c>
+      <c r="T118">
+        <v>307638700</v>
+      </c>
+      <c r="U118">
+        <v>41080496474.4</v>
+      </c>
+      <c r="V118">
+        <v>38840054543.8</v>
+      </c>
+      <c r="W118">
+        <v>87346175081</v>
+      </c>
+      <c r="X118">
+        <v>5724198.3</v>
+      </c>
+      <c r="Y118">
+        <v>2669761.2</v>
+      </c>
+      <c r="Z118">
+        <v>2565941.3</v>
+      </c>
+      <c r="AA118">
+        <v>103819.8</v>
+      </c>
+      <c r="AB118">
+        <v>2240441930.6</v>
+      </c>
+      <c r="AC118">
+        <v>31.6</v>
+      </c>
     </row>
     <row r="119">
       <c r="A119">
@@ -6351,6 +10953,45 @@
       <c r="P119">
         <v>265132731400</v>
       </c>
+      <c r="Q119">
+        <v>4903933489600</v>
+      </c>
+      <c r="R119">
+        <v>4638800758200</v>
+      </c>
+      <c r="S119">
+        <v>319312300</v>
+      </c>
+      <c r="T119">
+        <v>307652400</v>
+      </c>
+      <c r="U119">
+        <v>41080496474.4</v>
+      </c>
+      <c r="V119">
+        <v>38840054543.8</v>
+      </c>
+      <c r="W119">
+        <v>87346175081</v>
+      </c>
+      <c r="X119">
+        <v>5724198.3</v>
+      </c>
+      <c r="Y119">
+        <v>2669761.2</v>
+      </c>
+      <c r="Z119">
+        <v>2565941.3</v>
+      </c>
+      <c r="AA119">
+        <v>103819.8</v>
+      </c>
+      <c r="AB119">
+        <v>2240441930.6</v>
+      </c>
+      <c r="AC119">
+        <v>0.1</v>
+      </c>
     </row>
     <row r="120">
       <c r="A120">
@@ -6401,6 +11042,45 @@
       <c r="P120">
         <v>271093367600</v>
       </c>
+      <c r="Q120">
+        <v>4970739961400</v>
+      </c>
+      <c r="R120">
+        <v>4699646593800</v>
+      </c>
+      <c r="S120">
+        <v>323029900</v>
+      </c>
+      <c r="T120">
+        <v>310478300</v>
+      </c>
+      <c r="U120">
+        <v>41080496474.4</v>
+      </c>
+      <c r="V120">
+        <v>38840054543.8</v>
+      </c>
+      <c r="W120">
+        <v>87346175081</v>
+      </c>
+      <c r="X120">
+        <v>5724198.3</v>
+      </c>
+      <c r="Y120">
+        <v>2669761.2</v>
+      </c>
+      <c r="Z120">
+        <v>2565941.3</v>
+      </c>
+      <c r="AA120">
+        <v>103819.8</v>
+      </c>
+      <c r="AB120">
+        <v>2240441930.6</v>
+      </c>
+      <c r="AC120">
+        <v>2.7</v>
+      </c>
     </row>
     <row r="121">
       <c r="A121">
@@ -6451,6 +11131,45 @@
       <c r="P121">
         <v>271093479600</v>
       </c>
+      <c r="Q121">
+        <v>4970740073400</v>
+      </c>
+      <c r="R121">
+        <v>4699646593800</v>
+      </c>
+      <c r="S121">
+        <v>323041100</v>
+      </c>
+      <c r="T121">
+        <v>310478300</v>
+      </c>
+      <c r="U121">
+        <v>41080496474.4</v>
+      </c>
+      <c r="V121">
+        <v>38840054543.8</v>
+      </c>
+      <c r="W121">
+        <v>87346175081</v>
+      </c>
+      <c r="X121">
+        <v>5724198.3</v>
+      </c>
+      <c r="Y121">
+        <v>2669761.2</v>
+      </c>
+      <c r="Z121">
+        <v>2565941.3</v>
+      </c>
+      <c r="AA121">
+        <v>103819.8</v>
+      </c>
+      <c r="AB121">
+        <v>2240441930.6</v>
+      </c>
+      <c r="AC121">
+        <v>0</v>
+      </c>
     </row>
     <row r="122">
       <c r="A122">
@@ -6501,10 +11220,49 @@
       <c r="P122">
         <v>271093473600</v>
       </c>
+      <c r="Q122">
+        <v>4970740073400</v>
+      </c>
+      <c r="R122">
+        <v>4699646599800</v>
+      </c>
+      <c r="S122">
+        <v>323041100</v>
+      </c>
+      <c r="T122">
+        <v>310478900</v>
+      </c>
+      <c r="U122">
+        <v>41080496474.4</v>
+      </c>
+      <c r="V122">
+        <v>38840054543.8</v>
+      </c>
+      <c r="W122">
+        <v>87346175081</v>
+      </c>
+      <c r="X122">
+        <v>5724198.3</v>
+      </c>
+      <c r="Y122">
+        <v>2669761.2</v>
+      </c>
+      <c r="Z122">
+        <v>2565941.3</v>
+      </c>
+      <c r="AA122">
+        <v>103819.8</v>
+      </c>
+      <c r="AB122">
+        <v>2240441930.6</v>
+      </c>
+      <c r="AC122">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:P122"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:AC122"/>
   </ignoredErrors>
 </worksheet>
 </file>